--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>TEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>877800</v>
+        <v>918800</v>
       </c>
       <c r="E8" s="3">
-        <v>1762000</v>
+        <v>1132000</v>
       </c>
       <c r="F8" s="3">
-        <v>802100</v>
+        <v>777500</v>
       </c>
       <c r="G8" s="3">
-        <v>1133200</v>
+        <v>1560500</v>
       </c>
       <c r="H8" s="3">
-        <v>949500</v>
+        <v>962400</v>
       </c>
       <c r="I8" s="3">
+        <v>1180300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>841000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1991100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>881600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>412800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>384000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>363400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>385900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>378900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>351500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>232300</v>
+        <v>231900</v>
       </c>
       <c r="E9" s="3">
-        <v>459000</v>
+        <v>306800</v>
       </c>
       <c r="F9" s="3">
-        <v>208800</v>
+        <v>205800</v>
       </c>
       <c r="G9" s="3">
-        <v>293000</v>
+        <v>406600</v>
       </c>
       <c r="H9" s="3">
-        <v>252000</v>
+        <v>250500</v>
       </c>
       <c r="I9" s="3">
+        <v>310700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>223200</v>
+      </c>
+      <c r="K9" s="3">
         <v>441500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>156600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>70700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>65400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>58000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>58300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>65600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>645500</v>
+        <v>687000</v>
       </c>
       <c r="E10" s="3">
-        <v>1302900</v>
+        <v>825300</v>
       </c>
       <c r="F10" s="3">
-        <v>593300</v>
+        <v>571700</v>
       </c>
       <c r="G10" s="3">
-        <v>840200</v>
+        <v>1154000</v>
       </c>
       <c r="H10" s="3">
-        <v>697600</v>
+        <v>711900</v>
       </c>
       <c r="I10" s="3">
+        <v>869600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>617800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1549600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>725000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>342100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>318700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>305400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>327600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>313200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>285900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6000</v>
+        <v>800</v>
       </c>
       <c r="E14" s="3">
-        <v>8100</v>
+        <v>6300</v>
       </c>
       <c r="F14" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="G14" s="3">
-        <v>31300</v>
+        <v>7200</v>
       </c>
       <c r="H14" s="3">
-        <v>7400</v>
+        <v>6100</v>
       </c>
       <c r="I14" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K14" s="3">
         <v>73400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>59000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>10400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>3100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>5900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>225000</v>
+        <v>237000</v>
       </c>
       <c r="E15" s="3">
-        <v>416400</v>
+        <v>291700</v>
       </c>
       <c r="F15" s="3">
-        <v>179500</v>
+        <v>199200</v>
       </c>
       <c r="G15" s="3">
-        <v>298200</v>
+        <v>368800</v>
       </c>
       <c r="H15" s="3">
-        <v>198500</v>
+        <v>215400</v>
       </c>
       <c r="I15" s="3">
+        <v>255400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>175800</v>
+      </c>
+      <c r="K15" s="3">
         <v>352800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>151900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>41200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>39900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>39400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>43800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>44800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>813900</v>
+        <v>834400</v>
       </c>
       <c r="E17" s="3">
-        <v>1588000</v>
+        <v>1111600</v>
       </c>
       <c r="F17" s="3">
-        <v>720700</v>
+        <v>720800</v>
       </c>
       <c r="G17" s="3">
-        <v>1111500</v>
+        <v>1406400</v>
       </c>
       <c r="H17" s="3">
-        <v>837100</v>
+        <v>864800</v>
       </c>
       <c r="I17" s="3">
+        <v>1116400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>741400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1635100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>701800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>341800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>311400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>295500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>310200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>318100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>304300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>64000</v>
+        <v>84400</v>
       </c>
       <c r="E18" s="3">
-        <v>174000</v>
+        <v>20400</v>
       </c>
       <c r="F18" s="3">
-        <v>81400</v>
+        <v>56700</v>
       </c>
       <c r="G18" s="3">
-        <v>21700</v>
+        <v>154100</v>
       </c>
       <c r="H18" s="3">
-        <v>112400</v>
+        <v>97600</v>
       </c>
       <c r="I18" s="3">
+        <v>63900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>99600</v>
+      </c>
+      <c r="K18" s="3">
         <v>356000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>179800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>71000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>72700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>67900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>75700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>60700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-288900</v>
+        <v>26000</v>
       </c>
       <c r="E20" s="3">
-        <v>157900</v>
+        <v>192600</v>
       </c>
       <c r="F20" s="3">
-        <v>30900</v>
+        <v>-255900</v>
       </c>
       <c r="G20" s="3">
-        <v>504700</v>
+        <v>139900</v>
       </c>
       <c r="H20" s="3">
-        <v>-458400</v>
+        <v>37100</v>
       </c>
       <c r="I20" s="3">
+        <v>371600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-406000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-322500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>83500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>4400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>10000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-3900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>31700</v>
+        <v>332300</v>
       </c>
       <c r="E21" s="3">
-        <v>680300</v>
+        <v>486000</v>
       </c>
       <c r="F21" s="3">
-        <v>265700</v>
+        <v>28100</v>
       </c>
       <c r="G21" s="3">
-        <v>522300</v>
+        <v>602600</v>
       </c>
       <c r="H21" s="3">
-        <v>-108800</v>
+        <v>336300</v>
       </c>
       <c r="I21" s="3">
+        <v>690000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-96400</v>
+      </c>
+      <c r="K21" s="3">
         <v>346300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>401800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>113500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>117000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>102900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>129500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>101700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44700</v>
+        <v>47000</v>
       </c>
       <c r="E22" s="3">
-        <v>65100</v>
+        <v>60100</v>
       </c>
       <c r="F22" s="3">
-        <v>27100</v>
+        <v>39600</v>
       </c>
       <c r="G22" s="3">
-        <v>33100</v>
+        <v>57700</v>
       </c>
       <c r="H22" s="3">
-        <v>28200</v>
+        <v>32500</v>
       </c>
       <c r="I22" s="3">
+        <v>38400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K22" s="3">
         <v>39100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>13000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>6200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>4400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>6700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>10800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-269600</v>
+        <v>63400</v>
       </c>
       <c r="E23" s="3">
-        <v>266800</v>
+        <v>152900</v>
       </c>
       <c r="F23" s="3">
-        <v>85100</v>
+        <v>-238700</v>
       </c>
       <c r="G23" s="3">
-        <v>493300</v>
+        <v>236300</v>
       </c>
       <c r="H23" s="3">
-        <v>-374200</v>
+        <v>102100</v>
       </c>
       <c r="I23" s="3">
+        <v>397100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-331400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-5600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>250300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>66200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>72300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>59000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>79000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>46000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65400</v>
+        <v>24800</v>
       </c>
       <c r="E24" s="3">
-        <v>141700</v>
+        <v>24000</v>
       </c>
       <c r="F24" s="3">
-        <v>62000</v>
+        <v>58000</v>
       </c>
       <c r="G24" s="3">
-        <v>95300</v>
+        <v>125500</v>
       </c>
       <c r="H24" s="3">
-        <v>-118400</v>
+        <v>74400</v>
       </c>
       <c r="I24" s="3">
+        <v>101400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-104800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-68300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>44000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>19600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>25100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>20700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>27500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>6500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-335000</v>
+        <v>38700</v>
       </c>
       <c r="E26" s="3">
-        <v>125100</v>
+        <v>129000</v>
       </c>
       <c r="F26" s="3">
-        <v>23200</v>
+        <v>-296700</v>
       </c>
       <c r="G26" s="3">
-        <v>398000</v>
+        <v>110800</v>
       </c>
       <c r="H26" s="3">
-        <v>-255900</v>
+        <v>27800</v>
       </c>
       <c r="I26" s="3">
+        <v>295700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-226600</v>
+      </c>
+      <c r="K26" s="3">
         <v>62700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>206300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>46500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>47200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>38400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>51500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>39500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-336600</v>
+        <v>37300</v>
       </c>
       <c r="E27" s="3">
-        <v>122700</v>
+        <v>125100</v>
       </c>
       <c r="F27" s="3">
-        <v>22300</v>
+        <v>-298100</v>
       </c>
       <c r="G27" s="3">
-        <v>394800</v>
+        <v>108700</v>
       </c>
       <c r="H27" s="3">
-        <v>-255800</v>
+        <v>26700</v>
       </c>
       <c r="I27" s="3">
+        <v>291400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-226600</v>
+      </c>
+      <c r="K27" s="3">
         <v>61500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>205800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>45600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>46500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>38100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>51200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>39400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>288900</v>
+        <v>-26000</v>
       </c>
       <c r="E32" s="3">
-        <v>-157900</v>
+        <v>-192600</v>
       </c>
       <c r="F32" s="3">
-        <v>-30900</v>
+        <v>255900</v>
       </c>
       <c r="G32" s="3">
-        <v>-504700</v>
+        <v>-139900</v>
       </c>
       <c r="H32" s="3">
-        <v>458400</v>
+        <v>-37100</v>
       </c>
       <c r="I32" s="3">
+        <v>-371600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>406000</v>
+      </c>
+      <c r="K32" s="3">
         <v>322500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-83500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-4400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-10000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>3900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-336600</v>
+        <v>37300</v>
       </c>
       <c r="E33" s="3">
-        <v>122700</v>
+        <v>125100</v>
       </c>
       <c r="F33" s="3">
-        <v>22300</v>
+        <v>-298100</v>
       </c>
       <c r="G33" s="3">
-        <v>394800</v>
+        <v>108700</v>
       </c>
       <c r="H33" s="3">
-        <v>-255800</v>
+        <v>26700</v>
       </c>
       <c r="I33" s="3">
+        <v>291400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-226600</v>
+      </c>
+      <c r="K33" s="3">
         <v>61500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>205800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>45600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>46500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>38100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>51200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>39400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-336600</v>
+        <v>37300</v>
       </c>
       <c r="E35" s="3">
-        <v>122700</v>
+        <v>125100</v>
       </c>
       <c r="F35" s="3">
-        <v>22300</v>
+        <v>-298100</v>
       </c>
       <c r="G35" s="3">
-        <v>394800</v>
+        <v>108700</v>
       </c>
       <c r="H35" s="3">
-        <v>-255800</v>
+        <v>26700</v>
       </c>
       <c r="I35" s="3">
+        <v>291400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-226600</v>
+      </c>
+      <c r="K35" s="3">
         <v>61500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>205800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>45600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>46500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>38100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>51200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>39400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>620800</v>
+        <v>515400</v>
       </c>
       <c r="E41" s="3">
-        <v>301600</v>
+        <v>374500</v>
       </c>
       <c r="F41" s="3">
-        <v>223700</v>
+        <v>549800</v>
       </c>
       <c r="G41" s="3">
-        <v>239700</v>
+        <v>267100</v>
       </c>
       <c r="H41" s="3">
-        <v>161000</v>
+        <v>198100</v>
       </c>
       <c r="I41" s="3">
+        <v>228600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K41" s="3">
         <v>115000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>129700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>64900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>142200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>80100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>41500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>103300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>20700</v>
+        <v>11800</v>
       </c>
       <c r="E42" s="3">
-        <v>30700</v>
+        <v>6300</v>
       </c>
       <c r="F42" s="3">
-        <v>30400</v>
+        <v>18300</v>
       </c>
       <c r="G42" s="3">
-        <v>31200</v>
+        <v>27200</v>
       </c>
       <c r="H42" s="3">
-        <v>109300</v>
+        <v>27000</v>
       </c>
       <c r="I42" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>96800</v>
+      </c>
+      <c r="K42" s="3">
         <v>71200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>50600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>78600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>44500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>37200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>112600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>45800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>342000</v>
+        <v>333100</v>
       </c>
       <c r="E43" s="3">
-        <v>301000</v>
+        <v>298400</v>
       </c>
       <c r="F43" s="3">
-        <v>320200</v>
+        <v>302900</v>
       </c>
       <c r="G43" s="3">
-        <v>479200</v>
+        <v>266600</v>
       </c>
       <c r="H43" s="3">
-        <v>284000</v>
+        <v>283600</v>
       </c>
       <c r="I43" s="3">
+        <v>474100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>251500</v>
+      </c>
+      <c r="K43" s="3">
         <v>241900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>201100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>219600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>192400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>188200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>221100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>208600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>222000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57200</v>
+        <v>43800</v>
       </c>
       <c r="E44" s="3">
-        <v>53000</v>
+        <v>47000</v>
       </c>
       <c r="F44" s="3">
-        <v>51400</v>
+        <v>50600</v>
       </c>
       <c r="G44" s="3">
-        <v>62300</v>
+        <v>47000</v>
       </c>
       <c r="H44" s="3">
-        <v>46800</v>
+        <v>45500</v>
       </c>
       <c r="I44" s="3">
+        <v>61600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>41400</v>
+      </c>
+      <c r="K44" s="3">
         <v>39300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>33300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>42500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>44800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>28700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>32200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>33500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>24500</v>
+        <v>38600</v>
       </c>
       <c r="E45" s="3">
-        <v>23200</v>
+        <v>17200</v>
       </c>
       <c r="F45" s="3">
-        <v>23900</v>
+        <v>21700</v>
       </c>
       <c r="G45" s="3">
-        <v>33900</v>
+        <v>20500</v>
       </c>
       <c r="H45" s="3">
-        <v>27600</v>
+        <v>21200</v>
       </c>
       <c r="I45" s="3">
+        <v>33400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K45" s="3">
         <v>22200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>22100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>12700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>14900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>16500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>19600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>16200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1065200</v>
+        <v>942800</v>
       </c>
       <c r="E46" s="3">
-        <v>709500</v>
+        <v>743400</v>
       </c>
       <c r="F46" s="3">
-        <v>649700</v>
+        <v>943400</v>
       </c>
       <c r="G46" s="3">
-        <v>762200</v>
+        <v>628400</v>
       </c>
       <c r="H46" s="3">
-        <v>628700</v>
+        <v>575400</v>
       </c>
       <c r="I46" s="3">
+        <v>754200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>556800</v>
+      </c>
+      <c r="K46" s="3">
         <v>489600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>436800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>418400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>438700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>350600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>426900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>407400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>324600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>62300</v>
+        <v>60000</v>
       </c>
       <c r="E47" s="3">
-        <v>95800</v>
+        <v>58000</v>
       </c>
       <c r="F47" s="3">
-        <v>103700</v>
+        <v>55200</v>
       </c>
       <c r="G47" s="3">
-        <v>251700</v>
+        <v>84800</v>
       </c>
       <c r="H47" s="3">
-        <v>108700</v>
+        <v>91900</v>
       </c>
       <c r="I47" s="3">
+        <v>270500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>96200</v>
+      </c>
+      <c r="K47" s="3">
         <v>72800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>54000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>77900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>116300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>102000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>35400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>34100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3559100</v>
+        <v>3957000</v>
       </c>
       <c r="E48" s="3">
-        <v>3068200</v>
+        <v>3739700</v>
       </c>
       <c r="F48" s="3">
-        <v>2771400</v>
+        <v>3272300</v>
       </c>
       <c r="G48" s="3">
-        <v>5908800</v>
+        <v>2818500</v>
       </c>
       <c r="H48" s="3">
-        <v>1611900</v>
+        <v>2538300</v>
       </c>
       <c r="I48" s="3">
+        <v>6428300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1427600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1513900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1432000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>654700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>604100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>567200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>615900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>606500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>575800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4020000</v>
+        <v>4196900</v>
       </c>
       <c r="E49" s="3">
-        <v>3594300</v>
+        <v>3919800</v>
       </c>
       <c r="F49" s="3">
-        <v>3305600</v>
+        <v>3560400</v>
       </c>
       <c r="G49" s="3">
-        <v>5084800</v>
+        <v>3183300</v>
       </c>
       <c r="H49" s="3">
-        <v>1756400</v>
+        <v>2927600</v>
       </c>
       <c r="I49" s="3">
+        <v>5250700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1555500</v>
+      </c>
+      <c r="K49" s="3">
         <v>1751000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1755000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>162800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>165000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>169300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>193400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>198800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>138800</v>
+        <v>5100</v>
       </c>
       <c r="E52" s="3">
-        <v>117400</v>
+        <v>3200</v>
       </c>
       <c r="F52" s="3">
-        <v>100100</v>
+        <v>2800</v>
       </c>
       <c r="G52" s="3">
-        <v>24900</v>
+        <v>2800</v>
       </c>
       <c r="H52" s="3">
-        <v>8500</v>
+        <v>4800</v>
       </c>
       <c r="I52" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K52" s="3">
         <v>12900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>10600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>7200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>7500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>7700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>7600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8845400</v>
+        <v>9161700</v>
       </c>
       <c r="E54" s="3">
-        <v>7585100</v>
+        <v>8464100</v>
       </c>
       <c r="F54" s="3">
-        <v>6930400</v>
+        <v>7834000</v>
       </c>
       <c r="G54" s="3">
-        <v>8461400</v>
+        <v>6717800</v>
       </c>
       <c r="H54" s="3">
-        <v>4114100</v>
+        <v>6138000</v>
       </c>
       <c r="I54" s="3">
+        <v>8372200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3643700</v>
+      </c>
+      <c r="K54" s="3">
         <v>3840200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3688400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1321100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1331300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1196700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1279400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1254400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1125600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>492100</v>
+        <v>451600</v>
       </c>
       <c r="E57" s="3">
-        <v>377200</v>
+        <v>467900</v>
       </c>
       <c r="F57" s="3">
-        <v>351900</v>
+        <v>435800</v>
       </c>
       <c r="G57" s="3">
-        <v>520200</v>
+        <v>334100</v>
       </c>
       <c r="H57" s="3">
-        <v>399300</v>
+        <v>311700</v>
       </c>
       <c r="I57" s="3">
+        <v>514700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>353700</v>
+      </c>
+      <c r="K57" s="3">
         <v>313100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>267300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>263400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>244500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>228600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>236000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>235100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>254700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>405600</v>
+        <v>539100</v>
       </c>
       <c r="E58" s="3">
-        <v>356700</v>
+        <v>410200</v>
       </c>
       <c r="F58" s="3">
-        <v>224500</v>
+        <v>359300</v>
       </c>
       <c r="G58" s="3">
-        <v>372600</v>
+        <v>315900</v>
       </c>
       <c r="H58" s="3">
-        <v>827300</v>
+        <v>198800</v>
       </c>
       <c r="I58" s="3">
+        <v>368600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>732700</v>
+      </c>
+      <c r="K58" s="3">
         <v>554200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>401400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>57000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>33500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>23200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>19000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>81500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>356400</v>
+        <v>354600</v>
       </c>
       <c r="E59" s="3">
-        <v>283100</v>
+        <v>380700</v>
       </c>
       <c r="F59" s="3">
-        <v>317600</v>
+        <v>315700</v>
       </c>
       <c r="G59" s="3">
-        <v>323800</v>
+        <v>250800</v>
       </c>
       <c r="H59" s="3">
-        <v>184700</v>
+        <v>281300</v>
       </c>
       <c r="I59" s="3">
+        <v>320300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>163500</v>
+      </c>
+      <c r="K59" s="3">
         <v>166300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>215400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>184000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>192600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>159200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>163200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>115700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1254200</v>
+        <v>1345200</v>
       </c>
       <c r="E60" s="3">
-        <v>1017100</v>
+        <v>1258800</v>
       </c>
       <c r="F60" s="3">
-        <v>894000</v>
+        <v>1110800</v>
       </c>
       <c r="G60" s="3">
-        <v>1216500</v>
+        <v>900800</v>
       </c>
       <c r="H60" s="3">
-        <v>1411300</v>
+        <v>791800</v>
       </c>
       <c r="I60" s="3">
+        <v>1203700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1249900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1033600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>884200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>504400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>470600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>410900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>418200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>432300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>564500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1969200</v>
+        <v>1900300</v>
       </c>
       <c r="E61" s="3">
-        <v>1255100</v>
+        <v>1762500</v>
       </c>
       <c r="F61" s="3">
-        <v>1230500</v>
+        <v>1744100</v>
       </c>
       <c r="G61" s="3">
-        <v>1349000</v>
+        <v>1111600</v>
       </c>
       <c r="H61" s="3">
-        <v>630600</v>
+        <v>1089800</v>
       </c>
       <c r="I61" s="3">
+        <v>1334800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>558500</v>
+      </c>
+      <c r="K61" s="3">
         <v>470600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>329000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>207400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>206300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>179900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>220400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>226400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>892000</v>
+        <v>1005700</v>
       </c>
       <c r="E62" s="3">
-        <v>722400</v>
+        <v>906700</v>
       </c>
       <c r="F62" s="3">
-        <v>562200</v>
+        <v>790000</v>
       </c>
       <c r="G62" s="3">
-        <v>749600</v>
+        <v>639800</v>
       </c>
       <c r="H62" s="3">
-        <v>238500</v>
+        <v>497900</v>
       </c>
       <c r="I62" s="3">
+        <v>735000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>211300</v>
+      </c>
+      <c r="K62" s="3">
         <v>316300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>338700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>61500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>63700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>63600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>70500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>75400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4187100</v>
+        <v>4324200</v>
       </c>
       <c r="E66" s="3">
-        <v>3051300</v>
+        <v>3997800</v>
       </c>
       <c r="F66" s="3">
-        <v>2745600</v>
+        <v>3708400</v>
       </c>
       <c r="G66" s="3">
-        <v>3324500</v>
+        <v>2702400</v>
       </c>
       <c r="H66" s="3">
-        <v>2328800</v>
+        <v>2431700</v>
       </c>
       <c r="I66" s="3">
+        <v>3289400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2062600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1858700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1585600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>791500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>756400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>669100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>722600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>748200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>776300</v>
+        <v>718400</v>
       </c>
       <c r="E72" s="3">
-        <v>1112300</v>
+        <v>631700</v>
       </c>
       <c r="F72" s="3">
-        <v>1044800</v>
+        <v>687500</v>
       </c>
       <c r="G72" s="3">
-        <v>916100</v>
+        <v>985100</v>
       </c>
       <c r="H72" s="3">
-        <v>-180100</v>
+        <v>925300</v>
       </c>
       <c r="I72" s="3">
+        <v>1248100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-159500</v>
+      </c>
+      <c r="K72" s="3">
         <v>46000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>187300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>224700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>53500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>127500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>275800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>225100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4658300</v>
+        <v>4837500</v>
       </c>
       <c r="E76" s="3">
-        <v>4533800</v>
+        <v>4466300</v>
       </c>
       <c r="F76" s="3">
-        <v>4184900</v>
+        <v>4125600</v>
       </c>
       <c r="G76" s="3">
-        <v>5137000</v>
+        <v>4015400</v>
       </c>
       <c r="H76" s="3">
-        <v>1785200</v>
+        <v>3706400</v>
       </c>
       <c r="I76" s="3">
+        <v>5082800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1581100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1981400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2102800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>529600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>574900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>527600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>556800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>506200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-336600</v>
+        <v>37300</v>
       </c>
       <c r="E81" s="3">
-        <v>122700</v>
+        <v>125100</v>
       </c>
       <c r="F81" s="3">
-        <v>22300</v>
+        <v>-298100</v>
       </c>
       <c r="G81" s="3">
-        <v>394800</v>
+        <v>108700</v>
       </c>
       <c r="H81" s="3">
-        <v>-255800</v>
+        <v>26700</v>
       </c>
       <c r="I81" s="3">
+        <v>291400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-226600</v>
+      </c>
+      <c r="K81" s="3">
         <v>61500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>205800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>45600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>46500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>38100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>51200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>39400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>256600</v>
+        <v>221900</v>
       </c>
       <c r="E83" s="3">
-        <v>348400</v>
+        <v>272900</v>
       </c>
       <c r="F83" s="3">
-        <v>153500</v>
+        <v>227300</v>
       </c>
       <c r="G83" s="3">
-        <v>-4100</v>
+        <v>308600</v>
       </c>
       <c r="H83" s="3">
-        <v>237200</v>
+        <v>201600</v>
       </c>
       <c r="I83" s="3">
+        <v>254400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>210100</v>
+      </c>
+      <c r="K83" s="3">
         <v>312700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>138500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>41200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>39900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>39400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>43800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>44800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>344100</v>
+        <v>236100</v>
       </c>
       <c r="E89" s="3">
-        <v>578100</v>
+        <v>382800</v>
       </c>
       <c r="F89" s="3">
-        <v>239500</v>
+        <v>304700</v>
       </c>
       <c r="G89" s="3">
-        <v>56200</v>
+        <v>512000</v>
       </c>
       <c r="H89" s="3">
-        <v>208600</v>
+        <v>336900</v>
       </c>
       <c r="I89" s="3">
+        <v>185500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>184700</v>
+      </c>
+      <c r="K89" s="3">
         <v>436500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>223700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>86300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>109200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>120200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>145800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>131100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>82400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-167800</v>
+        <v>-160300</v>
       </c>
       <c r="E91" s="3">
-        <v>-347200</v>
+        <v>-263800</v>
       </c>
       <c r="F91" s="3">
-        <v>-128000</v>
+        <v>-148600</v>
       </c>
       <c r="G91" s="3">
-        <v>-293600</v>
+        <v>-307500</v>
       </c>
       <c r="H91" s="3">
-        <v>-153100</v>
+        <v>-113400</v>
       </c>
       <c r="I91" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-135600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-207500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-93200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-66600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-70300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-55000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-68700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-84100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-80400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-127700</v>
+        <v>-169400</v>
       </c>
       <c r="E94" s="3">
-        <v>-332300</v>
+        <v>-248300</v>
       </c>
       <c r="F94" s="3">
-        <v>-113600</v>
+        <v>-113100</v>
       </c>
       <c r="G94" s="3">
-        <v>-215300</v>
+        <v>-294300</v>
       </c>
       <c r="H94" s="3">
-        <v>-155700</v>
+        <v>-100600</v>
       </c>
       <c r="I94" s="3">
+        <v>-190700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-137900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-146100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-40600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-57300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-89000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-63500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-134800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-114300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-80300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-137600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-110600</v>
+        <v>-300300</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-121900</v>
       </c>
       <c r="G96" s="3">
-        <v>-165600</v>
+        <v>-98000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-146600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-395900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-395900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-95800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>44100</v>
+        <v>45900</v>
       </c>
       <c r="E100" s="3">
-        <v>-60000</v>
+        <v>-352600</v>
       </c>
       <c r="F100" s="3">
-        <v>-29900</v>
+        <v>39000</v>
       </c>
       <c r="G100" s="3">
-        <v>-132600</v>
+        <v>-53100</v>
       </c>
       <c r="H100" s="3">
-        <v>-3400</v>
+        <v>-26400</v>
       </c>
       <c r="I100" s="3">
+        <v>-117500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-105200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-61500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-109400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>42500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-15000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-71400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>72500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>41300</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>-23700</v>
+        <v>26600</v>
       </c>
       <c r="F101" s="3">
-        <v>1400</v>
+        <v>36600</v>
       </c>
       <c r="G101" s="3">
-        <v>-6600</v>
+        <v>-21000</v>
       </c>
       <c r="H101" s="3">
-        <v>33200</v>
+        <v>13500</v>
       </c>
       <c r="I101" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K101" s="3">
         <v>36700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>6800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>4400</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>301800</v>
+        <v>111700</v>
       </c>
       <c r="E102" s="3">
-        <v>162100</v>
+        <v>-191500</v>
       </c>
       <c r="F102" s="3">
-        <v>97500</v>
+        <v>267300</v>
       </c>
       <c r="G102" s="3">
-        <v>-88200</v>
+        <v>143600</v>
       </c>
       <c r="H102" s="3">
-        <v>51000</v>
+        <v>128000</v>
       </c>
       <c r="I102" s="3">
+        <v>-75200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K102" s="3">
         <v>43400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>80400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-77200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>62100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>43700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-61800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>93600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>918800</v>
+        <v>851700</v>
       </c>
       <c r="E8" s="3">
-        <v>1132000</v>
+        <v>1049300</v>
       </c>
       <c r="F8" s="3">
-        <v>777500</v>
+        <v>720600</v>
       </c>
       <c r="G8" s="3">
-        <v>1560500</v>
+        <v>1446500</v>
       </c>
       <c r="H8" s="3">
-        <v>962400</v>
+        <v>892000</v>
       </c>
       <c r="I8" s="3">
-        <v>1180300</v>
+        <v>1094000</v>
       </c>
       <c r="J8" s="3">
-        <v>841000</v>
+        <v>779500</v>
       </c>
       <c r="K8" s="3">
         <v>1991100</v>
@@ -794,25 +794,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>231900</v>
+        <v>214900</v>
       </c>
       <c r="E9" s="3">
-        <v>306800</v>
+        <v>284300</v>
       </c>
       <c r="F9" s="3">
-        <v>205800</v>
+        <v>190700</v>
       </c>
       <c r="G9" s="3">
-        <v>406600</v>
+        <v>376800</v>
       </c>
       <c r="H9" s="3">
-        <v>250500</v>
+        <v>232200</v>
       </c>
       <c r="I9" s="3">
-        <v>310700</v>
+        <v>288000</v>
       </c>
       <c r="J9" s="3">
-        <v>223200</v>
+        <v>206800</v>
       </c>
       <c r="K9" s="3">
         <v>441500</v>
@@ -844,25 +844,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>687000</v>
+        <v>636800</v>
       </c>
       <c r="E10" s="3">
-        <v>825300</v>
+        <v>765000</v>
       </c>
       <c r="F10" s="3">
-        <v>571700</v>
+        <v>529900</v>
       </c>
       <c r="G10" s="3">
-        <v>1154000</v>
+        <v>1069600</v>
       </c>
       <c r="H10" s="3">
-        <v>711900</v>
+        <v>659800</v>
       </c>
       <c r="I10" s="3">
-        <v>869600</v>
+        <v>806000</v>
       </c>
       <c r="J10" s="3">
-        <v>617800</v>
+        <v>572700</v>
       </c>
       <c r="K10" s="3">
         <v>1549600</v>
@@ -1014,25 +1014,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E14" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="F14" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="G14" s="3">
-        <v>7200</v>
+        <v>6600</v>
       </c>
       <c r="H14" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>23100</v>
+      </c>
+      <c r="J14" s="3">
         <v>6100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>24900</v>
-      </c>
-      <c r="J14" s="3">
-        <v>6600</v>
       </c>
       <c r="K14" s="3">
         <v>73400</v>
@@ -1064,25 +1064,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>237000</v>
+        <v>219700</v>
       </c>
       <c r="E15" s="3">
-        <v>291700</v>
+        <v>270400</v>
       </c>
       <c r="F15" s="3">
-        <v>199200</v>
+        <v>184700</v>
       </c>
       <c r="G15" s="3">
-        <v>368800</v>
+        <v>341800</v>
       </c>
       <c r="H15" s="3">
-        <v>215400</v>
+        <v>199700</v>
       </c>
       <c r="I15" s="3">
-        <v>255400</v>
+        <v>236800</v>
       </c>
       <c r="J15" s="3">
-        <v>175800</v>
+        <v>163000</v>
       </c>
       <c r="K15" s="3">
         <v>352800</v>
@@ -1131,25 +1131,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>834400</v>
+        <v>773400</v>
       </c>
       <c r="E17" s="3">
-        <v>1111600</v>
+        <v>1030400</v>
       </c>
       <c r="F17" s="3">
-        <v>720800</v>
+        <v>668100</v>
       </c>
       <c r="G17" s="3">
-        <v>1406400</v>
+        <v>1303600</v>
       </c>
       <c r="H17" s="3">
-        <v>864800</v>
+        <v>801600</v>
       </c>
       <c r="I17" s="3">
-        <v>1116400</v>
+        <v>1034800</v>
       </c>
       <c r="J17" s="3">
-        <v>741400</v>
+        <v>687200</v>
       </c>
       <c r="K17" s="3">
         <v>1635100</v>
@@ -1181,25 +1181,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>84400</v>
+        <v>78200</v>
       </c>
       <c r="E18" s="3">
-        <v>20400</v>
+        <v>18900</v>
       </c>
       <c r="F18" s="3">
-        <v>56700</v>
+        <v>52500</v>
       </c>
       <c r="G18" s="3">
-        <v>154100</v>
+        <v>142900</v>
       </c>
       <c r="H18" s="3">
-        <v>97600</v>
+        <v>90500</v>
       </c>
       <c r="I18" s="3">
-        <v>63900</v>
+        <v>59200</v>
       </c>
       <c r="J18" s="3">
-        <v>99600</v>
+        <v>92300</v>
       </c>
       <c r="K18" s="3">
         <v>356000</v>
@@ -1251,25 +1251,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>26000</v>
+        <v>24100</v>
       </c>
       <c r="E20" s="3">
-        <v>192600</v>
+        <v>178500</v>
       </c>
       <c r="F20" s="3">
-        <v>-255900</v>
+        <v>-237200</v>
       </c>
       <c r="G20" s="3">
-        <v>139900</v>
+        <v>129600</v>
       </c>
       <c r="H20" s="3">
-        <v>37100</v>
+        <v>34400</v>
       </c>
       <c r="I20" s="3">
-        <v>371600</v>
+        <v>344500</v>
       </c>
       <c r="J20" s="3">
-        <v>-406000</v>
+        <v>-376400</v>
       </c>
       <c r="K20" s="3">
         <v>-322500</v>
@@ -1301,25 +1301,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>332300</v>
+        <v>308000</v>
       </c>
       <c r="E21" s="3">
-        <v>486000</v>
+        <v>450500</v>
       </c>
       <c r="F21" s="3">
-        <v>28100</v>
+        <v>26000</v>
       </c>
       <c r="G21" s="3">
-        <v>602600</v>
+        <v>558500</v>
       </c>
       <c r="H21" s="3">
-        <v>336300</v>
+        <v>311700</v>
       </c>
       <c r="I21" s="3">
-        <v>690000</v>
+        <v>639500</v>
       </c>
       <c r="J21" s="3">
-        <v>-96400</v>
+        <v>-89300</v>
       </c>
       <c r="K21" s="3">
         <v>346300</v>
@@ -1351,25 +1351,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>47000</v>
+        <v>43500</v>
       </c>
       <c r="E22" s="3">
-        <v>60100</v>
+        <v>55700</v>
       </c>
       <c r="F22" s="3">
-        <v>39600</v>
+        <v>36700</v>
       </c>
       <c r="G22" s="3">
-        <v>57700</v>
+        <v>53400</v>
       </c>
       <c r="H22" s="3">
-        <v>32500</v>
+        <v>30200</v>
       </c>
       <c r="I22" s="3">
-        <v>38400</v>
+        <v>35600</v>
       </c>
       <c r="J22" s="3">
-        <v>25000</v>
+        <v>23200</v>
       </c>
       <c r="K22" s="3">
         <v>39100</v>
@@ -1401,25 +1401,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>63400</v>
+        <v>58800</v>
       </c>
       <c r="E23" s="3">
-        <v>152900</v>
+        <v>141800</v>
       </c>
       <c r="F23" s="3">
-        <v>-238700</v>
+        <v>-221300</v>
       </c>
       <c r="G23" s="3">
-        <v>236300</v>
+        <v>219100</v>
       </c>
       <c r="H23" s="3">
-        <v>102100</v>
+        <v>94700</v>
       </c>
       <c r="I23" s="3">
-        <v>397100</v>
+        <v>368100</v>
       </c>
       <c r="J23" s="3">
-        <v>-331400</v>
+        <v>-307200</v>
       </c>
       <c r="K23" s="3">
         <v>-5600</v>
@@ -1451,25 +1451,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24800</v>
+        <v>23000</v>
       </c>
       <c r="E24" s="3">
-        <v>24000</v>
+        <v>22200</v>
       </c>
       <c r="F24" s="3">
-        <v>58000</v>
+        <v>53700</v>
       </c>
       <c r="G24" s="3">
-        <v>125500</v>
+        <v>116300</v>
       </c>
       <c r="H24" s="3">
-        <v>74400</v>
+        <v>68900</v>
       </c>
       <c r="I24" s="3">
-        <v>101400</v>
+        <v>94000</v>
       </c>
       <c r="J24" s="3">
-        <v>-104800</v>
+        <v>-97200</v>
       </c>
       <c r="K24" s="3">
         <v>-68300</v>
@@ -1551,25 +1551,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38700</v>
+        <v>35800</v>
       </c>
       <c r="E26" s="3">
-        <v>129000</v>
+        <v>119500</v>
       </c>
       <c r="F26" s="3">
-        <v>-296700</v>
+        <v>-275000</v>
       </c>
       <c r="G26" s="3">
-        <v>110800</v>
+        <v>102700</v>
       </c>
       <c r="H26" s="3">
-        <v>27800</v>
+        <v>25700</v>
       </c>
       <c r="I26" s="3">
-        <v>295700</v>
+        <v>274100</v>
       </c>
       <c r="J26" s="3">
-        <v>-226600</v>
+        <v>-210100</v>
       </c>
       <c r="K26" s="3">
         <v>62700</v>
@@ -1601,25 +1601,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>37300</v>
+        <v>34600</v>
       </c>
       <c r="E27" s="3">
-        <v>125100</v>
+        <v>116000</v>
       </c>
       <c r="F27" s="3">
-        <v>-298100</v>
+        <v>-276400</v>
       </c>
       <c r="G27" s="3">
-        <v>108700</v>
+        <v>100700</v>
       </c>
       <c r="H27" s="3">
-        <v>26700</v>
+        <v>24800</v>
       </c>
       <c r="I27" s="3">
-        <v>291400</v>
+        <v>270100</v>
       </c>
       <c r="J27" s="3">
-        <v>-226600</v>
+        <v>-210000</v>
       </c>
       <c r="K27" s="3">
         <v>61500</v>
@@ -1851,25 +1851,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26000</v>
+        <v>-24100</v>
       </c>
       <c r="E32" s="3">
-        <v>-192600</v>
+        <v>-178500</v>
       </c>
       <c r="F32" s="3">
-        <v>255900</v>
+        <v>237200</v>
       </c>
       <c r="G32" s="3">
-        <v>-139900</v>
+        <v>-129600</v>
       </c>
       <c r="H32" s="3">
-        <v>-37100</v>
+        <v>-34400</v>
       </c>
       <c r="I32" s="3">
-        <v>-371600</v>
+        <v>-344500</v>
       </c>
       <c r="J32" s="3">
-        <v>406000</v>
+        <v>376400</v>
       </c>
       <c r="K32" s="3">
         <v>322500</v>
@@ -1901,25 +1901,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>37300</v>
+        <v>34600</v>
       </c>
       <c r="E33" s="3">
-        <v>125100</v>
+        <v>116000</v>
       </c>
       <c r="F33" s="3">
-        <v>-298100</v>
+        <v>-276400</v>
       </c>
       <c r="G33" s="3">
-        <v>108700</v>
+        <v>100700</v>
       </c>
       <c r="H33" s="3">
-        <v>26700</v>
+        <v>24800</v>
       </c>
       <c r="I33" s="3">
-        <v>291400</v>
+        <v>270100</v>
       </c>
       <c r="J33" s="3">
-        <v>-226600</v>
+        <v>-210000</v>
       </c>
       <c r="K33" s="3">
         <v>61500</v>
@@ -2001,25 +2001,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>37300</v>
+        <v>34600</v>
       </c>
       <c r="E35" s="3">
-        <v>125100</v>
+        <v>116000</v>
       </c>
       <c r="F35" s="3">
-        <v>-298100</v>
+        <v>-276400</v>
       </c>
       <c r="G35" s="3">
-        <v>108700</v>
+        <v>100700</v>
       </c>
       <c r="H35" s="3">
-        <v>26700</v>
+        <v>24800</v>
       </c>
       <c r="I35" s="3">
-        <v>291400</v>
+        <v>270100</v>
       </c>
       <c r="J35" s="3">
-        <v>-226600</v>
+        <v>-210000</v>
       </c>
       <c r="K35" s="3">
         <v>61500</v>
@@ -2146,25 +2146,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>515400</v>
+        <v>477700</v>
       </c>
       <c r="E41" s="3">
-        <v>374500</v>
+        <v>347100</v>
       </c>
       <c r="F41" s="3">
-        <v>549800</v>
+        <v>509600</v>
       </c>
       <c r="G41" s="3">
-        <v>267100</v>
+        <v>247600</v>
       </c>
       <c r="H41" s="3">
-        <v>198100</v>
+        <v>183700</v>
       </c>
       <c r="I41" s="3">
-        <v>228600</v>
+        <v>211900</v>
       </c>
       <c r="J41" s="3">
-        <v>142500</v>
+        <v>132100</v>
       </c>
       <c r="K41" s="3">
         <v>115000</v>
@@ -2196,25 +2196,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11800</v>
+        <v>11000</v>
       </c>
       <c r="E42" s="3">
-        <v>6300</v>
+        <v>5800</v>
       </c>
       <c r="F42" s="3">
-        <v>18300</v>
+        <v>17000</v>
       </c>
       <c r="G42" s="3">
-        <v>27200</v>
+        <v>25200</v>
       </c>
       <c r="H42" s="3">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="I42" s="3">
-        <v>30900</v>
+        <v>28600</v>
       </c>
       <c r="J42" s="3">
-        <v>96800</v>
+        <v>89800</v>
       </c>
       <c r="K42" s="3">
         <v>71200</v>
@@ -2246,25 +2246,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>333100</v>
+        <v>308800</v>
       </c>
       <c r="E43" s="3">
-        <v>298400</v>
+        <v>276600</v>
       </c>
       <c r="F43" s="3">
-        <v>302900</v>
+        <v>280800</v>
       </c>
       <c r="G43" s="3">
-        <v>266600</v>
+        <v>247100</v>
       </c>
       <c r="H43" s="3">
-        <v>283600</v>
+        <v>262900</v>
       </c>
       <c r="I43" s="3">
-        <v>474100</v>
+        <v>439500</v>
       </c>
       <c r="J43" s="3">
-        <v>251500</v>
+        <v>233200</v>
       </c>
       <c r="K43" s="3">
         <v>241900</v>
@@ -2296,25 +2296,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>43800</v>
+        <v>40600</v>
       </c>
       <c r="E44" s="3">
-        <v>47000</v>
+        <v>43600</v>
       </c>
       <c r="F44" s="3">
-        <v>50600</v>
+        <v>46900</v>
       </c>
       <c r="G44" s="3">
-        <v>47000</v>
+        <v>43500</v>
       </c>
       <c r="H44" s="3">
-        <v>45500</v>
+        <v>42200</v>
       </c>
       <c r="I44" s="3">
-        <v>61600</v>
+        <v>57100</v>
       </c>
       <c r="J44" s="3">
-        <v>41400</v>
+        <v>38400</v>
       </c>
       <c r="K44" s="3">
         <v>39300</v>
@@ -2346,25 +2346,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38600</v>
+        <v>35800</v>
       </c>
       <c r="E45" s="3">
-        <v>17200</v>
+        <v>15900</v>
       </c>
       <c r="F45" s="3">
-        <v>21700</v>
+        <v>20200</v>
       </c>
       <c r="G45" s="3">
-        <v>20500</v>
+        <v>19000</v>
       </c>
       <c r="H45" s="3">
-        <v>21200</v>
+        <v>19600</v>
       </c>
       <c r="I45" s="3">
-        <v>33400</v>
+        <v>31000</v>
       </c>
       <c r="J45" s="3">
-        <v>24400</v>
+        <v>22600</v>
       </c>
       <c r="K45" s="3">
         <v>22200</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>942800</v>
+        <v>873900</v>
       </c>
       <c r="E46" s="3">
-        <v>743400</v>
+        <v>689100</v>
       </c>
       <c r="F46" s="3">
-        <v>943400</v>
+        <v>874400</v>
       </c>
       <c r="G46" s="3">
-        <v>628400</v>
+        <v>582500</v>
       </c>
       <c r="H46" s="3">
-        <v>575400</v>
+        <v>533400</v>
       </c>
       <c r="I46" s="3">
-        <v>754200</v>
+        <v>699100</v>
       </c>
       <c r="J46" s="3">
-        <v>556800</v>
+        <v>516100</v>
       </c>
       <c r="K46" s="3">
         <v>489600</v>
@@ -2446,25 +2446,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>60000</v>
+        <v>55700</v>
       </c>
       <c r="E47" s="3">
-        <v>58000</v>
+        <v>53800</v>
       </c>
       <c r="F47" s="3">
-        <v>55200</v>
+        <v>51200</v>
       </c>
       <c r="G47" s="3">
-        <v>84800</v>
+        <v>78600</v>
       </c>
       <c r="H47" s="3">
-        <v>91900</v>
+        <v>85200</v>
       </c>
       <c r="I47" s="3">
-        <v>270500</v>
+        <v>250700</v>
       </c>
       <c r="J47" s="3">
-        <v>96200</v>
+        <v>89200</v>
       </c>
       <c r="K47" s="3">
         <v>72800</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3957000</v>
+        <v>3667800</v>
       </c>
       <c r="E48" s="3">
-        <v>3739700</v>
+        <v>3466300</v>
       </c>
       <c r="F48" s="3">
-        <v>3272300</v>
+        <v>3033100</v>
       </c>
       <c r="G48" s="3">
-        <v>2818500</v>
+        <v>2612500</v>
       </c>
       <c r="H48" s="3">
-        <v>2538300</v>
+        <v>2352800</v>
       </c>
       <c r="I48" s="3">
-        <v>6428300</v>
+        <v>5958500</v>
       </c>
       <c r="J48" s="3">
-        <v>1427600</v>
+        <v>1323300</v>
       </c>
       <c r="K48" s="3">
         <v>1513900</v>
@@ -2546,25 +2546,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4196900</v>
+        <v>3890100</v>
       </c>
       <c r="E49" s="3">
-        <v>3919800</v>
+        <v>3633400</v>
       </c>
       <c r="F49" s="3">
-        <v>3560400</v>
+        <v>3300200</v>
       </c>
       <c r="G49" s="3">
-        <v>3183300</v>
+        <v>2950600</v>
       </c>
       <c r="H49" s="3">
-        <v>2927600</v>
+        <v>2713600</v>
       </c>
       <c r="I49" s="3">
-        <v>5250700</v>
+        <v>4866900</v>
       </c>
       <c r="J49" s="3">
-        <v>1555500</v>
+        <v>1441900</v>
       </c>
       <c r="K49" s="3">
         <v>1751000</v>
@@ -2696,25 +2696,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="E52" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="F52" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G52" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="H52" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="I52" s="3">
-        <v>11700</v>
+        <v>10800</v>
       </c>
       <c r="J52" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="K52" s="3">
         <v>12900</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9161700</v>
+        <v>8492100</v>
       </c>
       <c r="E54" s="3">
-        <v>8464100</v>
+        <v>7845500</v>
       </c>
       <c r="F54" s="3">
-        <v>7834000</v>
+        <v>7261500</v>
       </c>
       <c r="G54" s="3">
-        <v>6717800</v>
+        <v>6226800</v>
       </c>
       <c r="H54" s="3">
-        <v>6138000</v>
+        <v>5689400</v>
       </c>
       <c r="I54" s="3">
-        <v>8372200</v>
+        <v>7760300</v>
       </c>
       <c r="J54" s="3">
-        <v>3643700</v>
+        <v>3377400</v>
       </c>
       <c r="K54" s="3">
         <v>3840200</v>
@@ -2886,25 +2886,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>451600</v>
+        <v>418600</v>
       </c>
       <c r="E57" s="3">
-        <v>467900</v>
+        <v>433700</v>
       </c>
       <c r="F57" s="3">
-        <v>435800</v>
+        <v>404000</v>
       </c>
       <c r="G57" s="3">
-        <v>334100</v>
+        <v>309700</v>
       </c>
       <c r="H57" s="3">
-        <v>311700</v>
+        <v>288900</v>
       </c>
       <c r="I57" s="3">
-        <v>514700</v>
+        <v>477100</v>
       </c>
       <c r="J57" s="3">
-        <v>353700</v>
+        <v>327800</v>
       </c>
       <c r="K57" s="3">
         <v>313100</v>
@@ -2936,25 +2936,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>539100</v>
+        <v>499700</v>
       </c>
       <c r="E58" s="3">
-        <v>410200</v>
+        <v>380200</v>
       </c>
       <c r="F58" s="3">
-        <v>359300</v>
+        <v>333000</v>
       </c>
       <c r="G58" s="3">
-        <v>315900</v>
+        <v>292800</v>
       </c>
       <c r="H58" s="3">
-        <v>198800</v>
+        <v>184300</v>
       </c>
       <c r="I58" s="3">
-        <v>368600</v>
+        <v>341700</v>
       </c>
       <c r="J58" s="3">
-        <v>732700</v>
+        <v>679200</v>
       </c>
       <c r="K58" s="3">
         <v>554200</v>
@@ -2986,25 +2986,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>354600</v>
+        <v>328700</v>
       </c>
       <c r="E59" s="3">
-        <v>380700</v>
+        <v>352800</v>
       </c>
       <c r="F59" s="3">
-        <v>315700</v>
+        <v>292600</v>
       </c>
       <c r="G59" s="3">
-        <v>250800</v>
+        <v>232400</v>
       </c>
       <c r="H59" s="3">
-        <v>281300</v>
+        <v>260700</v>
       </c>
       <c r="I59" s="3">
-        <v>320300</v>
+        <v>296900</v>
       </c>
       <c r="J59" s="3">
-        <v>163500</v>
+        <v>151600</v>
       </c>
       <c r="K59" s="3">
         <v>166300</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1345200</v>
+        <v>1246900</v>
       </c>
       <c r="E60" s="3">
-        <v>1258800</v>
+        <v>1166800</v>
       </c>
       <c r="F60" s="3">
-        <v>1110800</v>
+        <v>1029600</v>
       </c>
       <c r="G60" s="3">
-        <v>900800</v>
+        <v>834900</v>
       </c>
       <c r="H60" s="3">
-        <v>791800</v>
+        <v>733900</v>
       </c>
       <c r="I60" s="3">
-        <v>1203700</v>
+        <v>1115700</v>
       </c>
       <c r="J60" s="3">
-        <v>1249900</v>
+        <v>1158600</v>
       </c>
       <c r="K60" s="3">
         <v>1033600</v>
@@ -3086,25 +3086,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1900300</v>
+        <v>1761400</v>
       </c>
       <c r="E61" s="3">
-        <v>1762500</v>
+        <v>1633700</v>
       </c>
       <c r="F61" s="3">
-        <v>1744100</v>
+        <v>1616600</v>
       </c>
       <c r="G61" s="3">
-        <v>1111600</v>
+        <v>1030300</v>
       </c>
       <c r="H61" s="3">
-        <v>1089800</v>
+        <v>1010200</v>
       </c>
       <c r="I61" s="3">
-        <v>1334800</v>
+        <v>1237300</v>
       </c>
       <c r="J61" s="3">
-        <v>558500</v>
+        <v>517600</v>
       </c>
       <c r="K61" s="3">
         <v>470600</v>
@@ -3136,25 +3136,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1005700</v>
+        <v>932200</v>
       </c>
       <c r="E62" s="3">
-        <v>906700</v>
+        <v>840500</v>
       </c>
       <c r="F62" s="3">
-        <v>790000</v>
+        <v>732300</v>
       </c>
       <c r="G62" s="3">
-        <v>639800</v>
+        <v>593100</v>
       </c>
       <c r="H62" s="3">
-        <v>497900</v>
+        <v>461500</v>
       </c>
       <c r="I62" s="3">
-        <v>735000</v>
+        <v>681300</v>
       </c>
       <c r="J62" s="3">
-        <v>211300</v>
+        <v>195800</v>
       </c>
       <c r="K62" s="3">
         <v>316300</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4324200</v>
+        <v>4008100</v>
       </c>
       <c r="E66" s="3">
-        <v>3997800</v>
+        <v>3705600</v>
       </c>
       <c r="F66" s="3">
-        <v>3708400</v>
+        <v>3437400</v>
       </c>
       <c r="G66" s="3">
-        <v>2702400</v>
+        <v>2504900</v>
       </c>
       <c r="H66" s="3">
-        <v>2431700</v>
+        <v>2253900</v>
       </c>
       <c r="I66" s="3">
-        <v>3289400</v>
+        <v>3049000</v>
       </c>
       <c r="J66" s="3">
-        <v>2062600</v>
+        <v>1911800</v>
       </c>
       <c r="K66" s="3">
         <v>1858700</v>
@@ -3606,25 +3606,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>718400</v>
+        <v>665900</v>
       </c>
       <c r="E72" s="3">
-        <v>631700</v>
+        <v>585500</v>
       </c>
       <c r="F72" s="3">
-        <v>687500</v>
+        <v>637300</v>
       </c>
       <c r="G72" s="3">
-        <v>985100</v>
+        <v>913100</v>
       </c>
       <c r="H72" s="3">
-        <v>925300</v>
+        <v>857700</v>
       </c>
       <c r="I72" s="3">
-        <v>1248100</v>
+        <v>1156900</v>
       </c>
       <c r="J72" s="3">
-        <v>-159500</v>
+        <v>-147800</v>
       </c>
       <c r="K72" s="3">
         <v>46000</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4837500</v>
+        <v>4484000</v>
       </c>
       <c r="E76" s="3">
-        <v>4466300</v>
+        <v>4139900</v>
       </c>
       <c r="F76" s="3">
-        <v>4125600</v>
+        <v>3824100</v>
       </c>
       <c r="G76" s="3">
-        <v>4015400</v>
+        <v>3721900</v>
       </c>
       <c r="H76" s="3">
-        <v>3706400</v>
+        <v>3435500</v>
       </c>
       <c r="I76" s="3">
-        <v>5082800</v>
+        <v>4711300</v>
       </c>
       <c r="J76" s="3">
-        <v>1581100</v>
+        <v>1465600</v>
       </c>
       <c r="K76" s="3">
         <v>1981400</v>
@@ -3961,25 +3961,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>37300</v>
+        <v>34600</v>
       </c>
       <c r="E81" s="3">
-        <v>125100</v>
+        <v>116000</v>
       </c>
       <c r="F81" s="3">
-        <v>-298100</v>
+        <v>-276400</v>
       </c>
       <c r="G81" s="3">
-        <v>108700</v>
+        <v>100700</v>
       </c>
       <c r="H81" s="3">
-        <v>26700</v>
+        <v>24800</v>
       </c>
       <c r="I81" s="3">
-        <v>291400</v>
+        <v>270100</v>
       </c>
       <c r="J81" s="3">
-        <v>-226600</v>
+        <v>-210000</v>
       </c>
       <c r="K81" s="3">
         <v>61500</v>
@@ -4031,25 +4031,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>221900</v>
+        <v>205700</v>
       </c>
       <c r="E83" s="3">
-        <v>272900</v>
+        <v>253000</v>
       </c>
       <c r="F83" s="3">
-        <v>227300</v>
+        <v>210700</v>
       </c>
       <c r="G83" s="3">
-        <v>308600</v>
+        <v>286000</v>
       </c>
       <c r="H83" s="3">
-        <v>201600</v>
+        <v>186800</v>
       </c>
       <c r="I83" s="3">
-        <v>254400</v>
+        <v>235800</v>
       </c>
       <c r="J83" s="3">
-        <v>210100</v>
+        <v>194700</v>
       </c>
       <c r="K83" s="3">
         <v>312700</v>
@@ -4331,25 +4331,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>236100</v>
+        <v>218900</v>
       </c>
       <c r="E89" s="3">
-        <v>382800</v>
+        <v>354800</v>
       </c>
       <c r="F89" s="3">
-        <v>304700</v>
+        <v>282400</v>
       </c>
       <c r="G89" s="3">
-        <v>512000</v>
+        <v>474600</v>
       </c>
       <c r="H89" s="3">
-        <v>336900</v>
+        <v>312300</v>
       </c>
       <c r="I89" s="3">
-        <v>185500</v>
+        <v>172000</v>
       </c>
       <c r="J89" s="3">
-        <v>184700</v>
+        <v>171200</v>
       </c>
       <c r="K89" s="3">
         <v>436500</v>
@@ -4401,25 +4401,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-160300</v>
+        <v>-148600</v>
       </c>
       <c r="E91" s="3">
-        <v>-263800</v>
+        <v>-244500</v>
       </c>
       <c r="F91" s="3">
-        <v>-148600</v>
+        <v>-137700</v>
       </c>
       <c r="G91" s="3">
-        <v>-307500</v>
+        <v>-285000</v>
       </c>
       <c r="H91" s="3">
-        <v>-113400</v>
+        <v>-105100</v>
       </c>
       <c r="I91" s="3">
-        <v>-260000</v>
+        <v>-241000</v>
       </c>
       <c r="J91" s="3">
-        <v>-135600</v>
+        <v>-125700</v>
       </c>
       <c r="K91" s="3">
         <v>-207500</v>
@@ -4551,25 +4551,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-169400</v>
+        <v>-157000</v>
       </c>
       <c r="E94" s="3">
-        <v>-248300</v>
+        <v>-230200</v>
       </c>
       <c r="F94" s="3">
-        <v>-113100</v>
+        <v>-104800</v>
       </c>
       <c r="G94" s="3">
-        <v>-294300</v>
+        <v>-272800</v>
       </c>
       <c r="H94" s="3">
-        <v>-100600</v>
+        <v>-93300</v>
       </c>
       <c r="I94" s="3">
-        <v>-190700</v>
+        <v>-176800</v>
       </c>
       <c r="J94" s="3">
-        <v>-137900</v>
+        <v>-127800</v>
       </c>
       <c r="K94" s="3">
         <v>-146100</v>
@@ -4624,22 +4624,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-300300</v>
+        <v>-278300</v>
       </c>
       <c r="F96" s="3">
-        <v>-121900</v>
+        <v>-113000</v>
       </c>
       <c r="G96" s="3">
-        <v>-98000</v>
+        <v>-90800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-146600</v>
+        <v>-135900</v>
       </c>
       <c r="J96" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="K96" s="3">
         <v>-395900</v>
@@ -4821,25 +4821,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>45900</v>
+        <v>42600</v>
       </c>
       <c r="E100" s="3">
-        <v>-352600</v>
+        <v>-326800</v>
       </c>
       <c r="F100" s="3">
-        <v>39000</v>
+        <v>36200</v>
       </c>
       <c r="G100" s="3">
-        <v>-53100</v>
+        <v>-49200</v>
       </c>
       <c r="H100" s="3">
-        <v>-26400</v>
+        <v>-24500</v>
       </c>
       <c r="I100" s="3">
-        <v>-117500</v>
+        <v>-108900</v>
       </c>
       <c r="J100" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="K100" s="3">
         <v>-105200</v>
@@ -4874,22 +4874,22 @@
         <v>-1000</v>
       </c>
       <c r="E101" s="3">
-        <v>26600</v>
+        <v>24600</v>
       </c>
       <c r="F101" s="3">
-        <v>36600</v>
+        <v>33900</v>
       </c>
       <c r="G101" s="3">
-        <v>-21000</v>
+        <v>-19500</v>
       </c>
       <c r="H101" s="3">
-        <v>13500</v>
+        <v>12500</v>
       </c>
       <c r="I101" s="3">
-        <v>24300</v>
+        <v>22600</v>
       </c>
       <c r="J101" s="3">
-        <v>29400</v>
+        <v>27300</v>
       </c>
       <c r="K101" s="3">
         <v>36700</v>
@@ -4921,25 +4921,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>111700</v>
+        <v>103500</v>
       </c>
       <c r="E102" s="3">
-        <v>-191500</v>
+        <v>-177500</v>
       </c>
       <c r="F102" s="3">
-        <v>267300</v>
+        <v>247700</v>
       </c>
       <c r="G102" s="3">
-        <v>143600</v>
+        <v>133100</v>
       </c>
       <c r="H102" s="3">
-        <v>128000</v>
+        <v>118700</v>
       </c>
       <c r="I102" s="3">
-        <v>-75200</v>
+        <v>-69700</v>
       </c>
       <c r="J102" s="3">
-        <v>45200</v>
+        <v>41900</v>
       </c>
       <c r="K102" s="3">
         <v>43400</v>

--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>TEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>851700</v>
+        <v>827100</v>
       </c>
       <c r="E8" s="3">
-        <v>1049300</v>
+        <v>1742400</v>
       </c>
       <c r="F8" s="3">
-        <v>720600</v>
+        <v>816100</v>
       </c>
       <c r="G8" s="3">
-        <v>1446500</v>
+        <v>954200</v>
       </c>
       <c r="H8" s="3">
-        <v>892000</v>
+        <v>895300</v>
       </c>
       <c r="I8" s="3">
+        <v>1797000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>854800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1094000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>779500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1991100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>881600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>412800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>384000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>363400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>385900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>378900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>351500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>214900</v>
+        <v>199800</v>
       </c>
       <c r="E9" s="3">
-        <v>284300</v>
+        <v>420600</v>
       </c>
       <c r="F9" s="3">
-        <v>190700</v>
+        <v>205900</v>
       </c>
       <c r="G9" s="3">
-        <v>376800</v>
+        <v>258600</v>
       </c>
       <c r="H9" s="3">
-        <v>232200</v>
+        <v>239800</v>
       </c>
       <c r="I9" s="3">
+        <v>465300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>222500</v>
+      </c>
+      <c r="K9" s="3">
         <v>288000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>206800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>441500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>156600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>70700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>65400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>58000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>58300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>65600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>636800</v>
+        <v>627300</v>
       </c>
       <c r="E10" s="3">
-        <v>765000</v>
+        <v>1321800</v>
       </c>
       <c r="F10" s="3">
-        <v>529900</v>
+        <v>610200</v>
       </c>
       <c r="G10" s="3">
-        <v>1069600</v>
+        <v>695600</v>
       </c>
       <c r="H10" s="3">
-        <v>659800</v>
+        <v>655600</v>
       </c>
       <c r="I10" s="3">
+        <v>1331700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>632300</v>
+      </c>
+      <c r="K10" s="3">
         <v>806000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>572700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1549600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>725000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>342100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>318700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>305400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>327600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>313200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>285900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1042,126 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
-        <v>5800</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5000</v>
-      </c>
       <c r="G14" s="3">
-        <v>6600</v>
+        <v>5300</v>
       </c>
       <c r="H14" s="3">
-        <v>5700</v>
+        <v>6200</v>
       </c>
       <c r="I14" s="3">
+        <v>8300</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K14" s="3">
         <v>23100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>6100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>73400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>59000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>10400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>3100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>5900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>2000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>219700</v>
+        <v>234800</v>
       </c>
       <c r="E15" s="3">
-        <v>270400</v>
+        <v>441200</v>
       </c>
       <c r="F15" s="3">
-        <v>184700</v>
+        <v>210500</v>
       </c>
       <c r="G15" s="3">
-        <v>341800</v>
+        <v>245900</v>
       </c>
       <c r="H15" s="3">
-        <v>199700</v>
+        <v>229400</v>
       </c>
       <c r="I15" s="3">
+        <v>424700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>191300</v>
+      </c>
+      <c r="K15" s="3">
         <v>236800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>163000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>352800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>151900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>41200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>39900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>39400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>43800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>44800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>773400</v>
+        <v>780200</v>
       </c>
       <c r="E17" s="3">
-        <v>1030400</v>
+        <v>1549900</v>
       </c>
       <c r="F17" s="3">
-        <v>668100</v>
+        <v>741100</v>
       </c>
       <c r="G17" s="3">
-        <v>1303600</v>
+        <v>937000</v>
       </c>
       <c r="H17" s="3">
-        <v>801600</v>
+        <v>830100</v>
       </c>
       <c r="I17" s="3">
+        <v>1619600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>768100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1034800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>687200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1635100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>701800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>341800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>311400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>295500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>310200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>318100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>304300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>78200</v>
+        <v>46800</v>
       </c>
       <c r="E18" s="3">
-        <v>18900</v>
+        <v>192500</v>
       </c>
       <c r="F18" s="3">
-        <v>52500</v>
+        <v>75000</v>
       </c>
       <c r="G18" s="3">
-        <v>142900</v>
+        <v>17200</v>
       </c>
       <c r="H18" s="3">
-        <v>90500</v>
+        <v>65300</v>
       </c>
       <c r="I18" s="3">
+        <v>177500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>86700</v>
+      </c>
+      <c r="K18" s="3">
         <v>59200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>92300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>356000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>179800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>71000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>72700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>67900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>75700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>60700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1311,290 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24100</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
-        <v>178500</v>
+        <v>-30200</v>
       </c>
       <c r="F20" s="3">
-        <v>-237200</v>
+        <v>23100</v>
       </c>
       <c r="G20" s="3">
-        <v>129600</v>
+        <v>162300</v>
       </c>
       <c r="H20" s="3">
-        <v>34400</v>
+        <v>-294600</v>
       </c>
       <c r="I20" s="3">
+        <v>161100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K20" s="3">
         <v>344500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-376400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-322500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>83500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>4400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>10000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-3900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>308000</v>
+        <v>313600</v>
       </c>
       <c r="E21" s="3">
-        <v>450500</v>
+        <v>572100</v>
       </c>
       <c r="F21" s="3">
-        <v>26000</v>
+        <v>297900</v>
       </c>
       <c r="G21" s="3">
-        <v>558500</v>
+        <v>250200</v>
       </c>
       <c r="H21" s="3">
-        <v>311700</v>
+        <v>30300</v>
       </c>
       <c r="I21" s="3">
+        <v>733000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>301200</v>
+      </c>
+      <c r="K21" s="3">
         <v>639500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-89300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>346300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>401800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>113500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>117000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>102900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>129500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>101700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>43500</v>
+        <v>36600</v>
       </c>
       <c r="E22" s="3">
-        <v>55700</v>
+        <v>92500</v>
       </c>
       <c r="F22" s="3">
-        <v>36700</v>
+        <v>41700</v>
       </c>
       <c r="G22" s="3">
-        <v>53400</v>
+        <v>50700</v>
       </c>
       <c r="H22" s="3">
-        <v>30200</v>
+        <v>45500</v>
       </c>
       <c r="I22" s="3">
+        <v>66400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K22" s="3">
         <v>35600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>23200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>39100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>13000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>6200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>4800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>4400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>6700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>10800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>58800</v>
+        <v>10800</v>
       </c>
       <c r="E23" s="3">
-        <v>141800</v>
+        <v>69800</v>
       </c>
       <c r="F23" s="3">
-        <v>-221300</v>
+        <v>56400</v>
       </c>
       <c r="G23" s="3">
-        <v>219100</v>
+        <v>128900</v>
       </c>
       <c r="H23" s="3">
-        <v>94700</v>
+        <v>-274900</v>
       </c>
       <c r="I23" s="3">
+        <v>272100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>90700</v>
+      </c>
+      <c r="K23" s="3">
         <v>368100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-307200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>250300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>66200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>72300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>59000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>79000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>46000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23000</v>
+        <v>52300</v>
       </c>
       <c r="E24" s="3">
-        <v>22200</v>
+        <v>43700</v>
       </c>
       <c r="F24" s="3">
-        <v>53700</v>
+        <v>22000</v>
       </c>
       <c r="G24" s="3">
-        <v>116300</v>
+        <v>20200</v>
       </c>
       <c r="H24" s="3">
-        <v>68900</v>
+        <v>66700</v>
       </c>
       <c r="I24" s="3">
+        <v>144500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>66000</v>
+      </c>
+      <c r="K24" s="3">
         <v>94000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-97200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-68300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>44000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>19600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>25100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>20700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>27500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>6500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>35800</v>
+        <v>-41500</v>
       </c>
       <c r="E26" s="3">
-        <v>119500</v>
+        <v>26000</v>
       </c>
       <c r="F26" s="3">
-        <v>-275000</v>
+        <v>34300</v>
       </c>
       <c r="G26" s="3">
-        <v>102700</v>
+        <v>108700</v>
       </c>
       <c r="H26" s="3">
-        <v>25700</v>
+        <v>-341700</v>
       </c>
       <c r="I26" s="3">
+        <v>127600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K26" s="3">
         <v>274100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-210100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>62700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>206300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>46500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>47200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>38400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>51500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>39500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>34600</v>
+        <v>-43500</v>
       </c>
       <c r="E27" s="3">
-        <v>116000</v>
+        <v>23200</v>
       </c>
       <c r="F27" s="3">
-        <v>-276400</v>
+        <v>33100</v>
       </c>
       <c r="G27" s="3">
-        <v>100700</v>
+        <v>105400</v>
       </c>
       <c r="H27" s="3">
-        <v>24800</v>
+        <v>-343300</v>
       </c>
       <c r="I27" s="3">
+        <v>125200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K27" s="3">
         <v>270100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-210000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>61500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>205800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>45600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>46500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>38100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>51200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>39400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24100</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
-        <v>-178500</v>
+        <v>30200</v>
       </c>
       <c r="F32" s="3">
-        <v>237200</v>
+        <v>-23100</v>
       </c>
       <c r="G32" s="3">
-        <v>-129600</v>
+        <v>-162300</v>
       </c>
       <c r="H32" s="3">
-        <v>-34400</v>
+        <v>294600</v>
       </c>
       <c r="I32" s="3">
+        <v>-161100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-344500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>376400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>322500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-83500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-4400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>3900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>34600</v>
+        <v>-43500</v>
       </c>
       <c r="E33" s="3">
-        <v>116000</v>
+        <v>23200</v>
       </c>
       <c r="F33" s="3">
-        <v>-276400</v>
+        <v>33100</v>
       </c>
       <c r="G33" s="3">
-        <v>100700</v>
+        <v>105400</v>
       </c>
       <c r="H33" s="3">
-        <v>24800</v>
+        <v>-343300</v>
       </c>
       <c r="I33" s="3">
+        <v>125200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K33" s="3">
         <v>270100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-210000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>61500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>205800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>45600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>46500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>38100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>51200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>39400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>34600</v>
+        <v>-43500</v>
       </c>
       <c r="E35" s="3">
-        <v>116000</v>
+        <v>23200</v>
       </c>
       <c r="F35" s="3">
-        <v>-276400</v>
+        <v>33100</v>
       </c>
       <c r="G35" s="3">
-        <v>100700</v>
+        <v>105400</v>
       </c>
       <c r="H35" s="3">
-        <v>24800</v>
+        <v>-343300</v>
       </c>
       <c r="I35" s="3">
+        <v>125200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K35" s="3">
         <v>270100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-210000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>61500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>205800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>45600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>46500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>38100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>51200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>39400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2312,514 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>477700</v>
+        <v>260300</v>
       </c>
       <c r="E41" s="3">
-        <v>347100</v>
+        <v>606700</v>
       </c>
       <c r="F41" s="3">
-        <v>509600</v>
+        <v>434400</v>
       </c>
       <c r="G41" s="3">
-        <v>247600</v>
+        <v>386000</v>
       </c>
       <c r="H41" s="3">
-        <v>183700</v>
+        <v>463400</v>
       </c>
       <c r="I41" s="3">
+        <v>225100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>167000</v>
+      </c>
+      <c r="K41" s="3">
         <v>211900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>132100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>115000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>129700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>64900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>142200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>80100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>41500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>103300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11000</v>
+        <v>223300</v>
       </c>
       <c r="E42" s="3">
-        <v>5800</v>
+        <v>27800</v>
       </c>
       <c r="F42" s="3">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="G42" s="3">
-        <v>25200</v>
+        <v>6500</v>
       </c>
       <c r="H42" s="3">
-        <v>25000</v>
+        <v>15400</v>
       </c>
       <c r="I42" s="3">
+        <v>22900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K42" s="3">
         <v>28600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>89800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>71200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>50600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>78600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>44500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>37200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>112600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>45800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>308800</v>
+        <v>249900</v>
       </c>
       <c r="E43" s="3">
-        <v>276600</v>
+        <v>251600</v>
       </c>
       <c r="F43" s="3">
         <v>280800</v>
       </c>
       <c r="G43" s="3">
-        <v>247100</v>
+        <v>307500</v>
       </c>
       <c r="H43" s="3">
-        <v>262900</v>
+        <v>255300</v>
       </c>
       <c r="I43" s="3">
+        <v>224700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>239000</v>
+      </c>
+      <c r="K43" s="3">
         <v>439500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>233200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>241900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>201100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>219600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>192400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>188200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>221100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>208600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>222000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>40600</v>
+        <v>38000</v>
       </c>
       <c r="E44" s="3">
-        <v>43600</v>
+        <v>28700</v>
       </c>
       <c r="F44" s="3">
-        <v>46900</v>
+        <v>36900</v>
       </c>
       <c r="G44" s="3">
-        <v>43500</v>
+        <v>48500</v>
       </c>
       <c r="H44" s="3">
-        <v>42200</v>
+        <v>42700</v>
       </c>
       <c r="I44" s="3">
-        <v>57100</v>
+        <v>39600</v>
       </c>
       <c r="J44" s="3">
         <v>38400</v>
       </c>
       <c r="K44" s="3">
+        <v>57100</v>
+      </c>
+      <c r="L44" s="3">
+        <v>38400</v>
+      </c>
+      <c r="M44" s="3">
         <v>39300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>33300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>42500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>44800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>28700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>32200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>33500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35800</v>
+        <v>23700</v>
       </c>
       <c r="E45" s="3">
-        <v>15900</v>
+        <v>31100</v>
       </c>
       <c r="F45" s="3">
-        <v>20200</v>
+        <v>32600</v>
       </c>
       <c r="G45" s="3">
-        <v>19000</v>
+        <v>17700</v>
       </c>
       <c r="H45" s="3">
+        <v>18300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>17300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K45" s="3">
+        <v>31000</v>
+      </c>
+      <c r="L45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="M45" s="3">
+        <v>22200</v>
+      </c>
+      <c r="N45" s="3">
+        <v>22100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>12700</v>
+      </c>
+      <c r="P45" s="3">
+        <v>14900</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>16500</v>
+      </c>
+      <c r="R45" s="3">
         <v>19600</v>
       </c>
-      <c r="I45" s="3">
-        <v>31000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>22600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>22200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>22100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>12700</v>
-      </c>
-      <c r="N45" s="3">
-        <v>14900</v>
-      </c>
-      <c r="O45" s="3">
-        <v>16500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>19600</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>16200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>873900</v>
+        <v>795100</v>
       </c>
       <c r="E46" s="3">
-        <v>689100</v>
+        <v>945900</v>
       </c>
       <c r="F46" s="3">
-        <v>874400</v>
+        <v>794700</v>
       </c>
       <c r="G46" s="3">
-        <v>582500</v>
+        <v>766300</v>
       </c>
       <c r="H46" s="3">
-        <v>533400</v>
+        <v>795200</v>
       </c>
       <c r="I46" s="3">
+        <v>529700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>485000</v>
+      </c>
+      <c r="K46" s="3">
         <v>699100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>516100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>489600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>436800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>418400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>438700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>350600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>426900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>407400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>324600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>55700</v>
+        <v>46100</v>
       </c>
       <c r="E47" s="3">
-        <v>53800</v>
+        <v>49000</v>
       </c>
       <c r="F47" s="3">
-        <v>51200</v>
+        <v>50600</v>
       </c>
       <c r="G47" s="3">
-        <v>78600</v>
+        <v>59800</v>
       </c>
       <c r="H47" s="3">
-        <v>85200</v>
+        <v>46500</v>
       </c>
       <c r="I47" s="3">
+        <v>71500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>77400</v>
+      </c>
+      <c r="K47" s="3">
         <v>250700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>89200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>72800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>54000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>77900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>116300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>102000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>35400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>34100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3667800</v>
+        <v>3740500</v>
       </c>
       <c r="E48" s="3">
-        <v>3466300</v>
+        <v>3483900</v>
       </c>
       <c r="F48" s="3">
-        <v>3033100</v>
+        <v>3335300</v>
       </c>
       <c r="G48" s="3">
-        <v>2612500</v>
+        <v>3855600</v>
       </c>
       <c r="H48" s="3">
-        <v>2352800</v>
+        <v>2758200</v>
       </c>
       <c r="I48" s="3">
+        <v>2375700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2139500</v>
+      </c>
+      <c r="K48" s="3">
         <v>5958500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1323300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1513900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1432000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>654700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>604100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>567200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>615900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>606500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>575800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3890100</v>
+        <v>3965300</v>
       </c>
       <c r="E49" s="3">
-        <v>3633400</v>
+        <v>3706800</v>
       </c>
       <c r="F49" s="3">
-        <v>3300200</v>
+        <v>3537500</v>
       </c>
       <c r="G49" s="3">
-        <v>2950600</v>
+        <v>4039600</v>
       </c>
       <c r="H49" s="3">
-        <v>2713600</v>
+        <v>3001000</v>
       </c>
       <c r="I49" s="3">
+        <v>2683200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2467700</v>
+      </c>
+      <c r="K49" s="3">
         <v>4866900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1441900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1751000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1755000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>162800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>165000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>169300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>193400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>198800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4700</v>
+        <v>2800</v>
       </c>
       <c r="E52" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F52" s="3">
-        <v>2600</v>
+        <v>4300</v>
       </c>
       <c r="G52" s="3">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="H52" s="3">
-        <v>4500</v>
+        <v>2400</v>
       </c>
       <c r="I52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K52" s="3">
         <v>10800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>12900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>10600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>7300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>7200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>7500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>7700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>7600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8492100</v>
+        <v>8549800</v>
       </c>
       <c r="E54" s="3">
-        <v>7845500</v>
+        <v>8188700</v>
       </c>
       <c r="F54" s="3">
-        <v>7261500</v>
+        <v>7722400</v>
       </c>
       <c r="G54" s="3">
-        <v>6226800</v>
+        <v>8724500</v>
       </c>
       <c r="H54" s="3">
-        <v>5689400</v>
+        <v>6603300</v>
       </c>
       <c r="I54" s="3">
+        <v>5662400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5173700</v>
+      </c>
+      <c r="K54" s="3">
         <v>7760300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3377400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3840200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3688400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1321100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1331300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1196700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1279400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1254400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1125600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3140,346 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>418600</v>
+        <v>416000</v>
       </c>
       <c r="E57" s="3">
-        <v>433700</v>
+        <v>353500</v>
       </c>
       <c r="F57" s="3">
-        <v>404000</v>
+        <v>380600</v>
       </c>
       <c r="G57" s="3">
-        <v>309700</v>
+        <v>482300</v>
       </c>
       <c r="H57" s="3">
-        <v>288900</v>
+        <v>367400</v>
       </c>
       <c r="I57" s="3">
+        <v>281600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>262700</v>
+      </c>
+      <c r="K57" s="3">
         <v>477100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>327800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>313100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>267300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>263400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>244500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>228600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>236000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>235100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>254700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>499700</v>
+        <v>348900</v>
       </c>
       <c r="E58" s="3">
-        <v>380200</v>
+        <v>856700</v>
       </c>
       <c r="F58" s="3">
-        <v>333000</v>
+        <v>454400</v>
       </c>
       <c r="G58" s="3">
-        <v>292800</v>
+        <v>422800</v>
       </c>
       <c r="H58" s="3">
-        <v>184300</v>
+        <v>302800</v>
       </c>
       <c r="I58" s="3">
+        <v>266300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>167600</v>
+      </c>
+      <c r="K58" s="3">
         <v>341700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>679200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>554200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>401400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>57000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>33500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>23200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>19000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>81500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>328700</v>
+        <v>393200</v>
       </c>
       <c r="E59" s="3">
-        <v>352800</v>
+        <v>373300</v>
       </c>
       <c r="F59" s="3">
-        <v>292600</v>
+        <v>298900</v>
       </c>
       <c r="G59" s="3">
-        <v>232400</v>
+        <v>392400</v>
       </c>
       <c r="H59" s="3">
-        <v>260700</v>
+        <v>266100</v>
       </c>
       <c r="I59" s="3">
+        <v>211400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>237100</v>
+      </c>
+      <c r="K59" s="3">
         <v>296900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>151600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>166300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>215400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>184000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>192600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>159200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>163200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>115700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1246900</v>
+        <v>1158000</v>
       </c>
       <c r="E60" s="3">
-        <v>1166800</v>
+        <v>1583500</v>
       </c>
       <c r="F60" s="3">
-        <v>1029600</v>
+        <v>1133900</v>
       </c>
       <c r="G60" s="3">
-        <v>834900</v>
+        <v>1297500</v>
       </c>
       <c r="H60" s="3">
-        <v>733900</v>
+        <v>936300</v>
       </c>
       <c r="I60" s="3">
+        <v>759300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>667400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1115700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1158600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1033600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>884200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>504400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>470600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>410900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>418200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>432300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>564500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1761400</v>
+        <v>1739200</v>
       </c>
       <c r="E61" s="3">
-        <v>1633700</v>
+        <v>1353000</v>
       </c>
       <c r="F61" s="3">
-        <v>1616600</v>
+        <v>1601800</v>
       </c>
       <c r="G61" s="3">
-        <v>1030300</v>
+        <v>1816700</v>
       </c>
       <c r="H61" s="3">
-        <v>1010200</v>
+        <v>1470100</v>
       </c>
       <c r="I61" s="3">
+        <v>936900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>918600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1237300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>517600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>470600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>329000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>207400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>206300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>179900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>220400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>226400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>932200</v>
+        <v>1008200</v>
       </c>
       <c r="E62" s="3">
-        <v>840500</v>
+        <v>901600</v>
       </c>
       <c r="F62" s="3">
-        <v>732300</v>
+        <v>847700</v>
       </c>
       <c r="G62" s="3">
-        <v>593100</v>
+        <v>934600</v>
       </c>
       <c r="H62" s="3">
-        <v>461500</v>
+        <v>665900</v>
       </c>
       <c r="I62" s="3">
+        <v>539300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>419700</v>
+      </c>
+      <c r="K62" s="3">
         <v>681300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>195800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>316300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>338700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>61500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>63700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>63600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>70500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>75400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4008100</v>
+        <v>3974900</v>
       </c>
       <c r="E66" s="3">
-        <v>3705600</v>
+        <v>3901400</v>
       </c>
       <c r="F66" s="3">
-        <v>3437400</v>
+        <v>3644800</v>
       </c>
       <c r="G66" s="3">
-        <v>2504900</v>
+        <v>4120800</v>
       </c>
       <c r="H66" s="3">
-        <v>2253900</v>
+        <v>3125800</v>
       </c>
       <c r="I66" s="3">
+        <v>2277900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2049600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3049000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1911800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1858700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1585600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>791500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>756400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>669100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>722600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>748200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>665900</v>
+        <v>783600</v>
       </c>
       <c r="E72" s="3">
-        <v>585500</v>
+        <v>768200</v>
       </c>
       <c r="F72" s="3">
-        <v>637300</v>
+        <v>605600</v>
       </c>
       <c r="G72" s="3">
-        <v>913100</v>
+        <v>651200</v>
       </c>
       <c r="H72" s="3">
-        <v>857700</v>
+        <v>579500</v>
       </c>
       <c r="I72" s="3">
+        <v>830300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>780000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1156900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-147800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>46000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>187300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>224700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>53500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>127500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>275800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>225100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4484000</v>
+        <v>4574900</v>
       </c>
       <c r="E76" s="3">
-        <v>4139900</v>
+        <v>4287300</v>
       </c>
       <c r="F76" s="3">
-        <v>3824100</v>
+        <v>4077500</v>
       </c>
       <c r="G76" s="3">
-        <v>3721900</v>
+        <v>4603800</v>
       </c>
       <c r="H76" s="3">
-        <v>3435500</v>
+        <v>3477500</v>
       </c>
       <c r="I76" s="3">
+        <v>3384600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3124100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4711300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1465600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1981400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2102800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>529600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>574900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>527600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>556800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>506200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>34600</v>
+        <v>-43500</v>
       </c>
       <c r="E81" s="3">
-        <v>116000</v>
+        <v>23200</v>
       </c>
       <c r="F81" s="3">
-        <v>-276400</v>
+        <v>33100</v>
       </c>
       <c r="G81" s="3">
-        <v>100700</v>
+        <v>105400</v>
       </c>
       <c r="H81" s="3">
-        <v>24800</v>
+        <v>-343300</v>
       </c>
       <c r="I81" s="3">
+        <v>125200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K81" s="3">
         <v>270100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-210000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>61500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>205800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>45600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>46500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>38100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>51200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>39400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4421,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>205700</v>
+        <v>266200</v>
       </c>
       <c r="E83" s="3">
-        <v>253000</v>
+        <v>409800</v>
       </c>
       <c r="F83" s="3">
-        <v>210700</v>
+        <v>199800</v>
       </c>
       <c r="G83" s="3">
-        <v>286000</v>
+        <v>70600</v>
       </c>
       <c r="H83" s="3">
-        <v>186800</v>
+        <v>259600</v>
       </c>
       <c r="I83" s="3">
+        <v>394400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>181600</v>
+      </c>
+      <c r="K83" s="3">
         <v>235800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>194700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>312700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>138500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>41200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>39900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>39400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>43800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>44800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>218900</v>
+        <v>302400</v>
       </c>
       <c r="E89" s="3">
-        <v>354800</v>
+        <v>583400</v>
       </c>
       <c r="F89" s="3">
-        <v>282400</v>
+        <v>199000</v>
       </c>
       <c r="G89" s="3">
-        <v>474600</v>
+        <v>70500</v>
       </c>
       <c r="H89" s="3">
-        <v>312300</v>
+        <v>365800</v>
       </c>
       <c r="I89" s="3">
+        <v>574700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>284000</v>
+      </c>
+      <c r="K89" s="3">
         <v>172000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>171200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>436500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>223700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>86300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>109200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>120200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>145800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>131100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>82400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-148600</v>
+        <v>-135000</v>
       </c>
       <c r="E91" s="3">
-        <v>-244500</v>
+        <v>-269100</v>
       </c>
       <c r="F91" s="3">
-        <v>-137700</v>
+        <v>-135100</v>
       </c>
       <c r="G91" s="3">
-        <v>-285000</v>
+        <v>-222300</v>
       </c>
       <c r="H91" s="3">
-        <v>-105100</v>
+        <v>-125300</v>
       </c>
       <c r="I91" s="3">
+        <v>-259200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-241000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-125700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-207500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-93200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-66600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-70300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-55000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-68700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-84100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-80400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-157000</v>
+        <v>-291500</v>
       </c>
       <c r="E94" s="3">
-        <v>-230200</v>
+        <v>-290900</v>
       </c>
       <c r="F94" s="3">
-        <v>-104800</v>
+        <v>-142700</v>
       </c>
       <c r="G94" s="3">
-        <v>-272800</v>
+        <v>-209300</v>
       </c>
       <c r="H94" s="3">
-        <v>-93300</v>
+        <v>-95300</v>
       </c>
       <c r="I94" s="3">
+        <v>-248100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-84800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-176800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-127800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-146100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-40600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-57300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-89000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-63500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-134800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-114300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-80300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4624,49 +5092,55 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-278300</v>
+        <v>-1900</v>
       </c>
       <c r="F96" s="3">
-        <v>-113000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-90800</v>
+        <v>-253100</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-102700</v>
       </c>
       <c r="I96" s="3">
+        <v>-82600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-135900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-2200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-395900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-395900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-95800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5301,178 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>42600</v>
+        <v>-389800</v>
       </c>
       <c r="E100" s="3">
-        <v>-326800</v>
+        <v>-57700</v>
       </c>
       <c r="F100" s="3">
-        <v>36200</v>
+        <v>38700</v>
       </c>
       <c r="G100" s="3">
-        <v>-49200</v>
+        <v>-297200</v>
       </c>
       <c r="H100" s="3">
-        <v>-24500</v>
+        <v>32900</v>
       </c>
       <c r="I100" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-22300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-108900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-105200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-61500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-109400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>42500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-15000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-71400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>72500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1000</v>
+        <v>5000</v>
       </c>
       <c r="E101" s="3">
-        <v>24600</v>
+        <v>13200</v>
       </c>
       <c r="F101" s="3">
-        <v>33900</v>
+        <v>-900</v>
       </c>
       <c r="G101" s="3">
-        <v>-19500</v>
+        <v>17600</v>
       </c>
       <c r="H101" s="3">
-        <v>12500</v>
+        <v>35700</v>
       </c>
       <c r="I101" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K101" s="3">
         <v>22600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>27300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>36700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>6800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>3100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>2100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>4400</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>103500</v>
+        <v>-373800</v>
       </c>
       <c r="E102" s="3">
-        <v>-177500</v>
+        <v>248100</v>
       </c>
       <c r="F102" s="3">
-        <v>247700</v>
+        <v>94100</v>
       </c>
       <c r="G102" s="3">
-        <v>133100</v>
+        <v>-288300</v>
       </c>
       <c r="H102" s="3">
-        <v>118700</v>
+        <v>300400</v>
       </c>
       <c r="I102" s="3">
+        <v>172800</v>
+      </c>
+      <c r="J102" s="3">
+        <v>107900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-69700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>41900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>43400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>80400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-77200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>62100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>43700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-61800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>93600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>TEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>827100</v>
+        <v>1019700</v>
       </c>
       <c r="E8" s="3">
-        <v>1742400</v>
+        <v>731900</v>
       </c>
       <c r="F8" s="3">
-        <v>816100</v>
+        <v>1541900</v>
       </c>
       <c r="G8" s="3">
-        <v>954200</v>
+        <v>722200</v>
       </c>
       <c r="H8" s="3">
-        <v>895300</v>
+        <v>1141200</v>
       </c>
       <c r="I8" s="3">
-        <v>1797000</v>
+        <v>792300</v>
       </c>
       <c r="J8" s="3">
+        <v>1590200</v>
+      </c>
+      <c r="K8" s="3">
         <v>854800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1094000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>779500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1991100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>881600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>412800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>384000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>363400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>385900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>378900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>351500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>199800</v>
+        <v>274700</v>
       </c>
       <c r="E9" s="3">
-        <v>420600</v>
+        <v>176800</v>
       </c>
       <c r="F9" s="3">
-        <v>205900</v>
+        <v>372200</v>
       </c>
       <c r="G9" s="3">
-        <v>258600</v>
+        <v>182200</v>
       </c>
       <c r="H9" s="3">
-        <v>239800</v>
+        <v>309300</v>
       </c>
       <c r="I9" s="3">
-        <v>465300</v>
+        <v>212200</v>
       </c>
       <c r="J9" s="3">
+        <v>411800</v>
+      </c>
+      <c r="K9" s="3">
         <v>222500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>288000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>206800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>441500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>156600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>70700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>65400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>58000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>58300</v>
-      </c>
-      <c r="S9" s="3">
-        <v>65600</v>
       </c>
       <c r="T9" s="3">
         <v>65600</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>65600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>627300</v>
+        <v>744900</v>
       </c>
       <c r="E10" s="3">
-        <v>1321800</v>
+        <v>555100</v>
       </c>
       <c r="F10" s="3">
-        <v>610200</v>
+        <v>1169700</v>
       </c>
       <c r="G10" s="3">
-        <v>695600</v>
+        <v>540000</v>
       </c>
       <c r="H10" s="3">
-        <v>655600</v>
+        <v>831900</v>
       </c>
       <c r="I10" s="3">
-        <v>1331700</v>
+        <v>580100</v>
       </c>
       <c r="J10" s="3">
+        <v>1178500</v>
+      </c>
+      <c r="K10" s="3">
         <v>632300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>806000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>572700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1549600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>725000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>342100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>318700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>305400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>327600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>313200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>285900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>26500</v>
+        <v>7000</v>
       </c>
       <c r="E14" s="3">
-        <v>2600</v>
+        <v>23500</v>
       </c>
       <c r="F14" s="3">
-        <v>700</v>
+        <v>2300</v>
       </c>
       <c r="G14" s="3">
-        <v>5300</v>
+        <v>600</v>
       </c>
       <c r="H14" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="I14" s="3">
-        <v>8300</v>
+        <v>5400</v>
       </c>
       <c r="J14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K14" s="3">
         <v>5400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>73400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>59000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>10400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>234800</v>
+        <v>299600</v>
       </c>
       <c r="E15" s="3">
-        <v>441200</v>
+        <v>207800</v>
       </c>
       <c r="F15" s="3">
-        <v>210500</v>
+        <v>390400</v>
       </c>
       <c r="G15" s="3">
-        <v>245900</v>
+        <v>186300</v>
       </c>
       <c r="H15" s="3">
-        <v>229400</v>
+        <v>294200</v>
       </c>
       <c r="I15" s="3">
-        <v>424700</v>
+        <v>203000</v>
       </c>
       <c r="J15" s="3">
+        <v>375800</v>
+      </c>
+      <c r="K15" s="3">
         <v>191300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>236800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>163000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>352800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>151900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>39900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>39400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>43800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>44800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>780200</v>
+        <v>1009800</v>
       </c>
       <c r="E17" s="3">
-        <v>1549900</v>
+        <v>690500</v>
       </c>
       <c r="F17" s="3">
-        <v>741100</v>
+        <v>1371500</v>
       </c>
       <c r="G17" s="3">
-        <v>937000</v>
+        <v>655800</v>
       </c>
       <c r="H17" s="3">
-        <v>830100</v>
+        <v>1121200</v>
       </c>
       <c r="I17" s="3">
-        <v>1619600</v>
+        <v>734500</v>
       </c>
       <c r="J17" s="3">
+        <v>1433200</v>
+      </c>
+      <c r="K17" s="3">
         <v>768100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1034800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>687200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1635100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>701800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>341800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>311400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>295500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>310200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>318100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>304300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>46800</v>
+        <v>9800</v>
       </c>
       <c r="E18" s="3">
-        <v>192500</v>
+        <v>41400</v>
       </c>
       <c r="F18" s="3">
-        <v>75000</v>
+        <v>170400</v>
       </c>
       <c r="G18" s="3">
-        <v>17200</v>
+        <v>66300</v>
       </c>
       <c r="H18" s="3">
-        <v>65300</v>
+        <v>20000</v>
       </c>
       <c r="I18" s="3">
-        <v>177500</v>
+        <v>57800</v>
       </c>
       <c r="J18" s="3">
+        <v>157100</v>
+      </c>
+      <c r="K18" s="3">
         <v>86700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>59200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>92300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>356000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>179800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>71000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>72700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>67900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>75700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>60700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
-        <v>-30200</v>
-      </c>
       <c r="F20" s="3">
-        <v>23100</v>
+        <v>-26800</v>
       </c>
       <c r="G20" s="3">
-        <v>162300</v>
+        <v>20400</v>
       </c>
       <c r="H20" s="3">
-        <v>-294600</v>
+        <v>196000</v>
       </c>
       <c r="I20" s="3">
-        <v>161100</v>
+        <v>-260700</v>
       </c>
       <c r="J20" s="3">
+        <v>142500</v>
+      </c>
+      <c r="K20" s="3">
         <v>32900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>344500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-376400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-322500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>83500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>313600</v>
+        <v>305300</v>
       </c>
       <c r="E21" s="3">
-        <v>572100</v>
+        <v>277500</v>
       </c>
       <c r="F21" s="3">
-        <v>297900</v>
+        <v>506300</v>
       </c>
       <c r="G21" s="3">
-        <v>250200</v>
+        <v>263600</v>
       </c>
       <c r="H21" s="3">
-        <v>30300</v>
+        <v>510200</v>
       </c>
       <c r="I21" s="3">
-        <v>733000</v>
+        <v>26800</v>
       </c>
       <c r="J21" s="3">
+        <v>648600</v>
+      </c>
+      <c r="K21" s="3">
         <v>301200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>639500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-89300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>346300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>401800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>113500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>117000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>102900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>129500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>101700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36600</v>
+        <v>42600</v>
       </c>
       <c r="E22" s="3">
-        <v>92500</v>
+        <v>32400</v>
       </c>
       <c r="F22" s="3">
-        <v>41700</v>
+        <v>81800</v>
       </c>
       <c r="G22" s="3">
-        <v>50700</v>
+        <v>36900</v>
       </c>
       <c r="H22" s="3">
-        <v>45500</v>
+        <v>60700</v>
       </c>
       <c r="I22" s="3">
-        <v>66400</v>
+        <v>40300</v>
       </c>
       <c r="J22" s="3">
+        <v>58800</v>
+      </c>
+      <c r="K22" s="3">
         <v>28900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>23200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>39100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10800</v>
+        <v>-37000</v>
       </c>
       <c r="E23" s="3">
-        <v>69800</v>
+        <v>9600</v>
       </c>
       <c r="F23" s="3">
-        <v>56400</v>
+        <v>61800</v>
       </c>
       <c r="G23" s="3">
-        <v>128900</v>
+        <v>49900</v>
       </c>
       <c r="H23" s="3">
-        <v>-274900</v>
+        <v>155300</v>
       </c>
       <c r="I23" s="3">
-        <v>272100</v>
+        <v>-243300</v>
       </c>
       <c r="J23" s="3">
+        <v>240800</v>
+      </c>
+      <c r="K23" s="3">
         <v>90700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>368100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-307200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>250300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>66200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>72300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>59000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>79000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>46000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52300</v>
+        <v>5100</v>
       </c>
       <c r="E24" s="3">
-        <v>43700</v>
+        <v>46300</v>
       </c>
       <c r="F24" s="3">
-        <v>22000</v>
+        <v>38700</v>
       </c>
       <c r="G24" s="3">
-        <v>20200</v>
+        <v>19500</v>
       </c>
       <c r="H24" s="3">
-        <v>66700</v>
+        <v>23700</v>
       </c>
       <c r="I24" s="3">
-        <v>144500</v>
+        <v>59100</v>
       </c>
       <c r="J24" s="3">
+        <v>127900</v>
+      </c>
+      <c r="K24" s="3">
         <v>66000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>94000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-97200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-68300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>44000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>19600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>6500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-41500</v>
+        <v>-42100</v>
       </c>
       <c r="E26" s="3">
-        <v>26000</v>
+        <v>-36700</v>
       </c>
       <c r="F26" s="3">
-        <v>34300</v>
+        <v>23100</v>
       </c>
       <c r="G26" s="3">
-        <v>108700</v>
+        <v>30400</v>
       </c>
       <c r="H26" s="3">
-        <v>-341700</v>
+        <v>131600</v>
       </c>
       <c r="I26" s="3">
-        <v>127600</v>
+        <v>-302400</v>
       </c>
       <c r="J26" s="3">
+        <v>112900</v>
+      </c>
+      <c r="K26" s="3">
         <v>24700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>274100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-210100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>62700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>206300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>46500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>47200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>38400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>51500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>39500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-43500</v>
+        <v>-44400</v>
       </c>
       <c r="E27" s="3">
-        <v>23200</v>
+        <v>-38500</v>
       </c>
       <c r="F27" s="3">
-        <v>33100</v>
+        <v>20500</v>
       </c>
       <c r="G27" s="3">
-        <v>105400</v>
+        <v>29300</v>
       </c>
       <c r="H27" s="3">
-        <v>-343300</v>
+        <v>127700</v>
       </c>
       <c r="I27" s="3">
-        <v>125200</v>
+        <v>-303800</v>
       </c>
       <c r="J27" s="3">
+        <v>110800</v>
+      </c>
+      <c r="K27" s="3">
         <v>23800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>270100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-210000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>61500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>205800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>45600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>46500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>39400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
-        <v>30200</v>
-      </c>
       <c r="F32" s="3">
-        <v>-23100</v>
+        <v>26800</v>
       </c>
       <c r="G32" s="3">
-        <v>-162300</v>
+        <v>-20400</v>
       </c>
       <c r="H32" s="3">
-        <v>294600</v>
+        <v>-196000</v>
       </c>
       <c r="I32" s="3">
-        <v>-161100</v>
+        <v>260700</v>
       </c>
       <c r="J32" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-32900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-344500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>376400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>322500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-83500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-43500</v>
+        <v>-44400</v>
       </c>
       <c r="E33" s="3">
-        <v>23200</v>
+        <v>-38500</v>
       </c>
       <c r="F33" s="3">
-        <v>33100</v>
+        <v>20500</v>
       </c>
       <c r="G33" s="3">
-        <v>105400</v>
+        <v>29300</v>
       </c>
       <c r="H33" s="3">
-        <v>-343300</v>
+        <v>127700</v>
       </c>
       <c r="I33" s="3">
-        <v>125200</v>
+        <v>-303800</v>
       </c>
       <c r="J33" s="3">
+        <v>110800</v>
+      </c>
+      <c r="K33" s="3">
         <v>23800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>270100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-210000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>61500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>205800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>45600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>46500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>38100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>51200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>39400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-43500</v>
+        <v>-44400</v>
       </c>
       <c r="E35" s="3">
-        <v>23200</v>
+        <v>-38500</v>
       </c>
       <c r="F35" s="3">
-        <v>33100</v>
+        <v>20500</v>
       </c>
       <c r="G35" s="3">
-        <v>105400</v>
+        <v>29300</v>
       </c>
       <c r="H35" s="3">
-        <v>-343300</v>
+        <v>127700</v>
       </c>
       <c r="I35" s="3">
-        <v>125200</v>
+        <v>-303800</v>
       </c>
       <c r="J35" s="3">
+        <v>110800</v>
+      </c>
+      <c r="K35" s="3">
         <v>23800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>270100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-210000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>61500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>205800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>45600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>46500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>38100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>51200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>39400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>260300</v>
+        <v>202300</v>
       </c>
       <c r="E41" s="3">
-        <v>606700</v>
+        <v>230300</v>
       </c>
       <c r="F41" s="3">
-        <v>434400</v>
+        <v>536800</v>
       </c>
       <c r="G41" s="3">
-        <v>386000</v>
+        <v>384400</v>
       </c>
       <c r="H41" s="3">
-        <v>463400</v>
+        <v>380300</v>
       </c>
       <c r="I41" s="3">
-        <v>225100</v>
+        <v>410100</v>
       </c>
       <c r="J41" s="3">
+        <v>199200</v>
+      </c>
+      <c r="K41" s="3">
         <v>167000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>211900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>132100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>115000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>129700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>64900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>142200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>80100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>41500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>103300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>223300</v>
+        <v>71400</v>
       </c>
       <c r="E42" s="3">
-        <v>27800</v>
+        <v>197600</v>
       </c>
       <c r="F42" s="3">
-        <v>10000</v>
+        <v>24600</v>
       </c>
       <c r="G42" s="3">
-        <v>6500</v>
+        <v>8800</v>
       </c>
       <c r="H42" s="3">
-        <v>15400</v>
+        <v>6400</v>
       </c>
       <c r="I42" s="3">
-        <v>22900</v>
+        <v>13700</v>
       </c>
       <c r="J42" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K42" s="3">
         <v>22700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>28600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>89800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>71200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>50600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>78600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>44500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>37200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>112600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>45800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>249900</v>
+        <v>250400</v>
       </c>
       <c r="E43" s="3">
-        <v>251600</v>
+        <v>221100</v>
       </c>
       <c r="F43" s="3">
-        <v>280800</v>
+        <v>222700</v>
       </c>
       <c r="G43" s="3">
-        <v>307500</v>
+        <v>248500</v>
       </c>
       <c r="H43" s="3">
-        <v>255300</v>
+        <v>303000</v>
       </c>
       <c r="I43" s="3">
-        <v>224700</v>
+        <v>225900</v>
       </c>
       <c r="J43" s="3">
+        <v>198900</v>
+      </c>
+      <c r="K43" s="3">
         <v>239000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>439500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>233200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>241900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>201100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>219600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>192400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>188200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>221100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>208600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>222000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>38000</v>
+        <v>40600</v>
       </c>
       <c r="E44" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>25400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>32700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>48600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>37800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>35000</v>
+      </c>
+      <c r="K44" s="3">
+        <v>38400</v>
+      </c>
+      <c r="L44" s="3">
+        <v>57100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>38400</v>
+      </c>
+      <c r="N44" s="3">
+        <v>39300</v>
+      </c>
+      <c r="O44" s="3">
+        <v>33300</v>
+      </c>
+      <c r="P44" s="3">
+        <v>42500</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>44800</v>
+      </c>
+      <c r="R44" s="3">
         <v>28700</v>
       </c>
-      <c r="F44" s="3">
-        <v>36900</v>
-      </c>
-      <c r="G44" s="3">
-        <v>48500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>42700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>39600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>38400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>57100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>38400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>39300</v>
-      </c>
-      <c r="N44" s="3">
-        <v>33300</v>
-      </c>
-      <c r="O44" s="3">
-        <v>42500</v>
-      </c>
-      <c r="P44" s="3">
-        <v>44800</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>28700</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>32200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>33500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23700</v>
+        <v>16900</v>
       </c>
       <c r="E45" s="3">
-        <v>31100</v>
+        <v>21000</v>
       </c>
       <c r="F45" s="3">
-        <v>32600</v>
+        <v>27500</v>
       </c>
       <c r="G45" s="3">
-        <v>17700</v>
+        <v>28800</v>
       </c>
       <c r="H45" s="3">
-        <v>18300</v>
+        <v>17500</v>
       </c>
       <c r="I45" s="3">
-        <v>17300</v>
+        <v>16200</v>
       </c>
       <c r="J45" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K45" s="3">
         <v>17900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>795100</v>
+        <v>581600</v>
       </c>
       <c r="E46" s="3">
-        <v>945900</v>
+        <v>703600</v>
       </c>
       <c r="F46" s="3">
-        <v>794700</v>
+        <v>837000</v>
       </c>
       <c r="G46" s="3">
-        <v>766300</v>
+        <v>703200</v>
       </c>
       <c r="H46" s="3">
-        <v>795200</v>
+        <v>754900</v>
       </c>
       <c r="I46" s="3">
-        <v>529700</v>
+        <v>703700</v>
       </c>
       <c r="J46" s="3">
+        <v>468700</v>
+      </c>
+      <c r="K46" s="3">
         <v>485000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>699100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>516100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>489600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>436800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>418400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>438700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>350600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>426900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>407400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>324600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>46100</v>
+        <v>44300</v>
       </c>
       <c r="E47" s="3">
-        <v>49000</v>
+        <v>40800</v>
       </c>
       <c r="F47" s="3">
-        <v>50600</v>
+        <v>43400</v>
       </c>
       <c r="G47" s="3">
-        <v>59800</v>
+        <v>44800</v>
       </c>
       <c r="H47" s="3">
-        <v>46500</v>
+        <v>58900</v>
       </c>
       <c r="I47" s="3">
-        <v>71500</v>
+        <v>41200</v>
       </c>
       <c r="J47" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K47" s="3">
         <v>77400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>250700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>89200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>72800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>54000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>77900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>116300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>102000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>35400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>34100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3740500</v>
+        <v>3697900</v>
       </c>
       <c r="E48" s="3">
-        <v>3483900</v>
+        <v>3310000</v>
       </c>
       <c r="F48" s="3">
-        <v>3335300</v>
+        <v>3083000</v>
       </c>
       <c r="G48" s="3">
-        <v>3855600</v>
+        <v>2951500</v>
       </c>
       <c r="H48" s="3">
-        <v>2758200</v>
+        <v>3798400</v>
       </c>
       <c r="I48" s="3">
-        <v>2375700</v>
+        <v>2440800</v>
       </c>
       <c r="J48" s="3">
+        <v>2102300</v>
+      </c>
+      <c r="K48" s="3">
         <v>2139500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5958500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1323300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1513900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1432000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>654700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>604100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>567200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>615900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>606500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>575800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3965300</v>
+        <v>3886800</v>
       </c>
       <c r="E49" s="3">
-        <v>3706800</v>
+        <v>3509000</v>
       </c>
       <c r="F49" s="3">
-        <v>3537500</v>
+        <v>3280200</v>
       </c>
       <c r="G49" s="3">
-        <v>4039600</v>
+        <v>3130400</v>
       </c>
       <c r="H49" s="3">
-        <v>3001000</v>
+        <v>3979700</v>
       </c>
       <c r="I49" s="3">
-        <v>2683200</v>
+        <v>2655700</v>
       </c>
       <c r="J49" s="3">
+        <v>2374400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2467700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4866900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1441900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1751000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1755000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>162800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>165000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>169300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>193400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>198800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
-        <v>3100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4300</v>
-      </c>
       <c r="G52" s="3">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="H52" s="3">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="I52" s="3">
-        <v>2400</v>
+        <v>2100</v>
       </c>
       <c r="J52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K52" s="3">
         <v>4100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8549800</v>
+        <v>8212400</v>
       </c>
       <c r="E54" s="3">
-        <v>8188700</v>
+        <v>7565900</v>
       </c>
       <c r="F54" s="3">
-        <v>7722400</v>
+        <v>7246400</v>
       </c>
       <c r="G54" s="3">
-        <v>8724500</v>
+        <v>6833700</v>
       </c>
       <c r="H54" s="3">
-        <v>6603300</v>
+        <v>8595100</v>
       </c>
       <c r="I54" s="3">
-        <v>5662400</v>
+        <v>5843400</v>
       </c>
       <c r="J54" s="3">
+        <v>5010800</v>
+      </c>
+      <c r="K54" s="3">
         <v>5173700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7760300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3377400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3840200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3688400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1321100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1331300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1196700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1279400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1254400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1125600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>416000</v>
+        <v>429800</v>
       </c>
       <c r="E57" s="3">
-        <v>353500</v>
+        <v>368100</v>
       </c>
       <c r="F57" s="3">
-        <v>380600</v>
+        <v>312800</v>
       </c>
       <c r="G57" s="3">
-        <v>482300</v>
+        <v>336800</v>
       </c>
       <c r="H57" s="3">
-        <v>367400</v>
+        <v>475200</v>
       </c>
       <c r="I57" s="3">
-        <v>281600</v>
+        <v>325100</v>
       </c>
       <c r="J57" s="3">
+        <v>249200</v>
+      </c>
+      <c r="K57" s="3">
         <v>262700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>477100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>327800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>313100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>267300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>263400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>244500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>228600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>236000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>235100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>254700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>348900</v>
+        <v>345800</v>
       </c>
       <c r="E58" s="3">
-        <v>856700</v>
+        <v>308700</v>
       </c>
       <c r="F58" s="3">
-        <v>454400</v>
+        <v>758100</v>
       </c>
       <c r="G58" s="3">
-        <v>422800</v>
+        <v>402100</v>
       </c>
       <c r="H58" s="3">
-        <v>302800</v>
+        <v>416500</v>
       </c>
       <c r="I58" s="3">
-        <v>266300</v>
+        <v>268000</v>
       </c>
       <c r="J58" s="3">
+        <v>235700</v>
+      </c>
+      <c r="K58" s="3">
         <v>167600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>341700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>679200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>554200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>401400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>57000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>33500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>23200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>19000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>81500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>393200</v>
+        <v>382500</v>
       </c>
       <c r="E59" s="3">
-        <v>373300</v>
+        <v>348000</v>
       </c>
       <c r="F59" s="3">
-        <v>298900</v>
+        <v>330300</v>
       </c>
       <c r="G59" s="3">
-        <v>392400</v>
+        <v>264500</v>
       </c>
       <c r="H59" s="3">
-        <v>266100</v>
+        <v>386500</v>
       </c>
       <c r="I59" s="3">
-        <v>211400</v>
+        <v>235500</v>
       </c>
       <c r="J59" s="3">
+        <v>187000</v>
+      </c>
+      <c r="K59" s="3">
         <v>237100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>296900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>151600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>166300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>215400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>184000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>192600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>159200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>163200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>115700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1158000</v>
+        <v>1158100</v>
       </c>
       <c r="E60" s="3">
-        <v>1583500</v>
+        <v>1024800</v>
       </c>
       <c r="F60" s="3">
-        <v>1133900</v>
+        <v>1401300</v>
       </c>
       <c r="G60" s="3">
-        <v>1297500</v>
+        <v>1003400</v>
       </c>
       <c r="H60" s="3">
-        <v>936300</v>
+        <v>1278300</v>
       </c>
       <c r="I60" s="3">
-        <v>759300</v>
+        <v>828500</v>
       </c>
       <c r="J60" s="3">
+        <v>671900</v>
+      </c>
+      <c r="K60" s="3">
         <v>667400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1115700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1158600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1033600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>884200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>504400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>470600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>410900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>418200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>432300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>564500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1739200</v>
+        <v>1808000</v>
       </c>
       <c r="E61" s="3">
-        <v>1353000</v>
+        <v>1539100</v>
       </c>
       <c r="F61" s="3">
-        <v>1601800</v>
+        <v>1197300</v>
       </c>
       <c r="G61" s="3">
-        <v>1816700</v>
+        <v>1417500</v>
       </c>
       <c r="H61" s="3">
-        <v>1470100</v>
+        <v>1789700</v>
       </c>
       <c r="I61" s="3">
-        <v>936900</v>
+        <v>1300900</v>
       </c>
       <c r="J61" s="3">
+        <v>829100</v>
+      </c>
+      <c r="K61" s="3">
         <v>918600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1237300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>517600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>470600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>329000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>207400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>206300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>179900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>220400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>226400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1008200</v>
+        <v>1000100</v>
       </c>
       <c r="E62" s="3">
-        <v>901600</v>
+        <v>892200</v>
       </c>
       <c r="F62" s="3">
-        <v>847700</v>
+        <v>797800</v>
       </c>
       <c r="G62" s="3">
-        <v>934600</v>
+        <v>750100</v>
       </c>
       <c r="H62" s="3">
-        <v>665900</v>
+        <v>919200</v>
       </c>
       <c r="I62" s="3">
-        <v>539300</v>
+        <v>589300</v>
       </c>
       <c r="J62" s="3">
+        <v>477300</v>
+      </c>
+      <c r="K62" s="3">
         <v>419700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>681300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>195800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>316300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>338700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>61500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>63700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>63600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>70500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>75400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3974900</v>
+        <v>4036000</v>
       </c>
       <c r="E66" s="3">
-        <v>3901400</v>
+        <v>3517500</v>
       </c>
       <c r="F66" s="3">
-        <v>3644800</v>
+        <v>3452500</v>
       </c>
       <c r="G66" s="3">
-        <v>4120800</v>
+        <v>3225400</v>
       </c>
       <c r="H66" s="3">
-        <v>3125800</v>
+        <v>4059600</v>
       </c>
       <c r="I66" s="3">
-        <v>2277900</v>
+        <v>2766100</v>
       </c>
       <c r="J66" s="3">
+        <v>2015800</v>
+      </c>
+      <c r="K66" s="3">
         <v>2049600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3049000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1911800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1858700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1585600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>791500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>756400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>669100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>722600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>748200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>783600</v>
+        <v>448900</v>
       </c>
       <c r="E72" s="3">
-        <v>768200</v>
+        <v>693400</v>
       </c>
       <c r="F72" s="3">
-        <v>605600</v>
+        <v>679800</v>
       </c>
       <c r="G72" s="3">
-        <v>651200</v>
+        <v>535900</v>
       </c>
       <c r="H72" s="3">
-        <v>579500</v>
+        <v>641600</v>
       </c>
       <c r="I72" s="3">
-        <v>830300</v>
+        <v>512800</v>
       </c>
       <c r="J72" s="3">
+        <v>734800</v>
+      </c>
+      <c r="K72" s="3">
         <v>780000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1156900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-147800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>187300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>224700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>53500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>127500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>275800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>225100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4574900</v>
+        <v>4176400</v>
       </c>
       <c r="E76" s="3">
-        <v>4287300</v>
+        <v>4048400</v>
       </c>
       <c r="F76" s="3">
-        <v>4077500</v>
+        <v>3794000</v>
       </c>
       <c r="G76" s="3">
-        <v>4603800</v>
+        <v>3608300</v>
       </c>
       <c r="H76" s="3">
-        <v>3477500</v>
+        <v>4535500</v>
       </c>
       <c r="I76" s="3">
-        <v>3384600</v>
+        <v>3077300</v>
       </c>
       <c r="J76" s="3">
+        <v>2995100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3124100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4711300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1465600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1981400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2102800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>529600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>574900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>527600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>556800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>506200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-43500</v>
+        <v>-44400</v>
       </c>
       <c r="E81" s="3">
-        <v>23200</v>
+        <v>-38500</v>
       </c>
       <c r="F81" s="3">
-        <v>33100</v>
+        <v>20500</v>
       </c>
       <c r="G81" s="3">
-        <v>105400</v>
+        <v>29300</v>
       </c>
       <c r="H81" s="3">
-        <v>-343300</v>
+        <v>127700</v>
       </c>
       <c r="I81" s="3">
-        <v>125200</v>
+        <v>-303800</v>
       </c>
       <c r="J81" s="3">
+        <v>110800</v>
+      </c>
+      <c r="K81" s="3">
         <v>23800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>270100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-210000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>61500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>205800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>45600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>46500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>38100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>51200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>39400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>266200</v>
+        <v>299600</v>
       </c>
       <c r="E83" s="3">
-        <v>409800</v>
+        <v>235500</v>
       </c>
       <c r="F83" s="3">
-        <v>199800</v>
+        <v>362700</v>
       </c>
       <c r="G83" s="3">
-        <v>70600</v>
+        <v>176800</v>
       </c>
       <c r="H83" s="3">
-        <v>259600</v>
+        <v>294200</v>
       </c>
       <c r="I83" s="3">
-        <v>394400</v>
+        <v>229800</v>
       </c>
       <c r="J83" s="3">
+        <v>349100</v>
+      </c>
+      <c r="K83" s="3">
         <v>181600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>235800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>194700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>312700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>138500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>39900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>39400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>44800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>302400</v>
+        <v>322600</v>
       </c>
       <c r="E89" s="3">
-        <v>583400</v>
+        <v>267600</v>
       </c>
       <c r="F89" s="3">
-        <v>199000</v>
+        <v>516300</v>
       </c>
       <c r="G89" s="3">
-        <v>70500</v>
+        <v>176100</v>
       </c>
       <c r="H89" s="3">
-        <v>365800</v>
+        <v>385800</v>
       </c>
       <c r="I89" s="3">
-        <v>574700</v>
+        <v>323700</v>
       </c>
       <c r="J89" s="3">
+        <v>508500</v>
+      </c>
+      <c r="K89" s="3">
         <v>284000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>172000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>171200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>436500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>223700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>86300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>109200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>120200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>145800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>131100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>82400</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-135000</v>
+        <v>-213400</v>
       </c>
       <c r="E91" s="3">
-        <v>-269100</v>
+        <v>-119400</v>
       </c>
       <c r="F91" s="3">
-        <v>-135100</v>
+        <v>-238200</v>
       </c>
       <c r="G91" s="3">
-        <v>-222300</v>
+        <v>-119600</v>
       </c>
       <c r="H91" s="3">
-        <v>-125300</v>
+        <v>-196700</v>
       </c>
       <c r="I91" s="3">
-        <v>-259200</v>
+        <v>-110800</v>
       </c>
       <c r="J91" s="3">
+        <v>-229400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-95600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-241000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-125700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-207500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-93200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-66600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-55000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-68700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-84100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-80400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-291500</v>
+        <v>-392600</v>
       </c>
       <c r="E94" s="3">
-        <v>-290900</v>
+        <v>-258000</v>
       </c>
       <c r="F94" s="3">
-        <v>-142700</v>
+        <v>-257400</v>
       </c>
       <c r="G94" s="3">
-        <v>-209300</v>
+        <v>-126300</v>
       </c>
       <c r="H94" s="3">
-        <v>-95300</v>
+        <v>-185200</v>
       </c>
       <c r="I94" s="3">
-        <v>-248100</v>
+        <v>-84300</v>
       </c>
       <c r="J94" s="3">
+        <v>-219500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-84800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-176800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-127800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-146100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-57300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-89000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-63500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-134800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-114300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-80300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="G96" s="3">
-        <v>-253100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-102700</v>
+        <v>-224000</v>
       </c>
       <c r="I96" s="3">
-        <v>-82600</v>
+        <v>-90900</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-73100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-135900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-2200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-395900</v>
       </c>
       <c r="N96" s="3">
         <v>-395900</v>
       </c>
       <c r="O96" s="3">
+        <v>-395900</v>
+      </c>
+      <c r="P96" s="3">
         <v>-95800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-389800</v>
+        <v>4900</v>
       </c>
       <c r="E100" s="3">
-        <v>-57700</v>
+        <v>-344900</v>
       </c>
       <c r="F100" s="3">
-        <v>38700</v>
+        <v>-51100</v>
       </c>
       <c r="G100" s="3">
-        <v>-297200</v>
+        <v>34300</v>
       </c>
       <c r="H100" s="3">
-        <v>32900</v>
+        <v>-263000</v>
       </c>
       <c r="I100" s="3">
-        <v>-44800</v>
+        <v>29100</v>
       </c>
       <c r="J100" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-22300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-108900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-105200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-61500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-109400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>42500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-15000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-71400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>72500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5000</v>
+        <v>-1600</v>
       </c>
       <c r="E101" s="3">
-        <v>13200</v>
+        <v>4400</v>
       </c>
       <c r="F101" s="3">
-        <v>-900</v>
+        <v>11700</v>
       </c>
       <c r="G101" s="3">
-        <v>17600</v>
+        <v>-800</v>
       </c>
       <c r="H101" s="3">
-        <v>35700</v>
+        <v>26900</v>
       </c>
       <c r="I101" s="3">
-        <v>-17700</v>
+        <v>31600</v>
       </c>
       <c r="J101" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="K101" s="3">
         <v>11400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>22600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>27300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>36700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4400</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-373800</v>
+        <v>-66700</v>
       </c>
       <c r="E102" s="3">
-        <v>248100</v>
+        <v>-330800</v>
       </c>
       <c r="F102" s="3">
-        <v>94100</v>
+        <v>219500</v>
       </c>
       <c r="G102" s="3">
-        <v>-288300</v>
+        <v>83300</v>
       </c>
       <c r="H102" s="3">
-        <v>300400</v>
+        <v>-196000</v>
       </c>
       <c r="I102" s="3">
-        <v>172800</v>
+        <v>265800</v>
       </c>
       <c r="J102" s="3">
+        <v>152900</v>
+      </c>
+      <c r="K102" s="3">
         <v>107900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-69700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>41900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>43400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>80400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-77200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>62100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>43700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-61800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>93600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>TEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1019700</v>
+        <v>875800</v>
       </c>
       <c r="E8" s="3">
-        <v>731900</v>
+        <v>990700</v>
       </c>
       <c r="F8" s="3">
-        <v>1541900</v>
+        <v>711100</v>
       </c>
       <c r="G8" s="3">
-        <v>722200</v>
+        <v>1498100</v>
       </c>
       <c r="H8" s="3">
-        <v>1141200</v>
+        <v>949900</v>
       </c>
       <c r="I8" s="3">
-        <v>792300</v>
+        <v>1108800</v>
       </c>
       <c r="J8" s="3">
+        <v>769800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1590200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>854800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1094000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>779500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1991100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>881600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>412800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>384000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>363400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>385900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>378900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>351500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>274700</v>
+        <v>237200</v>
       </c>
       <c r="E9" s="3">
-        <v>176800</v>
+        <v>266900</v>
       </c>
       <c r="F9" s="3">
-        <v>372200</v>
+        <v>171800</v>
       </c>
       <c r="G9" s="3">
-        <v>182200</v>
+        <v>361600</v>
       </c>
       <c r="H9" s="3">
-        <v>309300</v>
+        <v>239700</v>
       </c>
       <c r="I9" s="3">
-        <v>212200</v>
+        <v>300500</v>
       </c>
       <c r="J9" s="3">
+        <v>206200</v>
+      </c>
+      <c r="K9" s="3">
         <v>411800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>222500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>288000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>206800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>441500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>156600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>70700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>65400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>58000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>58300</v>
-      </c>
-      <c r="T9" s="3">
-        <v>65600</v>
       </c>
       <c r="U9" s="3">
         <v>65600</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>65600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>744900</v>
+        <v>638600</v>
       </c>
       <c r="E10" s="3">
-        <v>555100</v>
+        <v>723800</v>
       </c>
       <c r="F10" s="3">
-        <v>1169700</v>
+        <v>539300</v>
       </c>
       <c r="G10" s="3">
-        <v>540000</v>
+        <v>1136500</v>
       </c>
       <c r="H10" s="3">
-        <v>831900</v>
+        <v>710200</v>
       </c>
       <c r="I10" s="3">
-        <v>580100</v>
+        <v>808200</v>
       </c>
       <c r="J10" s="3">
+        <v>563600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1178500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>632300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>806000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>572700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1549600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>725000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>342100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>318700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>305400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>327600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>313200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>285900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="3">
-        <v>23500</v>
+        <v>6800</v>
       </c>
       <c r="F14" s="3">
-        <v>2300</v>
+        <v>22800</v>
       </c>
       <c r="G14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="L14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M14" s="3">
+        <v>23100</v>
+      </c>
+      <c r="N14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="O14" s="3">
+        <v>73400</v>
+      </c>
+      <c r="P14" s="3">
+        <v>59000</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>10400</v>
+      </c>
+      <c r="R14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T14" s="3">
+        <v>5900</v>
+      </c>
+      <c r="U14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
-        <v>6400</v>
-      </c>
-      <c r="I14" s="3">
-        <v>5400</v>
-      </c>
-      <c r="J14" s="3">
-        <v>7300</v>
-      </c>
-      <c r="K14" s="3">
-        <v>5400</v>
-      </c>
-      <c r="L14" s="3">
-        <v>23100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>6100</v>
-      </c>
-      <c r="N14" s="3">
-        <v>73400</v>
-      </c>
-      <c r="O14" s="3">
-        <v>59000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>10400</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>2100</v>
-      </c>
-      <c r="R14" s="3">
-        <v>3100</v>
-      </c>
-      <c r="S14" s="3">
-        <v>5900</v>
-      </c>
-      <c r="T14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="U14" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>299600</v>
+        <v>260800</v>
       </c>
       <c r="E15" s="3">
-        <v>207800</v>
+        <v>291100</v>
       </c>
       <c r="F15" s="3">
-        <v>390400</v>
+        <v>201900</v>
       </c>
       <c r="G15" s="3">
-        <v>186300</v>
+        <v>379400</v>
       </c>
       <c r="H15" s="3">
-        <v>294200</v>
+        <v>245000</v>
       </c>
       <c r="I15" s="3">
-        <v>203000</v>
+        <v>285900</v>
       </c>
       <c r="J15" s="3">
+        <v>197300</v>
+      </c>
+      <c r="K15" s="3">
         <v>375800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>191300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>236800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>163000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>352800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>151900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>41200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>39900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>39400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>43800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>44800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1009800</v>
+        <v>818700</v>
       </c>
       <c r="E17" s="3">
-        <v>690500</v>
+        <v>981200</v>
       </c>
       <c r="F17" s="3">
-        <v>1371500</v>
+        <v>670900</v>
       </c>
       <c r="G17" s="3">
-        <v>655800</v>
+        <v>1332600</v>
       </c>
       <c r="H17" s="3">
-        <v>1121200</v>
+        <v>862600</v>
       </c>
       <c r="I17" s="3">
-        <v>734500</v>
+        <v>1089400</v>
       </c>
       <c r="J17" s="3">
+        <v>713700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1433200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>768100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1034800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>687200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1635100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>701800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>341800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>311400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>295500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>310200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>318100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>304300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9800</v>
+        <v>57200</v>
       </c>
       <c r="E18" s="3">
-        <v>41400</v>
+        <v>9600</v>
       </c>
       <c r="F18" s="3">
-        <v>170400</v>
+        <v>40200</v>
       </c>
       <c r="G18" s="3">
-        <v>66300</v>
+        <v>165500</v>
       </c>
       <c r="H18" s="3">
-        <v>20000</v>
+        <v>87300</v>
       </c>
       <c r="I18" s="3">
-        <v>57800</v>
+        <v>19400</v>
       </c>
       <c r="J18" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K18" s="3">
         <v>157100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>86700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>59200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>92300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>356000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>179800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>71000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>72700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>67900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>75700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>60700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4100</v>
+        <v>101400</v>
       </c>
       <c r="E20" s="3">
-        <v>600</v>
+        <v>-4000</v>
       </c>
       <c r="F20" s="3">
-        <v>-26800</v>
+        <v>500</v>
       </c>
       <c r="G20" s="3">
-        <v>20400</v>
+        <v>-26000</v>
       </c>
       <c r="H20" s="3">
-        <v>196000</v>
+        <v>26900</v>
       </c>
       <c r="I20" s="3">
-        <v>-260700</v>
+        <v>190400</v>
       </c>
       <c r="J20" s="3">
+        <v>-253300</v>
+      </c>
+      <c r="K20" s="3">
         <v>142500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>32900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>344500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-376400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-322500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>83500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>305300</v>
+        <v>419400</v>
       </c>
       <c r="E21" s="3">
-        <v>277500</v>
+        <v>296600</v>
       </c>
       <c r="F21" s="3">
-        <v>506300</v>
+        <v>269600</v>
       </c>
       <c r="G21" s="3">
-        <v>263600</v>
+        <v>491900</v>
       </c>
       <c r="H21" s="3">
-        <v>510200</v>
+        <v>359200</v>
       </c>
       <c r="I21" s="3">
-        <v>26800</v>
+        <v>495700</v>
       </c>
       <c r="J21" s="3">
+        <v>26000</v>
+      </c>
+      <c r="K21" s="3">
         <v>648600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>301200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>639500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-89300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>346300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>401800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>113500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>117000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>102900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>129500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>101700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>42600</v>
+        <v>28700</v>
       </c>
       <c r="E22" s="3">
-        <v>32400</v>
+        <v>41400</v>
       </c>
       <c r="F22" s="3">
-        <v>81800</v>
+        <v>31500</v>
       </c>
       <c r="G22" s="3">
-        <v>36900</v>
+        <v>79500</v>
       </c>
       <c r="H22" s="3">
-        <v>60700</v>
+        <v>48600</v>
       </c>
       <c r="I22" s="3">
-        <v>40300</v>
+        <v>58900</v>
       </c>
       <c r="J22" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K22" s="3">
         <v>58800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>28900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>35600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>23200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>39100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>6200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-37000</v>
+        <v>129900</v>
       </c>
       <c r="E23" s="3">
-        <v>9600</v>
+        <v>-35900</v>
       </c>
       <c r="F23" s="3">
-        <v>61800</v>
+        <v>9300</v>
       </c>
       <c r="G23" s="3">
-        <v>49900</v>
+        <v>60000</v>
       </c>
       <c r="H23" s="3">
-        <v>155300</v>
+        <v>65600</v>
       </c>
       <c r="I23" s="3">
-        <v>-243300</v>
+        <v>150900</v>
       </c>
       <c r="J23" s="3">
+        <v>-236400</v>
+      </c>
+      <c r="K23" s="3">
         <v>240800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>90700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>368100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-307200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>250300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>66200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>72300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>59000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>79000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>46000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5100</v>
+        <v>34200</v>
       </c>
       <c r="E24" s="3">
-        <v>46300</v>
+        <v>5000</v>
       </c>
       <c r="F24" s="3">
-        <v>38700</v>
+        <v>44900</v>
       </c>
       <c r="G24" s="3">
-        <v>19500</v>
+        <v>37600</v>
       </c>
       <c r="H24" s="3">
-        <v>23700</v>
+        <v>25600</v>
       </c>
       <c r="I24" s="3">
-        <v>59100</v>
+        <v>23000</v>
       </c>
       <c r="J24" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K24" s="3">
         <v>127900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>66000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>94000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-97200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-68300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>44000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>19600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>25100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>27500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-42100</v>
+        <v>95600</v>
       </c>
       <c r="E26" s="3">
-        <v>-36700</v>
+        <v>-40900</v>
       </c>
       <c r="F26" s="3">
-        <v>23100</v>
+        <v>-35600</v>
       </c>
       <c r="G26" s="3">
-        <v>30400</v>
+        <v>22400</v>
       </c>
       <c r="H26" s="3">
-        <v>131600</v>
+        <v>40000</v>
       </c>
       <c r="I26" s="3">
-        <v>-302400</v>
+        <v>127900</v>
       </c>
       <c r="J26" s="3">
+        <v>-293800</v>
+      </c>
+      <c r="K26" s="3">
         <v>112900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>274100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-210100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>62700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>206300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>46500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>47200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>51500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>39500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-44400</v>
+        <v>92700</v>
       </c>
       <c r="E27" s="3">
-        <v>-38500</v>
+        <v>-43200</v>
       </c>
       <c r="F27" s="3">
-        <v>20500</v>
+        <v>-37400</v>
       </c>
       <c r="G27" s="3">
-        <v>29300</v>
+        <v>19900</v>
       </c>
       <c r="H27" s="3">
-        <v>127700</v>
+        <v>38600</v>
       </c>
       <c r="I27" s="3">
-        <v>-303800</v>
+        <v>124100</v>
       </c>
       <c r="J27" s="3">
+        <v>-295200</v>
+      </c>
+      <c r="K27" s="3">
         <v>110800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>270100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-210000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>61500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>205800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>45600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>46500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>51200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>39400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4100</v>
+        <v>-101400</v>
       </c>
       <c r="E32" s="3">
-        <v>-600</v>
+        <v>4000</v>
       </c>
       <c r="F32" s="3">
-        <v>26800</v>
+        <v>-500</v>
       </c>
       <c r="G32" s="3">
-        <v>-20400</v>
+        <v>26000</v>
       </c>
       <c r="H32" s="3">
-        <v>-196000</v>
+        <v>-26900</v>
       </c>
       <c r="I32" s="3">
-        <v>260700</v>
+        <v>-190400</v>
       </c>
       <c r="J32" s="3">
+        <v>253300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-142500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-32900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-344500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>376400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>322500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-83500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-44400</v>
+        <v>92700</v>
       </c>
       <c r="E33" s="3">
-        <v>-38500</v>
+        <v>-43200</v>
       </c>
       <c r="F33" s="3">
-        <v>20500</v>
+        <v>-37400</v>
       </c>
       <c r="G33" s="3">
-        <v>29300</v>
+        <v>19900</v>
       </c>
       <c r="H33" s="3">
-        <v>127700</v>
+        <v>38600</v>
       </c>
       <c r="I33" s="3">
-        <v>-303800</v>
+        <v>124100</v>
       </c>
       <c r="J33" s="3">
+        <v>-295200</v>
+      </c>
+      <c r="K33" s="3">
         <v>110800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>270100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-210000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>61500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>205800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>45600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>46500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>38100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>51200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>39400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-44400</v>
+        <v>92700</v>
       </c>
       <c r="E35" s="3">
-        <v>-38500</v>
+        <v>-43200</v>
       </c>
       <c r="F35" s="3">
-        <v>20500</v>
+        <v>-37400</v>
       </c>
       <c r="G35" s="3">
-        <v>29300</v>
+        <v>19900</v>
       </c>
       <c r="H35" s="3">
-        <v>127700</v>
+        <v>38600</v>
       </c>
       <c r="I35" s="3">
-        <v>-303800</v>
+        <v>124100</v>
       </c>
       <c r="J35" s="3">
+        <v>-295200</v>
+      </c>
+      <c r="K35" s="3">
         <v>110800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>270100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-210000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>61500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>205800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>45600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>46500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>38100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>51200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>39400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>202300</v>
+        <v>335700</v>
       </c>
       <c r="E41" s="3">
-        <v>230300</v>
+        <v>222000</v>
       </c>
       <c r="F41" s="3">
-        <v>536800</v>
+        <v>223800</v>
       </c>
       <c r="G41" s="3">
-        <v>384400</v>
+        <v>521600</v>
       </c>
       <c r="H41" s="3">
-        <v>380300</v>
+        <v>373500</v>
       </c>
       <c r="I41" s="3">
-        <v>410100</v>
+        <v>369500</v>
       </c>
       <c r="J41" s="3">
+        <v>398400</v>
+      </c>
+      <c r="K41" s="3">
         <v>199200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>167000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>211900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>132100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>115000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>129700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>64900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>142200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>80100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>41500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>103300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>71400</v>
+        <v>57600</v>
       </c>
       <c r="E42" s="3">
-        <v>197600</v>
+        <v>78400</v>
       </c>
       <c r="F42" s="3">
-        <v>24600</v>
+        <v>192000</v>
       </c>
       <c r="G42" s="3">
-        <v>8800</v>
+        <v>23900</v>
       </c>
       <c r="H42" s="3">
-        <v>6400</v>
+        <v>8600</v>
       </c>
       <c r="I42" s="3">
-        <v>13700</v>
+        <v>6200</v>
       </c>
       <c r="J42" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K42" s="3">
         <v>20300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>28600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>89800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>71200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>50600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>78600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>44500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>37200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>112600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>45800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>250400</v>
+        <v>289200</v>
       </c>
       <c r="E43" s="3">
+        <v>274800</v>
+      </c>
+      <c r="F43" s="3">
+        <v>214800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>216400</v>
+      </c>
+      <c r="H43" s="3">
+        <v>241400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>294400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>219500</v>
+      </c>
+      <c r="K43" s="3">
+        <v>198900</v>
+      </c>
+      <c r="L43" s="3">
+        <v>239000</v>
+      </c>
+      <c r="M43" s="3">
+        <v>439500</v>
+      </c>
+      <c r="N43" s="3">
+        <v>233200</v>
+      </c>
+      <c r="O43" s="3">
+        <v>241900</v>
+      </c>
+      <c r="P43" s="3">
+        <v>201100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>219600</v>
+      </c>
+      <c r="R43" s="3">
+        <v>192400</v>
+      </c>
+      <c r="S43" s="3">
+        <v>188200</v>
+      </c>
+      <c r="T43" s="3">
         <v>221100</v>
       </c>
-      <c r="F43" s="3">
-        <v>222700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>248500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>303000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>225900</v>
-      </c>
-      <c r="J43" s="3">
-        <v>198900</v>
-      </c>
-      <c r="K43" s="3">
-        <v>239000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>439500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>233200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>241900</v>
-      </c>
-      <c r="O43" s="3">
-        <v>201100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>219600</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>192400</v>
-      </c>
-      <c r="R43" s="3">
-        <v>188200</v>
-      </c>
-      <c r="S43" s="3">
-        <v>221100</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>208600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>222000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>40600</v>
+        <v>41100</v>
       </c>
       <c r="E44" s="3">
-        <v>33600</v>
+        <v>44600</v>
       </c>
       <c r="F44" s="3">
-        <v>25400</v>
+        <v>32600</v>
       </c>
       <c r="G44" s="3">
-        <v>32700</v>
+        <v>24700</v>
       </c>
       <c r="H44" s="3">
-        <v>48600</v>
+        <v>31700</v>
       </c>
       <c r="I44" s="3">
-        <v>37800</v>
+        <v>47300</v>
       </c>
       <c r="J44" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K44" s="3">
         <v>35000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>38400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>57100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>38400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>39300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>33300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>42500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>44800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>28700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>32200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>33500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16900</v>
+        <v>30800</v>
       </c>
       <c r="E45" s="3">
-        <v>21000</v>
+        <v>18500</v>
       </c>
       <c r="F45" s="3">
-        <v>27500</v>
+        <v>20400</v>
       </c>
       <c r="G45" s="3">
-        <v>28800</v>
+        <v>26700</v>
       </c>
       <c r="H45" s="3">
-        <v>17500</v>
+        <v>28000</v>
       </c>
       <c r="I45" s="3">
+        <v>17000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K45" s="3">
+        <v>15300</v>
+      </c>
+      <c r="L45" s="3">
+        <v>17900</v>
+      </c>
+      <c r="M45" s="3">
+        <v>31000</v>
+      </c>
+      <c r="N45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="O45" s="3">
+        <v>22200</v>
+      </c>
+      <c r="P45" s="3">
+        <v>22100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>12700</v>
+      </c>
+      <c r="R45" s="3">
+        <v>14900</v>
+      </c>
+      <c r="S45" s="3">
+        <v>16500</v>
+      </c>
+      <c r="T45" s="3">
+        <v>19600</v>
+      </c>
+      <c r="U45" s="3">
         <v>16200</v>
       </c>
-      <c r="J45" s="3">
-        <v>15300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>17900</v>
-      </c>
-      <c r="L45" s="3">
-        <v>31000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>22600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>22200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>22100</v>
-      </c>
-      <c r="P45" s="3">
-        <v>12700</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>14900</v>
-      </c>
-      <c r="R45" s="3">
-        <v>16500</v>
-      </c>
-      <c r="S45" s="3">
-        <v>19600</v>
-      </c>
-      <c r="T45" s="3">
-        <v>16200</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>581600</v>
+        <v>754400</v>
       </c>
       <c r="E46" s="3">
-        <v>703600</v>
+        <v>638300</v>
       </c>
       <c r="F46" s="3">
-        <v>837000</v>
+        <v>683600</v>
       </c>
       <c r="G46" s="3">
-        <v>703200</v>
+        <v>813300</v>
       </c>
       <c r="H46" s="3">
-        <v>754900</v>
+        <v>683300</v>
       </c>
       <c r="I46" s="3">
-        <v>703700</v>
+        <v>733500</v>
       </c>
       <c r="J46" s="3">
+        <v>683700</v>
+      </c>
+      <c r="K46" s="3">
         <v>468700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>485000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>699100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>516100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>489600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>436800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>418400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>438700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>350600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>426900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>407400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>324600</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>44300</v>
+        <v>44900</v>
       </c>
       <c r="E47" s="3">
-        <v>40800</v>
+        <v>48600</v>
       </c>
       <c r="F47" s="3">
-        <v>43400</v>
+        <v>39700</v>
       </c>
       <c r="G47" s="3">
-        <v>44800</v>
+        <v>42200</v>
       </c>
       <c r="H47" s="3">
-        <v>58900</v>
+        <v>43500</v>
       </c>
       <c r="I47" s="3">
-        <v>41200</v>
+        <v>57300</v>
       </c>
       <c r="J47" s="3">
+        <v>40000</v>
+      </c>
+      <c r="K47" s="3">
         <v>63300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>77400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>250700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>89200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>72800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>54000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>77900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>116300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>102000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>35400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>34100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3697900</v>
+        <v>4031700</v>
       </c>
       <c r="E48" s="3">
-        <v>3310000</v>
+        <v>4058300</v>
       </c>
       <c r="F48" s="3">
-        <v>3083000</v>
+        <v>3216100</v>
       </c>
       <c r="G48" s="3">
-        <v>2951500</v>
+        <v>2995500</v>
       </c>
       <c r="H48" s="3">
-        <v>3798400</v>
+        <v>2867700</v>
       </c>
       <c r="I48" s="3">
-        <v>2440800</v>
+        <v>3690500</v>
       </c>
       <c r="J48" s="3">
+        <v>2371500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2102300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2139500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5958500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1323300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1513900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1432000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>654700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>604100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>567200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>615900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>606500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>575800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3886800</v>
+        <v>4238900</v>
       </c>
       <c r="E49" s="3">
-        <v>3509000</v>
+        <v>5369300</v>
       </c>
       <c r="F49" s="3">
-        <v>3280200</v>
+        <v>3409400</v>
       </c>
       <c r="G49" s="3">
-        <v>3130400</v>
+        <v>3187100</v>
       </c>
       <c r="H49" s="3">
-        <v>3979700</v>
+        <v>3041600</v>
       </c>
       <c r="I49" s="3">
-        <v>2655700</v>
+        <v>3866700</v>
       </c>
       <c r="J49" s="3">
+        <v>2580300</v>
+      </c>
+      <c r="K49" s="3">
         <v>2374400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2467700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4866900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1441900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1751000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1755000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>162800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>165000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>169300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>193400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>198800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>5100</v>
       </c>
       <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2400</v>
       </c>
-      <c r="F52" s="3">
-        <v>2800</v>
-      </c>
       <c r="G52" s="3">
-        <v>3800</v>
+        <v>2700</v>
       </c>
       <c r="H52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I52" s="3">
         <v>3200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8212400</v>
+        <v>9075000</v>
       </c>
       <c r="E54" s="3">
-        <v>7565900</v>
+        <v>9012800</v>
       </c>
       <c r="F54" s="3">
-        <v>7246400</v>
+        <v>7351200</v>
       </c>
       <c r="G54" s="3">
-        <v>6833700</v>
+        <v>7040700</v>
       </c>
       <c r="H54" s="3">
-        <v>8595100</v>
+        <v>6639700</v>
       </c>
       <c r="I54" s="3">
-        <v>5843400</v>
+        <v>8351100</v>
       </c>
       <c r="J54" s="3">
+        <v>5677500</v>
+      </c>
+      <c r="K54" s="3">
         <v>5010800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5173700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7760300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3377400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3840200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3688400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1321100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1331300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1196700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1279400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1254400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1125600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>429800</v>
+        <v>469000</v>
       </c>
       <c r="E57" s="3">
-        <v>368100</v>
+        <v>471700</v>
       </c>
       <c r="F57" s="3">
-        <v>312800</v>
+        <v>357600</v>
       </c>
       <c r="G57" s="3">
-        <v>336800</v>
+        <v>304000</v>
       </c>
       <c r="H57" s="3">
-        <v>475200</v>
+        <v>327300</v>
       </c>
       <c r="I57" s="3">
-        <v>325100</v>
+        <v>461700</v>
       </c>
       <c r="J57" s="3">
+        <v>315900</v>
+      </c>
+      <c r="K57" s="3">
         <v>249200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>262700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>477100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>327800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>313100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>267300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>263400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>244500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>228600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>236000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>235100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>254700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>345800</v>
+        <v>426000</v>
       </c>
       <c r="E58" s="3">
-        <v>308700</v>
+        <v>379500</v>
       </c>
       <c r="F58" s="3">
-        <v>758100</v>
+        <v>299900</v>
       </c>
       <c r="G58" s="3">
-        <v>402100</v>
+        <v>736600</v>
       </c>
       <c r="H58" s="3">
-        <v>416500</v>
+        <v>390700</v>
       </c>
       <c r="I58" s="3">
-        <v>268000</v>
+        <v>404700</v>
       </c>
       <c r="J58" s="3">
+        <v>260400</v>
+      </c>
+      <c r="K58" s="3">
         <v>235700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>167600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>341700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>679200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>554200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>401400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>57000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>33500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>23200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>19000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>81500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>382500</v>
+        <v>367700</v>
       </c>
       <c r="E59" s="3">
-        <v>348000</v>
+        <v>429700</v>
       </c>
       <c r="F59" s="3">
-        <v>330300</v>
+        <v>338100</v>
       </c>
       <c r="G59" s="3">
-        <v>264500</v>
+        <v>320900</v>
       </c>
       <c r="H59" s="3">
-        <v>386500</v>
+        <v>257000</v>
       </c>
       <c r="I59" s="3">
-        <v>235500</v>
+        <v>375600</v>
       </c>
       <c r="J59" s="3">
+        <v>228800</v>
+      </c>
+      <c r="K59" s="3">
         <v>187000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>237100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>296900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>151600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>166300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>215400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>184000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>192600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>159200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>163200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>115700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1158100</v>
+        <v>1262800</v>
       </c>
       <c r="E60" s="3">
-        <v>1024800</v>
+        <v>1270900</v>
       </c>
       <c r="F60" s="3">
-        <v>1401300</v>
+        <v>995700</v>
       </c>
       <c r="G60" s="3">
-        <v>1003400</v>
+        <v>1361500</v>
       </c>
       <c r="H60" s="3">
-        <v>1278300</v>
+        <v>974900</v>
       </c>
       <c r="I60" s="3">
-        <v>828500</v>
+        <v>1242000</v>
       </c>
       <c r="J60" s="3">
+        <v>805000</v>
+      </c>
+      <c r="K60" s="3">
         <v>671900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>667400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1115700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1158600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1033600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>884200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>504400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>470600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>410900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>418200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>432300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>564500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1808000</v>
+        <v>1944500</v>
       </c>
       <c r="E61" s="3">
-        <v>1539100</v>
+        <v>1984200</v>
       </c>
       <c r="F61" s="3">
-        <v>1197300</v>
+        <v>1495400</v>
       </c>
       <c r="G61" s="3">
-        <v>1417500</v>
+        <v>1163300</v>
       </c>
       <c r="H61" s="3">
-        <v>1789700</v>
+        <v>1377200</v>
       </c>
       <c r="I61" s="3">
-        <v>1300900</v>
+        <v>1738900</v>
       </c>
       <c r="J61" s="3">
+        <v>1264000</v>
+      </c>
+      <c r="K61" s="3">
         <v>829100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>918600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1237300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>517600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>470600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>329000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>207400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>206300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>179900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>220400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>226400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000100</v>
+        <v>1111300</v>
       </c>
       <c r="E62" s="3">
-        <v>892200</v>
+        <v>1097600</v>
       </c>
       <c r="F62" s="3">
-        <v>797800</v>
+        <v>866900</v>
       </c>
       <c r="G62" s="3">
-        <v>750100</v>
+        <v>775200</v>
       </c>
       <c r="H62" s="3">
-        <v>919200</v>
+        <v>728800</v>
       </c>
       <c r="I62" s="3">
-        <v>589300</v>
+        <v>893100</v>
       </c>
       <c r="J62" s="3">
+        <v>572500</v>
+      </c>
+      <c r="K62" s="3">
         <v>477300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>419700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>681300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>195800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>316300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>338700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>61500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>63700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>63600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>70500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>75400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4036000</v>
+        <v>4398400</v>
       </c>
       <c r="E66" s="3">
-        <v>3517500</v>
+        <v>4429400</v>
       </c>
       <c r="F66" s="3">
-        <v>3452500</v>
+        <v>3417700</v>
       </c>
       <c r="G66" s="3">
-        <v>3225400</v>
+        <v>3354500</v>
       </c>
       <c r="H66" s="3">
-        <v>4059600</v>
+        <v>3133800</v>
       </c>
       <c r="I66" s="3">
-        <v>2766100</v>
+        <v>3944400</v>
       </c>
       <c r="J66" s="3">
+        <v>2687600</v>
+      </c>
+      <c r="K66" s="3">
         <v>2015800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2049600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3049000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1911800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1858700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1585600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>791500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>756400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>669100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>722600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>748200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>448900</v>
+        <v>585500</v>
       </c>
       <c r="E72" s="3">
-        <v>693400</v>
+        <v>492700</v>
       </c>
       <c r="F72" s="3">
-        <v>679800</v>
+        <v>673700</v>
       </c>
       <c r="G72" s="3">
-        <v>535900</v>
+        <v>660500</v>
       </c>
       <c r="H72" s="3">
-        <v>641600</v>
+        <v>520700</v>
       </c>
       <c r="I72" s="3">
-        <v>512800</v>
+        <v>623400</v>
       </c>
       <c r="J72" s="3">
+        <v>498300</v>
+      </c>
+      <c r="K72" s="3">
         <v>734800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>780000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1156900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-147800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>187300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>224700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>53500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>127500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>275800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>225100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4176400</v>
+        <v>4676600</v>
       </c>
       <c r="E76" s="3">
-        <v>4048400</v>
+        <v>4583500</v>
       </c>
       <c r="F76" s="3">
-        <v>3794000</v>
+        <v>3933500</v>
       </c>
       <c r="G76" s="3">
-        <v>3608300</v>
+        <v>3686300</v>
       </c>
       <c r="H76" s="3">
-        <v>4535500</v>
+        <v>3505900</v>
       </c>
       <c r="I76" s="3">
-        <v>3077300</v>
+        <v>4406700</v>
       </c>
       <c r="J76" s="3">
+        <v>2990000</v>
+      </c>
+      <c r="K76" s="3">
         <v>2995100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3124100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4711300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1465600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1981400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2102800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>529600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>574900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>527600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>556800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>506200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-44400</v>
+        <v>92700</v>
       </c>
       <c r="E81" s="3">
-        <v>-38500</v>
+        <v>-43200</v>
       </c>
       <c r="F81" s="3">
-        <v>20500</v>
+        <v>-37400</v>
       </c>
       <c r="G81" s="3">
-        <v>29300</v>
+        <v>19900</v>
       </c>
       <c r="H81" s="3">
-        <v>127700</v>
+        <v>38600</v>
       </c>
       <c r="I81" s="3">
-        <v>-303800</v>
+        <v>124100</v>
       </c>
       <c r="J81" s="3">
+        <v>-295200</v>
+      </c>
+      <c r="K81" s="3">
         <v>110800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>270100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-210000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>61500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>205800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>45600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>46500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>38100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>51200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>39400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>299600</v>
+        <v>260800</v>
       </c>
       <c r="E83" s="3">
-        <v>235500</v>
+        <v>291100</v>
       </c>
       <c r="F83" s="3">
-        <v>362700</v>
+        <v>228900</v>
       </c>
       <c r="G83" s="3">
-        <v>176800</v>
+        <v>352400</v>
       </c>
       <c r="H83" s="3">
-        <v>294200</v>
+        <v>245000</v>
       </c>
       <c r="I83" s="3">
-        <v>229800</v>
+        <v>285900</v>
       </c>
       <c r="J83" s="3">
+        <v>223200</v>
+      </c>
+      <c r="K83" s="3">
         <v>349100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>181600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>235800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>194700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>312700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>138500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>41200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>39900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>39400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>43800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>44800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>322600</v>
+        <v>292400</v>
       </c>
       <c r="E89" s="3">
-        <v>267600</v>
+        <v>313400</v>
       </c>
       <c r="F89" s="3">
-        <v>516300</v>
+        <v>260000</v>
       </c>
       <c r="G89" s="3">
-        <v>176100</v>
+        <v>501600</v>
       </c>
       <c r="H89" s="3">
-        <v>385800</v>
+        <v>244100</v>
       </c>
       <c r="I89" s="3">
-        <v>323700</v>
+        <v>374800</v>
       </c>
       <c r="J89" s="3">
+        <v>314600</v>
+      </c>
+      <c r="K89" s="3">
         <v>508500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>284000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>172000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>171200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>436500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>223700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>86300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>109200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>120200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>145800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>131100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>82400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-213400</v>
+        <v>-152900</v>
       </c>
       <c r="E91" s="3">
-        <v>-119400</v>
+        <v>-207300</v>
       </c>
       <c r="F91" s="3">
-        <v>-238200</v>
+        <v>-116000</v>
       </c>
       <c r="G91" s="3">
-        <v>-119600</v>
+        <v>-231400</v>
       </c>
       <c r="H91" s="3">
-        <v>-196700</v>
+        <v>-116200</v>
       </c>
       <c r="I91" s="3">
-        <v>-110800</v>
+        <v>-191100</v>
       </c>
       <c r="J91" s="3">
+        <v>-107700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-229400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-95600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-241000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-125700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-207500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-93200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-66600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-70300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-55000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-68700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-84100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-80400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-392600</v>
+        <v>-146600</v>
       </c>
       <c r="E94" s="3">
-        <v>-258000</v>
+        <v>-381400</v>
       </c>
       <c r="F94" s="3">
-        <v>-257400</v>
+        <v>-250600</v>
       </c>
       <c r="G94" s="3">
-        <v>-126300</v>
+        <v>-250100</v>
       </c>
       <c r="H94" s="3">
-        <v>-185200</v>
+        <v>-122700</v>
       </c>
       <c r="I94" s="3">
-        <v>-84300</v>
+        <v>-180000</v>
       </c>
       <c r="J94" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-219500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-84800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-176800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-127800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-146100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-57300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-89000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-63500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-134800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-114300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-80300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="F96" s="3">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="H96" s="3">
-        <v>-224000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-90900</v>
+        <v>-217600</v>
       </c>
       <c r="J96" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-73100</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-135900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-2200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-395900</v>
       </c>
       <c r="O96" s="3">
         <v>-395900</v>
       </c>
       <c r="P96" s="3">
+        <v>-395900</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-95800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-400</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4900</v>
+        <v>-27800</v>
       </c>
       <c r="E100" s="3">
-        <v>-344900</v>
+        <v>4800</v>
       </c>
       <c r="F100" s="3">
-        <v>-51100</v>
+        <v>-335100</v>
       </c>
       <c r="G100" s="3">
-        <v>34300</v>
+        <v>-49600</v>
       </c>
       <c r="H100" s="3">
-        <v>-263000</v>
+        <v>47500</v>
       </c>
       <c r="I100" s="3">
-        <v>29100</v>
+        <v>-255500</v>
       </c>
       <c r="J100" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-39600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-22300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-108900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-105200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-61500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-109400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>42500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-71400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>72500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I101" s="3">
+        <v>26200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="L101" s="3">
+        <v>11400</v>
+      </c>
+      <c r="M101" s="3">
+        <v>22600</v>
+      </c>
+      <c r="N101" s="3">
+        <v>27300</v>
+      </c>
+      <c r="O101" s="3">
+        <v>36700</v>
+      </c>
+      <c r="P101" s="3">
+        <v>6800</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="U101" s="3">
         <v>4400</v>
       </c>
-      <c r="F101" s="3">
-        <v>11700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H101" s="3">
-        <v>26900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>31600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-15700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>11400</v>
-      </c>
-      <c r="L101" s="3">
-        <v>22600</v>
-      </c>
-      <c r="M101" s="3">
-        <v>27300</v>
-      </c>
-      <c r="N101" s="3">
-        <v>36700</v>
-      </c>
-      <c r="O101" s="3">
-        <v>6800</v>
-      </c>
-      <c r="P101" s="3">
-        <v>3100</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-700</v>
-      </c>
-      <c r="R101" s="3">
-        <v>2100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="T101" s="3">
-        <v>4400</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-66700</v>
+        <v>113700</v>
       </c>
       <c r="E102" s="3">
-        <v>-330800</v>
+        <v>-64800</v>
       </c>
       <c r="F102" s="3">
-        <v>219500</v>
+        <v>-321400</v>
       </c>
       <c r="G102" s="3">
-        <v>83300</v>
+        <v>213300</v>
       </c>
       <c r="H102" s="3">
-        <v>-196000</v>
+        <v>115400</v>
       </c>
       <c r="I102" s="3">
-        <v>265800</v>
+        <v>-190400</v>
       </c>
       <c r="J102" s="3">
+        <v>258200</v>
+      </c>
+      <c r="K102" s="3">
         <v>152900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>107900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-69700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>41900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>43400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>80400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-77200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>62100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>43700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-61800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>93600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>TEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>875800</v>
+        <v>909100</v>
       </c>
       <c r="E8" s="3">
-        <v>990700</v>
+        <v>941500</v>
       </c>
       <c r="F8" s="3">
-        <v>711100</v>
+        <v>959900</v>
       </c>
       <c r="G8" s="3">
-        <v>1498100</v>
+        <v>689000</v>
       </c>
       <c r="H8" s="3">
-        <v>949900</v>
+        <v>1004000</v>
       </c>
       <c r="I8" s="3">
-        <v>1108800</v>
+        <v>1021200</v>
       </c>
       <c r="J8" s="3">
+        <v>1074300</v>
+      </c>
+      <c r="K8" s="3">
         <v>769800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1590200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>854800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1094000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>779500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1991100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>881600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>412800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>384000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>363400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>385900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>378900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>351500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>237200</v>
+        <v>245200</v>
       </c>
       <c r="E9" s="3">
-        <v>266900</v>
+        <v>255000</v>
       </c>
       <c r="F9" s="3">
-        <v>171800</v>
+        <v>258600</v>
       </c>
       <c r="G9" s="3">
-        <v>361600</v>
+        <v>166400</v>
       </c>
       <c r="H9" s="3">
-        <v>239700</v>
+        <v>231100</v>
       </c>
       <c r="I9" s="3">
-        <v>300500</v>
+        <v>257700</v>
       </c>
       <c r="J9" s="3">
+        <v>291200</v>
+      </c>
+      <c r="K9" s="3">
         <v>206200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>411800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>222500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>288000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>206800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>441500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>156600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>70700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>65400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>58000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>58300</v>
-      </c>
-      <c r="U9" s="3">
-        <v>65600</v>
       </c>
       <c r="V9" s="3">
         <v>65600</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>65600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>638600</v>
+        <v>663900</v>
       </c>
       <c r="E10" s="3">
-        <v>723800</v>
+        <v>686500</v>
       </c>
       <c r="F10" s="3">
-        <v>539300</v>
+        <v>701300</v>
       </c>
       <c r="G10" s="3">
-        <v>1136500</v>
+        <v>522500</v>
       </c>
       <c r="H10" s="3">
-        <v>710200</v>
+        <v>772900</v>
       </c>
       <c r="I10" s="3">
-        <v>808200</v>
+        <v>763500</v>
       </c>
       <c r="J10" s="3">
+        <v>783100</v>
+      </c>
+      <c r="K10" s="3">
         <v>563600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1178500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>632300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>806000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>572700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1549600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>725000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>342100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>318700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>305400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>327600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>313200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>285900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1500</v>
+        <v>22500</v>
       </c>
       <c r="E14" s="3">
-        <v>6800</v>
+        <v>2500</v>
       </c>
       <c r="F14" s="3">
-        <v>22800</v>
+        <v>7600</v>
       </c>
       <c r="G14" s="3">
-        <v>2200</v>
+        <v>23300</v>
       </c>
       <c r="H14" s="3">
-        <v>800</v>
+        <v>3400</v>
       </c>
       <c r="I14" s="3">
-        <v>6200</v>
+        <v>2000</v>
       </c>
       <c r="J14" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K14" s="3">
         <v>5300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>73400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>59000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>260800</v>
+        <v>289500</v>
       </c>
       <c r="E15" s="3">
-        <v>291100</v>
+        <v>280400</v>
       </c>
       <c r="F15" s="3">
-        <v>201900</v>
+        <v>282000</v>
       </c>
       <c r="G15" s="3">
-        <v>379400</v>
+        <v>195600</v>
       </c>
       <c r="H15" s="3">
-        <v>245000</v>
+        <v>249400</v>
       </c>
       <c r="I15" s="3">
-        <v>285900</v>
+        <v>263400</v>
       </c>
       <c r="J15" s="3">
+        <v>277000</v>
+      </c>
+      <c r="K15" s="3">
         <v>197300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>375800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>191300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>236800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>163000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>352800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>151900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>41200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>39900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>39400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>43800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>44800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>818700</v>
+        <v>916000</v>
       </c>
       <c r="E17" s="3">
-        <v>981200</v>
+        <v>880100</v>
       </c>
       <c r="F17" s="3">
-        <v>670900</v>
+        <v>950600</v>
       </c>
       <c r="G17" s="3">
-        <v>1332600</v>
+        <v>650000</v>
       </c>
       <c r="H17" s="3">
-        <v>862600</v>
+        <v>874100</v>
       </c>
       <c r="I17" s="3">
-        <v>1089400</v>
+        <v>927300</v>
       </c>
       <c r="J17" s="3">
+        <v>1055500</v>
+      </c>
+      <c r="K17" s="3">
         <v>713700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1433200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>768100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1034800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>687200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1635100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>701800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>341800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>311400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>295500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>310200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>318100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>304300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>57200</v>
+        <v>-6900</v>
       </c>
       <c r="E18" s="3">
-        <v>9600</v>
+        <v>61400</v>
       </c>
       <c r="F18" s="3">
-        <v>40200</v>
+        <v>9300</v>
       </c>
       <c r="G18" s="3">
-        <v>165500</v>
+        <v>39000</v>
       </c>
       <c r="H18" s="3">
-        <v>87300</v>
+        <v>129900</v>
       </c>
       <c r="I18" s="3">
-        <v>19400</v>
+        <v>93800</v>
       </c>
       <c r="J18" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K18" s="3">
         <v>56100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>157100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>86700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>59200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>92300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>356000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>179800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>71000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>72700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>67900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>75700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>60700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>101400</v>
+        <v>151700</v>
       </c>
       <c r="E20" s="3">
-        <v>-4000</v>
+        <v>109000</v>
       </c>
       <c r="F20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-26000</v>
-      </c>
       <c r="H20" s="3">
-        <v>26900</v>
+        <v>-64000</v>
       </c>
       <c r="I20" s="3">
-        <v>190400</v>
+        <v>28900</v>
       </c>
       <c r="J20" s="3">
+        <v>184500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-253300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>142500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>32900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>344500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-376400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-322500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>83500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>10000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>419400</v>
+        <v>461900</v>
       </c>
       <c r="E21" s="3">
-        <v>296600</v>
+        <v>423200</v>
       </c>
       <c r="F21" s="3">
-        <v>269600</v>
+        <v>287400</v>
       </c>
       <c r="G21" s="3">
-        <v>491900</v>
+        <v>89900</v>
       </c>
       <c r="H21" s="3">
-        <v>359200</v>
+        <v>341300</v>
       </c>
       <c r="I21" s="3">
-        <v>495700</v>
+        <v>360100</v>
       </c>
       <c r="J21" s="3">
+        <v>480300</v>
+      </c>
+      <c r="K21" s="3">
         <v>26000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>648600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>301200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>639500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-89300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>346300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>401800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>113500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>117000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>102900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>129500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>101700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>28700</v>
+        <v>37600</v>
       </c>
       <c r="E22" s="3">
-        <v>41400</v>
+        <v>30800</v>
       </c>
       <c r="F22" s="3">
-        <v>31500</v>
+        <v>40100</v>
       </c>
       <c r="G22" s="3">
-        <v>79500</v>
+        <v>30500</v>
       </c>
       <c r="H22" s="3">
-        <v>48600</v>
+        <v>55300</v>
       </c>
       <c r="I22" s="3">
-        <v>58900</v>
+        <v>52200</v>
       </c>
       <c r="J22" s="3">
+        <v>57100</v>
+      </c>
+      <c r="K22" s="3">
         <v>39200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>58800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>28900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>35600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>23200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>39100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>6200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>129900</v>
+        <v>107200</v>
       </c>
       <c r="E23" s="3">
-        <v>-35900</v>
+        <v>139600</v>
       </c>
       <c r="F23" s="3">
-        <v>9300</v>
+        <v>-34800</v>
       </c>
       <c r="G23" s="3">
-        <v>60000</v>
+        <v>9000</v>
       </c>
       <c r="H23" s="3">
-        <v>65600</v>
+        <v>10600</v>
       </c>
       <c r="I23" s="3">
-        <v>150900</v>
+        <v>70500</v>
       </c>
       <c r="J23" s="3">
+        <v>146200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-236400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>240800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>90700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>368100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-307200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>250300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>66200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>72300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>59000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>79000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>46000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34200</v>
+        <v>227200</v>
       </c>
       <c r="E24" s="3">
-        <v>5000</v>
+        <v>36800</v>
       </c>
       <c r="F24" s="3">
-        <v>44900</v>
+        <v>4800</v>
       </c>
       <c r="G24" s="3">
-        <v>37600</v>
+        <v>43500</v>
       </c>
       <c r="H24" s="3">
-        <v>25600</v>
+        <v>23300</v>
       </c>
       <c r="I24" s="3">
-        <v>23000</v>
+        <v>27500</v>
       </c>
       <c r="J24" s="3">
+        <v>22300</v>
+      </c>
+      <c r="K24" s="3">
         <v>57400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>127900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>66000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>94000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-97200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-68300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>44000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>19600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>25100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>27500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>95600</v>
+        <v>-120000</v>
       </c>
       <c r="E26" s="3">
-        <v>-40900</v>
+        <v>102800</v>
       </c>
       <c r="F26" s="3">
-        <v>-35600</v>
+        <v>-39600</v>
       </c>
       <c r="G26" s="3">
-        <v>22400</v>
+        <v>-34500</v>
       </c>
       <c r="H26" s="3">
-        <v>40000</v>
+        <v>-12700</v>
       </c>
       <c r="I26" s="3">
-        <v>127900</v>
+        <v>43000</v>
       </c>
       <c r="J26" s="3">
+        <v>123900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-293800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>112900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>274100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-210100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>62700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>206300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>46500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>47200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>51500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>39500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>92700</v>
+        <v>-120300</v>
       </c>
       <c r="E27" s="3">
-        <v>-43200</v>
+        <v>99700</v>
       </c>
       <c r="F27" s="3">
-        <v>-37400</v>
+        <v>-41800</v>
       </c>
       <c r="G27" s="3">
-        <v>19900</v>
+        <v>-36200</v>
       </c>
       <c r="H27" s="3">
-        <v>38600</v>
+        <v>-14500</v>
       </c>
       <c r="I27" s="3">
-        <v>124100</v>
+        <v>41500</v>
       </c>
       <c r="J27" s="3">
+        <v>120200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-295200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>110800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>23800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>270100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-210000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>61500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>205800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>45600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>46500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>51200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>39400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-101400</v>
+        <v>-151700</v>
       </c>
       <c r="E32" s="3">
-        <v>4000</v>
+        <v>-109000</v>
       </c>
       <c r="F32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>26000</v>
-      </c>
       <c r="H32" s="3">
-        <v>-26900</v>
+        <v>64000</v>
       </c>
       <c r="I32" s="3">
-        <v>-190400</v>
+        <v>-28900</v>
       </c>
       <c r="J32" s="3">
+        <v>-184500</v>
+      </c>
+      <c r="K32" s="3">
         <v>253300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-142500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-32900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-344500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>376400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>322500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-83500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-10000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>92700</v>
+        <v>-120300</v>
       </c>
       <c r="E33" s="3">
-        <v>-43200</v>
+        <v>99700</v>
       </c>
       <c r="F33" s="3">
-        <v>-37400</v>
+        <v>-41800</v>
       </c>
       <c r="G33" s="3">
-        <v>19900</v>
+        <v>-36200</v>
       </c>
       <c r="H33" s="3">
-        <v>38600</v>
+        <v>-14500</v>
       </c>
       <c r="I33" s="3">
-        <v>124100</v>
+        <v>41500</v>
       </c>
       <c r="J33" s="3">
+        <v>120200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-295200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>110800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>23800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>270100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-210000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>61500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>205800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>45600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>46500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>38100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>51200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>39400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>92700</v>
+        <v>-120300</v>
       </c>
       <c r="E35" s="3">
-        <v>-43200</v>
+        <v>99700</v>
       </c>
       <c r="F35" s="3">
-        <v>-37400</v>
+        <v>-41800</v>
       </c>
       <c r="G35" s="3">
-        <v>19900</v>
+        <v>-36200</v>
       </c>
       <c r="H35" s="3">
-        <v>38600</v>
+        <v>-14500</v>
       </c>
       <c r="I35" s="3">
-        <v>124100</v>
+        <v>41500</v>
       </c>
       <c r="J35" s="3">
+        <v>120200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-295200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>110800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>23800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>270100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-210000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>61500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>205800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>45600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>46500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>38100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>51200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>39400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>335700</v>
+        <v>168700</v>
       </c>
       <c r="E41" s="3">
-        <v>222000</v>
+        <v>325300</v>
       </c>
       <c r="F41" s="3">
-        <v>223800</v>
+        <v>238700</v>
       </c>
       <c r="G41" s="3">
-        <v>521600</v>
+        <v>216800</v>
       </c>
       <c r="H41" s="3">
-        <v>373500</v>
+        <v>505400</v>
       </c>
       <c r="I41" s="3">
-        <v>369500</v>
+        <v>361900</v>
       </c>
       <c r="J41" s="3">
+        <v>358000</v>
+      </c>
+      <c r="K41" s="3">
         <v>398400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>199200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>167000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>211900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>132100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>115000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>129700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>64900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>142200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>80100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>41500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>103300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>57600</v>
+        <v>355000</v>
       </c>
       <c r="E42" s="3">
-        <v>78400</v>
+        <v>55800</v>
       </c>
       <c r="F42" s="3">
-        <v>192000</v>
+        <v>84300</v>
       </c>
       <c r="G42" s="3">
-        <v>23900</v>
+        <v>186000</v>
       </c>
       <c r="H42" s="3">
-        <v>8600</v>
+        <v>23200</v>
       </c>
       <c r="I42" s="3">
-        <v>6200</v>
+        <v>8300</v>
       </c>
       <c r="J42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K42" s="3">
         <v>13300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>22700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>28600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>89800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>71200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>50600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>78600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>44500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>37200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>112600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>45800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>289200</v>
+        <v>241700</v>
       </c>
       <c r="E43" s="3">
-        <v>274800</v>
+        <v>280200</v>
       </c>
       <c r="F43" s="3">
-        <v>214800</v>
+        <v>295400</v>
       </c>
       <c r="G43" s="3">
-        <v>216400</v>
+        <v>208100</v>
       </c>
       <c r="H43" s="3">
-        <v>241400</v>
+        <v>209600</v>
       </c>
       <c r="I43" s="3">
-        <v>294400</v>
+        <v>233900</v>
       </c>
       <c r="J43" s="3">
+        <v>285200</v>
+      </c>
+      <c r="K43" s="3">
         <v>219500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>198900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>239000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>439500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>233200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>241900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>201100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>219600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>192400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>188200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>221100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>208600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>222000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>41100</v>
+        <v>34200</v>
       </c>
       <c r="E44" s="3">
-        <v>44600</v>
+        <v>39800</v>
       </c>
       <c r="F44" s="3">
-        <v>32600</v>
+        <v>48000</v>
       </c>
       <c r="G44" s="3">
-        <v>24700</v>
+        <v>31600</v>
       </c>
       <c r="H44" s="3">
-        <v>31700</v>
+        <v>23900</v>
       </c>
       <c r="I44" s="3">
-        <v>47300</v>
+        <v>30700</v>
       </c>
       <c r="J44" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K44" s="3">
         <v>36700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>35000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>38400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>57100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>38400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>39300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>33300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>42500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>44800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>28700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>32200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>33500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>30800</v>
+        <v>40200</v>
       </c>
       <c r="E45" s="3">
-        <v>18500</v>
+        <v>29900</v>
       </c>
       <c r="F45" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="G45" s="3">
-        <v>26700</v>
+        <v>19700</v>
       </c>
       <c r="H45" s="3">
-        <v>28000</v>
+        <v>25900</v>
       </c>
       <c r="I45" s="3">
-        <v>17000</v>
+        <v>27100</v>
       </c>
       <c r="J45" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K45" s="3">
         <v>15800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>22200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>19600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>16200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>754400</v>
+        <v>839800</v>
       </c>
       <c r="E46" s="3">
-        <v>638300</v>
+        <v>731000</v>
       </c>
       <c r="F46" s="3">
-        <v>683600</v>
+        <v>686200</v>
       </c>
       <c r="G46" s="3">
-        <v>813300</v>
+        <v>662400</v>
       </c>
       <c r="H46" s="3">
-        <v>683300</v>
+        <v>788000</v>
       </c>
       <c r="I46" s="3">
-        <v>733500</v>
+        <v>662000</v>
       </c>
       <c r="J46" s="3">
+        <v>710600</v>
+      </c>
+      <c r="K46" s="3">
         <v>683700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>468700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>485000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>699100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>516100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>489600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>436800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>418400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>438700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>350600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>426900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>407400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>324600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>44900</v>
+        <v>37500</v>
       </c>
       <c r="E47" s="3">
-        <v>48600</v>
+        <v>43500</v>
       </c>
       <c r="F47" s="3">
-        <v>39700</v>
+        <v>52300</v>
       </c>
       <c r="G47" s="3">
+        <v>38400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>40900</v>
+      </c>
+      <c r="I47" s="3">
         <v>42200</v>
       </c>
-      <c r="H47" s="3">
-        <v>43500</v>
-      </c>
-      <c r="I47" s="3">
-        <v>57300</v>
-      </c>
       <c r="J47" s="3">
+        <v>55500</v>
+      </c>
+      <c r="K47" s="3">
         <v>40000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>63300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>77400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>250700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>89200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>72800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>54000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>77900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>116300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>102000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>35400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>34100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4031700</v>
+        <v>4238800</v>
       </c>
       <c r="E48" s="3">
-        <v>4058300</v>
+        <v>3906300</v>
       </c>
       <c r="F48" s="3">
-        <v>3216100</v>
+        <v>4362800</v>
       </c>
       <c r="G48" s="3">
-        <v>2995500</v>
+        <v>3116100</v>
       </c>
       <c r="H48" s="3">
-        <v>2867700</v>
+        <v>2902300</v>
       </c>
       <c r="I48" s="3">
-        <v>3690500</v>
+        <v>2778500</v>
       </c>
       <c r="J48" s="3">
+        <v>3575700</v>
+      </c>
+      <c r="K48" s="3">
         <v>2371500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2102300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2139500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5958500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1323300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1513900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1432000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>654700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>604100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>567200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>615900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>606500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>575800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4238900</v>
+        <v>4526700</v>
       </c>
       <c r="E49" s="3">
-        <v>5369300</v>
+        <v>4107100</v>
       </c>
       <c r="F49" s="3">
-        <v>3409400</v>
+        <v>4585600</v>
       </c>
       <c r="G49" s="3">
-        <v>3187100</v>
+        <v>3303400</v>
       </c>
       <c r="H49" s="3">
-        <v>3041600</v>
+        <v>3088000</v>
       </c>
       <c r="I49" s="3">
-        <v>3866700</v>
+        <v>2947000</v>
       </c>
       <c r="J49" s="3">
+        <v>3746400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2580300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2374400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2467700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4866900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1441900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1751000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1755000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>162800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>165000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>169300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>193400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>198800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5100</v>
+        <v>14400</v>
       </c>
       <c r="E52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G52" s="3">
-        <v>2700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9075000</v>
+        <v>9657200</v>
       </c>
       <c r="E54" s="3">
-        <v>9012800</v>
+        <v>8792700</v>
       </c>
       <c r="F54" s="3">
-        <v>7351200</v>
+        <v>9689000</v>
       </c>
       <c r="G54" s="3">
-        <v>7040700</v>
+        <v>7122500</v>
       </c>
       <c r="H54" s="3">
-        <v>6639700</v>
+        <v>6821700</v>
       </c>
       <c r="I54" s="3">
-        <v>8351100</v>
+        <v>6433200</v>
       </c>
       <c r="J54" s="3">
+        <v>8091400</v>
+      </c>
+      <c r="K54" s="3">
         <v>5677500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5010800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5173700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7760300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3377400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3840200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3688400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1321100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1331300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1196700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1279400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1254400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1125600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>469000</v>
+        <v>441100</v>
       </c>
       <c r="E57" s="3">
-        <v>471700</v>
+        <v>454500</v>
       </c>
       <c r="F57" s="3">
-        <v>357600</v>
+        <v>507100</v>
       </c>
       <c r="G57" s="3">
-        <v>304000</v>
+        <v>346500</v>
       </c>
       <c r="H57" s="3">
-        <v>327300</v>
+        <v>294500</v>
       </c>
       <c r="I57" s="3">
-        <v>461700</v>
+        <v>317100</v>
       </c>
       <c r="J57" s="3">
+        <v>447300</v>
+      </c>
+      <c r="K57" s="3">
         <v>315900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>249200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>262700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>477100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>327800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>313100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>267300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>263400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>244500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>228600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>236000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>235100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>254700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>426000</v>
+        <v>456600</v>
       </c>
       <c r="E58" s="3">
-        <v>379500</v>
+        <v>412700</v>
       </c>
       <c r="F58" s="3">
-        <v>299900</v>
+        <v>408000</v>
       </c>
       <c r="G58" s="3">
-        <v>736600</v>
+        <v>290600</v>
       </c>
       <c r="H58" s="3">
-        <v>390700</v>
+        <v>713700</v>
       </c>
       <c r="I58" s="3">
-        <v>404700</v>
+        <v>378600</v>
       </c>
       <c r="J58" s="3">
+        <v>392100</v>
+      </c>
+      <c r="K58" s="3">
         <v>260400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>235700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>167600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>341700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>679200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>554200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>401400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>57000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>33500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>23200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>19000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>81500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>367700</v>
+        <v>394800</v>
       </c>
       <c r="E59" s="3">
-        <v>429700</v>
+        <v>356300</v>
       </c>
       <c r="F59" s="3">
-        <v>338100</v>
+        <v>460800</v>
       </c>
       <c r="G59" s="3">
-        <v>320900</v>
+        <v>327600</v>
       </c>
       <c r="H59" s="3">
-        <v>257000</v>
+        <v>310900</v>
       </c>
       <c r="I59" s="3">
-        <v>375600</v>
+        <v>249000</v>
       </c>
       <c r="J59" s="3">
+        <v>363900</v>
+      </c>
+      <c r="K59" s="3">
         <v>228800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>187000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>237100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>296900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>151600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>166300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>215400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>184000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>192600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>159200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>163200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>115700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1262800</v>
+        <v>1292600</v>
       </c>
       <c r="E60" s="3">
-        <v>1270900</v>
+        <v>1223500</v>
       </c>
       <c r="F60" s="3">
-        <v>995700</v>
+        <v>1366300</v>
       </c>
       <c r="G60" s="3">
-        <v>1361500</v>
+        <v>964700</v>
       </c>
       <c r="H60" s="3">
-        <v>974900</v>
+        <v>1319200</v>
       </c>
       <c r="I60" s="3">
-        <v>1242000</v>
+        <v>944600</v>
       </c>
       <c r="J60" s="3">
+        <v>1203300</v>
+      </c>
+      <c r="K60" s="3">
         <v>805000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>671900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>667400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1115700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1158600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1033600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>884200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>504400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>470600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>410900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>418200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>432300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>564500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1944500</v>
+        <v>2037200</v>
       </c>
       <c r="E61" s="3">
-        <v>1984200</v>
+        <v>1884000</v>
       </c>
       <c r="F61" s="3">
-        <v>1495400</v>
+        <v>2133000</v>
       </c>
       <c r="G61" s="3">
-        <v>1163300</v>
+        <v>1448900</v>
       </c>
       <c r="H61" s="3">
-        <v>1377200</v>
+        <v>1127100</v>
       </c>
       <c r="I61" s="3">
-        <v>1738900</v>
+        <v>1334400</v>
       </c>
       <c r="J61" s="3">
+        <v>1684900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1264000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>829100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>918600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1237300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>517600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>470600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>329000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>207400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>206300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>179900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>220400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>226400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1111300</v>
+        <v>1363900</v>
       </c>
       <c r="E62" s="3">
-        <v>1097600</v>
+        <v>1076700</v>
       </c>
       <c r="F62" s="3">
-        <v>866900</v>
+        <v>1179900</v>
       </c>
       <c r="G62" s="3">
-        <v>775200</v>
+        <v>839900</v>
       </c>
       <c r="H62" s="3">
-        <v>728800</v>
+        <v>751100</v>
       </c>
       <c r="I62" s="3">
-        <v>893100</v>
+        <v>706200</v>
       </c>
       <c r="J62" s="3">
+        <v>865300</v>
+      </c>
+      <c r="K62" s="3">
         <v>572500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>477300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>419700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>681300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>195800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>316300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>338700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>61500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>63700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>63600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>70500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>75400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4398400</v>
+        <v>4767400</v>
       </c>
       <c r="E66" s="3">
-        <v>4429400</v>
+        <v>4261600</v>
       </c>
       <c r="F66" s="3">
-        <v>3417700</v>
+        <v>4761700</v>
       </c>
       <c r="G66" s="3">
-        <v>3354500</v>
+        <v>3311400</v>
       </c>
       <c r="H66" s="3">
-        <v>3133800</v>
+        <v>3250100</v>
       </c>
       <c r="I66" s="3">
-        <v>3944400</v>
+        <v>3036400</v>
       </c>
       <c r="J66" s="3">
+        <v>3821700</v>
+      </c>
+      <c r="K66" s="3">
         <v>2687600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2015800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2049600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3049000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1911800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1858700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1585600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>791500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>756400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>669100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>722600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>748200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>585500</v>
+        <v>660200</v>
       </c>
       <c r="E72" s="3">
-        <v>492700</v>
+        <v>567300</v>
       </c>
       <c r="F72" s="3">
-        <v>673700</v>
+        <v>529600</v>
       </c>
       <c r="G72" s="3">
-        <v>660500</v>
+        <v>652800</v>
       </c>
       <c r="H72" s="3">
-        <v>520700</v>
+        <v>639900</v>
       </c>
       <c r="I72" s="3">
-        <v>623400</v>
+        <v>504500</v>
       </c>
       <c r="J72" s="3">
+        <v>604000</v>
+      </c>
+      <c r="K72" s="3">
         <v>498300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>734800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>780000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1156900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-147800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>46000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>187300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>224700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>53500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>127500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>275800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>225100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4676600</v>
+        <v>4889800</v>
       </c>
       <c r="E76" s="3">
-        <v>4583500</v>
+        <v>4531100</v>
       </c>
       <c r="F76" s="3">
-        <v>3933500</v>
+        <v>4927300</v>
       </c>
       <c r="G76" s="3">
-        <v>3686300</v>
+        <v>3811100</v>
       </c>
       <c r="H76" s="3">
-        <v>3505900</v>
+        <v>3571600</v>
       </c>
       <c r="I76" s="3">
-        <v>4406700</v>
+        <v>3396900</v>
       </c>
       <c r="J76" s="3">
+        <v>4269600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2990000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2995100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3124100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4711300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1465600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1981400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2102800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>529600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>574900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>527600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>556800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>506200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>92700</v>
+        <v>-120300</v>
       </c>
       <c r="E81" s="3">
-        <v>-43200</v>
+        <v>99700</v>
       </c>
       <c r="F81" s="3">
-        <v>-37400</v>
+        <v>-41800</v>
       </c>
       <c r="G81" s="3">
-        <v>19900</v>
+        <v>-36200</v>
       </c>
       <c r="H81" s="3">
-        <v>38600</v>
+        <v>-14500</v>
       </c>
       <c r="I81" s="3">
-        <v>124100</v>
+        <v>41500</v>
       </c>
       <c r="J81" s="3">
+        <v>120200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-295200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>110800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>23800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>270100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-210000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>61500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>205800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>45600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>46500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>38100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>51200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>39400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>260800</v>
+        <v>317100</v>
       </c>
       <c r="E83" s="3">
-        <v>291100</v>
+        <v>252700</v>
       </c>
       <c r="F83" s="3">
-        <v>228900</v>
+        <v>282000</v>
       </c>
       <c r="G83" s="3">
-        <v>352400</v>
+        <v>50400</v>
       </c>
       <c r="H83" s="3">
-        <v>245000</v>
+        <v>275400</v>
       </c>
       <c r="I83" s="3">
-        <v>285900</v>
+        <v>237400</v>
       </c>
       <c r="J83" s="3">
+        <v>277000</v>
+      </c>
+      <c r="K83" s="3">
         <v>223200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>349100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>181600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>235800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>194700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>312700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>138500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>41200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>39900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>39400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>43800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>44800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>292400</v>
+        <v>295900</v>
       </c>
       <c r="E89" s="3">
-        <v>313400</v>
+        <v>283300</v>
       </c>
       <c r="F89" s="3">
-        <v>260000</v>
+        <v>303700</v>
       </c>
       <c r="G89" s="3">
-        <v>501600</v>
+        <v>8000</v>
       </c>
       <c r="H89" s="3">
-        <v>244100</v>
+        <v>493400</v>
       </c>
       <c r="I89" s="3">
-        <v>374800</v>
+        <v>236500</v>
       </c>
       <c r="J89" s="3">
+        <v>363200</v>
+      </c>
+      <c r="K89" s="3">
         <v>314600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>508500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>284000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>172000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>171200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>436500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>223700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>86300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>109200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>120200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>145800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>131100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>82400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-152900</v>
+        <v>-171100</v>
       </c>
       <c r="E91" s="3">
-        <v>-207300</v>
+        <v>-148200</v>
       </c>
       <c r="F91" s="3">
-        <v>-116000</v>
+        <v>-200900</v>
       </c>
       <c r="G91" s="3">
-        <v>-231400</v>
+        <v>-112400</v>
       </c>
       <c r="H91" s="3">
-        <v>-116200</v>
+        <v>-111600</v>
       </c>
       <c r="I91" s="3">
-        <v>-191100</v>
+        <v>-112600</v>
       </c>
       <c r="J91" s="3">
+        <v>-185200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-107700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-229400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-95600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-241000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-125700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-207500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-93200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-66600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-70300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-55000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-68700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-84100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-80400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-146600</v>
+        <v>-464100</v>
       </c>
       <c r="E94" s="3">
-        <v>-381400</v>
+        <v>-142100</v>
       </c>
       <c r="F94" s="3">
-        <v>-250600</v>
+        <v>-369500</v>
       </c>
       <c r="G94" s="3">
-        <v>-250100</v>
+        <v>-242800</v>
       </c>
       <c r="H94" s="3">
-        <v>-122700</v>
+        <v>-123400</v>
       </c>
       <c r="I94" s="3">
-        <v>-180000</v>
+        <v>-118900</v>
       </c>
       <c r="J94" s="3">
+        <v>-174400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-82000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-219500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-84800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-176800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-127800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-146100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-57300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-89000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-63500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-134800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-114300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-80300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5559,61 +5793,64 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-210900</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-73100</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-135900</v>
+      </c>
+      <c r="O96" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-217600</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-88300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-73100</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-135900</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-395900</v>
       </c>
       <c r="P96" s="3">
         <v>-395900</v>
       </c>
       <c r="Q96" s="3">
+        <v>-395900</v>
+      </c>
+      <c r="R96" s="3">
         <v>-95800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-27800</v>
+        <v>-5100</v>
       </c>
       <c r="E100" s="3">
-        <v>4800</v>
+        <v>-26900</v>
       </c>
       <c r="F100" s="3">
-        <v>-335100</v>
+        <v>4600</v>
       </c>
       <c r="G100" s="3">
-        <v>-49600</v>
+        <v>-324700</v>
       </c>
       <c r="H100" s="3">
-        <v>47500</v>
+        <v>-94100</v>
       </c>
       <c r="I100" s="3">
-        <v>-255500</v>
+        <v>46000</v>
       </c>
       <c r="J100" s="3">
+        <v>-247600</v>
+      </c>
+      <c r="K100" s="3">
         <v>28300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-39600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-22300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-108900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-105200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-61500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-109400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>42500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-71400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>72500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4300</v>
+        <v>-6800</v>
       </c>
       <c r="E101" s="3">
-        <v>-1600</v>
+        <v>-4200</v>
       </c>
       <c r="F101" s="3">
-        <v>4300</v>
+        <v>-1500</v>
       </c>
       <c r="G101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H101" s="3">
+        <v>17300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K101" s="3">
+        <v>30700</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="M101" s="3">
         <v>11400</v>
       </c>
-      <c r="H101" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>26200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>30700</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-15700</v>
-      </c>
-      <c r="L101" s="3">
-        <v>11400</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>22600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>27300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>36700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>3100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4400</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>113700</v>
+        <v>-180100</v>
       </c>
       <c r="E102" s="3">
-        <v>-64800</v>
+        <v>110100</v>
       </c>
       <c r="F102" s="3">
-        <v>-321400</v>
+        <v>-62800</v>
       </c>
       <c r="G102" s="3">
-        <v>213300</v>
+        <v>-415200</v>
       </c>
       <c r="H102" s="3">
-        <v>115400</v>
+        <v>198600</v>
       </c>
       <c r="I102" s="3">
-        <v>-190400</v>
+        <v>111800</v>
       </c>
       <c r="J102" s="3">
+        <v>-184500</v>
+      </c>
+      <c r="K102" s="3">
         <v>258200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>152900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>107900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-69700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>41900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>80400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-77200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>62100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>43700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-61800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>93600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -763,25 +763,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>909100</v>
+        <v>877200</v>
       </c>
       <c r="E8" s="3">
-        <v>941500</v>
+        <v>908600</v>
       </c>
       <c r="F8" s="3">
-        <v>959900</v>
+        <v>926300</v>
       </c>
       <c r="G8" s="3">
-        <v>689000</v>
+        <v>664900</v>
       </c>
       <c r="H8" s="3">
-        <v>1004000</v>
+        <v>968800</v>
       </c>
       <c r="I8" s="3">
-        <v>1021200</v>
+        <v>985400</v>
       </c>
       <c r="J8" s="3">
-        <v>1074300</v>
+        <v>1036700</v>
       </c>
       <c r="K8" s="3">
         <v>769800</v>
@@ -828,25 +828,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>245200</v>
+        <v>236600</v>
       </c>
       <c r="E9" s="3">
-        <v>255000</v>
+        <v>246100</v>
       </c>
       <c r="F9" s="3">
-        <v>258600</v>
+        <v>249600</v>
       </c>
       <c r="G9" s="3">
-        <v>166400</v>
+        <v>160600</v>
       </c>
       <c r="H9" s="3">
-        <v>231100</v>
+        <v>223000</v>
       </c>
       <c r="I9" s="3">
-        <v>257700</v>
+        <v>248700</v>
       </c>
       <c r="J9" s="3">
-        <v>291200</v>
+        <v>281000</v>
       </c>
       <c r="K9" s="3">
         <v>206200</v>
@@ -893,25 +893,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>663900</v>
+        <v>640600</v>
       </c>
       <c r="E10" s="3">
-        <v>686500</v>
+        <v>662500</v>
       </c>
       <c r="F10" s="3">
-        <v>701300</v>
+        <v>676700</v>
       </c>
       <c r="G10" s="3">
-        <v>522500</v>
+        <v>504200</v>
       </c>
       <c r="H10" s="3">
-        <v>772900</v>
+        <v>745800</v>
       </c>
       <c r="I10" s="3">
-        <v>763500</v>
+        <v>736700</v>
       </c>
       <c r="J10" s="3">
-        <v>783100</v>
+        <v>755700</v>
       </c>
       <c r="K10" s="3">
         <v>563600</v>
@@ -1113,25 +1113,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G14" s="3">
         <v>22500</v>
       </c>
-      <c r="E14" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F14" s="3">
-        <v>7600</v>
-      </c>
-      <c r="G14" s="3">
-        <v>23300</v>
-      </c>
       <c r="H14" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I14" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J14" s="3">
-        <v>41600</v>
+        <v>40100</v>
       </c>
       <c r="K14" s="3">
         <v>5300</v>
@@ -1178,25 +1178,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>289500</v>
+        <v>279300</v>
       </c>
       <c r="E15" s="3">
-        <v>280400</v>
+        <v>270600</v>
       </c>
       <c r="F15" s="3">
-        <v>282000</v>
+        <v>272200</v>
       </c>
       <c r="G15" s="3">
-        <v>195600</v>
+        <v>188700</v>
       </c>
       <c r="H15" s="3">
-        <v>249400</v>
+        <v>240600</v>
       </c>
       <c r="I15" s="3">
-        <v>263400</v>
+        <v>254200</v>
       </c>
       <c r="J15" s="3">
-        <v>277000</v>
+        <v>267300</v>
       </c>
       <c r="K15" s="3">
         <v>197300</v>
@@ -1265,25 +1265,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>916000</v>
+        <v>883900</v>
       </c>
       <c r="E17" s="3">
-        <v>880100</v>
+        <v>849300</v>
       </c>
       <c r="F17" s="3">
-        <v>950600</v>
+        <v>917400</v>
       </c>
       <c r="G17" s="3">
-        <v>650000</v>
+        <v>627200</v>
       </c>
       <c r="H17" s="3">
-        <v>874100</v>
+        <v>843400</v>
       </c>
       <c r="I17" s="3">
-        <v>927300</v>
+        <v>894900</v>
       </c>
       <c r="J17" s="3">
-        <v>1055500</v>
+        <v>1018500</v>
       </c>
       <c r="K17" s="3">
         <v>713700</v>
@@ -1330,25 +1330,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="E18" s="3">
-        <v>61400</v>
+        <v>59300</v>
       </c>
       <c r="F18" s="3">
-        <v>9300</v>
+        <v>8900</v>
       </c>
       <c r="G18" s="3">
-        <v>39000</v>
+        <v>37600</v>
       </c>
       <c r="H18" s="3">
-        <v>129900</v>
+        <v>125400</v>
       </c>
       <c r="I18" s="3">
-        <v>93800</v>
+        <v>90500</v>
       </c>
       <c r="J18" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="K18" s="3">
         <v>56100</v>
@@ -1420,25 +1420,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>151700</v>
+        <v>146400</v>
       </c>
       <c r="E20" s="3">
-        <v>109000</v>
+        <v>105200</v>
       </c>
       <c r="F20" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="G20" s="3">
         <v>500</v>
       </c>
       <c r="H20" s="3">
-        <v>-64000</v>
+        <v>-61800</v>
       </c>
       <c r="I20" s="3">
-        <v>28900</v>
+        <v>27900</v>
       </c>
       <c r="J20" s="3">
-        <v>184500</v>
+        <v>178000</v>
       </c>
       <c r="K20" s="3">
         <v>-253300</v>
@@ -1485,25 +1485,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>461900</v>
+        <v>445800</v>
       </c>
       <c r="E21" s="3">
-        <v>423200</v>
+        <v>408400</v>
       </c>
       <c r="F21" s="3">
-        <v>287400</v>
+        <v>277300</v>
       </c>
       <c r="G21" s="3">
-        <v>89900</v>
+        <v>86700</v>
       </c>
       <c r="H21" s="3">
-        <v>341300</v>
+        <v>329300</v>
       </c>
       <c r="I21" s="3">
-        <v>360100</v>
+        <v>347500</v>
       </c>
       <c r="J21" s="3">
-        <v>480300</v>
+        <v>463500</v>
       </c>
       <c r="K21" s="3">
         <v>26000</v>
@@ -1550,25 +1550,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37600</v>
+        <v>36300</v>
       </c>
       <c r="E22" s="3">
-        <v>30800</v>
+        <v>29800</v>
       </c>
       <c r="F22" s="3">
-        <v>40100</v>
+        <v>38700</v>
       </c>
       <c r="G22" s="3">
-        <v>30500</v>
+        <v>29400</v>
       </c>
       <c r="H22" s="3">
-        <v>55300</v>
+        <v>53400</v>
       </c>
       <c r="I22" s="3">
-        <v>52200</v>
+        <v>50400</v>
       </c>
       <c r="J22" s="3">
-        <v>57100</v>
+        <v>55100</v>
       </c>
       <c r="K22" s="3">
         <v>39200</v>
@@ -1615,25 +1615,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>107200</v>
+        <v>103500</v>
       </c>
       <c r="E23" s="3">
-        <v>139600</v>
+        <v>134700</v>
       </c>
       <c r="F23" s="3">
-        <v>-34800</v>
+        <v>-33600</v>
       </c>
       <c r="G23" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="H23" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="I23" s="3">
-        <v>70500</v>
+        <v>68000</v>
       </c>
       <c r="J23" s="3">
-        <v>146200</v>
+        <v>141100</v>
       </c>
       <c r="K23" s="3">
         <v>-236400</v>
@@ -1680,25 +1680,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>227200</v>
+        <v>219200</v>
       </c>
       <c r="E24" s="3">
-        <v>36800</v>
+        <v>35500</v>
       </c>
       <c r="F24" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G24" s="3">
-        <v>43500</v>
+        <v>42000</v>
       </c>
       <c r="H24" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="I24" s="3">
-        <v>27500</v>
+        <v>26600</v>
       </c>
       <c r="J24" s="3">
-        <v>22300</v>
+        <v>21500</v>
       </c>
       <c r="K24" s="3">
         <v>57400</v>
@@ -1810,25 +1810,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-120000</v>
+        <v>-115800</v>
       </c>
       <c r="E26" s="3">
-        <v>102800</v>
+        <v>99200</v>
       </c>
       <c r="F26" s="3">
-        <v>-39600</v>
+        <v>-38200</v>
       </c>
       <c r="G26" s="3">
-        <v>-34500</v>
+        <v>-33300</v>
       </c>
       <c r="H26" s="3">
-        <v>-12700</v>
+        <v>-12300</v>
       </c>
       <c r="I26" s="3">
-        <v>43000</v>
+        <v>41500</v>
       </c>
       <c r="J26" s="3">
-        <v>123900</v>
+        <v>119600</v>
       </c>
       <c r="K26" s="3">
         <v>-293800</v>
@@ -1875,25 +1875,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-120300</v>
+        <v>-116100</v>
       </c>
       <c r="E27" s="3">
-        <v>99700</v>
+        <v>96200</v>
       </c>
       <c r="F27" s="3">
-        <v>-41800</v>
+        <v>-40400</v>
       </c>
       <c r="G27" s="3">
-        <v>-36200</v>
+        <v>-34900</v>
       </c>
       <c r="H27" s="3">
-        <v>-14500</v>
+        <v>-14000</v>
       </c>
       <c r="I27" s="3">
-        <v>41500</v>
+        <v>40000</v>
       </c>
       <c r="J27" s="3">
-        <v>120200</v>
+        <v>116000</v>
       </c>
       <c r="K27" s="3">
         <v>-295200</v>
@@ -2200,25 +2200,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-151700</v>
+        <v>-146400</v>
       </c>
       <c r="E32" s="3">
-        <v>-109000</v>
+        <v>-105200</v>
       </c>
       <c r="F32" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="G32" s="3">
         <v>-500</v>
       </c>
       <c r="H32" s="3">
-        <v>64000</v>
+        <v>61800</v>
       </c>
       <c r="I32" s="3">
-        <v>-28900</v>
+        <v>-27900</v>
       </c>
       <c r="J32" s="3">
-        <v>-184500</v>
+        <v>-178000</v>
       </c>
       <c r="K32" s="3">
         <v>253300</v>
@@ -2265,25 +2265,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-120300</v>
+        <v>-116100</v>
       </c>
       <c r="E33" s="3">
-        <v>99700</v>
+        <v>96200</v>
       </c>
       <c r="F33" s="3">
-        <v>-41800</v>
+        <v>-40400</v>
       </c>
       <c r="G33" s="3">
-        <v>-36200</v>
+        <v>-34900</v>
       </c>
       <c r="H33" s="3">
-        <v>-14500</v>
+        <v>-14000</v>
       </c>
       <c r="I33" s="3">
-        <v>41500</v>
+        <v>40000</v>
       </c>
       <c r="J33" s="3">
-        <v>120200</v>
+        <v>116000</v>
       </c>
       <c r="K33" s="3">
         <v>-295200</v>
@@ -2395,25 +2395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-120300</v>
+        <v>-116100</v>
       </c>
       <c r="E35" s="3">
-        <v>99700</v>
+        <v>96200</v>
       </c>
       <c r="F35" s="3">
-        <v>-41800</v>
+        <v>-40400</v>
       </c>
       <c r="G35" s="3">
-        <v>-36200</v>
+        <v>-34900</v>
       </c>
       <c r="H35" s="3">
-        <v>-14500</v>
+        <v>-14000</v>
       </c>
       <c r="I35" s="3">
-        <v>41500</v>
+        <v>40000</v>
       </c>
       <c r="J35" s="3">
-        <v>120200</v>
+        <v>116000</v>
       </c>
       <c r="K35" s="3">
         <v>-295200</v>
@@ -2580,25 +2580,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>168700</v>
+        <v>162800</v>
       </c>
       <c r="E41" s="3">
-        <v>325300</v>
+        <v>313900</v>
       </c>
       <c r="F41" s="3">
-        <v>238700</v>
+        <v>230300</v>
       </c>
       <c r="G41" s="3">
-        <v>216800</v>
+        <v>209200</v>
       </c>
       <c r="H41" s="3">
-        <v>505400</v>
+        <v>487700</v>
       </c>
       <c r="I41" s="3">
-        <v>361900</v>
+        <v>349200</v>
       </c>
       <c r="J41" s="3">
-        <v>358000</v>
+        <v>345500</v>
       </c>
       <c r="K41" s="3">
         <v>398400</v>
@@ -2645,25 +2645,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>355000</v>
+        <v>342500</v>
       </c>
       <c r="E42" s="3">
-        <v>55800</v>
+        <v>53900</v>
       </c>
       <c r="F42" s="3">
-        <v>84300</v>
+        <v>81300</v>
       </c>
       <c r="G42" s="3">
-        <v>186000</v>
+        <v>179500</v>
       </c>
       <c r="H42" s="3">
-        <v>23200</v>
+        <v>22300</v>
       </c>
       <c r="I42" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="J42" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="K42" s="3">
         <v>13300</v>
@@ -2710,25 +2710,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>241700</v>
+        <v>233300</v>
       </c>
       <c r="E43" s="3">
-        <v>280200</v>
+        <v>270400</v>
       </c>
       <c r="F43" s="3">
-        <v>295400</v>
+        <v>285000</v>
       </c>
       <c r="G43" s="3">
-        <v>208100</v>
+        <v>200900</v>
       </c>
       <c r="H43" s="3">
-        <v>209600</v>
+        <v>202300</v>
       </c>
       <c r="I43" s="3">
-        <v>233900</v>
+        <v>225700</v>
       </c>
       <c r="J43" s="3">
-        <v>285200</v>
+        <v>275200</v>
       </c>
       <c r="K43" s="3">
         <v>219500</v>
@@ -2775,25 +2775,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>34200</v>
+        <v>33000</v>
       </c>
       <c r="E44" s="3">
-        <v>39800</v>
+        <v>38400</v>
       </c>
       <c r="F44" s="3">
-        <v>48000</v>
+        <v>46300</v>
       </c>
       <c r="G44" s="3">
-        <v>31600</v>
+        <v>30500</v>
       </c>
       <c r="H44" s="3">
-        <v>23900</v>
+        <v>23100</v>
       </c>
       <c r="I44" s="3">
-        <v>30700</v>
+        <v>29700</v>
       </c>
       <c r="J44" s="3">
-        <v>45800</v>
+        <v>44200</v>
       </c>
       <c r="K44" s="3">
         <v>36700</v>
@@ -2840,25 +2840,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40200</v>
+        <v>38800</v>
       </c>
       <c r="E45" s="3">
-        <v>29900</v>
+        <v>28800</v>
       </c>
       <c r="F45" s="3">
-        <v>19900</v>
+        <v>19200</v>
       </c>
       <c r="G45" s="3">
-        <v>19700</v>
+        <v>19000</v>
       </c>
       <c r="H45" s="3">
-        <v>25900</v>
+        <v>25000</v>
       </c>
       <c r="I45" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="J45" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="K45" s="3">
         <v>15800</v>
@@ -2905,25 +2905,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>839800</v>
+        <v>810400</v>
       </c>
       <c r="E46" s="3">
-        <v>731000</v>
+        <v>705400</v>
       </c>
       <c r="F46" s="3">
-        <v>686200</v>
+        <v>662200</v>
       </c>
       <c r="G46" s="3">
-        <v>662400</v>
+        <v>639200</v>
       </c>
       <c r="H46" s="3">
-        <v>788000</v>
+        <v>760400</v>
       </c>
       <c r="I46" s="3">
-        <v>662000</v>
+        <v>638800</v>
       </c>
       <c r="J46" s="3">
-        <v>710600</v>
+        <v>685800</v>
       </c>
       <c r="K46" s="3">
         <v>683700</v>
@@ -2970,25 +2970,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37500</v>
+        <v>36200</v>
       </c>
       <c r="E47" s="3">
-        <v>43500</v>
+        <v>42000</v>
       </c>
       <c r="F47" s="3">
-        <v>52300</v>
+        <v>50400</v>
       </c>
       <c r="G47" s="3">
-        <v>38400</v>
+        <v>37100</v>
       </c>
       <c r="H47" s="3">
-        <v>40900</v>
+        <v>39400</v>
       </c>
       <c r="I47" s="3">
-        <v>42200</v>
+        <v>40700</v>
       </c>
       <c r="J47" s="3">
-        <v>55500</v>
+        <v>53500</v>
       </c>
       <c r="K47" s="3">
         <v>40000</v>
@@ -3035,25 +3035,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4238800</v>
+        <v>4090300</v>
       </c>
       <c r="E48" s="3">
-        <v>3906300</v>
+        <v>3769500</v>
       </c>
       <c r="F48" s="3">
-        <v>4362800</v>
+        <v>4210000</v>
       </c>
       <c r="G48" s="3">
-        <v>3116100</v>
+        <v>3006900</v>
       </c>
       <c r="H48" s="3">
-        <v>2902300</v>
+        <v>2800700</v>
       </c>
       <c r="I48" s="3">
-        <v>2778500</v>
+        <v>2681200</v>
       </c>
       <c r="J48" s="3">
-        <v>3575700</v>
+        <v>3450500</v>
       </c>
       <c r="K48" s="3">
         <v>2371500</v>
@@ -3100,25 +3100,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4526700</v>
+        <v>4368200</v>
       </c>
       <c r="E49" s="3">
-        <v>4107100</v>
+        <v>3963200</v>
       </c>
       <c r="F49" s="3">
-        <v>4585600</v>
+        <v>4425000</v>
       </c>
       <c r="G49" s="3">
-        <v>3303400</v>
+        <v>3187700</v>
       </c>
       <c r="H49" s="3">
-        <v>3088000</v>
+        <v>2979800</v>
       </c>
       <c r="I49" s="3">
-        <v>2947000</v>
+        <v>2843800</v>
       </c>
       <c r="J49" s="3">
-        <v>3746400</v>
+        <v>3615200</v>
       </c>
       <c r="K49" s="3">
         <v>2580300</v>
@@ -3295,25 +3295,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14400</v>
+        <v>13900</v>
       </c>
       <c r="E52" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="F52" s="3">
         <v>2100</v>
       </c>
       <c r="G52" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H52" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I52" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J52" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="K52" s="3">
         <v>2000</v>
@@ -3425,25 +3425,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9657200</v>
+        <v>9319000</v>
       </c>
       <c r="E54" s="3">
-        <v>8792700</v>
+        <v>8484800</v>
       </c>
       <c r="F54" s="3">
-        <v>9689000</v>
+        <v>9349700</v>
       </c>
       <c r="G54" s="3">
-        <v>7122500</v>
+        <v>6873100</v>
       </c>
       <c r="H54" s="3">
-        <v>6821700</v>
+        <v>6582800</v>
       </c>
       <c r="I54" s="3">
-        <v>6433200</v>
+        <v>6207900</v>
       </c>
       <c r="J54" s="3">
-        <v>8091400</v>
+        <v>7808000</v>
       </c>
       <c r="K54" s="3">
         <v>5677500</v>
@@ -3540,25 +3540,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>441100</v>
+        <v>425700</v>
       </c>
       <c r="E57" s="3">
-        <v>454500</v>
+        <v>438500</v>
       </c>
       <c r="F57" s="3">
-        <v>507100</v>
+        <v>489300</v>
       </c>
       <c r="G57" s="3">
-        <v>346500</v>
+        <v>334400</v>
       </c>
       <c r="H57" s="3">
-        <v>294500</v>
+        <v>284200</v>
       </c>
       <c r="I57" s="3">
-        <v>317100</v>
+        <v>306000</v>
       </c>
       <c r="J57" s="3">
-        <v>447300</v>
+        <v>431700</v>
       </c>
       <c r="K57" s="3">
         <v>315900</v>
@@ -3605,25 +3605,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>456600</v>
+        <v>440600</v>
       </c>
       <c r="E58" s="3">
-        <v>412700</v>
+        <v>398300</v>
       </c>
       <c r="F58" s="3">
-        <v>408000</v>
+        <v>393700</v>
       </c>
       <c r="G58" s="3">
-        <v>290600</v>
+        <v>280400</v>
       </c>
       <c r="H58" s="3">
-        <v>713700</v>
+        <v>688700</v>
       </c>
       <c r="I58" s="3">
-        <v>378600</v>
+        <v>365300</v>
       </c>
       <c r="J58" s="3">
-        <v>392100</v>
+        <v>378400</v>
       </c>
       <c r="K58" s="3">
         <v>260400</v>
@@ -3670,25 +3670,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>394800</v>
+        <v>381000</v>
       </c>
       <c r="E59" s="3">
-        <v>356300</v>
+        <v>343800</v>
       </c>
       <c r="F59" s="3">
-        <v>460800</v>
+        <v>444700</v>
       </c>
       <c r="G59" s="3">
-        <v>327600</v>
+        <v>316100</v>
       </c>
       <c r="H59" s="3">
-        <v>310900</v>
+        <v>300100</v>
       </c>
       <c r="I59" s="3">
-        <v>249000</v>
+        <v>240300</v>
       </c>
       <c r="J59" s="3">
-        <v>363900</v>
+        <v>351100</v>
       </c>
       <c r="K59" s="3">
         <v>228800</v>
@@ -3735,25 +3735,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1292600</v>
+        <v>1247300</v>
       </c>
       <c r="E60" s="3">
-        <v>1223500</v>
+        <v>1180600</v>
       </c>
       <c r="F60" s="3">
-        <v>1366300</v>
+        <v>1318400</v>
       </c>
       <c r="G60" s="3">
-        <v>964700</v>
+        <v>930900</v>
       </c>
       <c r="H60" s="3">
-        <v>1319200</v>
+        <v>1273000</v>
       </c>
       <c r="I60" s="3">
-        <v>944600</v>
+        <v>911500</v>
       </c>
       <c r="J60" s="3">
-        <v>1203300</v>
+        <v>1161200</v>
       </c>
       <c r="K60" s="3">
         <v>805000</v>
@@ -3800,25 +3800,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2037200</v>
+        <v>1965900</v>
       </c>
       <c r="E61" s="3">
-        <v>1884000</v>
+        <v>1818100</v>
       </c>
       <c r="F61" s="3">
-        <v>2133000</v>
+        <v>2058300</v>
       </c>
       <c r="G61" s="3">
-        <v>1448900</v>
+        <v>1398100</v>
       </c>
       <c r="H61" s="3">
-        <v>1127100</v>
+        <v>1087700</v>
       </c>
       <c r="I61" s="3">
-        <v>1334400</v>
+        <v>1287700</v>
       </c>
       <c r="J61" s="3">
-        <v>1684900</v>
+        <v>1625800</v>
       </c>
       <c r="K61" s="3">
         <v>1264000</v>
@@ -3865,25 +3865,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1363900</v>
+        <v>1316100</v>
       </c>
       <c r="E62" s="3">
-        <v>1076700</v>
+        <v>1039000</v>
       </c>
       <c r="F62" s="3">
-        <v>1179900</v>
+        <v>1138600</v>
       </c>
       <c r="G62" s="3">
-        <v>839900</v>
+        <v>810500</v>
       </c>
       <c r="H62" s="3">
-        <v>751100</v>
+        <v>724800</v>
       </c>
       <c r="I62" s="3">
-        <v>706200</v>
+        <v>681400</v>
       </c>
       <c r="J62" s="3">
-        <v>865300</v>
+        <v>835000</v>
       </c>
       <c r="K62" s="3">
         <v>572500</v>
@@ -4125,25 +4125,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4767400</v>
+        <v>4600400</v>
       </c>
       <c r="E66" s="3">
-        <v>4261600</v>
+        <v>4112400</v>
       </c>
       <c r="F66" s="3">
-        <v>4761700</v>
+        <v>4594900</v>
       </c>
       <c r="G66" s="3">
-        <v>3311400</v>
+        <v>3195400</v>
       </c>
       <c r="H66" s="3">
-        <v>3250100</v>
+        <v>3136300</v>
       </c>
       <c r="I66" s="3">
-        <v>3036400</v>
+        <v>2930000</v>
       </c>
       <c r="J66" s="3">
-        <v>3821700</v>
+        <v>3687900</v>
       </c>
       <c r="K66" s="3">
         <v>2687600</v>
@@ -4475,25 +4475,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>660200</v>
+        <v>637000</v>
       </c>
       <c r="E72" s="3">
-        <v>567300</v>
+        <v>547400</v>
       </c>
       <c r="F72" s="3">
-        <v>529600</v>
+        <v>511100</v>
       </c>
       <c r="G72" s="3">
-        <v>652800</v>
+        <v>629900</v>
       </c>
       <c r="H72" s="3">
-        <v>639900</v>
+        <v>617500</v>
       </c>
       <c r="I72" s="3">
-        <v>504500</v>
+        <v>486800</v>
       </c>
       <c r="J72" s="3">
-        <v>604000</v>
+        <v>582800</v>
       </c>
       <c r="K72" s="3">
         <v>498300</v>
@@ -4735,25 +4735,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4889800</v>
+        <v>4718600</v>
       </c>
       <c r="E76" s="3">
-        <v>4531100</v>
+        <v>4372400</v>
       </c>
       <c r="F76" s="3">
-        <v>4927300</v>
+        <v>4754800</v>
       </c>
       <c r="G76" s="3">
-        <v>3811100</v>
+        <v>3677700</v>
       </c>
       <c r="H76" s="3">
-        <v>3571600</v>
+        <v>3446500</v>
       </c>
       <c r="I76" s="3">
-        <v>3396900</v>
+        <v>3277900</v>
       </c>
       <c r="J76" s="3">
-        <v>4269600</v>
+        <v>4120100</v>
       </c>
       <c r="K76" s="3">
         <v>2990000</v>
@@ -4935,25 +4935,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-120300</v>
+        <v>-116100</v>
       </c>
       <c r="E81" s="3">
-        <v>99700</v>
+        <v>96200</v>
       </c>
       <c r="F81" s="3">
-        <v>-41800</v>
+        <v>-40400</v>
       </c>
       <c r="G81" s="3">
-        <v>-36200</v>
+        <v>-34900</v>
       </c>
       <c r="H81" s="3">
-        <v>-14500</v>
+        <v>-14000</v>
       </c>
       <c r="I81" s="3">
-        <v>41500</v>
+        <v>40000</v>
       </c>
       <c r="J81" s="3">
-        <v>120200</v>
+        <v>116000</v>
       </c>
       <c r="K81" s="3">
         <v>-295200</v>
@@ -5025,25 +5025,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>317100</v>
+        <v>306000</v>
       </c>
       <c r="E83" s="3">
-        <v>252700</v>
+        <v>243900</v>
       </c>
       <c r="F83" s="3">
-        <v>282000</v>
+        <v>272200</v>
       </c>
       <c r="G83" s="3">
-        <v>50400</v>
+        <v>48600</v>
       </c>
       <c r="H83" s="3">
-        <v>275400</v>
+        <v>265700</v>
       </c>
       <c r="I83" s="3">
-        <v>237400</v>
+        <v>229100</v>
       </c>
       <c r="J83" s="3">
-        <v>277000</v>
+        <v>267300</v>
       </c>
       <c r="K83" s="3">
         <v>223200</v>
@@ -5415,25 +5415,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>295900</v>
+        <v>285500</v>
       </c>
       <c r="E89" s="3">
-        <v>283300</v>
+        <v>273300</v>
       </c>
       <c r="F89" s="3">
-        <v>303700</v>
+        <v>293000</v>
       </c>
       <c r="G89" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="H89" s="3">
-        <v>493400</v>
+        <v>476200</v>
       </c>
       <c r="I89" s="3">
-        <v>236500</v>
+        <v>228200</v>
       </c>
       <c r="J89" s="3">
-        <v>363200</v>
+        <v>350400</v>
       </c>
       <c r="K89" s="3">
         <v>314600</v>
@@ -5505,25 +5505,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-171100</v>
+        <v>-165100</v>
       </c>
       <c r="E91" s="3">
-        <v>-148200</v>
+        <v>-143000</v>
       </c>
       <c r="F91" s="3">
-        <v>-200900</v>
+        <v>-193800</v>
       </c>
       <c r="G91" s="3">
-        <v>-112400</v>
+        <v>-108500</v>
       </c>
       <c r="H91" s="3">
-        <v>-111600</v>
+        <v>-107700</v>
       </c>
       <c r="I91" s="3">
-        <v>-112600</v>
+        <v>-108600</v>
       </c>
       <c r="J91" s="3">
-        <v>-185200</v>
+        <v>-178700</v>
       </c>
       <c r="K91" s="3">
         <v>-107700</v>
@@ -5700,25 +5700,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-464100</v>
+        <v>-447900</v>
       </c>
       <c r="E94" s="3">
-        <v>-142100</v>
+        <v>-137100</v>
       </c>
       <c r="F94" s="3">
-        <v>-369500</v>
+        <v>-356600</v>
       </c>
       <c r="G94" s="3">
-        <v>-242800</v>
+        <v>-234300</v>
       </c>
       <c r="H94" s="3">
-        <v>-123400</v>
+        <v>-119100</v>
       </c>
       <c r="I94" s="3">
-        <v>-118900</v>
+        <v>-114800</v>
       </c>
       <c r="J94" s="3">
-        <v>-174400</v>
+        <v>-168300</v>
       </c>
       <c r="K94" s="3">
         <v>-82000</v>
@@ -5808,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-210900</v>
+        <v>-203500</v>
       </c>
       <c r="K96" s="3">
         <v>-88300</v>
@@ -6050,25 +6050,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="E100" s="3">
-        <v>-26900</v>
+        <v>-26000</v>
       </c>
       <c r="F100" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="G100" s="3">
-        <v>-324700</v>
+        <v>-313300</v>
       </c>
       <c r="H100" s="3">
-        <v>-94100</v>
+        <v>-90800</v>
       </c>
       <c r="I100" s="3">
-        <v>46000</v>
+        <v>44400</v>
       </c>
       <c r="J100" s="3">
-        <v>-247600</v>
+        <v>-238900</v>
       </c>
       <c r="K100" s="3">
         <v>28300</v>
@@ -6115,25 +6115,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="E101" s="3">
-        <v>-4200</v>
+        <v>-4000</v>
       </c>
       <c r="F101" s="3">
         <v>-1500</v>
       </c>
       <c r="G101" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="H101" s="3">
-        <v>17300</v>
+        <v>16700</v>
       </c>
       <c r="I101" s="3">
         <v>-700</v>
       </c>
       <c r="J101" s="3">
-        <v>25400</v>
+        <v>24500</v>
       </c>
       <c r="K101" s="3">
         <v>30700</v>
@@ -6180,25 +6180,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-180100</v>
+        <v>-173800</v>
       </c>
       <c r="E102" s="3">
-        <v>110100</v>
+        <v>106300</v>
       </c>
       <c r="F102" s="3">
-        <v>-62800</v>
+        <v>-60600</v>
       </c>
       <c r="G102" s="3">
-        <v>-415200</v>
+        <v>-400600</v>
       </c>
       <c r="H102" s="3">
-        <v>198600</v>
+        <v>191600</v>
       </c>
       <c r="I102" s="3">
-        <v>111800</v>
+        <v>107900</v>
       </c>
       <c r="J102" s="3">
-        <v>-184500</v>
+        <v>-178000</v>
       </c>
       <c r="K102" s="3">
         <v>258200</v>

--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,320 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>877200</v>
+        <v>1217800</v>
       </c>
       <c r="E8" s="3">
-        <v>908600</v>
+        <v>884600</v>
       </c>
       <c r="F8" s="3">
-        <v>926300</v>
+        <v>1807900</v>
       </c>
       <c r="G8" s="3">
-        <v>664900</v>
+        <v>841700</v>
       </c>
       <c r="H8" s="3">
-        <v>968800</v>
+        <v>1266000</v>
       </c>
       <c r="I8" s="3">
+        <v>939100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1978500</v>
+      </c>
+      <c r="K8" s="3">
         <v>985400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1036700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>769800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1590200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>854800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1094000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>779500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1991100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>881600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>412800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>384000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>363400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>385900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>378900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>351500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>236600</v>
+        <v>326100</v>
       </c>
       <c r="E9" s="3">
-        <v>246100</v>
+        <v>233300</v>
       </c>
       <c r="F9" s="3">
-        <v>249600</v>
+        <v>488700</v>
       </c>
       <c r="G9" s="3">
-        <v>160600</v>
+        <v>228000</v>
       </c>
       <c r="H9" s="3">
-        <v>223000</v>
+        <v>341900</v>
       </c>
       <c r="I9" s="3">
+        <v>226900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>477600</v>
+      </c>
+      <c r="K9" s="3">
         <v>248700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>281000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>206200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>411800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>222500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>288000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>206800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>441500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>156600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>70700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>65400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>58000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>58300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>65600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>640600</v>
+        <v>891600</v>
       </c>
       <c r="E10" s="3">
-        <v>662500</v>
+        <v>651300</v>
       </c>
       <c r="F10" s="3">
-        <v>676700</v>
+        <v>1319300</v>
       </c>
       <c r="G10" s="3">
-        <v>504200</v>
+        <v>613700</v>
       </c>
       <c r="H10" s="3">
-        <v>745800</v>
+        <v>924100</v>
       </c>
       <c r="I10" s="3">
+        <v>712200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1500900</v>
+      </c>
+      <c r="K10" s="3">
         <v>736700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>755700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>563600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1178500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>632300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>806000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>572700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1549600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>725000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>342100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>318700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>305400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>327600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>313200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>285900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1002,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1069,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1140,156 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>21800</v>
+        <v>34300</v>
       </c>
       <c r="E14" s="3">
-        <v>2400</v>
+        <v>25600</v>
       </c>
       <c r="F14" s="3">
+        <v>24500</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>31800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L14" s="3">
+        <v>40100</v>
+      </c>
+      <c r="M14" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N14" s="3">
         <v>7300</v>
       </c>
-      <c r="G14" s="3">
-        <v>22500</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J14" s="3">
-        <v>40100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>5300</v>
-      </c>
-      <c r="L14" s="3">
-        <v>7300</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>23100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>6100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>73400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>59000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>10400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>2100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>3100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>5900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>2000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>279300</v>
+        <v>378300</v>
       </c>
       <c r="E15" s="3">
-        <v>270600</v>
+        <v>298900</v>
       </c>
       <c r="F15" s="3">
-        <v>272200</v>
+        <v>556700</v>
       </c>
       <c r="G15" s="3">
-        <v>188700</v>
+        <v>250700</v>
       </c>
       <c r="H15" s="3">
-        <v>240600</v>
+        <v>372900</v>
       </c>
       <c r="I15" s="3">
+        <v>266600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>501000</v>
+      </c>
+      <c r="K15" s="3">
         <v>254200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>267300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>197300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>375800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>191300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>236800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>163000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>352800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>151900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>41200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>39900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>39400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>43800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>44800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1310,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>883900</v>
+        <v>1254300</v>
       </c>
       <c r="E17" s="3">
-        <v>849300</v>
+        <v>927000</v>
       </c>
       <c r="F17" s="3">
-        <v>917400</v>
+        <v>1754700</v>
       </c>
       <c r="G17" s="3">
-        <v>627200</v>
+        <v>786800</v>
       </c>
       <c r="H17" s="3">
-        <v>843400</v>
+        <v>1256200</v>
       </c>
       <c r="I17" s="3">
+        <v>886000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1759900</v>
+      </c>
+      <c r="K17" s="3">
         <v>894900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1018500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>713700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1433200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>768100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1034800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>687200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1635100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>701800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>341800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>311400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>295500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>310200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>318100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>304300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6700</v>
+        <v>-36500</v>
       </c>
       <c r="E18" s="3">
-        <v>59300</v>
+        <v>-42400</v>
       </c>
       <c r="F18" s="3">
-        <v>8900</v>
+        <v>53300</v>
       </c>
       <c r="G18" s="3">
-        <v>37600</v>
+        <v>54900</v>
       </c>
       <c r="H18" s="3">
-        <v>125400</v>
+        <v>9800</v>
       </c>
       <c r="I18" s="3">
+        <v>53100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>218600</v>
+      </c>
+      <c r="K18" s="3">
         <v>90500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>18200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>56100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>157100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>86700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>59200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>92300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>356000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>179800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>71000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>72700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>67900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>75700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>60700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1479,365 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>146400</v>
+        <v>186500</v>
       </c>
       <c r="E20" s="3">
-        <v>105200</v>
+        <v>128400</v>
       </c>
       <c r="F20" s="3">
-        <v>-3800</v>
+        <v>254700</v>
       </c>
       <c r="G20" s="3">
-        <v>500</v>
+        <v>97500</v>
       </c>
       <c r="H20" s="3">
-        <v>-61800</v>
+        <v>-4900</v>
       </c>
       <c r="I20" s="3">
+        <v>700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="K20" s="3">
         <v>27900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>178000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-253300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>142500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>32900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>344500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-376400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-322500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>83500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>4400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-4400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>10000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-3900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>445800</v>
+        <v>528300</v>
       </c>
       <c r="E21" s="3">
-        <v>408400</v>
+        <v>432200</v>
       </c>
       <c r="F21" s="3">
-        <v>277300</v>
+        <v>817400</v>
       </c>
       <c r="G21" s="3">
-        <v>86700</v>
+        <v>378300</v>
       </c>
       <c r="H21" s="3">
-        <v>329300</v>
+        <v>377700</v>
       </c>
       <c r="I21" s="3">
+        <v>363100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>642700</v>
+      </c>
+      <c r="K21" s="3">
         <v>347500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>463500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>26000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>648600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>301200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>639500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-89300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>346300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>401800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>113500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>117000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>102900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>129500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>101700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36300</v>
+        <v>46400</v>
       </c>
       <c r="E22" s="3">
-        <v>29800</v>
+        <v>33200</v>
       </c>
       <c r="F22" s="3">
-        <v>38700</v>
+        <v>66800</v>
       </c>
       <c r="G22" s="3">
-        <v>29400</v>
+        <v>27600</v>
       </c>
       <c r="H22" s="3">
-        <v>53400</v>
+        <v>52700</v>
       </c>
       <c r="I22" s="3">
+        <v>41600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>105000</v>
+      </c>
+      <c r="K22" s="3">
         <v>50400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>55100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>39200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>58800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>28900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>35600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>23200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>39100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>13000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>6200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>4800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>4400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>6700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>10800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>103500</v>
+        <v>103600</v>
       </c>
       <c r="E23" s="3">
-        <v>134700</v>
+        <v>52800</v>
       </c>
       <c r="F23" s="3">
-        <v>-33600</v>
+        <v>241100</v>
       </c>
       <c r="G23" s="3">
-        <v>8700</v>
+        <v>124800</v>
       </c>
       <c r="H23" s="3">
-        <v>10200</v>
+        <v>-47900</v>
       </c>
       <c r="I23" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>79200</v>
+      </c>
+      <c r="K23" s="3">
         <v>68000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>141100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-236400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>240800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>90700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>368100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-307200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>250300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>66200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>72300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>59000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>79000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>46000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>219200</v>
+        <v>21700</v>
       </c>
       <c r="E24" s="3">
-        <v>35500</v>
+        <v>26600</v>
       </c>
       <c r="F24" s="3">
-        <v>4700</v>
+        <v>257900</v>
       </c>
       <c r="G24" s="3">
-        <v>42000</v>
+        <v>32900</v>
       </c>
       <c r="H24" s="3">
-        <v>22500</v>
+        <v>5400</v>
       </c>
       <c r="I24" s="3">
+        <v>59400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>49600</v>
+      </c>
+      <c r="K24" s="3">
         <v>26600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>21500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>57400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>127900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>66000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>94000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-97200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-68300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>44000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>19600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>25100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>20700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>27500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>6500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-115800</v>
+        <v>81900</v>
       </c>
       <c r="E26" s="3">
-        <v>99200</v>
+        <v>26200</v>
       </c>
       <c r="F26" s="3">
-        <v>-38200</v>
+        <v>-16800</v>
       </c>
       <c r="G26" s="3">
-        <v>-33300</v>
+        <v>91900</v>
       </c>
       <c r="H26" s="3">
-        <v>-12300</v>
+        <v>-53300</v>
       </c>
       <c r="I26" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K26" s="3">
         <v>41500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>119600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-293800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>112900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>24700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>274100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-210100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>62700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>206300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>46500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>47200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>38400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>51500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>39500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-116100</v>
+        <v>76300</v>
       </c>
       <c r="E27" s="3">
-        <v>96200</v>
+        <v>23400</v>
       </c>
       <c r="F27" s="3">
-        <v>-40400</v>
+        <v>-20100</v>
       </c>
       <c r="G27" s="3">
-        <v>-34900</v>
+        <v>89100</v>
       </c>
       <c r="H27" s="3">
-        <v>-14000</v>
+        <v>-56200</v>
       </c>
       <c r="I27" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K27" s="3">
         <v>40000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>116000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-295200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>110800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>23800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>270100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-210000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>61500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>205800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>45600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>46500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>38100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>51200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>39400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2327,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-146400</v>
+        <v>-186500</v>
       </c>
       <c r="E32" s="3">
-        <v>-105200</v>
+        <v>-128400</v>
       </c>
       <c r="F32" s="3">
-        <v>3800</v>
+        <v>-254700</v>
       </c>
       <c r="G32" s="3">
-        <v>-500</v>
+        <v>-97500</v>
       </c>
       <c r="H32" s="3">
-        <v>61800</v>
+        <v>4900</v>
       </c>
       <c r="I32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-27900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-178000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>253300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-142500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-32900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-344500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>376400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>322500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-83500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-4400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>4400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-10000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>3900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-116100</v>
+        <v>76300</v>
       </c>
       <c r="E33" s="3">
-        <v>96200</v>
+        <v>23400</v>
       </c>
       <c r="F33" s="3">
-        <v>-40400</v>
+        <v>-20100</v>
       </c>
       <c r="G33" s="3">
-        <v>-34900</v>
+        <v>89100</v>
       </c>
       <c r="H33" s="3">
-        <v>-14000</v>
+        <v>-56200</v>
       </c>
       <c r="I33" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K33" s="3">
         <v>40000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>116000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-295200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>110800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>23800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>270100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-210000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>61500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>205800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>45600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>46500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>38100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>51200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>39400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-116100</v>
+        <v>76300</v>
       </c>
       <c r="E35" s="3">
-        <v>96200</v>
+        <v>23400</v>
       </c>
       <c r="F35" s="3">
-        <v>-40400</v>
+        <v>-20100</v>
       </c>
       <c r="G35" s="3">
-        <v>-34900</v>
+        <v>89100</v>
       </c>
       <c r="H35" s="3">
-        <v>-14000</v>
+        <v>-56200</v>
       </c>
       <c r="I35" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K35" s="3">
         <v>40000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>116000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-295200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>110800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>23800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>270100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-210000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>61500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>205800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>45600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>46500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>38100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>51200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>39400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2745,649 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>162800</v>
+        <v>182400</v>
       </c>
       <c r="E41" s="3">
-        <v>313900</v>
+        <v>156900</v>
       </c>
       <c r="F41" s="3">
-        <v>230300</v>
+        <v>150800</v>
       </c>
       <c r="G41" s="3">
-        <v>209200</v>
+        <v>290800</v>
       </c>
       <c r="H41" s="3">
-        <v>487700</v>
+        <v>257000</v>
       </c>
       <c r="I41" s="3">
+        <v>193800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>451800</v>
+      </c>
+      <c r="K41" s="3">
         <v>349200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>345500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>398400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>199200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>167000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>211900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>132100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>115000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>129700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>64900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>142200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>80100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>41500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>103300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>342500</v>
+        <v>99100</v>
       </c>
       <c r="E42" s="3">
-        <v>53900</v>
+        <v>75500</v>
       </c>
       <c r="F42" s="3">
-        <v>81300</v>
+        <v>317300</v>
       </c>
       <c r="G42" s="3">
-        <v>179500</v>
+        <v>49900</v>
       </c>
       <c r="H42" s="3">
-        <v>22300</v>
+        <v>71700</v>
       </c>
       <c r="I42" s="3">
+        <v>166300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K42" s="3">
         <v>8000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>5800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>13300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>20300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>22700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>28600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>89800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>71200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>50600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>78600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>44500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>37200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>112600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>45800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>233300</v>
+        <v>241700</v>
       </c>
       <c r="E43" s="3">
-        <v>270400</v>
+        <v>202500</v>
       </c>
       <c r="F43" s="3">
-        <v>285000</v>
+        <v>216100</v>
       </c>
       <c r="G43" s="3">
-        <v>200900</v>
+        <v>250500</v>
       </c>
       <c r="H43" s="3">
-        <v>202300</v>
+        <v>337100</v>
       </c>
       <c r="I43" s="3">
+        <v>186100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>187400</v>
+      </c>
+      <c r="K43" s="3">
         <v>225700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>275200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>219500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>198900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>239000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>439500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>233200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>241900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>201100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>219600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>192400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>188200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>221100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>208600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>222000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>33000</v>
+        <v>28600</v>
       </c>
       <c r="E44" s="3">
-        <v>38400</v>
+        <v>30800</v>
       </c>
       <c r="F44" s="3">
-        <v>46300</v>
+        <v>30600</v>
       </c>
       <c r="G44" s="3">
-        <v>30500</v>
+        <v>35600</v>
       </c>
       <c r="H44" s="3">
-        <v>23100</v>
+        <v>51600</v>
       </c>
       <c r="I44" s="3">
+        <v>28300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K44" s="3">
         <v>29700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>44200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>36700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>35000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>38400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>57100</v>
       </c>
       <c r="O44" s="3">
         <v>38400</v>
       </c>
       <c r="P44" s="3">
+        <v>57100</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>38400</v>
+      </c>
+      <c r="R44" s="3">
         <v>39300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>33300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>42500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>44800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>28700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>32200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>33500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>38800</v>
+        <v>46900</v>
       </c>
       <c r="E45" s="3">
-        <v>28800</v>
+        <v>38100</v>
       </c>
       <c r="F45" s="3">
-        <v>19200</v>
+        <v>35900</v>
       </c>
       <c r="G45" s="3">
-        <v>19000</v>
+        <v>26700</v>
       </c>
       <c r="H45" s="3">
-        <v>25000</v>
+        <v>21400</v>
       </c>
       <c r="I45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K45" s="3">
         <v>26200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>15900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>15800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>15300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>17900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>31000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>22600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>22200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>22100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>12700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>14900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>16500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>19600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>16200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>810400</v>
+        <v>598700</v>
       </c>
       <c r="E46" s="3">
-        <v>705400</v>
+        <v>503900</v>
       </c>
       <c r="F46" s="3">
-        <v>662200</v>
+        <v>750800</v>
       </c>
       <c r="G46" s="3">
-        <v>639200</v>
+        <v>653500</v>
       </c>
       <c r="H46" s="3">
-        <v>760400</v>
+        <v>738800</v>
       </c>
       <c r="I46" s="3">
+        <v>592100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>704400</v>
+      </c>
+      <c r="K46" s="3">
         <v>638800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>685800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>683700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>468700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>485000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>699100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>516100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>489600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>436800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>418400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>438700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>350600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>426900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>407400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>324600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36200</v>
+        <v>40200</v>
       </c>
       <c r="E47" s="3">
-        <v>42000</v>
+        <v>37200</v>
       </c>
       <c r="F47" s="3">
-        <v>50400</v>
+        <v>33600</v>
       </c>
       <c r="G47" s="3">
-        <v>37100</v>
+        <v>38900</v>
       </c>
       <c r="H47" s="3">
-        <v>39400</v>
+        <v>56300</v>
       </c>
       <c r="I47" s="3">
+        <v>34400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>36500</v>
+      </c>
+      <c r="K47" s="3">
         <v>40700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>53500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>40000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>63300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>77400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>250700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>89200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>72800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>54000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>77900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>116300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>102000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>35400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>34100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4090300</v>
+        <v>4453400</v>
       </c>
       <c r="E48" s="3">
-        <v>3769500</v>
+        <v>4033900</v>
       </c>
       <c r="F48" s="3">
-        <v>4210000</v>
+        <v>3789300</v>
       </c>
       <c r="G48" s="3">
-        <v>3006900</v>
+        <v>3492100</v>
       </c>
       <c r="H48" s="3">
-        <v>2800700</v>
+        <v>4697400</v>
       </c>
       <c r="I48" s="3">
+        <v>2785700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2594600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2681200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3450500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2371500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2102300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2139500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5958500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1323300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1513900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1432000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>654700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>604100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>567200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>615900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>606500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>575800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4368200</v>
+        <v>4809400</v>
       </c>
       <c r="E49" s="3">
-        <v>3963200</v>
+        <v>4396500</v>
       </c>
       <c r="F49" s="3">
-        <v>4425000</v>
+        <v>4046700</v>
       </c>
       <c r="G49" s="3">
-        <v>3187700</v>
+        <v>3671600</v>
       </c>
       <c r="H49" s="3">
-        <v>2979800</v>
+        <v>4937400</v>
       </c>
       <c r="I49" s="3">
+        <v>2953100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2760600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2843800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3615200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2580300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2374400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2467700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4866900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1441900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1751000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1755000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>162800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>165000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>169300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>193400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>198800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3522,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13900</v>
+        <v>15400</v>
       </c>
       <c r="E52" s="3">
-        <v>4700</v>
+        <v>21000</v>
       </c>
       <c r="F52" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="L52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N52" s="3">
         <v>2100</v>
       </c>
-      <c r="G52" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>4100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>10800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>7000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>12900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>10600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>7300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>7200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>7500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>7700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>7600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3664,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9319000</v>
+        <v>9917100</v>
       </c>
       <c r="E54" s="3">
-        <v>8484800</v>
+        <v>8992600</v>
       </c>
       <c r="F54" s="3">
-        <v>9349700</v>
+        <v>8633200</v>
       </c>
       <c r="G54" s="3">
-        <v>6873100</v>
+        <v>7860400</v>
       </c>
       <c r="H54" s="3">
-        <v>6582800</v>
+        <v>10432100</v>
       </c>
       <c r="I54" s="3">
+        <v>6367300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>6098400</v>
+      </c>
+      <c r="K54" s="3">
         <v>6207900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>7808000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5677500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5010800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5173700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7760300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3377400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3840200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3688400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1321100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1331300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1196700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1279400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1254400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1125600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3793,436 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>425700</v>
+        <v>452400</v>
       </c>
       <c r="E57" s="3">
-        <v>438500</v>
+        <v>403900</v>
       </c>
       <c r="F57" s="3">
-        <v>489300</v>
+        <v>394400</v>
       </c>
       <c r="G57" s="3">
-        <v>334400</v>
+        <v>406300</v>
       </c>
       <c r="H57" s="3">
-        <v>284200</v>
+        <v>546000</v>
       </c>
       <c r="I57" s="3">
+        <v>309800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>263300</v>
+      </c>
+      <c r="K57" s="3">
         <v>306000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>431700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>315900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>249200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>262700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>477100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>327800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>313100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>267300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>263400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>244500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>228600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>236000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>235100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>254700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>440600</v>
+        <v>502400</v>
       </c>
       <c r="E58" s="3">
-        <v>398300</v>
+        <v>524800</v>
       </c>
       <c r="F58" s="3">
-        <v>393700</v>
+        <v>408200</v>
       </c>
       <c r="G58" s="3">
-        <v>280400</v>
+        <v>369000</v>
       </c>
       <c r="H58" s="3">
-        <v>688700</v>
+        <v>439300</v>
       </c>
       <c r="I58" s="3">
+        <v>259800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>638000</v>
+      </c>
+      <c r="K58" s="3">
         <v>365300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>378400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>260400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>235700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>167600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>341700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>679200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>554200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>401400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>57000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>33500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>23200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>19000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>81500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>381000</v>
+        <v>566800</v>
       </c>
       <c r="E59" s="3">
-        <v>343800</v>
+        <v>458700</v>
       </c>
       <c r="F59" s="3">
-        <v>444700</v>
+        <v>353000</v>
       </c>
       <c r="G59" s="3">
-        <v>316100</v>
+        <v>318500</v>
       </c>
       <c r="H59" s="3">
-        <v>300100</v>
+        <v>494400</v>
       </c>
       <c r="I59" s="3">
+        <v>292900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>278000</v>
+      </c>
+      <c r="K59" s="3">
         <v>240300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>351100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>228800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>187000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>237100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>296900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>151600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>166300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>215400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>184000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>192600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>159200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>163200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>115700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1247300</v>
+        <v>1521700</v>
       </c>
       <c r="E60" s="3">
-        <v>1180600</v>
+        <v>1387400</v>
       </c>
       <c r="F60" s="3">
-        <v>1318400</v>
+        <v>1155500</v>
       </c>
       <c r="G60" s="3">
-        <v>930900</v>
+        <v>1093800</v>
       </c>
       <c r="H60" s="3">
-        <v>1273000</v>
+        <v>1471100</v>
       </c>
       <c r="I60" s="3">
+        <v>862400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1179300</v>
+      </c>
+      <c r="K60" s="3">
         <v>911500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1161200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>805000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>671900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>667400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1115700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1158600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1033600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>884200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>504400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>470600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>410900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>418200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>432300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>564500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1965900</v>
+        <v>1974400</v>
       </c>
       <c r="E61" s="3">
-        <v>1818100</v>
+        <v>1784400</v>
       </c>
       <c r="F61" s="3">
-        <v>2058300</v>
+        <v>1821200</v>
       </c>
       <c r="G61" s="3">
-        <v>1398100</v>
+        <v>1684300</v>
       </c>
       <c r="H61" s="3">
-        <v>1087700</v>
+        <v>2296600</v>
       </c>
       <c r="I61" s="3">
+        <v>1295200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1007600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1287700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1625800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1264000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>829100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>918600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1237300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>517600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>470600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>329000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>207400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>206300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>179900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>220400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>226400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1316100</v>
+        <v>1366500</v>
       </c>
       <c r="E62" s="3">
-        <v>1039000</v>
+        <v>1293900</v>
       </c>
       <c r="F62" s="3">
-        <v>1138600</v>
+        <v>1219300</v>
       </c>
       <c r="G62" s="3">
-        <v>810500</v>
+        <v>962500</v>
       </c>
       <c r="H62" s="3">
-        <v>724800</v>
+        <v>1270400</v>
       </c>
       <c r="I62" s="3">
+        <v>750900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>671400</v>
+      </c>
+      <c r="K62" s="3">
         <v>681400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>835000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>572500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>477300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>419700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>681300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>195800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>316300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>338700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>61500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>63700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>63600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>70500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>75400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4428,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4600400</v>
+        <v>4941400</v>
       </c>
       <c r="E66" s="3">
-        <v>4112400</v>
+        <v>4536800</v>
       </c>
       <c r="F66" s="3">
-        <v>4594900</v>
+        <v>4261900</v>
       </c>
       <c r="G66" s="3">
-        <v>3195400</v>
+        <v>3809700</v>
       </c>
       <c r="H66" s="3">
-        <v>3136300</v>
+        <v>5126900</v>
       </c>
       <c r="I66" s="3">
+        <v>2960300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2905500</v>
+      </c>
+      <c r="K66" s="3">
         <v>2930000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3687900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2687600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2015800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2049600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3049000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1911800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1858700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1585600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>791500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>756400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>669100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>722600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>748200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4810,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>637000</v>
+        <v>456500</v>
       </c>
       <c r="E72" s="3">
-        <v>547400</v>
+        <v>334800</v>
       </c>
       <c r="F72" s="3">
-        <v>511100</v>
+        <v>590200</v>
       </c>
       <c r="G72" s="3">
-        <v>629900</v>
+        <v>507100</v>
       </c>
       <c r="H72" s="3">
-        <v>617500</v>
+        <v>571400</v>
       </c>
       <c r="I72" s="3">
+        <v>583600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>572100</v>
+      </c>
+      <c r="K72" s="3">
         <v>486800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>582800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>498300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>734800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>780000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1156900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-147800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>46000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>187300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>224700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>53500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>127500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>275800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>225100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4718600</v>
+        <v>4975700</v>
       </c>
       <c r="E76" s="3">
-        <v>4372400</v>
+        <v>4455700</v>
       </c>
       <c r="F76" s="3">
-        <v>4754800</v>
+        <v>4371400</v>
       </c>
       <c r="G76" s="3">
-        <v>3677700</v>
+        <v>4050700</v>
       </c>
       <c r="H76" s="3">
-        <v>3446500</v>
+        <v>5305200</v>
       </c>
       <c r="I76" s="3">
+        <v>3407000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3192900</v>
+      </c>
+      <c r="K76" s="3">
         <v>3277900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4120100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2990000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2995100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3124100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4711300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1465600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1981400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2102800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>529600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>574900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>527600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>556800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>506200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-116100</v>
+        <v>76300</v>
       </c>
       <c r="E81" s="3">
-        <v>96200</v>
+        <v>23400</v>
       </c>
       <c r="F81" s="3">
-        <v>-40400</v>
+        <v>-20100</v>
       </c>
       <c r="G81" s="3">
-        <v>-34900</v>
+        <v>89100</v>
       </c>
       <c r="H81" s="3">
-        <v>-14000</v>
+        <v>-56200</v>
       </c>
       <c r="I81" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>26300</v>
+      </c>
+      <c r="K81" s="3">
         <v>40000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>116000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-295200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>110800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>23800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>270100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-210000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>61500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>205800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>45600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>46500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>38100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>51200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>39400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5414,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>306000</v>
+        <v>378300</v>
       </c>
       <c r="E83" s="3">
-        <v>243900</v>
+        <v>346200</v>
       </c>
       <c r="F83" s="3">
-        <v>272200</v>
+        <v>509500</v>
       </c>
       <c r="G83" s="3">
-        <v>48600</v>
+        <v>225900</v>
       </c>
       <c r="H83" s="3">
-        <v>265700</v>
+        <v>372900</v>
       </c>
       <c r="I83" s="3">
+        <v>309200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>458400</v>
+      </c>
+      <c r="K83" s="3">
         <v>229100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>267300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>223200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>349100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>181600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>235800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>194700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>312700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>138500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>41200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>39900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>39400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>43800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>44800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5836,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>285500</v>
+        <v>363500</v>
       </c>
       <c r="E89" s="3">
-        <v>273300</v>
+        <v>313700</v>
       </c>
       <c r="F89" s="3">
-        <v>293000</v>
+        <v>517800</v>
       </c>
       <c r="G89" s="3">
-        <v>7700</v>
+        <v>253200</v>
       </c>
       <c r="H89" s="3">
-        <v>476200</v>
+        <v>380600</v>
       </c>
       <c r="I89" s="3">
+        <v>353300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>652600</v>
+      </c>
+      <c r="K89" s="3">
         <v>228200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>350400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>314600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>508500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>284000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>172000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>171200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>436500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>223700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>86300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>109200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>120200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>145800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>131100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>82400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5938,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-165100</v>
+        <v>-226900</v>
       </c>
       <c r="E91" s="3">
-        <v>-143000</v>
+        <v>-163900</v>
       </c>
       <c r="F91" s="3">
-        <v>-193800</v>
+        <v>-285400</v>
       </c>
       <c r="G91" s="3">
-        <v>-108500</v>
+        <v>-132500</v>
       </c>
       <c r="H91" s="3">
+        <v>-179600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-200400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-108600</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-178700</v>
+      </c>
+      <c r="M91" s="3">
         <v>-107700</v>
       </c>
-      <c r="I91" s="3">
-        <v>-108600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-178700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-107700</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-229400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-95600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-241000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-125700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-207500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-93200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-66600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-70300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-55000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-68700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-84100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-80400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6147,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-447900</v>
+        <v>-280300</v>
       </c>
       <c r="E94" s="3">
-        <v>-137100</v>
+        <v>-235700</v>
       </c>
       <c r="F94" s="3">
-        <v>-356600</v>
+        <v>-541900</v>
       </c>
       <c r="G94" s="3">
-        <v>-234300</v>
+        <v>-127000</v>
       </c>
       <c r="H94" s="3">
-        <v>-119100</v>
+        <v>-330400</v>
       </c>
       <c r="I94" s="3">
+        <v>-217100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-216600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-114800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-168300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-82000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-219500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-84800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-176800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-127800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-146100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-40600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-57300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-89000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-63500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-134800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-114300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-80300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6249,81 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F96" s="3">
-        <v>-2100</v>
+        <v>-3000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-203500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-88300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-73100</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-135900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-2200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-395900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-395900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-95800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6529,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4900</v>
+        <v>-76900</v>
       </c>
       <c r="E100" s="3">
-        <v>-26000</v>
+        <v>-81000</v>
       </c>
       <c r="F100" s="3">
-        <v>4400</v>
+        <v>-28600</v>
       </c>
       <c r="G100" s="3">
-        <v>-313300</v>
+        <v>-24100</v>
       </c>
       <c r="H100" s="3">
-        <v>-90800</v>
+        <v>4100</v>
       </c>
       <c r="I100" s="3">
+        <v>-290300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="K100" s="3">
         <v>44400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-238900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>28300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-39600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-22300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-108900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-2800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-105200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-61500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-109400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>42500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-15000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-71400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>72500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6500</v>
+        <v>-4600</v>
       </c>
       <c r="E101" s="3">
-        <v>-4000</v>
+        <v>-10800</v>
       </c>
       <c r="F101" s="3">
-        <v>-1500</v>
+        <v>-9800</v>
       </c>
       <c r="G101" s="3">
-        <v>-1300</v>
+        <v>-3700</v>
       </c>
       <c r="H101" s="3">
-        <v>16700</v>
+        <v>-2300</v>
       </c>
       <c r="I101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>24500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>30700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-15700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>11400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>22600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>27300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>36700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>6800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>3100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>2100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-1400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>4400</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-173800</v>
+        <v>1700</v>
       </c>
       <c r="E102" s="3">
-        <v>106300</v>
+        <v>-13800</v>
       </c>
       <c r="F102" s="3">
-        <v>-60600</v>
+        <v>-62500</v>
       </c>
       <c r="G102" s="3">
-        <v>-400600</v>
+        <v>98500</v>
       </c>
       <c r="H102" s="3">
-        <v>191600</v>
+        <v>-56100</v>
       </c>
       <c r="I102" s="3">
+        <v>-371200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>277500</v>
+      </c>
+      <c r="K102" s="3">
         <v>107900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-178000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>258200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>152900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>107900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-69700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>41900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>43400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>80400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-77200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>62100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>43700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-61800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>93600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>TEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1217800</v>
+        <v>1001200</v>
       </c>
       <c r="E8" s="3">
-        <v>884600</v>
+        <v>1130300</v>
       </c>
       <c r="F8" s="3">
-        <v>1807900</v>
+        <v>821000</v>
       </c>
       <c r="G8" s="3">
-        <v>841700</v>
+        <v>1678100</v>
       </c>
       <c r="H8" s="3">
-        <v>1266000</v>
+        <v>1092100</v>
       </c>
       <c r="I8" s="3">
-        <v>939100</v>
+        <v>1175100</v>
       </c>
       <c r="J8" s="3">
+        <v>871700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1978500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>985400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1036700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>769800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1590200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>854800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1094000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>779500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1991100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>881600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>412800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>384000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>363400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>385900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>378900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>351500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>326100</v>
+        <v>145800</v>
       </c>
       <c r="E9" s="3">
-        <v>233300</v>
+        <v>302700</v>
       </c>
       <c r="F9" s="3">
-        <v>488700</v>
+        <v>216500</v>
       </c>
       <c r="G9" s="3">
-        <v>228000</v>
+        <v>453600</v>
       </c>
       <c r="H9" s="3">
-        <v>341900</v>
+        <v>298300</v>
       </c>
       <c r="I9" s="3">
-        <v>226900</v>
+        <v>317400</v>
       </c>
       <c r="J9" s="3">
+        <v>210600</v>
+      </c>
+      <c r="K9" s="3">
         <v>477600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>248700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>281000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>206200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>411800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>222500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>288000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>206800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>441500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>156600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>70700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>65400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>58000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>58300</v>
-      </c>
-      <c r="X9" s="3">
-        <v>65600</v>
       </c>
       <c r="Y9" s="3">
         <v>65600</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>65600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>891600</v>
+        <v>855400</v>
       </c>
       <c r="E10" s="3">
-        <v>651300</v>
+        <v>827600</v>
       </c>
       <c r="F10" s="3">
-        <v>1319300</v>
+        <v>604500</v>
       </c>
       <c r="G10" s="3">
-        <v>613700</v>
+        <v>1224500</v>
       </c>
       <c r="H10" s="3">
-        <v>924100</v>
+        <v>793900</v>
       </c>
       <c r="I10" s="3">
-        <v>712200</v>
+        <v>857700</v>
       </c>
       <c r="J10" s="3">
+        <v>661100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1500900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>736700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>755700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>563600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1178500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>632300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>806000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>572700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1549600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>725000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>342100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>318700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>305400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>327600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>313200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>285900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>34300</v>
+        <v>18900</v>
       </c>
       <c r="E14" s="3">
-        <v>25600</v>
+        <v>31800</v>
       </c>
       <c r="F14" s="3">
-        <v>24500</v>
+        <v>23800</v>
       </c>
       <c r="G14" s="3">
-        <v>2200</v>
+        <v>22700</v>
       </c>
       <c r="H14" s="3">
-        <v>9800</v>
+        <v>2300</v>
       </c>
       <c r="I14" s="3">
-        <v>31800</v>
+        <v>9100</v>
       </c>
       <c r="J14" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K14" s="3">
         <v>5200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>40100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>23100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>73400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>59000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>378300</v>
+        <v>317400</v>
       </c>
       <c r="E15" s="3">
-        <v>298900</v>
+        <v>351100</v>
       </c>
       <c r="F15" s="3">
-        <v>556700</v>
+        <v>277400</v>
       </c>
       <c r="G15" s="3">
-        <v>250700</v>
+        <v>516800</v>
       </c>
       <c r="H15" s="3">
-        <v>372900</v>
+        <v>325300</v>
       </c>
       <c r="I15" s="3">
-        <v>266600</v>
+        <v>346100</v>
       </c>
       <c r="J15" s="3">
+        <v>247500</v>
+      </c>
+      <c r="K15" s="3">
         <v>501000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>254200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>267300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>197300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>375800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>191300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>236800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>163000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>352800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>151900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>41200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>39900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>39400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>43800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>44800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1254300</v>
+        <v>990500</v>
       </c>
       <c r="E17" s="3">
-        <v>927000</v>
+        <v>1164200</v>
       </c>
       <c r="F17" s="3">
-        <v>1754700</v>
+        <v>860400</v>
       </c>
       <c r="G17" s="3">
-        <v>786800</v>
+        <v>1628600</v>
       </c>
       <c r="H17" s="3">
-        <v>1256200</v>
+        <v>1020900</v>
       </c>
       <c r="I17" s="3">
-        <v>886000</v>
+        <v>1166000</v>
       </c>
       <c r="J17" s="3">
+        <v>822400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1759900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>894900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1018500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>713700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1433200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>768100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1034800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>687200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1635100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>701800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>341800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>311400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>295500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>310200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>318100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>304300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-36500</v>
+        <v>10700</v>
       </c>
       <c r="E18" s="3">
-        <v>-42400</v>
+        <v>-33900</v>
       </c>
       <c r="F18" s="3">
-        <v>53300</v>
+        <v>-39300</v>
       </c>
       <c r="G18" s="3">
-        <v>54900</v>
+        <v>49500</v>
       </c>
       <c r="H18" s="3">
-        <v>9800</v>
+        <v>71300</v>
       </c>
       <c r="I18" s="3">
-        <v>53100</v>
+        <v>9100</v>
       </c>
       <c r="J18" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K18" s="3">
         <v>218600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>90500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>56100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>157100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>86700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>59200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>92300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>356000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>179800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>71000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>72700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>67900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>75700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>60700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>186500</v>
+        <v>193800</v>
       </c>
       <c r="E20" s="3">
-        <v>128400</v>
+        <v>173100</v>
       </c>
       <c r="F20" s="3">
-        <v>254700</v>
+        <v>119200</v>
       </c>
       <c r="G20" s="3">
-        <v>97500</v>
+        <v>236400</v>
       </c>
       <c r="H20" s="3">
-        <v>-4900</v>
+        <v>124900</v>
       </c>
       <c r="I20" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-34300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>178000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-253300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>142500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>32900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>344500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-376400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-322500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>83500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>10000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>528300</v>
+        <v>522000</v>
       </c>
       <c r="E21" s="3">
-        <v>432200</v>
+        <v>490400</v>
       </c>
       <c r="F21" s="3">
-        <v>817400</v>
+        <v>401200</v>
       </c>
       <c r="G21" s="3">
-        <v>378300</v>
+        <v>758700</v>
       </c>
       <c r="H21" s="3">
-        <v>377700</v>
+        <v>521500</v>
       </c>
       <c r="I21" s="3">
-        <v>363100</v>
+        <v>350600</v>
       </c>
       <c r="J21" s="3">
+        <v>337000</v>
+      </c>
+      <c r="K21" s="3">
         <v>642700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>347500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>463500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>26000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>648600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>301200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>639500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-89300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>346300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>401800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>113500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>117000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>102900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>129500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>101700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46400</v>
+        <v>2200</v>
       </c>
       <c r="E22" s="3">
-        <v>33200</v>
+        <v>43100</v>
       </c>
       <c r="F22" s="3">
-        <v>66800</v>
+        <v>30900</v>
       </c>
       <c r="G22" s="3">
-        <v>27600</v>
+        <v>62000</v>
       </c>
       <c r="H22" s="3">
-        <v>52700</v>
+        <v>34200</v>
       </c>
       <c r="I22" s="3">
-        <v>41600</v>
+        <v>48900</v>
       </c>
       <c r="J22" s="3">
+        <v>38600</v>
+      </c>
+      <c r="K22" s="3">
         <v>105000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>55100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>39200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>58800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>28900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>35600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>23200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>39100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>13000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>6200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>6700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>103600</v>
+        <v>202300</v>
       </c>
       <c r="E23" s="3">
-        <v>52800</v>
+        <v>96200</v>
       </c>
       <c r="F23" s="3">
-        <v>241100</v>
+        <v>49000</v>
       </c>
       <c r="G23" s="3">
-        <v>124800</v>
+        <v>223800</v>
       </c>
       <c r="H23" s="3">
-        <v>-47900</v>
+        <v>161900</v>
       </c>
       <c r="I23" s="3">
-        <v>12300</v>
+        <v>-44400</v>
       </c>
       <c r="J23" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K23" s="3">
         <v>79200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>141100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-236400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>240800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>90700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>368100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-307200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>250300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>66200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>72300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>59000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>79000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>46000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>21700</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>20100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>24700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>239400</v>
+      </c>
+      <c r="H24" s="3">
+        <v>42700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J24" s="3">
+        <v>55100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>49600</v>
+      </c>
+      <c r="L24" s="3">
         <v>26600</v>
       </c>
-      <c r="F24" s="3">
-        <v>257900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>32900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>5400</v>
-      </c>
-      <c r="I24" s="3">
-        <v>59400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>49600</v>
-      </c>
-      <c r="K24" s="3">
-        <v>26600</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>57400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>127900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>66000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>94000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-97200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-68300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>44000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>19600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>25100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>27500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>81900</v>
+        <v>202500</v>
       </c>
       <c r="E26" s="3">
-        <v>26200</v>
+        <v>76000</v>
       </c>
       <c r="F26" s="3">
-        <v>-16800</v>
+        <v>24300</v>
       </c>
       <c r="G26" s="3">
-        <v>91900</v>
+        <v>-15600</v>
       </c>
       <c r="H26" s="3">
-        <v>-53300</v>
+        <v>119200</v>
       </c>
       <c r="I26" s="3">
-        <v>-47100</v>
+        <v>-49500</v>
       </c>
       <c r="J26" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="K26" s="3">
         <v>29600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>119600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-293800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>112900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>24700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>274100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-210100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>62700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>206300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>46500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>47200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>38400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>51500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>39500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>76300</v>
+        <v>200700</v>
       </c>
       <c r="E27" s="3">
-        <v>23400</v>
+        <v>70900</v>
       </c>
       <c r="F27" s="3">
-        <v>-20100</v>
+        <v>21700</v>
       </c>
       <c r="G27" s="3">
-        <v>89100</v>
+        <v>-18700</v>
       </c>
       <c r="H27" s="3">
-        <v>-56200</v>
+        <v>115600</v>
       </c>
       <c r="I27" s="3">
-        <v>-49400</v>
+        <v>-52200</v>
       </c>
       <c r="J27" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="K27" s="3">
         <v>26300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>40000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>116000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-295200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>110800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>270100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-210000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>61500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>205800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>45600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>46500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>38100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>51200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>39400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-186500</v>
+        <v>-193800</v>
       </c>
       <c r="E32" s="3">
-        <v>-128400</v>
+        <v>-173100</v>
       </c>
       <c r="F32" s="3">
-        <v>-254700</v>
+        <v>-119200</v>
       </c>
       <c r="G32" s="3">
-        <v>-97500</v>
+        <v>-236400</v>
       </c>
       <c r="H32" s="3">
-        <v>4900</v>
+        <v>-124900</v>
       </c>
       <c r="I32" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>34300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-178000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>253300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-142500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-32900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-344500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>376400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>322500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-83500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-10000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>76300</v>
+        <v>200700</v>
       </c>
       <c r="E33" s="3">
-        <v>23400</v>
+        <v>70900</v>
       </c>
       <c r="F33" s="3">
-        <v>-20100</v>
+        <v>21700</v>
       </c>
       <c r="G33" s="3">
-        <v>89100</v>
+        <v>-18700</v>
       </c>
       <c r="H33" s="3">
-        <v>-56200</v>
+        <v>115600</v>
       </c>
       <c r="I33" s="3">
-        <v>-49400</v>
+        <v>-52200</v>
       </c>
       <c r="J33" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="K33" s="3">
         <v>26300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>40000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>116000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-295200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>110800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>270100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-210000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>61500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>205800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>45600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>46500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>38100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>51200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>39400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>76300</v>
+        <v>200700</v>
       </c>
       <c r="E35" s="3">
-        <v>23400</v>
+        <v>70900</v>
       </c>
       <c r="F35" s="3">
-        <v>-20100</v>
+        <v>21700</v>
       </c>
       <c r="G35" s="3">
-        <v>89100</v>
+        <v>-18700</v>
       </c>
       <c r="H35" s="3">
-        <v>-56200</v>
+        <v>115600</v>
       </c>
       <c r="I35" s="3">
-        <v>-49400</v>
+        <v>-52200</v>
       </c>
       <c r="J35" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="K35" s="3">
         <v>26300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>40000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>116000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-295200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>110800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>270100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-210000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>61500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>205800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>45600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>46500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>38100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>51200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>39400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2833,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>182400</v>
+        <v>183400</v>
       </c>
       <c r="E41" s="3">
-        <v>156900</v>
+        <v>365800</v>
       </c>
       <c r="F41" s="3">
-        <v>150800</v>
+        <v>145600</v>
       </c>
       <c r="G41" s="3">
-        <v>290800</v>
+        <v>140000</v>
       </c>
       <c r="H41" s="3">
-        <v>257000</v>
+        <v>269900</v>
       </c>
       <c r="I41" s="3">
-        <v>193800</v>
+        <v>238500</v>
       </c>
       <c r="J41" s="3">
+        <v>179900</v>
+      </c>
+      <c r="K41" s="3">
         <v>451800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>349200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>345500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>398400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>199200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>167000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>211900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>132100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>115000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>129700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>64900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>142200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>80100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>41500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>103300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>99100</v>
+        <v>213900</v>
       </c>
       <c r="E42" s="3">
-        <v>75500</v>
+        <v>106800</v>
       </c>
       <c r="F42" s="3">
-        <v>317300</v>
+        <v>70100</v>
       </c>
       <c r="G42" s="3">
-        <v>49900</v>
+        <v>294500</v>
       </c>
       <c r="H42" s="3">
-        <v>71700</v>
+        <v>46300</v>
       </c>
       <c r="I42" s="3">
-        <v>166300</v>
+        <v>66600</v>
       </c>
       <c r="J42" s="3">
+        <v>154400</v>
+      </c>
+      <c r="K42" s="3">
         <v>20700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>20300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>22700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>28600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>89800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>71200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>50600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>78600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>44500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>37200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>112600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>45800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>241700</v>
+        <v>321800</v>
       </c>
       <c r="E43" s="3">
-        <v>202500</v>
+        <v>535200</v>
       </c>
       <c r="F43" s="3">
-        <v>216100</v>
+        <v>188000</v>
       </c>
       <c r="G43" s="3">
-        <v>250500</v>
+        <v>200600</v>
       </c>
       <c r="H43" s="3">
-        <v>337100</v>
+        <v>232500</v>
       </c>
       <c r="I43" s="3">
-        <v>186100</v>
+        <v>312900</v>
       </c>
       <c r="J43" s="3">
+        <v>172700</v>
+      </c>
+      <c r="K43" s="3">
         <v>187400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>225700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>275200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>219500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>198900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>239000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>439500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>233200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>241900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>201100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>219600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>192400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>188200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>221100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>208600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>222000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>57400</v>
+      </c>
+      <c r="F44" s="3">
         <v>28600</v>
       </c>
-      <c r="E44" s="3">
-        <v>30800</v>
-      </c>
-      <c r="F44" s="3">
-        <v>30600</v>
-      </c>
       <c r="G44" s="3">
-        <v>35600</v>
+        <v>28400</v>
       </c>
       <c r="H44" s="3">
-        <v>51600</v>
+        <v>33000</v>
       </c>
       <c r="I44" s="3">
-        <v>28300</v>
+        <v>47900</v>
       </c>
       <c r="J44" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K44" s="3">
         <v>21400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>29700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>44200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>36700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>35000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>38400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>57100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>38400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>39300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>33300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>42500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>44800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>28700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>32200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>33500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>46900</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>38100</v>
+        <v>43500</v>
       </c>
       <c r="F45" s="3">
-        <v>35900</v>
+        <v>35400</v>
       </c>
       <c r="G45" s="3">
-        <v>26700</v>
+        <v>33300</v>
       </c>
       <c r="H45" s="3">
-        <v>21400</v>
+        <v>24800</v>
       </c>
       <c r="I45" s="3">
-        <v>17600</v>
+        <v>19900</v>
       </c>
       <c r="J45" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K45" s="3">
         <v>23200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>14900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>19600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>16200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>598700</v>
+        <v>738400</v>
       </c>
       <c r="E46" s="3">
-        <v>503900</v>
+        <v>645000</v>
       </c>
       <c r="F46" s="3">
-        <v>750800</v>
+        <v>467700</v>
       </c>
       <c r="G46" s="3">
-        <v>653500</v>
+        <v>696900</v>
       </c>
       <c r="H46" s="3">
-        <v>738800</v>
+        <v>606500</v>
       </c>
       <c r="I46" s="3">
-        <v>592100</v>
+        <v>685800</v>
       </c>
       <c r="J46" s="3">
+        <v>549600</v>
+      </c>
+      <c r="K46" s="3">
         <v>704400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>638800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>685800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>683700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>468700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>485000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>699100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>516100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>489600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>436800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>418400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>438700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>350600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>426900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>407400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>324600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>40200</v>
+        <v>57600</v>
       </c>
       <c r="E47" s="3">
-        <v>37200</v>
+        <v>90900</v>
       </c>
       <c r="F47" s="3">
-        <v>33600</v>
+        <v>34600</v>
       </c>
       <c r="G47" s="3">
-        <v>38900</v>
+        <v>31100</v>
       </c>
       <c r="H47" s="3">
-        <v>56300</v>
+        <v>36100</v>
       </c>
       <c r="I47" s="3">
-        <v>34400</v>
+        <v>52200</v>
       </c>
       <c r="J47" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K47" s="3">
         <v>36500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>40700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>53500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>63300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>77400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>250700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>89200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>72800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>54000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>77900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>116300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>102000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>35400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>34100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4453400</v>
+        <v>4642500</v>
       </c>
       <c r="E48" s="3">
-        <v>4033900</v>
+        <v>4797800</v>
       </c>
       <c r="F48" s="3">
-        <v>3789300</v>
+        <v>3744200</v>
       </c>
       <c r="G48" s="3">
-        <v>3492100</v>
+        <v>3517200</v>
       </c>
       <c r="H48" s="3">
-        <v>4697400</v>
+        <v>3241300</v>
       </c>
       <c r="I48" s="3">
-        <v>2785700</v>
+        <v>4360000</v>
       </c>
       <c r="J48" s="3">
+        <v>2585600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2594600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2681200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3450500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2371500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2102300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2139500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5958500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1323300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1513900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1432000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>654700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>604100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>567200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>615900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>606500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>575800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4809400</v>
+        <v>5135900</v>
       </c>
       <c r="E49" s="3">
-        <v>4396500</v>
+        <v>5181400</v>
       </c>
       <c r="F49" s="3">
-        <v>4046700</v>
+        <v>4080800</v>
       </c>
       <c r="G49" s="3">
-        <v>3671600</v>
+        <v>3756100</v>
       </c>
       <c r="H49" s="3">
-        <v>4937400</v>
+        <v>3407900</v>
       </c>
       <c r="I49" s="3">
-        <v>2953100</v>
+        <v>4582800</v>
       </c>
       <c r="J49" s="3">
+        <v>2741000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2760600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2843800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3615200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2580300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2374400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2467700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4866900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1441900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1751000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1755000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>162800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>165000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>169300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>193400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>198800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>15400</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>21000</v>
+        <v>14300</v>
       </c>
       <c r="F52" s="3">
-        <v>12800</v>
+        <v>19500</v>
       </c>
       <c r="G52" s="3">
-        <v>4400</v>
+        <v>11900</v>
       </c>
       <c r="H52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N52" s="3">
         <v>2000</v>
       </c>
-      <c r="J52" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K52" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9917100</v>
+        <v>10574400</v>
       </c>
       <c r="E54" s="3">
-        <v>8992600</v>
+        <v>10684000</v>
       </c>
       <c r="F54" s="3">
-        <v>8633200</v>
+        <v>8346800</v>
       </c>
       <c r="G54" s="3">
-        <v>7860400</v>
+        <v>8013200</v>
       </c>
       <c r="H54" s="3">
-        <v>10432100</v>
+        <v>7295900</v>
       </c>
       <c r="I54" s="3">
-        <v>6367300</v>
+        <v>9682900</v>
       </c>
       <c r="J54" s="3">
+        <v>5910000</v>
+      </c>
+      <c r="K54" s="3">
         <v>6098400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6207900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7808000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5677500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5010800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5173700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7760300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3377400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3840200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3688400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1321100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1331300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1196700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1279400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1254400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1125600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>452400</v>
+        <v>384700</v>
       </c>
       <c r="E57" s="3">
-        <v>403900</v>
+        <v>487400</v>
       </c>
       <c r="F57" s="3">
-        <v>394400</v>
+        <v>374900</v>
       </c>
       <c r="G57" s="3">
-        <v>406300</v>
+        <v>366000</v>
       </c>
       <c r="H57" s="3">
-        <v>546000</v>
+        <v>377100</v>
       </c>
       <c r="I57" s="3">
-        <v>309800</v>
+        <v>506800</v>
       </c>
       <c r="J57" s="3">
+        <v>287500</v>
+      </c>
+      <c r="K57" s="3">
         <v>263300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>306000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>431700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>315900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>249200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>262700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>477100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>327800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>313100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>267300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>263400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>244500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>228600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>236000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>235100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>254700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>502400</v>
+        <v>567800</v>
       </c>
       <c r="E58" s="3">
-        <v>524800</v>
+        <v>541300</v>
       </c>
       <c r="F58" s="3">
-        <v>408200</v>
+        <v>487100</v>
       </c>
       <c r="G58" s="3">
-        <v>369000</v>
+        <v>378900</v>
       </c>
       <c r="H58" s="3">
-        <v>439300</v>
+        <v>342500</v>
       </c>
       <c r="I58" s="3">
-        <v>259800</v>
+        <v>407700</v>
       </c>
       <c r="J58" s="3">
+        <v>241100</v>
+      </c>
+      <c r="K58" s="3">
         <v>638000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>365300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>378400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>260400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>235700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>167600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>341700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>679200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>554200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>401400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>57000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>33500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>23200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>19000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>81500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>566800</v>
+        <v>645900</v>
       </c>
       <c r="E59" s="3">
-        <v>458700</v>
+        <v>636800</v>
       </c>
       <c r="F59" s="3">
-        <v>353000</v>
+        <v>425800</v>
       </c>
       <c r="G59" s="3">
-        <v>318500</v>
+        <v>327600</v>
       </c>
       <c r="H59" s="3">
-        <v>494400</v>
+        <v>295600</v>
       </c>
       <c r="I59" s="3">
-        <v>292900</v>
+        <v>458900</v>
       </c>
       <c r="J59" s="3">
+        <v>271800</v>
+      </c>
+      <c r="K59" s="3">
         <v>278000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>240300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>351100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>228800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>187000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>237100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>296900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>151600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>166300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>215400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>184000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>192600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>159200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>163200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>115700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1521700</v>
+        <v>1598300</v>
       </c>
       <c r="E60" s="3">
-        <v>1387400</v>
+        <v>1639400</v>
       </c>
       <c r="F60" s="3">
-        <v>1155500</v>
+        <v>1287700</v>
       </c>
       <c r="G60" s="3">
-        <v>1093800</v>
+        <v>1072500</v>
       </c>
       <c r="H60" s="3">
-        <v>1471100</v>
+        <v>1015200</v>
       </c>
       <c r="I60" s="3">
-        <v>862400</v>
+        <v>1365400</v>
       </c>
       <c r="J60" s="3">
+        <v>800500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1179300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>911500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1161200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>805000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>671900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>667400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1115700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1158600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1033600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>884200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>504400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>470600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>410900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>418200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>432300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>564500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1974400</v>
+        <v>1977300</v>
       </c>
       <c r="E61" s="3">
-        <v>1784400</v>
+        <v>2127100</v>
       </c>
       <c r="F61" s="3">
-        <v>1821200</v>
+        <v>1656300</v>
       </c>
       <c r="G61" s="3">
-        <v>1684300</v>
+        <v>1690400</v>
       </c>
       <c r="H61" s="3">
-        <v>2296600</v>
+        <v>1563300</v>
       </c>
       <c r="I61" s="3">
-        <v>1295200</v>
+        <v>2131700</v>
       </c>
       <c r="J61" s="3">
+        <v>1202200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1007600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1287700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1625800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1264000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>829100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>918600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1237300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>517600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>470600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>329000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>207400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>206300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>179900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>220400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>226400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1366500</v>
+        <v>1364900</v>
       </c>
       <c r="E62" s="3">
-        <v>1293900</v>
+        <v>1564600</v>
       </c>
       <c r="F62" s="3">
-        <v>1219300</v>
+        <v>1201000</v>
       </c>
       <c r="G62" s="3">
-        <v>962500</v>
+        <v>1131700</v>
       </c>
       <c r="H62" s="3">
-        <v>1270400</v>
+        <v>893400</v>
       </c>
       <c r="I62" s="3">
-        <v>750900</v>
+        <v>1179200</v>
       </c>
       <c r="J62" s="3">
+        <v>696900</v>
+      </c>
+      <c r="K62" s="3">
         <v>671400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>681400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>835000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>572500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>477300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>419700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>681300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>195800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>316300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>338700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>61500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>63700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>63600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>70500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>75400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4941400</v>
+        <v>5024100</v>
       </c>
       <c r="E66" s="3">
-        <v>4536800</v>
+        <v>5323500</v>
       </c>
       <c r="F66" s="3">
-        <v>4261900</v>
+        <v>4211000</v>
       </c>
       <c r="G66" s="3">
-        <v>3809700</v>
+        <v>3955800</v>
       </c>
       <c r="H66" s="3">
-        <v>5126900</v>
+        <v>3536100</v>
       </c>
       <c r="I66" s="3">
-        <v>2960300</v>
+        <v>4758700</v>
       </c>
       <c r="J66" s="3">
+        <v>2747700</v>
+      </c>
+      <c r="K66" s="3">
         <v>2905500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2930000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3687900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2687600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2015800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2049600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3049000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1911800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1858700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1585600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>791500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>756400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>669100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>722600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>748200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>456500</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>334800</v>
+        <v>423700</v>
       </c>
       <c r="F72" s="3">
-        <v>590200</v>
+        <v>310700</v>
       </c>
       <c r="G72" s="3">
-        <v>507100</v>
+        <v>547800</v>
       </c>
       <c r="H72" s="3">
-        <v>571400</v>
+        <v>470700</v>
       </c>
       <c r="I72" s="3">
-        <v>583600</v>
+        <v>530300</v>
       </c>
       <c r="J72" s="3">
+        <v>541600</v>
+      </c>
+      <c r="K72" s="3">
         <v>572100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>486800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>582800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>498300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>734800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>780000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1156900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-147800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>46000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>187300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>224700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>53500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>127500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>275800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>225100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4975700</v>
+        <v>5550300</v>
       </c>
       <c r="E76" s="3">
-        <v>4455700</v>
+        <v>5360500</v>
       </c>
       <c r="F76" s="3">
-        <v>4371400</v>
+        <v>4135700</v>
       </c>
       <c r="G76" s="3">
-        <v>4050700</v>
+        <v>4057400</v>
       </c>
       <c r="H76" s="3">
-        <v>5305200</v>
+        <v>3759800</v>
       </c>
       <c r="I76" s="3">
-        <v>3407000</v>
+        <v>4924200</v>
       </c>
       <c r="J76" s="3">
+        <v>3162400</v>
+      </c>
+      <c r="K76" s="3">
         <v>3192900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3277900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4120100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2990000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2995100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3124100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4711300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1465600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1981400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2102800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>529600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>574900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>527600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>556800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>506200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>76300</v>
+        <v>200700</v>
       </c>
       <c r="E81" s="3">
-        <v>23400</v>
+        <v>70900</v>
       </c>
       <c r="F81" s="3">
-        <v>-20100</v>
+        <v>21700</v>
       </c>
       <c r="G81" s="3">
-        <v>89100</v>
+        <v>-18700</v>
       </c>
       <c r="H81" s="3">
-        <v>-56200</v>
+        <v>115600</v>
       </c>
       <c r="I81" s="3">
-        <v>-49400</v>
+        <v>-52200</v>
       </c>
       <c r="J81" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="K81" s="3">
         <v>26300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>40000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>116000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-295200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>110800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>270100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-210000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>61500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>205800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>45600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>46500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>38100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>51200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>39400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>378300</v>
+        <v>317400</v>
       </c>
       <c r="E83" s="3">
-        <v>346200</v>
+        <v>351100</v>
       </c>
       <c r="F83" s="3">
-        <v>509500</v>
+        <v>321300</v>
       </c>
       <c r="G83" s="3">
-        <v>225900</v>
+        <v>472900</v>
       </c>
       <c r="H83" s="3">
-        <v>372900</v>
+        <v>325300</v>
       </c>
       <c r="I83" s="3">
-        <v>309200</v>
+        <v>346100</v>
       </c>
       <c r="J83" s="3">
+        <v>287000</v>
+      </c>
+      <c r="K83" s="3">
         <v>458400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>229100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>267300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>223200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>349100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>181600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>235800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>194700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>312700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>138500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>41200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>39900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>39400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>43800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>44800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>363500</v>
+        <v>313500</v>
       </c>
       <c r="E89" s="3">
-        <v>313700</v>
+        <v>337400</v>
       </c>
       <c r="F89" s="3">
-        <v>517800</v>
+        <v>291200</v>
       </c>
       <c r="G89" s="3">
-        <v>253200</v>
+        <v>480600</v>
       </c>
       <c r="H89" s="3">
-        <v>380600</v>
+        <v>364600</v>
       </c>
       <c r="I89" s="3">
         <v>353300</v>
       </c>
       <c r="J89" s="3">
+        <v>327900</v>
+      </c>
+      <c r="K89" s="3">
         <v>652600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>228200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>350400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>314600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>508500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>284000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>172000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>171200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>436500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>223700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>86300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>109200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>120200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>145800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>131100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>82400</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-226900</v>
+        <v>-189300</v>
       </c>
       <c r="E91" s="3">
-        <v>-163900</v>
+        <v>-210600</v>
       </c>
       <c r="F91" s="3">
-        <v>-285400</v>
+        <v>-152100</v>
       </c>
       <c r="G91" s="3">
-        <v>-132500</v>
+        <v>-264900</v>
       </c>
       <c r="H91" s="3">
-        <v>-179600</v>
+        <v>-123000</v>
       </c>
       <c r="I91" s="3">
-        <v>-100500</v>
+        <v>-166700</v>
       </c>
       <c r="J91" s="3">
+        <v>-93300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-108600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-178700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-107700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-229400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-95600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-241000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-125700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-207500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-93200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-66600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-70300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-55000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-68700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-84100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-80400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-280300</v>
+        <v>-322700</v>
       </c>
       <c r="E94" s="3">
-        <v>-235700</v>
+        <v>-260200</v>
       </c>
       <c r="F94" s="3">
-        <v>-541900</v>
+        <v>-218800</v>
       </c>
       <c r="G94" s="3">
-        <v>-127000</v>
+        <v>-503000</v>
       </c>
       <c r="H94" s="3">
-        <v>-330400</v>
+        <v>-117900</v>
       </c>
       <c r="I94" s="3">
-        <v>-217100</v>
+        <v>-306600</v>
       </c>
       <c r="J94" s="3">
+        <v>-201500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-216600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-114800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-168300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-82000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-219500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-84800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-176800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-127800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-146100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-40600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-57300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-89000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-63500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-134800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-114300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-80300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-300</v>
       </c>
-      <c r="F96" s="3">
-        <v>-3000</v>
-      </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-2800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-203500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-88300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-73100</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-135900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-395900</v>
       </c>
       <c r="S96" s="3">
         <v>-395900</v>
       </c>
       <c r="T96" s="3">
+        <v>-395900</v>
+      </c>
+      <c r="U96" s="3">
         <v>-95800</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-76900</v>
+        <v>7900</v>
       </c>
       <c r="E100" s="3">
-        <v>-81000</v>
+        <v>-71400</v>
       </c>
       <c r="F100" s="3">
-        <v>-28600</v>
+        <v>-75200</v>
       </c>
       <c r="G100" s="3">
-        <v>-24100</v>
+        <v>-26600</v>
       </c>
       <c r="H100" s="3">
-        <v>4100</v>
+        <v>-22300</v>
       </c>
       <c r="I100" s="3">
-        <v>-290300</v>
+        <v>3800</v>
       </c>
       <c r="J100" s="3">
+        <v>-269400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-43000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>44400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-238900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>28300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-39600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-108900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-105200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-61500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-109400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>42500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-15000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-71400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>72500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4600</v>
+        <v>-11800</v>
       </c>
       <c r="E101" s="3">
-        <v>-10800</v>
+        <v>-4300</v>
       </c>
       <c r="F101" s="3">
-        <v>-9800</v>
+        <v>-10000</v>
       </c>
       <c r="G101" s="3">
-        <v>-3700</v>
+        <v>-9100</v>
       </c>
       <c r="H101" s="3">
-        <v>-2300</v>
+        <v>-3400</v>
       </c>
       <c r="I101" s="3">
-        <v>5900</v>
+        <v>-2100</v>
       </c>
       <c r="J101" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K101" s="3">
         <v>14800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>24500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>30700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-15700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>22600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>27300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>36700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4400</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1700</v>
+        <v>-13100</v>
       </c>
       <c r="E102" s="3">
-        <v>-13800</v>
+        <v>1600</v>
       </c>
       <c r="F102" s="3">
-        <v>-62500</v>
+        <v>-12800</v>
       </c>
       <c r="G102" s="3">
-        <v>98500</v>
+        <v>-58000</v>
       </c>
       <c r="H102" s="3">
-        <v>-56100</v>
+        <v>141700</v>
       </c>
       <c r="I102" s="3">
-        <v>-371200</v>
+        <v>-52100</v>
       </c>
       <c r="J102" s="3">
+        <v>-344500</v>
+      </c>
+      <c r="K102" s="3">
         <v>277500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>107900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-178000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>258200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>152900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>107900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-69700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>41900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>43400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>80400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-77200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>62100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>43700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-61800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>93600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>TEO</t>
   </si>
@@ -774,25 +774,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1001200</v>
+        <v>854500</v>
       </c>
       <c r="E8" s="3">
-        <v>1130300</v>
+        <v>964700</v>
       </c>
       <c r="F8" s="3">
-        <v>821000</v>
+        <v>700700</v>
       </c>
       <c r="G8" s="3">
-        <v>1678100</v>
+        <v>1432200</v>
       </c>
       <c r="H8" s="3">
-        <v>1092100</v>
+        <v>932100</v>
       </c>
       <c r="I8" s="3">
-        <v>1175100</v>
+        <v>1002900</v>
       </c>
       <c r="J8" s="3">
-        <v>871700</v>
+        <v>743900</v>
       </c>
       <c r="K8" s="3">
         <v>1978500</v>
@@ -848,25 +848,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>145800</v>
+        <v>215100</v>
       </c>
       <c r="E9" s="3">
-        <v>302700</v>
+        <v>258400</v>
       </c>
       <c r="F9" s="3">
-        <v>216500</v>
+        <v>184800</v>
       </c>
       <c r="G9" s="3">
-        <v>453600</v>
+        <v>387100</v>
       </c>
       <c r="H9" s="3">
-        <v>298300</v>
+        <v>252500</v>
       </c>
       <c r="I9" s="3">
-        <v>317400</v>
+        <v>270900</v>
       </c>
       <c r="J9" s="3">
-        <v>210600</v>
+        <v>179700</v>
       </c>
       <c r="K9" s="3">
         <v>477600</v>
@@ -922,25 +922,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>855400</v>
+        <v>639400</v>
       </c>
       <c r="E10" s="3">
-        <v>827600</v>
+        <v>706300</v>
       </c>
       <c r="F10" s="3">
-        <v>604500</v>
+        <v>515900</v>
       </c>
       <c r="G10" s="3">
-        <v>1224500</v>
+        <v>1045100</v>
       </c>
       <c r="H10" s="3">
-        <v>793900</v>
+        <v>679600</v>
       </c>
       <c r="I10" s="3">
-        <v>857700</v>
+        <v>732000</v>
       </c>
       <c r="J10" s="3">
-        <v>661100</v>
+        <v>564200</v>
       </c>
       <c r="K10" s="3">
         <v>1500900</v>
@@ -1172,25 +1172,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>18900</v>
+        <v>19400</v>
       </c>
       <c r="E14" s="3">
-        <v>31800</v>
+        <v>27200</v>
       </c>
       <c r="F14" s="3">
-        <v>23800</v>
+        <v>20300</v>
       </c>
       <c r="G14" s="3">
-        <v>22700</v>
+        <v>19400</v>
       </c>
       <c r="H14" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="I14" s="3">
-        <v>9100</v>
+        <v>7800</v>
       </c>
       <c r="J14" s="3">
-        <v>29500</v>
+        <v>25200</v>
       </c>
       <c r="K14" s="3">
         <v>5200</v>
@@ -1246,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>317400</v>
+        <v>270900</v>
       </c>
       <c r="E15" s="3">
-        <v>351100</v>
+        <v>299700</v>
       </c>
       <c r="F15" s="3">
-        <v>277400</v>
+        <v>236800</v>
       </c>
       <c r="G15" s="3">
-        <v>516800</v>
+        <v>441000</v>
       </c>
       <c r="H15" s="3">
-        <v>325300</v>
+        <v>277600</v>
       </c>
       <c r="I15" s="3">
-        <v>346100</v>
+        <v>295400</v>
       </c>
       <c r="J15" s="3">
-        <v>247500</v>
+        <v>211200</v>
       </c>
       <c r="K15" s="3">
         <v>501000</v>
@@ -1345,25 +1345,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>990500</v>
+        <v>845300</v>
       </c>
       <c r="E17" s="3">
-        <v>1164200</v>
+        <v>993600</v>
       </c>
       <c r="F17" s="3">
-        <v>860400</v>
+        <v>734300</v>
       </c>
       <c r="G17" s="3">
-        <v>1628600</v>
+        <v>1390000</v>
       </c>
       <c r="H17" s="3">
-        <v>1020900</v>
+        <v>871300</v>
       </c>
       <c r="I17" s="3">
-        <v>1166000</v>
+        <v>995100</v>
       </c>
       <c r="J17" s="3">
-        <v>822400</v>
+        <v>701800</v>
       </c>
       <c r="K17" s="3">
         <v>1759900</v>
@@ -1419,25 +1419,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10700</v>
+        <v>9200</v>
       </c>
       <c r="E18" s="3">
-        <v>-33900</v>
+        <v>-28900</v>
       </c>
       <c r="F18" s="3">
-        <v>-39300</v>
+        <v>-33600</v>
       </c>
       <c r="G18" s="3">
-        <v>49500</v>
+        <v>42200</v>
       </c>
       <c r="H18" s="3">
-        <v>71300</v>
+        <v>60800</v>
       </c>
       <c r="I18" s="3">
-        <v>9100</v>
+        <v>7700</v>
       </c>
       <c r="J18" s="3">
-        <v>49300</v>
+        <v>42100</v>
       </c>
       <c r="K18" s="3">
         <v>218600</v>
@@ -1521,25 +1521,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>193800</v>
+        <v>165400</v>
       </c>
       <c r="E20" s="3">
-        <v>173100</v>
+        <v>147700</v>
       </c>
       <c r="F20" s="3">
-        <v>119200</v>
+        <v>101800</v>
       </c>
       <c r="G20" s="3">
-        <v>236400</v>
+        <v>201800</v>
       </c>
       <c r="H20" s="3">
-        <v>124900</v>
+        <v>106600</v>
       </c>
       <c r="I20" s="3">
-        <v>-4600</v>
+        <v>-3900</v>
       </c>
       <c r="J20" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K20" s="3">
         <v>-34300</v>
@@ -1595,25 +1595,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>522000</v>
+        <v>445500</v>
       </c>
       <c r="E21" s="3">
-        <v>490400</v>
+        <v>418500</v>
       </c>
       <c r="F21" s="3">
-        <v>401200</v>
+        <v>342400</v>
       </c>
       <c r="G21" s="3">
-        <v>758700</v>
+        <v>647500</v>
       </c>
       <c r="H21" s="3">
-        <v>521500</v>
+        <v>445000</v>
       </c>
       <c r="I21" s="3">
-        <v>350600</v>
+        <v>299200</v>
       </c>
       <c r="J21" s="3">
-        <v>337000</v>
+        <v>287600</v>
       </c>
       <c r="K21" s="3">
         <v>642700</v>
@@ -1669,25 +1669,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E22" s="3">
-        <v>43100</v>
+        <v>36800</v>
       </c>
       <c r="F22" s="3">
-        <v>30900</v>
+        <v>26300</v>
       </c>
       <c r="G22" s="3">
-        <v>62000</v>
+        <v>52900</v>
       </c>
       <c r="H22" s="3">
-        <v>34200</v>
+        <v>29200</v>
       </c>
       <c r="I22" s="3">
-        <v>48900</v>
+        <v>41700</v>
       </c>
       <c r="J22" s="3">
-        <v>38600</v>
+        <v>32900</v>
       </c>
       <c r="K22" s="3">
         <v>105000</v>
@@ -1743,25 +1743,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>202300</v>
+        <v>172700</v>
       </c>
       <c r="E23" s="3">
-        <v>96200</v>
+        <v>82100</v>
       </c>
       <c r="F23" s="3">
-        <v>49000</v>
+        <v>41800</v>
       </c>
       <c r="G23" s="3">
-        <v>223800</v>
+        <v>191000</v>
       </c>
       <c r="H23" s="3">
-        <v>161900</v>
+        <v>138200</v>
       </c>
       <c r="I23" s="3">
-        <v>-44400</v>
+        <v>-37900</v>
       </c>
       <c r="J23" s="3">
-        <v>11400</v>
+        <v>9700</v>
       </c>
       <c r="K23" s="3">
         <v>79200</v>
@@ -1820,22 +1820,22 @@
         <v>-200</v>
       </c>
       <c r="E24" s="3">
-        <v>20100</v>
+        <v>17200</v>
       </c>
       <c r="F24" s="3">
-        <v>24700</v>
+        <v>21100</v>
       </c>
       <c r="G24" s="3">
-        <v>239400</v>
+        <v>204300</v>
       </c>
       <c r="H24" s="3">
-        <v>42700</v>
+        <v>36500</v>
       </c>
       <c r="I24" s="3">
-        <v>5100</v>
+        <v>4300</v>
       </c>
       <c r="J24" s="3">
-        <v>55100</v>
+        <v>47000</v>
       </c>
       <c r="K24" s="3">
         <v>49600</v>
@@ -1965,25 +1965,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>202500</v>
+        <v>172900</v>
       </c>
       <c r="E26" s="3">
-        <v>76000</v>
+        <v>64900</v>
       </c>
       <c r="F26" s="3">
-        <v>24300</v>
+        <v>20800</v>
       </c>
       <c r="G26" s="3">
-        <v>-15600</v>
+        <v>-13300</v>
       </c>
       <c r="H26" s="3">
-        <v>119200</v>
+        <v>101800</v>
       </c>
       <c r="I26" s="3">
-        <v>-49500</v>
+        <v>-42200</v>
       </c>
       <c r="J26" s="3">
-        <v>-43700</v>
+        <v>-37300</v>
       </c>
       <c r="K26" s="3">
         <v>29600</v>
@@ -2039,25 +2039,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>200700</v>
+        <v>171300</v>
       </c>
       <c r="E27" s="3">
-        <v>70900</v>
+        <v>60500</v>
       </c>
       <c r="F27" s="3">
-        <v>21700</v>
+        <v>18600</v>
       </c>
       <c r="G27" s="3">
-        <v>-18700</v>
+        <v>-16000</v>
       </c>
       <c r="H27" s="3">
-        <v>115600</v>
+        <v>98700</v>
       </c>
       <c r="I27" s="3">
-        <v>-52200</v>
+        <v>-44500</v>
       </c>
       <c r="J27" s="3">
-        <v>-45800</v>
+        <v>-39100</v>
       </c>
       <c r="K27" s="3">
         <v>26300</v>
@@ -2409,25 +2409,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-193800</v>
+        <v>-165400</v>
       </c>
       <c r="E32" s="3">
-        <v>-173100</v>
+        <v>-147700</v>
       </c>
       <c r="F32" s="3">
-        <v>-119200</v>
+        <v>-101800</v>
       </c>
       <c r="G32" s="3">
-        <v>-236400</v>
+        <v>-201800</v>
       </c>
       <c r="H32" s="3">
-        <v>-124900</v>
+        <v>-106600</v>
       </c>
       <c r="I32" s="3">
-        <v>4600</v>
+        <v>3900</v>
       </c>
       <c r="J32" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K32" s="3">
         <v>34300</v>
@@ -2483,25 +2483,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>200700</v>
+        <v>171300</v>
       </c>
       <c r="E33" s="3">
-        <v>70900</v>
+        <v>60500</v>
       </c>
       <c r="F33" s="3">
-        <v>21700</v>
+        <v>18600</v>
       </c>
       <c r="G33" s="3">
-        <v>-18700</v>
+        <v>-16000</v>
       </c>
       <c r="H33" s="3">
-        <v>115600</v>
+        <v>98700</v>
       </c>
       <c r="I33" s="3">
-        <v>-52200</v>
+        <v>-44500</v>
       </c>
       <c r="J33" s="3">
-        <v>-45800</v>
+        <v>-39100</v>
       </c>
       <c r="K33" s="3">
         <v>26300</v>
@@ -2631,25 +2631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>200700</v>
+        <v>171300</v>
       </c>
       <c r="E35" s="3">
-        <v>70900</v>
+        <v>60500</v>
       </c>
       <c r="F35" s="3">
-        <v>21700</v>
+        <v>18600</v>
       </c>
       <c r="G35" s="3">
-        <v>-18700</v>
+        <v>-16000</v>
       </c>
       <c r="H35" s="3">
-        <v>115600</v>
+        <v>98700</v>
       </c>
       <c r="I35" s="3">
-        <v>-52200</v>
+        <v>-44500</v>
       </c>
       <c r="J35" s="3">
-        <v>-45800</v>
+        <v>-39100</v>
       </c>
       <c r="K35" s="3">
         <v>26300</v>
@@ -2840,25 +2840,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>183400</v>
+        <v>156600</v>
       </c>
       <c r="E41" s="3">
-        <v>365800</v>
+        <v>167700</v>
       </c>
       <c r="F41" s="3">
-        <v>145600</v>
+        <v>124300</v>
       </c>
       <c r="G41" s="3">
-        <v>140000</v>
+        <v>119500</v>
       </c>
       <c r="H41" s="3">
-        <v>269900</v>
+        <v>230300</v>
       </c>
       <c r="I41" s="3">
-        <v>238500</v>
+        <v>203600</v>
       </c>
       <c r="J41" s="3">
-        <v>179900</v>
+        <v>153500</v>
       </c>
       <c r="K41" s="3">
         <v>451800</v>
@@ -2914,25 +2914,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>213900</v>
+        <v>182600</v>
       </c>
       <c r="E42" s="3">
-        <v>106800</v>
+        <v>91100</v>
       </c>
       <c r="F42" s="3">
-        <v>70100</v>
+        <v>59800</v>
       </c>
       <c r="G42" s="3">
-        <v>294500</v>
+        <v>251400</v>
       </c>
       <c r="H42" s="3">
-        <v>46300</v>
+        <v>39500</v>
       </c>
       <c r="I42" s="3">
-        <v>66600</v>
+        <v>56800</v>
       </c>
       <c r="J42" s="3">
-        <v>154400</v>
+        <v>131700</v>
       </c>
       <c r="K42" s="3">
         <v>20700</v>
@@ -2988,25 +2988,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>321800</v>
+        <v>220600</v>
       </c>
       <c r="E43" s="3">
-        <v>535200</v>
+        <v>222200</v>
       </c>
       <c r="F43" s="3">
-        <v>188000</v>
+        <v>160500</v>
       </c>
       <c r="G43" s="3">
-        <v>200600</v>
+        <v>171200</v>
       </c>
       <c r="H43" s="3">
-        <v>232500</v>
+        <v>198400</v>
       </c>
       <c r="I43" s="3">
-        <v>312900</v>
+        <v>267000</v>
       </c>
       <c r="J43" s="3">
-        <v>172700</v>
+        <v>147400</v>
       </c>
       <c r="K43" s="3">
         <v>187400</v>
@@ -3062,25 +3062,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19200</v>
+        <v>16400</v>
       </c>
       <c r="E44" s="3">
-        <v>57400</v>
+        <v>26300</v>
       </c>
       <c r="F44" s="3">
-        <v>28600</v>
+        <v>24400</v>
       </c>
       <c r="G44" s="3">
-        <v>28400</v>
+        <v>24200</v>
       </c>
       <c r="H44" s="3">
-        <v>33000</v>
+        <v>28200</v>
       </c>
       <c r="I44" s="3">
-        <v>47900</v>
+        <v>40900</v>
       </c>
       <c r="J44" s="3">
-        <v>26200</v>
+        <v>22400</v>
       </c>
       <c r="K44" s="3">
         <v>21400</v>
@@ -3135,26 +3135,26 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>54000</v>
       </c>
       <c r="E45" s="3">
-        <v>43500</v>
+        <v>43100</v>
       </c>
       <c r="F45" s="3">
-        <v>35400</v>
+        <v>30200</v>
       </c>
       <c r="G45" s="3">
-        <v>33300</v>
+        <v>28400</v>
       </c>
       <c r="H45" s="3">
-        <v>24800</v>
+        <v>21200</v>
       </c>
       <c r="I45" s="3">
-        <v>19900</v>
+        <v>17000</v>
       </c>
       <c r="J45" s="3">
-        <v>16400</v>
+        <v>14000</v>
       </c>
       <c r="K45" s="3">
         <v>23200</v>
@@ -3210,25 +3210,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>738400</v>
+        <v>630200</v>
       </c>
       <c r="E46" s="3">
-        <v>645000</v>
+        <v>550500</v>
       </c>
       <c r="F46" s="3">
-        <v>467700</v>
+        <v>399200</v>
       </c>
       <c r="G46" s="3">
-        <v>696900</v>
+        <v>594700</v>
       </c>
       <c r="H46" s="3">
-        <v>606500</v>
+        <v>517700</v>
       </c>
       <c r="I46" s="3">
-        <v>685800</v>
+        <v>585300</v>
       </c>
       <c r="J46" s="3">
-        <v>549600</v>
+        <v>469100</v>
       </c>
       <c r="K46" s="3">
         <v>704400</v>
@@ -3284,25 +3284,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>57600</v>
+        <v>36100</v>
       </c>
       <c r="E47" s="3">
-        <v>90900</v>
+        <v>36900</v>
       </c>
       <c r="F47" s="3">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="G47" s="3">
-        <v>31100</v>
+        <v>26600</v>
       </c>
       <c r="H47" s="3">
-        <v>36100</v>
+        <v>30800</v>
       </c>
       <c r="I47" s="3">
-        <v>52200</v>
+        <v>44600</v>
       </c>
       <c r="J47" s="3">
-        <v>31900</v>
+        <v>27200</v>
       </c>
       <c r="K47" s="3">
         <v>36500</v>
@@ -3358,25 +3358,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4642500</v>
+        <v>3962200</v>
       </c>
       <c r="E48" s="3">
-        <v>4797800</v>
+        <v>4094700</v>
       </c>
       <c r="F48" s="3">
-        <v>3744200</v>
+        <v>3195500</v>
       </c>
       <c r="G48" s="3">
-        <v>3517200</v>
+        <v>3001800</v>
       </c>
       <c r="H48" s="3">
-        <v>3241300</v>
+        <v>2766300</v>
       </c>
       <c r="I48" s="3">
-        <v>4360000</v>
+        <v>3721100</v>
       </c>
       <c r="J48" s="3">
-        <v>2585600</v>
+        <v>2206700</v>
       </c>
       <c r="K48" s="3">
         <v>2594600</v>
@@ -3432,25 +3432,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5135900</v>
+        <v>4383300</v>
       </c>
       <c r="E49" s="3">
-        <v>5181400</v>
+        <v>4422100</v>
       </c>
       <c r="F49" s="3">
-        <v>4080800</v>
+        <v>3482800</v>
       </c>
       <c r="G49" s="3">
-        <v>3756100</v>
+        <v>3205700</v>
       </c>
       <c r="H49" s="3">
-        <v>3407900</v>
+        <v>2908500</v>
       </c>
       <c r="I49" s="3">
-        <v>4582800</v>
+        <v>3911200</v>
       </c>
       <c r="J49" s="3">
-        <v>2741000</v>
+        <v>2339400</v>
       </c>
       <c r="K49" s="3">
         <v>2760600</v>
@@ -3653,26 +3653,26 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>13100</v>
       </c>
       <c r="E52" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="F52" s="3">
-        <v>19500</v>
+        <v>16600</v>
       </c>
       <c r="G52" s="3">
-        <v>11900</v>
+        <v>10200</v>
       </c>
       <c r="H52" s="3">
-        <v>4100</v>
+        <v>3500</v>
       </c>
       <c r="I52" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="J52" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="K52" s="3">
         <v>2300</v>
@@ -3802,25 +3802,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10574400</v>
+        <v>9024800</v>
       </c>
       <c r="E54" s="3">
-        <v>10684000</v>
+        <v>9118400</v>
       </c>
       <c r="F54" s="3">
-        <v>8346800</v>
+        <v>7123600</v>
       </c>
       <c r="G54" s="3">
-        <v>8013200</v>
+        <v>6838900</v>
       </c>
       <c r="H54" s="3">
-        <v>7295900</v>
+        <v>6226800</v>
       </c>
       <c r="I54" s="3">
-        <v>9682900</v>
+        <v>8264000</v>
       </c>
       <c r="J54" s="3">
-        <v>5910000</v>
+        <v>5044000</v>
       </c>
       <c r="K54" s="3">
         <v>6098400</v>
@@ -3932,25 +3932,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>384700</v>
+        <v>328300</v>
       </c>
       <c r="E57" s="3">
-        <v>487400</v>
+        <v>416000</v>
       </c>
       <c r="F57" s="3">
-        <v>374900</v>
+        <v>319900</v>
       </c>
       <c r="G57" s="3">
-        <v>366000</v>
+        <v>312400</v>
       </c>
       <c r="H57" s="3">
-        <v>377100</v>
+        <v>321800</v>
       </c>
       <c r="I57" s="3">
-        <v>506800</v>
+        <v>432500</v>
       </c>
       <c r="J57" s="3">
-        <v>287500</v>
+        <v>245400</v>
       </c>
       <c r="K57" s="3">
         <v>263300</v>
@@ -4006,25 +4006,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>567800</v>
+        <v>484600</v>
       </c>
       <c r="E58" s="3">
-        <v>541300</v>
+        <v>462000</v>
       </c>
       <c r="F58" s="3">
-        <v>487100</v>
+        <v>415700</v>
       </c>
       <c r="G58" s="3">
-        <v>378900</v>
+        <v>323300</v>
       </c>
       <c r="H58" s="3">
-        <v>342500</v>
+        <v>292300</v>
       </c>
       <c r="I58" s="3">
-        <v>407700</v>
+        <v>348000</v>
       </c>
       <c r="J58" s="3">
-        <v>241100</v>
+        <v>205800</v>
       </c>
       <c r="K58" s="3">
         <v>638000</v>
@@ -4080,25 +4080,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>645900</v>
+        <v>551200</v>
       </c>
       <c r="E59" s="3">
-        <v>636800</v>
+        <v>521200</v>
       </c>
       <c r="F59" s="3">
-        <v>425800</v>
+        <v>363400</v>
       </c>
       <c r="G59" s="3">
-        <v>327600</v>
+        <v>279600</v>
       </c>
       <c r="H59" s="3">
-        <v>295600</v>
+        <v>252300</v>
       </c>
       <c r="I59" s="3">
-        <v>458900</v>
+        <v>391700</v>
       </c>
       <c r="J59" s="3">
-        <v>271800</v>
+        <v>232000</v>
       </c>
       <c r="K59" s="3">
         <v>278000</v>
@@ -4154,25 +4154,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1598300</v>
+        <v>1364100</v>
       </c>
       <c r="E60" s="3">
-        <v>1639400</v>
+        <v>1399200</v>
       </c>
       <c r="F60" s="3">
-        <v>1287700</v>
+        <v>1099000</v>
       </c>
       <c r="G60" s="3">
-        <v>1072500</v>
+        <v>915400</v>
       </c>
       <c r="H60" s="3">
-        <v>1015200</v>
+        <v>866400</v>
       </c>
       <c r="I60" s="3">
-        <v>1365400</v>
+        <v>1165300</v>
       </c>
       <c r="J60" s="3">
-        <v>800500</v>
+        <v>683200</v>
       </c>
       <c r="K60" s="3">
         <v>1179300</v>
@@ -4228,25 +4228,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1977300</v>
+        <v>1687600</v>
       </c>
       <c r="E61" s="3">
-        <v>2127100</v>
+        <v>1815400</v>
       </c>
       <c r="F61" s="3">
-        <v>1656300</v>
+        <v>1413600</v>
       </c>
       <c r="G61" s="3">
-        <v>1690400</v>
+        <v>1442700</v>
       </c>
       <c r="H61" s="3">
-        <v>1563300</v>
+        <v>1334200</v>
       </c>
       <c r="I61" s="3">
-        <v>2131700</v>
+        <v>1819300</v>
       </c>
       <c r="J61" s="3">
-        <v>1202200</v>
+        <v>1026000</v>
       </c>
       <c r="K61" s="3">
         <v>1007600</v>
@@ -4302,25 +4302,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1364900</v>
+        <v>1164900</v>
       </c>
       <c r="E62" s="3">
-        <v>1564600</v>
+        <v>1256500</v>
       </c>
       <c r="F62" s="3">
-        <v>1201000</v>
+        <v>1025000</v>
       </c>
       <c r="G62" s="3">
-        <v>1131700</v>
+        <v>965900</v>
       </c>
       <c r="H62" s="3">
-        <v>893400</v>
+        <v>762500</v>
       </c>
       <c r="I62" s="3">
-        <v>1179200</v>
+        <v>1006400</v>
       </c>
       <c r="J62" s="3">
-        <v>696900</v>
+        <v>594800</v>
       </c>
       <c r="K62" s="3">
         <v>671400</v>
@@ -4598,25 +4598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5024100</v>
+        <v>4287900</v>
       </c>
       <c r="E66" s="3">
-        <v>5323500</v>
+        <v>4543400</v>
       </c>
       <c r="F66" s="3">
-        <v>4211000</v>
+        <v>3593900</v>
       </c>
       <c r="G66" s="3">
-        <v>3955800</v>
+        <v>3376100</v>
       </c>
       <c r="H66" s="3">
-        <v>3536100</v>
+        <v>3017900</v>
       </c>
       <c r="I66" s="3">
-        <v>4758700</v>
+        <v>4061400</v>
       </c>
       <c r="J66" s="3">
-        <v>2747700</v>
+        <v>2345000</v>
       </c>
       <c r="K66" s="3">
         <v>2905500</v>
@@ -4995,26 +4995,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>591000</v>
       </c>
       <c r="E72" s="3">
-        <v>423700</v>
+        <v>419700</v>
       </c>
       <c r="F72" s="3">
-        <v>310700</v>
+        <v>265200</v>
       </c>
       <c r="G72" s="3">
-        <v>547800</v>
+        <v>467500</v>
       </c>
       <c r="H72" s="3">
-        <v>470700</v>
+        <v>401700</v>
       </c>
       <c r="I72" s="3">
-        <v>530300</v>
+        <v>452600</v>
       </c>
       <c r="J72" s="3">
-        <v>541600</v>
+        <v>462300</v>
       </c>
       <c r="K72" s="3">
         <v>572100</v>
@@ -5292,25 +5292,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5550300</v>
+        <v>4736900</v>
       </c>
       <c r="E76" s="3">
-        <v>5360500</v>
+        <v>4575000</v>
       </c>
       <c r="F76" s="3">
-        <v>4135700</v>
+        <v>3529700</v>
       </c>
       <c r="G76" s="3">
-        <v>4057400</v>
+        <v>3462800</v>
       </c>
       <c r="H76" s="3">
-        <v>3759800</v>
+        <v>3208800</v>
       </c>
       <c r="I76" s="3">
-        <v>4924200</v>
+        <v>4202600</v>
       </c>
       <c r="J76" s="3">
-        <v>3162400</v>
+        <v>2698900</v>
       </c>
       <c r="K76" s="3">
         <v>3192900</v>
@@ -5519,25 +5519,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>200700</v>
+        <v>171300</v>
       </c>
       <c r="E81" s="3">
-        <v>70900</v>
+        <v>60500</v>
       </c>
       <c r="F81" s="3">
-        <v>21700</v>
+        <v>18600</v>
       </c>
       <c r="G81" s="3">
-        <v>-18700</v>
+        <v>-16000</v>
       </c>
       <c r="H81" s="3">
-        <v>115600</v>
+        <v>98700</v>
       </c>
       <c r="I81" s="3">
-        <v>-52200</v>
+        <v>-44500</v>
       </c>
       <c r="J81" s="3">
-        <v>-45800</v>
+        <v>-39100</v>
       </c>
       <c r="K81" s="3">
         <v>26300</v>
@@ -5621,25 +5621,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>317400</v>
+        <v>270900</v>
       </c>
       <c r="E83" s="3">
-        <v>351100</v>
+        <v>299700</v>
       </c>
       <c r="F83" s="3">
-        <v>321300</v>
+        <v>274200</v>
       </c>
       <c r="G83" s="3">
-        <v>472900</v>
+        <v>403600</v>
       </c>
       <c r="H83" s="3">
-        <v>325300</v>
+        <v>277600</v>
       </c>
       <c r="I83" s="3">
-        <v>346100</v>
+        <v>295400</v>
       </c>
       <c r="J83" s="3">
-        <v>287000</v>
+        <v>244900</v>
       </c>
       <c r="K83" s="3">
         <v>458400</v>
@@ -6065,25 +6065,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>313500</v>
+        <v>267600</v>
       </c>
       <c r="E89" s="3">
-        <v>337400</v>
+        <v>288000</v>
       </c>
       <c r="F89" s="3">
-        <v>291200</v>
+        <v>248500</v>
       </c>
       <c r="G89" s="3">
-        <v>480600</v>
+        <v>410200</v>
       </c>
       <c r="H89" s="3">
-        <v>364600</v>
+        <v>311100</v>
       </c>
       <c r="I89" s="3">
-        <v>353300</v>
+        <v>301500</v>
       </c>
       <c r="J89" s="3">
-        <v>327900</v>
+        <v>279900</v>
       </c>
       <c r="K89" s="3">
         <v>652600</v>
@@ -6167,25 +6167,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-189300</v>
+        <v>-161600</v>
       </c>
       <c r="E91" s="3">
-        <v>-210600</v>
+        <v>-179800</v>
       </c>
       <c r="F91" s="3">
-        <v>-152100</v>
+        <v>-129800</v>
       </c>
       <c r="G91" s="3">
-        <v>-264900</v>
+        <v>-226100</v>
       </c>
       <c r="H91" s="3">
-        <v>-123000</v>
+        <v>-104900</v>
       </c>
       <c r="I91" s="3">
-        <v>-166700</v>
+        <v>-142300</v>
       </c>
       <c r="J91" s="3">
-        <v>-93300</v>
+        <v>-79600</v>
       </c>
       <c r="K91" s="3">
         <v>-200400</v>
@@ -6389,25 +6389,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-322700</v>
+        <v>-275400</v>
       </c>
       <c r="E94" s="3">
-        <v>-260200</v>
+        <v>-222100</v>
       </c>
       <c r="F94" s="3">
-        <v>-218800</v>
+        <v>-186700</v>
       </c>
       <c r="G94" s="3">
-        <v>-503000</v>
+        <v>-429300</v>
       </c>
       <c r="H94" s="3">
-        <v>-117900</v>
+        <v>-100600</v>
       </c>
       <c r="I94" s="3">
-        <v>-306600</v>
+        <v>-261700</v>
       </c>
       <c r="J94" s="3">
-        <v>-201500</v>
+        <v>-172000</v>
       </c>
       <c r="K94" s="3">
         <v>-216600</v>
@@ -6494,19 +6494,19 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-3300</v>
+        <v>-2800</v>
       </c>
       <c r="F96" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G96" s="3">
-        <v>-2800</v>
+        <v>-2400</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1800</v>
+        <v>-1500</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6787,25 +6787,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7900</v>
+        <v>6800</v>
       </c>
       <c r="E100" s="3">
-        <v>-71400</v>
+        <v>-60900</v>
       </c>
       <c r="F100" s="3">
-        <v>-75200</v>
+        <v>-64200</v>
       </c>
       <c r="G100" s="3">
-        <v>-26600</v>
+        <v>-22700</v>
       </c>
       <c r="H100" s="3">
-        <v>-22300</v>
+        <v>-19100</v>
       </c>
       <c r="I100" s="3">
-        <v>3800</v>
+        <v>3300</v>
       </c>
       <c r="J100" s="3">
-        <v>-269400</v>
+        <v>-230000</v>
       </c>
       <c r="K100" s="3">
         <v>-43000</v>
@@ -6861,25 +6861,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11800</v>
+        <v>-10100</v>
       </c>
       <c r="E101" s="3">
-        <v>-4300</v>
+        <v>-3700</v>
       </c>
       <c r="F101" s="3">
-        <v>-10000</v>
+        <v>-8500</v>
       </c>
       <c r="G101" s="3">
-        <v>-9100</v>
+        <v>-7700</v>
       </c>
       <c r="H101" s="3">
-        <v>-3400</v>
+        <v>-2900</v>
       </c>
       <c r="I101" s="3">
-        <v>-2100</v>
+        <v>-1800</v>
       </c>
       <c r="J101" s="3">
-        <v>5500</v>
+        <v>4700</v>
       </c>
       <c r="K101" s="3">
         <v>14800</v>
@@ -6935,25 +6935,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13100</v>
+        <v>-11200</v>
       </c>
       <c r="E102" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="F102" s="3">
-        <v>-12800</v>
+        <v>-10900</v>
       </c>
       <c r="G102" s="3">
-        <v>-58000</v>
+        <v>-49500</v>
       </c>
       <c r="H102" s="3">
-        <v>141700</v>
+        <v>121000</v>
       </c>
       <c r="I102" s="3">
-        <v>-52100</v>
+        <v>-44500</v>
       </c>
       <c r="J102" s="3">
-        <v>-344500</v>
+        <v>-294000</v>
       </c>
       <c r="K102" s="3">
         <v>277500</v>

--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>854500</v>
+        <v>791800</v>
       </c>
       <c r="E8" s="3">
-        <v>964700</v>
+        <v>859100</v>
       </c>
       <c r="F8" s="3">
-        <v>700700</v>
+        <v>826900</v>
       </c>
       <c r="G8" s="3">
-        <v>1432200</v>
+        <v>600600</v>
       </c>
       <c r="H8" s="3">
-        <v>932100</v>
+        <v>904900</v>
       </c>
       <c r="I8" s="3">
-        <v>1002900</v>
+        <v>937200</v>
       </c>
       <c r="J8" s="3">
+        <v>859600</v>
+      </c>
+      <c r="K8" s="3">
         <v>743900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1978500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>985400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1036700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>769800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1590200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>854800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1094000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>779500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1991100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>881600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>412800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>384000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>363400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>385900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>378900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>351500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>215100</v>
+        <v>206600</v>
       </c>
       <c r="E9" s="3">
-        <v>258400</v>
+        <v>216300</v>
       </c>
       <c r="F9" s="3">
-        <v>184800</v>
+        <v>221400</v>
       </c>
       <c r="G9" s="3">
-        <v>387100</v>
+        <v>158400</v>
       </c>
       <c r="H9" s="3">
-        <v>252500</v>
+        <v>244100</v>
       </c>
       <c r="I9" s="3">
-        <v>270900</v>
+        <v>253800</v>
       </c>
       <c r="J9" s="3">
+        <v>232200</v>
+      </c>
+      <c r="K9" s="3">
         <v>179700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>477600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>248700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>281000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>206200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>411800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>222500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>288000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>206800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>441500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>156600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>70700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>65400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>58000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>58300</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>65600</v>
       </c>
       <c r="Z9" s="3">
         <v>65600</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>65600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>639400</v>
+        <v>585200</v>
       </c>
       <c r="E10" s="3">
-        <v>706300</v>
+        <v>642800</v>
       </c>
       <c r="F10" s="3">
-        <v>515900</v>
+        <v>605400</v>
       </c>
       <c r="G10" s="3">
-        <v>1045100</v>
+        <v>442200</v>
       </c>
       <c r="H10" s="3">
-        <v>679600</v>
+        <v>660800</v>
       </c>
       <c r="I10" s="3">
-        <v>732000</v>
+        <v>683300</v>
       </c>
       <c r="J10" s="3">
+        <v>627400</v>
+      </c>
+      <c r="K10" s="3">
         <v>564200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1500900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>736700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>755700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>563600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1178500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>632300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>806000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>572700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1549600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>725000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>342100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>318700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>305400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>327600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>313200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>285900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>19400</v>
+        <v>24200</v>
       </c>
       <c r="E14" s="3">
-        <v>27200</v>
+        <v>19500</v>
       </c>
       <c r="F14" s="3">
-        <v>20300</v>
+        <v>23300</v>
       </c>
       <c r="G14" s="3">
-        <v>19400</v>
+        <v>17400</v>
       </c>
       <c r="H14" s="3">
+        <v>22500</v>
+      </c>
+      <c r="I14" s="3">
         <v>2500</v>
       </c>
-      <c r="I14" s="3">
-        <v>7800</v>
-      </c>
       <c r="J14" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K14" s="3">
         <v>25200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>40100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>23100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>73400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>59000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>10400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>270900</v>
+        <v>269600</v>
       </c>
       <c r="E15" s="3">
-        <v>299700</v>
+        <v>272400</v>
       </c>
       <c r="F15" s="3">
+        <v>256900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>202900</v>
+      </c>
+      <c r="H15" s="3">
+        <v>288100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>279100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>253200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>211200</v>
+      </c>
+      <c r="L15" s="3">
+        <v>501000</v>
+      </c>
+      <c r="M15" s="3">
+        <v>254200</v>
+      </c>
+      <c r="N15" s="3">
+        <v>267300</v>
+      </c>
+      <c r="O15" s="3">
+        <v>197300</v>
+      </c>
+      <c r="P15" s="3">
+        <v>375800</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>191300</v>
+      </c>
+      <c r="R15" s="3">
         <v>236800</v>
       </c>
-      <c r="G15" s="3">
-        <v>441000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>277600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>295400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>211200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>501000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>254200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>267300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>197300</v>
-      </c>
-      <c r="O15" s="3">
-        <v>375800</v>
-      </c>
-      <c r="P15" s="3">
-        <v>191300</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>236800</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>163000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>352800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>151900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>41200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>39900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>39400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>43800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>44800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>845300</v>
+        <v>854300</v>
       </c>
       <c r="E17" s="3">
-        <v>993600</v>
+        <v>849900</v>
       </c>
       <c r="F17" s="3">
-        <v>734300</v>
+        <v>851600</v>
       </c>
       <c r="G17" s="3">
-        <v>1390000</v>
+        <v>629400</v>
       </c>
       <c r="H17" s="3">
-        <v>871300</v>
+        <v>911700</v>
       </c>
       <c r="I17" s="3">
-        <v>995100</v>
+        <v>876000</v>
       </c>
       <c r="J17" s="3">
+        <v>853000</v>
+      </c>
+      <c r="K17" s="3">
         <v>701800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1759900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>894900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1018500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>713700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1433200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>768100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1034800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>687200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1635100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>701800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>341800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>311400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>295500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>310200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>318100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>304300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="E18" s="3">
         <v>9200</v>
       </c>
-      <c r="E18" s="3">
-        <v>-28900</v>
-      </c>
       <c r="F18" s="3">
-        <v>-33600</v>
+        <v>-24800</v>
       </c>
       <c r="G18" s="3">
-        <v>42200</v>
+        <v>-28800</v>
       </c>
       <c r="H18" s="3">
-        <v>60800</v>
+        <v>-6900</v>
       </c>
       <c r="I18" s="3">
-        <v>7700</v>
+        <v>61200</v>
       </c>
       <c r="J18" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K18" s="3">
         <v>42100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>218600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>90500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>56100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>157100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>86700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>59200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>92300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>356000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>179800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>71000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>72700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>67900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>75700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>60700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>165400</v>
+        <v>90100</v>
       </c>
       <c r="E20" s="3">
-        <v>147700</v>
+        <v>166300</v>
       </c>
       <c r="F20" s="3">
-        <v>101800</v>
+        <v>126600</v>
       </c>
       <c r="G20" s="3">
-        <v>201800</v>
+        <v>87200</v>
       </c>
       <c r="H20" s="3">
-        <v>106600</v>
+        <v>152300</v>
       </c>
       <c r="I20" s="3">
+        <v>107200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K20" s="3">
+        <v>600</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>27900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>178000</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-253300</v>
+      </c>
+      <c r="P20" s="3">
+        <v>142500</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>32900</v>
+      </c>
+      <c r="R20" s="3">
+        <v>344500</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-376400</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-322500</v>
+      </c>
+      <c r="U20" s="3">
+        <v>83500</v>
+      </c>
+      <c r="V20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-3900</v>
       </c>
-      <c r="J20" s="3">
-        <v>600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-34300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>27900</v>
-      </c>
-      <c r="M20" s="3">
-        <v>178000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-253300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>142500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>32900</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>344500</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-376400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-322500</v>
-      </c>
-      <c r="T20" s="3">
-        <v>83500</v>
-      </c>
-      <c r="U20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="V20" s="3">
-        <v>4400</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="X20" s="3">
-        <v>10000</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>445500</v>
+        <v>337400</v>
       </c>
       <c r="E21" s="3">
-        <v>418500</v>
+        <v>407700</v>
       </c>
       <c r="F21" s="3">
-        <v>342400</v>
+        <v>358700</v>
       </c>
       <c r="G21" s="3">
-        <v>647500</v>
+        <v>72200</v>
       </c>
       <c r="H21" s="3">
-        <v>445000</v>
+        <v>474700</v>
       </c>
       <c r="I21" s="3">
-        <v>299200</v>
+        <v>406300</v>
       </c>
       <c r="J21" s="3">
+        <v>256500</v>
+      </c>
+      <c r="K21" s="3">
         <v>287600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>642700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>347500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>463500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>648600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>301200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>639500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-89300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>346300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>401800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>113500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>117000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>102900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>129500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>101700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E22" s="3">
         <v>1900</v>
       </c>
-      <c r="E22" s="3">
-        <v>36800</v>
-      </c>
       <c r="F22" s="3">
-        <v>26300</v>
+        <v>31500</v>
       </c>
       <c r="G22" s="3">
-        <v>52900</v>
+        <v>22600</v>
       </c>
       <c r="H22" s="3">
-        <v>29200</v>
+        <v>38700</v>
       </c>
       <c r="I22" s="3">
-        <v>41700</v>
+        <v>29400</v>
       </c>
       <c r="J22" s="3">
+        <v>35800</v>
+      </c>
+      <c r="K22" s="3">
         <v>32900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>105000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>55100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>39200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>58800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>28900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>35600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>23200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>39100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>13000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>6200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>6700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>172700</v>
+        <v>15500</v>
       </c>
       <c r="E23" s="3">
-        <v>82100</v>
+        <v>173600</v>
       </c>
       <c r="F23" s="3">
-        <v>41800</v>
+        <v>70300</v>
       </c>
       <c r="G23" s="3">
-        <v>191000</v>
+        <v>35900</v>
       </c>
       <c r="H23" s="3">
-        <v>138200</v>
+        <v>106700</v>
       </c>
       <c r="I23" s="3">
-        <v>-37900</v>
+        <v>139000</v>
       </c>
       <c r="J23" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="K23" s="3">
         <v>9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>79200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>68000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>141100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-236400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>240800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>90700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>368100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-307200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>250300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>66200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>72300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>59000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>79000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>46000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>17200</v>
-      </c>
       <c r="F24" s="3">
-        <v>21100</v>
+        <v>14700</v>
       </c>
       <c r="G24" s="3">
-        <v>204300</v>
+        <v>18100</v>
       </c>
       <c r="H24" s="3">
-        <v>36500</v>
+        <v>226100</v>
       </c>
       <c r="I24" s="3">
-        <v>4300</v>
+        <v>36700</v>
       </c>
       <c r="J24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K24" s="3">
         <v>47000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>49600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>57400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>127900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>66000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>94000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-97200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-68300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>44000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>19600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>25100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>27500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>172900</v>
+        <v>25100</v>
       </c>
       <c r="E26" s="3">
-        <v>64900</v>
+        <v>173800</v>
       </c>
       <c r="F26" s="3">
-        <v>20800</v>
+        <v>55600</v>
       </c>
       <c r="G26" s="3">
-        <v>-13300</v>
+        <v>17800</v>
       </c>
       <c r="H26" s="3">
-        <v>101800</v>
+        <v>-119400</v>
       </c>
       <c r="I26" s="3">
-        <v>-42200</v>
+        <v>102300</v>
       </c>
       <c r="J26" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-37300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>29600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>119600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-293800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>112900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>274100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-210100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>62700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>206300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>46500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>47200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>38400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>51500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>39500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>171300</v>
+        <v>22900</v>
       </c>
       <c r="E27" s="3">
-        <v>60500</v>
+        <v>172200</v>
       </c>
       <c r="F27" s="3">
-        <v>18600</v>
+        <v>51800</v>
       </c>
       <c r="G27" s="3">
-        <v>-16000</v>
+        <v>15900</v>
       </c>
       <c r="H27" s="3">
-        <v>98700</v>
+        <v>-119800</v>
       </c>
       <c r="I27" s="3">
-        <v>-44500</v>
+        <v>99200</v>
       </c>
       <c r="J27" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-39100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>40000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>116000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-295200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>110800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>270100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-210000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>61500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>205800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>45600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>46500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>38100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>51200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>39400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-165400</v>
+        <v>-90100</v>
       </c>
       <c r="E32" s="3">
-        <v>-147700</v>
+        <v>-166300</v>
       </c>
       <c r="F32" s="3">
-        <v>-101800</v>
+        <v>-126600</v>
       </c>
       <c r="G32" s="3">
-        <v>-201800</v>
+        <v>-87200</v>
       </c>
       <c r="H32" s="3">
-        <v>-106600</v>
+        <v>-152300</v>
       </c>
       <c r="I32" s="3">
+        <v>-107200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L32" s="3">
+        <v>34300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="O32" s="3">
+        <v>253300</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-344500</v>
+      </c>
+      <c r="S32" s="3">
+        <v>376400</v>
+      </c>
+      <c r="T32" s="3">
+        <v>322500</v>
+      </c>
+      <c r="U32" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="V32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="X32" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="Z32" s="3">
         <v>3900</v>
       </c>
-      <c r="J32" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>34300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-27900</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-178000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>253300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-142500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-32900</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-344500</v>
-      </c>
-      <c r="R32" s="3">
-        <v>376400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>322500</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-83500</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-4400</v>
-      </c>
-      <c r="W32" s="3">
-        <v>4400</v>
-      </c>
-      <c r="X32" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>3900</v>
-      </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>171300</v>
+        <v>22900</v>
       </c>
       <c r="E33" s="3">
-        <v>60500</v>
+        <v>172200</v>
       </c>
       <c r="F33" s="3">
-        <v>18600</v>
+        <v>51800</v>
       </c>
       <c r="G33" s="3">
-        <v>-16000</v>
+        <v>15900</v>
       </c>
       <c r="H33" s="3">
-        <v>98700</v>
+        <v>-119800</v>
       </c>
       <c r="I33" s="3">
-        <v>-44500</v>
+        <v>99200</v>
       </c>
       <c r="J33" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-39100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>40000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>116000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-295200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>110800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>270100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-210000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>61500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>205800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>45600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>46500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>38100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>51200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>39400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>171300</v>
+        <v>22900</v>
       </c>
       <c r="E35" s="3">
-        <v>60500</v>
+        <v>172200</v>
       </c>
       <c r="F35" s="3">
-        <v>18600</v>
+        <v>51800</v>
       </c>
       <c r="G35" s="3">
-        <v>-16000</v>
+        <v>15900</v>
       </c>
       <c r="H35" s="3">
-        <v>98700</v>
+        <v>-119800</v>
       </c>
       <c r="I35" s="3">
-        <v>-44500</v>
+        <v>99200</v>
       </c>
       <c r="J35" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-39100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>40000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>116000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-295200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>110800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>270100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-210000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>61500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>205800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>45600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>46500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>38100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>51200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>39400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>156600</v>
+        <v>134300</v>
       </c>
       <c r="E41" s="3">
-        <v>167700</v>
+        <v>134200</v>
       </c>
       <c r="F41" s="3">
-        <v>124300</v>
+        <v>168600</v>
       </c>
       <c r="G41" s="3">
-        <v>119500</v>
+        <v>106500</v>
       </c>
       <c r="H41" s="3">
-        <v>230300</v>
+        <v>102400</v>
       </c>
       <c r="I41" s="3">
-        <v>203600</v>
+        <v>197400</v>
       </c>
       <c r="J41" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K41" s="3">
         <v>153500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>451800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>349200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>345500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>398400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>199200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>167000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>211900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>132100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>115000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>129700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>64900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>142200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>80100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>41500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>103300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>182600</v>
+        <v>30000</v>
       </c>
       <c r="E42" s="3">
-        <v>91100</v>
+        <v>156500</v>
       </c>
       <c r="F42" s="3">
-        <v>59800</v>
+        <v>91600</v>
       </c>
       <c r="G42" s="3">
-        <v>251400</v>
+        <v>51300</v>
       </c>
       <c r="H42" s="3">
-        <v>39500</v>
+        <v>215500</v>
       </c>
       <c r="I42" s="3">
-        <v>56800</v>
+        <v>33900</v>
       </c>
       <c r="J42" s="3">
+        <v>48700</v>
+      </c>
+      <c r="K42" s="3">
         <v>131700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>20700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>5800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>20300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>22700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>28600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>89800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>71200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>50600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>78600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>44500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>37200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>112600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>45800</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>220600</v>
+        <v>203400</v>
       </c>
       <c r="E43" s="3">
-        <v>222200</v>
+        <v>189100</v>
       </c>
       <c r="F43" s="3">
-        <v>160500</v>
+        <v>223400</v>
       </c>
       <c r="G43" s="3">
-        <v>171200</v>
+        <v>137500</v>
       </c>
       <c r="H43" s="3">
-        <v>198400</v>
+        <v>146700</v>
       </c>
       <c r="I43" s="3">
-        <v>267000</v>
+        <v>170100</v>
       </c>
       <c r="J43" s="3">
+        <v>228900</v>
+      </c>
+      <c r="K43" s="3">
         <v>147400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>187400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>225700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>275200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>219500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>198900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>239000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>439500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>233200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>241900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>201100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>219600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>192400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>188200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>221100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>208600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>222000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16400</v>
+        <v>30100</v>
       </c>
       <c r="E44" s="3">
-        <v>26300</v>
+        <v>14000</v>
       </c>
       <c r="F44" s="3">
-        <v>24400</v>
+        <v>26500</v>
       </c>
       <c r="G44" s="3">
+        <v>20900</v>
+      </c>
+      <c r="H44" s="3">
+        <v>20800</v>
+      </c>
+      <c r="I44" s="3">
         <v>24200</v>
       </c>
-      <c r="H44" s="3">
-        <v>28200</v>
-      </c>
-      <c r="I44" s="3">
-        <v>40900</v>
-      </c>
       <c r="J44" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K44" s="3">
         <v>22400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>29700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>44200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>36700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>35000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>38400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>57100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>38400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>39300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>33300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>42500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>44800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>28700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>32200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>33500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>54000</v>
+        <v>49700</v>
       </c>
       <c r="E45" s="3">
-        <v>43100</v>
+        <v>46300</v>
       </c>
       <c r="F45" s="3">
-        <v>30200</v>
+        <v>43400</v>
       </c>
       <c r="G45" s="3">
-        <v>28400</v>
+        <v>25900</v>
       </c>
       <c r="H45" s="3">
-        <v>21200</v>
+        <v>24400</v>
       </c>
       <c r="I45" s="3">
-        <v>17000</v>
+        <v>18100</v>
       </c>
       <c r="J45" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K45" s="3">
         <v>14000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>17900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>31000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>14900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>16500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>19600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>16200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>630200</v>
+        <v>447500</v>
       </c>
       <c r="E46" s="3">
-        <v>550500</v>
+        <v>540200</v>
       </c>
       <c r="F46" s="3">
-        <v>399200</v>
+        <v>553500</v>
       </c>
       <c r="G46" s="3">
-        <v>594700</v>
+        <v>342100</v>
       </c>
       <c r="H46" s="3">
-        <v>517700</v>
+        <v>509800</v>
       </c>
       <c r="I46" s="3">
-        <v>585300</v>
+        <v>443700</v>
       </c>
       <c r="J46" s="3">
+        <v>501700</v>
+      </c>
+      <c r="K46" s="3">
         <v>469100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>704400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>638800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>685800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>683700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>468700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>485000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>699100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>516100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>489600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>436800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>418400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>438700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>350600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>426900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>407400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>324600</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36100</v>
+        <v>36900</v>
       </c>
       <c r="E47" s="3">
-        <v>36900</v>
+        <v>30900</v>
       </c>
       <c r="F47" s="3">
-        <v>29500</v>
+        <v>37100</v>
       </c>
       <c r="G47" s="3">
-        <v>26600</v>
+        <v>25300</v>
       </c>
       <c r="H47" s="3">
-        <v>30800</v>
+        <v>22800</v>
       </c>
       <c r="I47" s="3">
-        <v>44600</v>
+        <v>26400</v>
       </c>
       <c r="J47" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K47" s="3">
         <v>27200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>36500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>40700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>53500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>40000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>63300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>77400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>250700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>89200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>72800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>54000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>77900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>116300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>102000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>35400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>34100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3962200</v>
+        <v>3872400</v>
       </c>
       <c r="E48" s="3">
-        <v>4094700</v>
+        <v>3396100</v>
       </c>
       <c r="F48" s="3">
-        <v>3195500</v>
+        <v>4117000</v>
       </c>
       <c r="G48" s="3">
-        <v>3001800</v>
+        <v>2739000</v>
       </c>
       <c r="H48" s="3">
-        <v>2766300</v>
+        <v>2572900</v>
       </c>
       <c r="I48" s="3">
-        <v>3721100</v>
+        <v>2371100</v>
       </c>
       <c r="J48" s="3">
+        <v>3189500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2206700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2594600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2681200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3450500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2371500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2102300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2139500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5958500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1323300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1513900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1432000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>654700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>604100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>567200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>615900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>606500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>575800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4383300</v>
+        <v>4384700</v>
       </c>
       <c r="E49" s="3">
-        <v>4422100</v>
+        <v>3757100</v>
       </c>
       <c r="F49" s="3">
-        <v>3482800</v>
+        <v>4445200</v>
       </c>
       <c r="G49" s="3">
-        <v>3205700</v>
+        <v>2985200</v>
       </c>
       <c r="H49" s="3">
-        <v>2908500</v>
+        <v>2747700</v>
       </c>
       <c r="I49" s="3">
-        <v>3911200</v>
+        <v>2493000</v>
       </c>
       <c r="J49" s="3">
+        <v>3352500</v>
+      </c>
+      <c r="K49" s="3">
         <v>2339400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2760600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2843800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3615200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2580300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2374400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2467700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4866900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1441900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1751000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1755000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>162800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>165000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>169300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>193400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>198800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13100</v>
+        <v>10700</v>
       </c>
       <c r="E52" s="3">
-        <v>14100</v>
+        <v>11200</v>
       </c>
       <c r="F52" s="3">
-        <v>16600</v>
+        <v>14200</v>
       </c>
       <c r="G52" s="3">
-        <v>10200</v>
+        <v>14300</v>
       </c>
       <c r="H52" s="3">
-        <v>3500</v>
+        <v>8700</v>
       </c>
       <c r="I52" s="3">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="J52" s="3">
         <v>1600</v>
       </c>
       <c r="K52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L52" s="3">
         <v>2300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9024800</v>
+        <v>8752200</v>
       </c>
       <c r="E54" s="3">
-        <v>9118400</v>
+        <v>7735500</v>
       </c>
       <c r="F54" s="3">
-        <v>7123600</v>
+        <v>9167000</v>
       </c>
       <c r="G54" s="3">
-        <v>6838900</v>
+        <v>6106000</v>
       </c>
       <c r="H54" s="3">
-        <v>6226800</v>
+        <v>5861900</v>
       </c>
       <c r="I54" s="3">
-        <v>8264000</v>
+        <v>5337200</v>
       </c>
       <c r="J54" s="3">
+        <v>7083400</v>
+      </c>
+      <c r="K54" s="3">
         <v>5044000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6098400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6207900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7808000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5677500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5010800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5173700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7760300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3377400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3840200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3688400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1321100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1331300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1196700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1279400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1254400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1125600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>328300</v>
+        <v>358400</v>
       </c>
       <c r="E57" s="3">
-        <v>416000</v>
+        <v>281400</v>
       </c>
       <c r="F57" s="3">
-        <v>319900</v>
+        <v>418300</v>
       </c>
       <c r="G57" s="3">
-        <v>312400</v>
+        <v>274200</v>
       </c>
       <c r="H57" s="3">
-        <v>321800</v>
+        <v>267800</v>
       </c>
       <c r="I57" s="3">
-        <v>432500</v>
+        <v>275900</v>
       </c>
       <c r="J57" s="3">
+        <v>370700</v>
+      </c>
+      <c r="K57" s="3">
         <v>245400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>263300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>306000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>431700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>315900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>249200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>262700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>477100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>327800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>313100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>267300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>263400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>244500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>228600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>236000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>235100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>254700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>484600</v>
+        <v>433100</v>
       </c>
       <c r="E58" s="3">
-        <v>462000</v>
+        <v>415300</v>
       </c>
       <c r="F58" s="3">
-        <v>415700</v>
+        <v>356600</v>
       </c>
       <c r="G58" s="3">
-        <v>323300</v>
+        <v>356300</v>
       </c>
       <c r="H58" s="3">
-        <v>292300</v>
+        <v>277200</v>
       </c>
       <c r="I58" s="3">
-        <v>348000</v>
+        <v>250500</v>
       </c>
       <c r="J58" s="3">
+        <v>298300</v>
+      </c>
+      <c r="K58" s="3">
         <v>205800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>638000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>365300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>378400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>260400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>235700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>167600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>341700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>679200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>554200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>401400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>57000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>33500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>23200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>19000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>81500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>551200</v>
+        <v>559900</v>
       </c>
       <c r="E59" s="3">
-        <v>521200</v>
+        <v>472500</v>
       </c>
       <c r="F59" s="3">
-        <v>363400</v>
+        <v>631900</v>
       </c>
       <c r="G59" s="3">
-        <v>279600</v>
+        <v>311500</v>
       </c>
       <c r="H59" s="3">
-        <v>252300</v>
+        <v>239700</v>
       </c>
       <c r="I59" s="3">
-        <v>391700</v>
+        <v>216300</v>
       </c>
       <c r="J59" s="3">
+        <v>335700</v>
+      </c>
+      <c r="K59" s="3">
         <v>232000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>278000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>240300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>351100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>228800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>187000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>237100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>296900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>151600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>166300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>215400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>184000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>192600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>159200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>163200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>115700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1364100</v>
+        <v>1351400</v>
       </c>
       <c r="E60" s="3">
-        <v>1399200</v>
+        <v>1169200</v>
       </c>
       <c r="F60" s="3">
-        <v>1099000</v>
+        <v>1406800</v>
       </c>
       <c r="G60" s="3">
-        <v>915400</v>
+        <v>942000</v>
       </c>
       <c r="H60" s="3">
-        <v>866400</v>
+        <v>784600</v>
       </c>
       <c r="I60" s="3">
-        <v>1165300</v>
+        <v>742700</v>
       </c>
       <c r="J60" s="3">
+        <v>998900</v>
+      </c>
+      <c r="K60" s="3">
         <v>683200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1179300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>911500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1161200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>805000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>671900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>667400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1115700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1158600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1033600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>884200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>504400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>470600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>410900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>418200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>432300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>564500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1687600</v>
+        <v>1624200</v>
       </c>
       <c r="E61" s="3">
-        <v>1815400</v>
+        <v>1446500</v>
       </c>
       <c r="F61" s="3">
-        <v>1413600</v>
+        <v>1825200</v>
       </c>
       <c r="G61" s="3">
-        <v>1442700</v>
+        <v>1211600</v>
       </c>
       <c r="H61" s="3">
-        <v>1334200</v>
+        <v>1236600</v>
       </c>
       <c r="I61" s="3">
-        <v>1819300</v>
+        <v>1143600</v>
       </c>
       <c r="J61" s="3">
+        <v>1559400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1026000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1007600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1287700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1625800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1264000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>829100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>918600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1237300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>517600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>470600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>329000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>207400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>206300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>179900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>220400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>226400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1164900</v>
+        <v>1125900</v>
       </c>
       <c r="E62" s="3">
-        <v>1256500</v>
+        <v>998500</v>
       </c>
       <c r="F62" s="3">
-        <v>1025000</v>
+        <v>1263300</v>
       </c>
       <c r="G62" s="3">
-        <v>965900</v>
+        <v>878600</v>
       </c>
       <c r="H62" s="3">
-        <v>762500</v>
+        <v>827900</v>
       </c>
       <c r="I62" s="3">
-        <v>1006400</v>
+        <v>653600</v>
       </c>
       <c r="J62" s="3">
+        <v>862600</v>
+      </c>
+      <c r="K62" s="3">
         <v>594800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>671400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>681400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>835000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>572500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>477300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>419700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>681300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>195800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>316300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>338700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>61500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>63700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>63600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>70500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>75400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4287900</v>
+        <v>4169100</v>
       </c>
       <c r="E66" s="3">
-        <v>4543400</v>
+        <v>3675300</v>
       </c>
       <c r="F66" s="3">
-        <v>3593900</v>
+        <v>4568200</v>
       </c>
       <c r="G66" s="3">
-        <v>3376100</v>
+        <v>3080500</v>
       </c>
       <c r="H66" s="3">
-        <v>3017900</v>
+        <v>2893800</v>
       </c>
       <c r="I66" s="3">
-        <v>4061400</v>
+        <v>2586800</v>
       </c>
       <c r="J66" s="3">
+        <v>3481200</v>
+      </c>
+      <c r="K66" s="3">
         <v>2345000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2905500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2930000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3687900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2687600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2015800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2049600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3049000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1911800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1858700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1585600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>791500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>756400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>669100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>722600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>748200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>591000</v>
+        <v>550100</v>
       </c>
       <c r="E72" s="3">
-        <v>419700</v>
+        <v>506600</v>
       </c>
       <c r="F72" s="3">
-        <v>265200</v>
+        <v>422000</v>
       </c>
       <c r="G72" s="3">
-        <v>467500</v>
+        <v>227300</v>
       </c>
       <c r="H72" s="3">
-        <v>401700</v>
+        <v>400700</v>
       </c>
       <c r="I72" s="3">
-        <v>452600</v>
+        <v>344300</v>
       </c>
       <c r="J72" s="3">
+        <v>388000</v>
+      </c>
+      <c r="K72" s="3">
         <v>462300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>572100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>486800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>582800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>498300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>734800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>780000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1156900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-147800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>46000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>187300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>224700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>53500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>127500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>275800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>225100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4736900</v>
+        <v>4583100</v>
       </c>
       <c r="E76" s="3">
-        <v>4575000</v>
+        <v>4060200</v>
       </c>
       <c r="F76" s="3">
-        <v>3529700</v>
+        <v>4598800</v>
       </c>
       <c r="G76" s="3">
-        <v>3462800</v>
+        <v>3025400</v>
       </c>
       <c r="H76" s="3">
-        <v>3208800</v>
+        <v>2968100</v>
       </c>
       <c r="I76" s="3">
-        <v>4202600</v>
+        <v>2750400</v>
       </c>
       <c r="J76" s="3">
+        <v>3602300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2698900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3192900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3277900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4120100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2990000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2995100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3124100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4711300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1465600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1981400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2102800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>529600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>574900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>527600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>556800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>506200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>171300</v>
+        <v>22900</v>
       </c>
       <c r="E81" s="3">
-        <v>60500</v>
+        <v>172200</v>
       </c>
       <c r="F81" s="3">
-        <v>18600</v>
+        <v>51800</v>
       </c>
       <c r="G81" s="3">
-        <v>-16000</v>
+        <v>15900</v>
       </c>
       <c r="H81" s="3">
-        <v>98700</v>
+        <v>-119800</v>
       </c>
       <c r="I81" s="3">
-        <v>-44500</v>
+        <v>99200</v>
       </c>
       <c r="J81" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-39100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>40000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>116000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-295200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>110800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>270100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-210000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>61500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>205800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>45600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>46500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>38100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>51200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>39400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>270900</v>
+        <v>309700</v>
       </c>
       <c r="E83" s="3">
-        <v>299700</v>
+        <v>232200</v>
       </c>
       <c r="F83" s="3">
-        <v>274200</v>
+        <v>256900</v>
       </c>
       <c r="G83" s="3">
-        <v>403600</v>
+        <v>13700</v>
       </c>
       <c r="H83" s="3">
-        <v>277600</v>
+        <v>329300</v>
       </c>
       <c r="I83" s="3">
-        <v>295400</v>
+        <v>238000</v>
       </c>
       <c r="J83" s="3">
+        <v>253200</v>
+      </c>
+      <c r="K83" s="3">
         <v>244900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>458400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>229100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>267300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>223200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>349100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>181600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>235800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>194700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>312700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>138500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>39900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>39400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>43800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>44800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>267600</v>
+        <v>243400</v>
       </c>
       <c r="E89" s="3">
-        <v>288000</v>
+        <v>229300</v>
       </c>
       <c r="F89" s="3">
-        <v>248500</v>
+        <v>246800</v>
       </c>
       <c r="G89" s="3">
-        <v>410200</v>
+        <v>-11900</v>
       </c>
       <c r="H89" s="3">
-        <v>311100</v>
+        <v>309800</v>
       </c>
       <c r="I89" s="3">
-        <v>301500</v>
+        <v>266700</v>
       </c>
       <c r="J89" s="3">
+        <v>258500</v>
+      </c>
+      <c r="K89" s="3">
         <v>279900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>652600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>228200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>350400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>314600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>508500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>284000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>172000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>171200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>436500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>223700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>86300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>109200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>120200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>145800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>131100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>82400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-161600</v>
+        <v>-124600</v>
       </c>
       <c r="E91" s="3">
-        <v>-179800</v>
+        <v>-138500</v>
       </c>
       <c r="F91" s="3">
-        <v>-129800</v>
+        <v>-154100</v>
       </c>
       <c r="G91" s="3">
-        <v>-226100</v>
+        <v>-111300</v>
       </c>
       <c r="H91" s="3">
-        <v>-104900</v>
+        <v>-103900</v>
       </c>
       <c r="I91" s="3">
-        <v>-142300</v>
+        <v>-89900</v>
       </c>
       <c r="J91" s="3">
+        <v>-121900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-79600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-108600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-178700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-107700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-229400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-95600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-241000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-125700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-207500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-93200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-66600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-70300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-55000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-68700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-84100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-80400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-275400</v>
+        <v>-221000</v>
       </c>
       <c r="E94" s="3">
-        <v>-222100</v>
+        <v>-236100</v>
       </c>
       <c r="F94" s="3">
-        <v>-186700</v>
+        <v>-190300</v>
       </c>
       <c r="G94" s="3">
-        <v>-429300</v>
+        <v>-160000</v>
       </c>
       <c r="H94" s="3">
-        <v>-100600</v>
+        <v>-281700</v>
       </c>
       <c r="I94" s="3">
-        <v>-261700</v>
+        <v>-86200</v>
       </c>
       <c r="J94" s="3">
+        <v>-224300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-172000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-216600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-114800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-168300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-82000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-219500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-84800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-176800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-127800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-146100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-40600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-57300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-89000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-63500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-134800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-114300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-80300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6494,73 +6728,76 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G96" s="3">
         <v>-200</v>
       </c>
-      <c r="G96" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-203500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-88300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-73100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-135900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2200</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-395900</v>
       </c>
       <c r="T96" s="3">
         <v>-395900</v>
       </c>
       <c r="U96" s="3">
+        <v>-395900</v>
+      </c>
+      <c r="V96" s="3">
         <v>-95800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-400</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6800</v>
+        <v>-43500</v>
       </c>
       <c r="E100" s="3">
-        <v>-60900</v>
+        <v>5800</v>
       </c>
       <c r="F100" s="3">
-        <v>-64200</v>
+        <v>-52200</v>
       </c>
       <c r="G100" s="3">
-        <v>-22700</v>
+        <v>-55000</v>
       </c>
       <c r="H100" s="3">
-        <v>-19100</v>
+        <v>-3100</v>
       </c>
       <c r="I100" s="3">
-        <v>3300</v>
+        <v>-16300</v>
       </c>
       <c r="J100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-230000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-43000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>44400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-238900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>28300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-39600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-108900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-105200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-61500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-109400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>42500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-15000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-71400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>72500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10100</v>
+        <v>-3700</v>
       </c>
       <c r="E101" s="3">
-        <v>-3700</v>
+        <v>-8600</v>
       </c>
       <c r="F101" s="3">
-        <v>-8500</v>
+        <v>-3100</v>
       </c>
       <c r="G101" s="3">
-        <v>-7700</v>
+        <v>-7300</v>
       </c>
       <c r="H101" s="3">
-        <v>-2900</v>
+        <v>-4100</v>
       </c>
       <c r="I101" s="3">
-        <v>-1800</v>
+        <v>-2500</v>
       </c>
       <c r="J101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K101" s="3">
         <v>4700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>14800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>24500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>30700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-15700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>22600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>27300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>36700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4400</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11200</v>
+        <v>-24800</v>
       </c>
       <c r="E102" s="3">
-        <v>1400</v>
+        <v>-9600</v>
       </c>
       <c r="F102" s="3">
-        <v>-10900</v>
+        <v>1200</v>
       </c>
       <c r="G102" s="3">
-        <v>-49500</v>
+        <v>-9300</v>
       </c>
       <c r="H102" s="3">
-        <v>121000</v>
+        <v>-146100</v>
       </c>
       <c r="I102" s="3">
-        <v>-44500</v>
+        <v>103700</v>
       </c>
       <c r="J102" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-294000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>277500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>107900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-178000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>258200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>152900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>107900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-69700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>41900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>43400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>80400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-77200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>62100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>43700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-61800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>93600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>TEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>791800</v>
+        <v>739700</v>
       </c>
       <c r="E8" s="3">
-        <v>859100</v>
+        <v>1610400</v>
       </c>
       <c r="F8" s="3">
-        <v>826900</v>
+        <v>687000</v>
       </c>
       <c r="G8" s="3">
-        <v>600600</v>
+        <v>661200</v>
       </c>
       <c r="H8" s="3">
-        <v>904900</v>
+        <v>879100</v>
       </c>
       <c r="I8" s="3">
-        <v>937200</v>
+        <v>1796800</v>
       </c>
       <c r="J8" s="3">
+        <v>749400</v>
+      </c>
+      <c r="K8" s="3">
         <v>859600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>743900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1978500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>985400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1036700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>769800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1590200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>854800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1094000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>779500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1991100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>881600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>412800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>384000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>363400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>385900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>378900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>351500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>206600</v>
+        <v>201700</v>
       </c>
       <c r="E9" s="3">
-        <v>216300</v>
+        <v>423100</v>
       </c>
       <c r="F9" s="3">
-        <v>221400</v>
+        <v>173000</v>
       </c>
       <c r="G9" s="3">
-        <v>158400</v>
+        <v>177100</v>
       </c>
       <c r="H9" s="3">
-        <v>244100</v>
+        <v>237000</v>
       </c>
       <c r="I9" s="3">
-        <v>253800</v>
+        <v>496300</v>
       </c>
       <c r="J9" s="3">
+        <v>203000</v>
+      </c>
+      <c r="K9" s="3">
         <v>232200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>179700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>477600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>248700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>281000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>206200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>411800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>222500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>288000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>206800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>441500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>156600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>70700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>65400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>58000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>58300</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>65600</v>
       </c>
       <c r="AA9" s="3">
         <v>65600</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>65600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>585200</v>
+        <v>538000</v>
       </c>
       <c r="E10" s="3">
-        <v>642800</v>
+        <v>1187300</v>
       </c>
       <c r="F10" s="3">
-        <v>605400</v>
+        <v>514100</v>
       </c>
       <c r="G10" s="3">
-        <v>442200</v>
+        <v>484100</v>
       </c>
       <c r="H10" s="3">
-        <v>660800</v>
+        <v>642200</v>
       </c>
       <c r="I10" s="3">
-        <v>683300</v>
+        <v>1300500</v>
       </c>
       <c r="J10" s="3">
+        <v>546500</v>
+      </c>
+      <c r="K10" s="3">
         <v>627400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>564200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1500900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>736700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>755700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>563600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1178500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>632300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>806000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>572700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1549600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>725000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>342100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>318700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>305400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>327600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>313200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>285900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,162 +1203,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24200</v>
+        <v>1036800</v>
       </c>
       <c r="E14" s="3">
-        <v>19500</v>
+        <v>42700</v>
       </c>
       <c r="F14" s="3">
-        <v>23300</v>
+        <v>15600</v>
       </c>
       <c r="G14" s="3">
-        <v>17400</v>
+        <v>18600</v>
       </c>
       <c r="H14" s="3">
-        <v>22500</v>
+        <v>25400</v>
       </c>
       <c r="I14" s="3">
-        <v>2500</v>
+        <v>24300</v>
       </c>
       <c r="J14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K14" s="3">
         <v>6700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>25200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>40100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>7300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>23100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>73400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>59000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>10400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>269600</v>
+        <v>269300</v>
       </c>
       <c r="E15" s="3">
-        <v>272400</v>
+        <v>528600</v>
       </c>
       <c r="F15" s="3">
-        <v>256900</v>
+        <v>217800</v>
       </c>
       <c r="G15" s="3">
-        <v>202900</v>
+        <v>205400</v>
       </c>
       <c r="H15" s="3">
-        <v>288100</v>
+        <v>297100</v>
       </c>
       <c r="I15" s="3">
-        <v>279100</v>
+        <v>553300</v>
       </c>
       <c r="J15" s="3">
+        <v>223200</v>
+      </c>
+      <c r="K15" s="3">
         <v>253200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>211200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>501000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>254200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>267300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>197300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>375800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>191300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>236800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>163000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>352800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>151900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>41200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>39900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>39400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>43800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>44800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>854300</v>
+        <v>1858800</v>
       </c>
       <c r="E17" s="3">
-        <v>849900</v>
+        <v>1662300</v>
       </c>
       <c r="F17" s="3">
-        <v>851600</v>
+        <v>679700</v>
       </c>
       <c r="G17" s="3">
-        <v>629400</v>
+        <v>681000</v>
       </c>
       <c r="H17" s="3">
-        <v>911700</v>
+        <v>921200</v>
       </c>
       <c r="I17" s="3">
-        <v>876000</v>
+        <v>1743800</v>
       </c>
       <c r="J17" s="3">
+        <v>700500</v>
+      </c>
+      <c r="K17" s="3">
         <v>853000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>701800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1759900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>894900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1018500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>713700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1433200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>768100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1034800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>687200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1635100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>701800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>341800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>311400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>295500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>310200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>318100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>304300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-62500</v>
+        <v>-1119000</v>
       </c>
       <c r="E18" s="3">
-        <v>9200</v>
+        <v>-52000</v>
       </c>
       <c r="F18" s="3">
-        <v>-24800</v>
+        <v>7400</v>
       </c>
       <c r="G18" s="3">
-        <v>-28800</v>
+        <v>-19800</v>
       </c>
       <c r="H18" s="3">
-        <v>-6900</v>
+        <v>-42100</v>
       </c>
       <c r="I18" s="3">
-        <v>61200</v>
+        <v>52900</v>
       </c>
       <c r="J18" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K18" s="3">
         <v>6600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>218600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>90500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>56100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>157100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>86700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>59200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>92300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>356000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>179800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>71000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>72700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>67900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>75700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>60700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>90100</v>
+        <v>146400</v>
       </c>
       <c r="E20" s="3">
-        <v>166300</v>
+        <v>250200</v>
       </c>
       <c r="F20" s="3">
-        <v>126600</v>
+        <v>133000</v>
       </c>
       <c r="G20" s="3">
-        <v>87200</v>
+        <v>101300</v>
       </c>
       <c r="H20" s="3">
-        <v>152300</v>
+        <v>127600</v>
       </c>
       <c r="I20" s="3">
-        <v>107200</v>
+        <v>253100</v>
       </c>
       <c r="J20" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>27900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>178000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-253300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>142500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>32900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>344500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-376400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-322500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>83500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>10000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>337400</v>
+        <v>-608200</v>
       </c>
       <c r="E21" s="3">
-        <v>407700</v>
+        <v>631600</v>
       </c>
       <c r="F21" s="3">
-        <v>358700</v>
+        <v>326100</v>
       </c>
       <c r="G21" s="3">
-        <v>72200</v>
+        <v>-98900</v>
       </c>
       <c r="H21" s="3">
-        <v>474700</v>
+        <v>482300</v>
       </c>
       <c r="I21" s="3">
-        <v>406300</v>
+        <v>759700</v>
       </c>
       <c r="J21" s="3">
+        <v>324900</v>
+      </c>
+      <c r="K21" s="3">
         <v>256500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>287600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>642700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>347500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>463500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>648600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>301200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>639500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-89300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>346300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>401800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>113500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>117000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>102900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>129500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>101700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12200</v>
+        <v>6200</v>
       </c>
       <c r="E22" s="3">
-        <v>1900</v>
+        <v>13800</v>
       </c>
       <c r="F22" s="3">
-        <v>31500</v>
+        <v>1500</v>
       </c>
       <c r="G22" s="3">
-        <v>22600</v>
+        <v>25200</v>
       </c>
       <c r="H22" s="3">
-        <v>38700</v>
+        <v>33000</v>
       </c>
       <c r="I22" s="3">
-        <v>29400</v>
+        <v>66400</v>
       </c>
       <c r="J22" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K22" s="3">
         <v>35800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>32900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>105000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>55100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>39200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>58800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>28900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>35600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>23200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>39100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>6700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>10800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15500</v>
+        <v>-978800</v>
       </c>
       <c r="E23" s="3">
-        <v>173600</v>
+        <v>184400</v>
       </c>
       <c r="F23" s="3">
-        <v>70300</v>
+        <v>138800</v>
       </c>
       <c r="G23" s="3">
-        <v>35900</v>
+        <v>56200</v>
       </c>
       <c r="H23" s="3">
-        <v>106700</v>
+        <v>52500</v>
       </c>
       <c r="I23" s="3">
-        <v>139000</v>
+        <v>239600</v>
       </c>
       <c r="J23" s="3">
+        <v>111100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-32500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>79200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>68000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>141100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-236400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>240800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>90700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>368100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-307200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>250300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>66200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>72300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>59000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>79000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>46000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-9700</v>
+        <v>31100</v>
       </c>
       <c r="E24" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>14700</v>
-      </c>
       <c r="G24" s="3">
-        <v>18100</v>
+        <v>11800</v>
       </c>
       <c r="H24" s="3">
-        <v>226100</v>
+        <v>26400</v>
       </c>
       <c r="I24" s="3">
-        <v>36700</v>
+        <v>256300</v>
       </c>
       <c r="J24" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K24" s="3">
         <v>3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>47000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>49600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>26600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>57400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>127900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>66000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>94000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-97200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-68300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>44000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>19600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>25100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>20700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>27500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>25100</v>
+        <v>-1009900</v>
       </c>
       <c r="E26" s="3">
-        <v>173800</v>
+        <v>194000</v>
       </c>
       <c r="F26" s="3">
-        <v>55600</v>
+        <v>139000</v>
       </c>
       <c r="G26" s="3">
-        <v>17800</v>
+        <v>44500</v>
       </c>
       <c r="H26" s="3">
-        <v>-119400</v>
+        <v>26100</v>
       </c>
       <c r="I26" s="3">
-        <v>102300</v>
+        <v>-16700</v>
       </c>
       <c r="J26" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-36200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-37300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>29600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>41500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>119600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-293800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>112900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>24700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>274100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-210100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>62700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>206300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>46500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>47200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>38400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>51500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>39500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>22900</v>
+        <v>-1013000</v>
       </c>
       <c r="E27" s="3">
-        <v>172200</v>
+        <v>190300</v>
       </c>
       <c r="F27" s="3">
-        <v>51800</v>
+        <v>137700</v>
       </c>
       <c r="G27" s="3">
-        <v>15900</v>
+        <v>41500</v>
       </c>
       <c r="H27" s="3">
-        <v>-119800</v>
+        <v>23300</v>
       </c>
       <c r="I27" s="3">
-        <v>99200</v>
+        <v>-20000</v>
       </c>
       <c r="J27" s="3">
+        <v>79400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-38200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-39100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>40000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>116000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-295200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>110800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>23800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>270100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-210000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>61500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>205800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>45600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>46500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>38100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>51200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>39400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-90100</v>
+        <v>-146400</v>
       </c>
       <c r="E32" s="3">
-        <v>-166300</v>
+        <v>-250200</v>
       </c>
       <c r="F32" s="3">
-        <v>-126600</v>
+        <v>-133000</v>
       </c>
       <c r="G32" s="3">
-        <v>-87200</v>
+        <v>-101300</v>
       </c>
       <c r="H32" s="3">
-        <v>-152300</v>
+        <v>-127600</v>
       </c>
       <c r="I32" s="3">
-        <v>-107200</v>
+        <v>-253100</v>
       </c>
       <c r="J32" s="3">
+        <v>-85700</v>
+      </c>
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-27900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-178000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>253300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-142500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-32900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-344500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>376400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>322500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-83500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>22900</v>
+        <v>-1013000</v>
       </c>
       <c r="E33" s="3">
-        <v>172200</v>
+        <v>190300</v>
       </c>
       <c r="F33" s="3">
-        <v>51800</v>
+        <v>137700</v>
       </c>
       <c r="G33" s="3">
-        <v>15900</v>
+        <v>41500</v>
       </c>
       <c r="H33" s="3">
-        <v>-119800</v>
+        <v>23300</v>
       </c>
       <c r="I33" s="3">
-        <v>99200</v>
+        <v>-20000</v>
       </c>
       <c r="J33" s="3">
+        <v>79400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-38200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-39100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>40000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>116000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-295200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>110800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>270100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-210000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>61500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>205800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>45600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>46500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>38100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>51200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>39400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>22900</v>
+        <v>-1013000</v>
       </c>
       <c r="E35" s="3">
-        <v>172200</v>
+        <v>190300</v>
       </c>
       <c r="F35" s="3">
-        <v>51800</v>
+        <v>137700</v>
       </c>
       <c r="G35" s="3">
-        <v>15900</v>
+        <v>41500</v>
       </c>
       <c r="H35" s="3">
-        <v>-119800</v>
+        <v>23300</v>
       </c>
       <c r="I35" s="3">
-        <v>99200</v>
+        <v>-20000</v>
       </c>
       <c r="J35" s="3">
+        <v>79400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-38200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-39100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>40000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>116000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-295200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>110800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>270100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-210000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>61500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>205800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>45600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>46500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>38100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>51200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>39400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>134300</v>
+        <v>164300</v>
       </c>
       <c r="E41" s="3">
-        <v>134200</v>
+        <v>107400</v>
       </c>
       <c r="F41" s="3">
-        <v>168600</v>
+        <v>107300</v>
       </c>
       <c r="G41" s="3">
-        <v>106500</v>
+        <v>164500</v>
       </c>
       <c r="H41" s="3">
-        <v>102400</v>
+        <v>85200</v>
       </c>
       <c r="I41" s="3">
-        <v>197400</v>
+        <v>81900</v>
       </c>
       <c r="J41" s="3">
+        <v>157900</v>
+      </c>
+      <c r="K41" s="3">
         <v>174500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>153500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>451800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>349200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>345500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>398400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>199200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>167000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>211900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>132100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>115000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>129700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>64900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>142200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>80100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>41500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>103300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30000</v>
+        <v>31200</v>
       </c>
       <c r="E42" s="3">
-        <v>156500</v>
+        <v>24000</v>
       </c>
       <c r="F42" s="3">
-        <v>91600</v>
+        <v>125200</v>
       </c>
       <c r="G42" s="3">
-        <v>51300</v>
+        <v>89400</v>
       </c>
       <c r="H42" s="3">
-        <v>215500</v>
+        <v>41000</v>
       </c>
       <c r="I42" s="3">
-        <v>33900</v>
+        <v>172300</v>
       </c>
       <c r="J42" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K42" s="3">
         <v>48700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>131700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>20700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>8000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>5800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>20300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>22700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>28600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>89800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>71200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>50600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>78600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>44500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>37200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>112600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>45800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>203400</v>
+        <v>183200</v>
       </c>
       <c r="E43" s="3">
-        <v>189100</v>
+        <v>162700</v>
       </c>
       <c r="F43" s="3">
-        <v>223400</v>
+        <v>151200</v>
       </c>
       <c r="G43" s="3">
-        <v>137500</v>
+        <v>217900</v>
       </c>
       <c r="H43" s="3">
-        <v>146700</v>
+        <v>110000</v>
       </c>
       <c r="I43" s="3">
-        <v>170100</v>
+        <v>117300</v>
       </c>
       <c r="J43" s="3">
+        <v>136000</v>
+      </c>
+      <c r="K43" s="3">
         <v>228900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>147400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>187400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>225700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>275200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>219500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>198900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>239000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>439500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>233200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>241900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>201100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>219600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>192400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>188200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>221100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>208600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>222000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>30100</v>
+        <v>25200</v>
       </c>
       <c r="E44" s="3">
-        <v>14000</v>
+        <v>24100</v>
       </c>
       <c r="F44" s="3">
-        <v>26500</v>
+        <v>11200</v>
       </c>
       <c r="G44" s="3">
-        <v>20900</v>
+        <v>25800</v>
       </c>
       <c r="H44" s="3">
-        <v>20800</v>
+        <v>16700</v>
       </c>
       <c r="I44" s="3">
-        <v>24200</v>
+        <v>16600</v>
       </c>
       <c r="J44" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K44" s="3">
         <v>35100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>22400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>21400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>44200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>36700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>35000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>38400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>57100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>38400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>39300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>33300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>42500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>44800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>28700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>32200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>33500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>49700</v>
+        <v>35100</v>
       </c>
       <c r="E45" s="3">
-        <v>46300</v>
+        <v>39800</v>
       </c>
       <c r="F45" s="3">
-        <v>43400</v>
+        <v>37000</v>
       </c>
       <c r="G45" s="3">
-        <v>25900</v>
+        <v>42300</v>
       </c>
       <c r="H45" s="3">
-        <v>24400</v>
+        <v>20700</v>
       </c>
       <c r="I45" s="3">
-        <v>18100</v>
+        <v>19500</v>
       </c>
       <c r="J45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K45" s="3">
         <v>14600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>17900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>31000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>14900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>16500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>19600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>16200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>447500</v>
+        <v>439100</v>
       </c>
       <c r="E46" s="3">
-        <v>540200</v>
+        <v>357800</v>
       </c>
       <c r="F46" s="3">
-        <v>553500</v>
+        <v>432000</v>
       </c>
       <c r="G46" s="3">
-        <v>342100</v>
+        <v>539900</v>
       </c>
       <c r="H46" s="3">
-        <v>509800</v>
+        <v>273600</v>
       </c>
       <c r="I46" s="3">
-        <v>443700</v>
+        <v>407700</v>
       </c>
       <c r="J46" s="3">
+        <v>354800</v>
+      </c>
+      <c r="K46" s="3">
         <v>501700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>469100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>704400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>638800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>685800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>683700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>468700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>485000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>699100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>516100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>489600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>436800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>418400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>438700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>350600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>426900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>407400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>324600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>36900</v>
+        <v>37000</v>
       </c>
       <c r="E47" s="3">
-        <v>30900</v>
+        <v>29500</v>
       </c>
       <c r="F47" s="3">
-        <v>37100</v>
+        <v>24700</v>
       </c>
       <c r="G47" s="3">
-        <v>25300</v>
+        <v>36200</v>
       </c>
       <c r="H47" s="3">
-        <v>22800</v>
+        <v>20200</v>
       </c>
       <c r="I47" s="3">
-        <v>26400</v>
+        <v>18200</v>
       </c>
       <c r="J47" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K47" s="3">
         <v>38200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>27200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>36500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>40700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>53500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>40000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>63300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>77400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>250700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>89200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>72800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>54000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>77900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>116300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>102000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>35400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>34100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3872400</v>
+        <v>3674600</v>
       </c>
       <c r="E48" s="3">
-        <v>3396100</v>
+        <v>3096700</v>
       </c>
       <c r="F48" s="3">
-        <v>4117000</v>
+        <v>2715800</v>
       </c>
       <c r="G48" s="3">
-        <v>2739000</v>
+        <v>4015800</v>
       </c>
       <c r="H48" s="3">
-        <v>2572900</v>
+        <v>2190300</v>
       </c>
       <c r="I48" s="3">
-        <v>2371100</v>
+        <v>2057500</v>
       </c>
       <c r="J48" s="3">
+        <v>1896100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3189500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2206700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2594600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2681200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3450500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2371500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2102300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2139500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5958500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1323300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1513900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1432000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>654700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>604100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>567200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>615900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>606500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>575800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4384700</v>
+        <v>3216600</v>
       </c>
       <c r="E49" s="3">
-        <v>3757100</v>
+        <v>3506400</v>
       </c>
       <c r="F49" s="3">
-        <v>4445200</v>
+        <v>3004500</v>
       </c>
       <c r="G49" s="3">
-        <v>2985200</v>
+        <v>4335900</v>
       </c>
       <c r="H49" s="3">
-        <v>2747700</v>
+        <v>2387200</v>
       </c>
       <c r="I49" s="3">
-        <v>2493000</v>
+        <v>2197300</v>
       </c>
       <c r="J49" s="3">
+        <v>1993600</v>
+      </c>
+      <c r="K49" s="3">
         <v>3352500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2339400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2760600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2843800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3615200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2580300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2374400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2467700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4866900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1441900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1751000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1755000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>162800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>165000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>169300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>193400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>198800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10700</v>
+        <v>8600</v>
       </c>
       <c r="E52" s="3">
-        <v>11200</v>
+        <v>8500</v>
       </c>
       <c r="F52" s="3">
-        <v>14200</v>
+        <v>9000</v>
       </c>
       <c r="G52" s="3">
-        <v>14300</v>
+        <v>13800</v>
       </c>
       <c r="H52" s="3">
-        <v>8700</v>
+        <v>11400</v>
       </c>
       <c r="I52" s="3">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J52" s="3">
-        <v>1600</v>
+        <v>2400</v>
       </c>
       <c r="K52" s="3">
         <v>1600</v>
       </c>
       <c r="L52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M52" s="3">
         <v>2300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>12900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8752200</v>
+        <v>7375900</v>
       </c>
       <c r="E54" s="3">
-        <v>7735500</v>
+        <v>6998900</v>
       </c>
       <c r="F54" s="3">
-        <v>9167000</v>
+        <v>6186000</v>
       </c>
       <c r="G54" s="3">
-        <v>6106000</v>
+        <v>8941700</v>
       </c>
       <c r="H54" s="3">
-        <v>5861900</v>
+        <v>4882800</v>
       </c>
       <c r="I54" s="3">
-        <v>5337200</v>
+        <v>4687700</v>
       </c>
       <c r="J54" s="3">
+        <v>4268100</v>
+      </c>
+      <c r="K54" s="3">
         <v>7083400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5044000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6098400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6207900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7808000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5677500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5010800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5173700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7760300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3377400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3840200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3688400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1321100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1331300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1196700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1279400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1254400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1125600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>358400</v>
+        <v>309200</v>
       </c>
       <c r="E57" s="3">
-        <v>281400</v>
+        <v>286600</v>
       </c>
       <c r="F57" s="3">
-        <v>418300</v>
+        <v>225000</v>
       </c>
       <c r="G57" s="3">
-        <v>274200</v>
+        <v>408000</v>
       </c>
       <c r="H57" s="3">
-        <v>267800</v>
+        <v>219300</v>
       </c>
       <c r="I57" s="3">
-        <v>275900</v>
+        <v>214100</v>
       </c>
       <c r="J57" s="3">
+        <v>220600</v>
+      </c>
+      <c r="K57" s="3">
         <v>370700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>245400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>263300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>306000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>431700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>315900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>249200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>262700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>477100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>327800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>313100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>267300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>263400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>244500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>228600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>236000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>235100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>254700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>433100</v>
+        <v>400500</v>
       </c>
       <c r="E58" s="3">
-        <v>415300</v>
+        <v>346400</v>
       </c>
       <c r="F58" s="3">
-        <v>356600</v>
+        <v>332100</v>
       </c>
       <c r="G58" s="3">
-        <v>356300</v>
+        <v>453100</v>
       </c>
       <c r="H58" s="3">
-        <v>277200</v>
+        <v>285000</v>
       </c>
       <c r="I58" s="3">
-        <v>250500</v>
+        <v>221600</v>
       </c>
       <c r="J58" s="3">
+        <v>200300</v>
+      </c>
+      <c r="K58" s="3">
         <v>298300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>205800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>638000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>365300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>378400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>260400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>235700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>167600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>341700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>679200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>554200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>401400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>57000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>33500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>23200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>19000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>81500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>559900</v>
+        <v>532800</v>
       </c>
       <c r="E59" s="3">
-        <v>472500</v>
+        <v>447700</v>
       </c>
       <c r="F59" s="3">
-        <v>631900</v>
+        <v>377800</v>
       </c>
       <c r="G59" s="3">
-        <v>311500</v>
+        <v>511200</v>
       </c>
       <c r="H59" s="3">
-        <v>239700</v>
+        <v>249100</v>
       </c>
       <c r="I59" s="3">
-        <v>216300</v>
+        <v>191700</v>
       </c>
       <c r="J59" s="3">
+        <v>173000</v>
+      </c>
+      <c r="K59" s="3">
         <v>335700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>232000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>278000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>240300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>351100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>228800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>187000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>237100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>296900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>151600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>166300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>215400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>184000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>192600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>159200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>163200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>115700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1351400</v>
+        <v>1242500</v>
       </c>
       <c r="E60" s="3">
-        <v>1169200</v>
+        <v>1080700</v>
       </c>
       <c r="F60" s="3">
-        <v>1406800</v>
+        <v>935000</v>
       </c>
       <c r="G60" s="3">
-        <v>942000</v>
+        <v>1372200</v>
       </c>
       <c r="H60" s="3">
-        <v>784600</v>
+        <v>753300</v>
       </c>
       <c r="I60" s="3">
-        <v>742700</v>
+        <v>627400</v>
       </c>
       <c r="J60" s="3">
+        <v>593900</v>
+      </c>
+      <c r="K60" s="3">
         <v>998900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>683200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1179300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>911500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1161200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>805000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>671900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>667400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1115700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1158600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1033600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>884200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>504400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>470600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>410900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>418200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>432300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>564500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1624200</v>
+        <v>1572900</v>
       </c>
       <c r="E61" s="3">
-        <v>1446500</v>
+        <v>1298800</v>
       </c>
       <c r="F61" s="3">
-        <v>1825200</v>
+        <v>1156700</v>
       </c>
       <c r="G61" s="3">
-        <v>1211600</v>
+        <v>1780400</v>
       </c>
       <c r="H61" s="3">
-        <v>1236600</v>
+        <v>968900</v>
       </c>
       <c r="I61" s="3">
-        <v>1143600</v>
+        <v>988900</v>
       </c>
       <c r="J61" s="3">
+        <v>914500</v>
+      </c>
+      <c r="K61" s="3">
         <v>1559400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1026000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1007600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1287700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1625800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1264000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>829100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>918600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1237300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>517600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>470600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>329000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>207400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>206300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>179900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>220400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>226400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1125900</v>
+        <v>1047900</v>
       </c>
       <c r="E62" s="3">
-        <v>998500</v>
+        <v>900400</v>
       </c>
       <c r="F62" s="3">
-        <v>1263300</v>
+        <v>798400</v>
       </c>
       <c r="G62" s="3">
-        <v>878600</v>
+        <v>1232300</v>
       </c>
       <c r="H62" s="3">
-        <v>827900</v>
+        <v>702600</v>
       </c>
       <c r="I62" s="3">
-        <v>653600</v>
+        <v>662000</v>
       </c>
       <c r="J62" s="3">
+        <v>522600</v>
+      </c>
+      <c r="K62" s="3">
         <v>862600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>594800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>671400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>681400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>835000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>572500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>477300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>419700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>681300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>195800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>316300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>338700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>61500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>63700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>63600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>70500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>75400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4169100</v>
+        <v>3928300</v>
       </c>
       <c r="E66" s="3">
-        <v>3675300</v>
+        <v>3333900</v>
       </c>
       <c r="F66" s="3">
-        <v>4568200</v>
+        <v>2939100</v>
       </c>
       <c r="G66" s="3">
-        <v>3080500</v>
+        <v>4455900</v>
       </c>
       <c r="H66" s="3">
-        <v>2893800</v>
+        <v>2463400</v>
       </c>
       <c r="I66" s="3">
-        <v>2586800</v>
+        <v>2314100</v>
       </c>
       <c r="J66" s="3">
+        <v>2068600</v>
+      </c>
+      <c r="K66" s="3">
         <v>3481200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2345000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2905500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2930000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3687900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2687600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2015800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2049600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3049000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1911800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1858700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1585600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>791500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>756400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>669100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>722600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>748200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>550100</v>
+        <v>-476400</v>
       </c>
       <c r="E72" s="3">
-        <v>506600</v>
+        <v>439900</v>
       </c>
       <c r="F72" s="3">
-        <v>422000</v>
+        <v>405100</v>
       </c>
       <c r="G72" s="3">
-        <v>227300</v>
+        <v>411600</v>
       </c>
       <c r="H72" s="3">
-        <v>400700</v>
+        <v>181800</v>
       </c>
       <c r="I72" s="3">
-        <v>344300</v>
+        <v>320400</v>
       </c>
       <c r="J72" s="3">
+        <v>275400</v>
+      </c>
+      <c r="K72" s="3">
         <v>388000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>462300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>572100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>486800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>582800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>498300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>734800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>780000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1156900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-147800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>46000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>187300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>224700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>53500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>127500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>275800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>225100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4583100</v>
+        <v>3447600</v>
       </c>
       <c r="E76" s="3">
-        <v>4060200</v>
+        <v>3665000</v>
       </c>
       <c r="F76" s="3">
-        <v>4598800</v>
+        <v>3246900</v>
       </c>
       <c r="G76" s="3">
-        <v>3025400</v>
+        <v>4485800</v>
       </c>
       <c r="H76" s="3">
-        <v>2968100</v>
+        <v>2419400</v>
       </c>
       <c r="I76" s="3">
-        <v>2750400</v>
+        <v>2373600</v>
       </c>
       <c r="J76" s="3">
+        <v>2199400</v>
+      </c>
+      <c r="K76" s="3">
         <v>3602300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2698900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3192900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3277900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4120100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2990000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2995100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3124100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4711300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1465600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1981400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2102800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>529600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>574900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>527600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>556800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>506200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>22900</v>
+        <v>-1013000</v>
       </c>
       <c r="E81" s="3">
-        <v>172200</v>
+        <v>190300</v>
       </c>
       <c r="F81" s="3">
-        <v>51800</v>
+        <v>137700</v>
       </c>
       <c r="G81" s="3">
-        <v>15900</v>
+        <v>41500</v>
       </c>
       <c r="H81" s="3">
-        <v>-119800</v>
+        <v>23300</v>
       </c>
       <c r="I81" s="3">
-        <v>99200</v>
+        <v>-20000</v>
       </c>
       <c r="J81" s="3">
+        <v>79400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-38200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-39100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>40000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>116000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-295200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>110800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>270100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-210000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>61500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>205800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>45600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>46500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>38100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>51200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>39400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>309700</v>
+        <v>364500</v>
       </c>
       <c r="E83" s="3">
-        <v>232200</v>
+        <v>433400</v>
       </c>
       <c r="F83" s="3">
-        <v>256900</v>
+        <v>185700</v>
       </c>
       <c r="G83" s="3">
-        <v>13700</v>
+        <v>-180400</v>
       </c>
       <c r="H83" s="3">
-        <v>329300</v>
+        <v>396700</v>
       </c>
       <c r="I83" s="3">
-        <v>238000</v>
+        <v>453600</v>
       </c>
       <c r="J83" s="3">
+        <v>190300</v>
+      </c>
+      <c r="K83" s="3">
         <v>253200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>244900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>458400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>229100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>267300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>223200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>349100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>181600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>235800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>194700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>312700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>138500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>41200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>39900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>39400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>43800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>44800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>243400</v>
+        <v>274000</v>
       </c>
       <c r="E89" s="3">
-        <v>229300</v>
+        <v>378000</v>
       </c>
       <c r="F89" s="3">
-        <v>246800</v>
+        <v>183400</v>
       </c>
       <c r="G89" s="3">
-        <v>-11900</v>
+        <v>-177500</v>
       </c>
       <c r="H89" s="3">
-        <v>309800</v>
+        <v>365300</v>
       </c>
       <c r="I89" s="3">
-        <v>266700</v>
+        <v>461000</v>
       </c>
       <c r="J89" s="3">
+        <v>213300</v>
+      </c>
+      <c r="K89" s="3">
         <v>258500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>279900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>652600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>228200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>350400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>314600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>508500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>284000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>172000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>171200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>436500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>223700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>86300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>109200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>120200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>145800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>131100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>82400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-124600</v>
+        <v>-152500</v>
       </c>
       <c r="E91" s="3">
-        <v>-138500</v>
+        <v>-210400</v>
       </c>
       <c r="F91" s="3">
-        <v>-154100</v>
+        <v>-110800</v>
       </c>
       <c r="G91" s="3">
-        <v>-111300</v>
+        <v>-123200</v>
       </c>
       <c r="H91" s="3">
-        <v>-103900</v>
+        <v>-89000</v>
       </c>
       <c r="I91" s="3">
-        <v>-89900</v>
+        <v>-155000</v>
       </c>
       <c r="J91" s="3">
+        <v>-71900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-121900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-79600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-108600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-178700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-107700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-229400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-95600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-241000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-125700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-207500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-93200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-66600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-70300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-55000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-68700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-84100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-80400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-221000</v>
+        <v>-203200</v>
       </c>
       <c r="E94" s="3">
-        <v>-236100</v>
+        <v>-365500</v>
       </c>
       <c r="F94" s="3">
-        <v>-190300</v>
+        <v>-188800</v>
       </c>
       <c r="G94" s="3">
-        <v>-160000</v>
+        <v>-152200</v>
       </c>
       <c r="H94" s="3">
-        <v>-281700</v>
+        <v>-128000</v>
       </c>
       <c r="I94" s="3">
-        <v>-86200</v>
+        <v>-294300</v>
       </c>
       <c r="J94" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-224300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-172000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-216600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-114800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-168300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-82000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-219500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-84800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-176800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-127800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-146100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-40600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-57300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-89000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-63500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-134800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-114300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-80300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-200</v>
+        <v>-1900</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-203500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-88300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-73100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-135900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2200</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-395900</v>
       </c>
       <c r="U96" s="3">
         <v>-395900</v>
       </c>
       <c r="V96" s="3">
+        <v>-395900</v>
+      </c>
+      <c r="W96" s="3">
         <v>-95800</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-400</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-43500</v>
+        <v>-38500</v>
       </c>
       <c r="E100" s="3">
-        <v>5800</v>
+        <v>-30200</v>
       </c>
       <c r="F100" s="3">
-        <v>-52200</v>
+        <v>4600</v>
       </c>
       <c r="G100" s="3">
-        <v>-55000</v>
+        <v>-41700</v>
       </c>
       <c r="H100" s="3">
-        <v>-3100</v>
+        <v>-44000</v>
       </c>
       <c r="I100" s="3">
-        <v>-16300</v>
+        <v>-15500</v>
       </c>
       <c r="J100" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-230000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-43000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>44400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-238900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>28300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-39600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-108900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-105200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-61500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-109400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>42500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-71400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>72500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3700</v>
+        <v>-5000</v>
       </c>
       <c r="E101" s="3">
-        <v>-8600</v>
+        <v>-9900</v>
       </c>
       <c r="F101" s="3">
-        <v>-3100</v>
+        <v>-6900</v>
       </c>
       <c r="G101" s="3">
-        <v>-7300</v>
+        <v>-2500</v>
       </c>
       <c r="H101" s="3">
-        <v>-4100</v>
+        <v>-5800</v>
       </c>
       <c r="I101" s="3">
-        <v>-2500</v>
+        <v>-5300</v>
       </c>
       <c r="J101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>14800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>24500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>30700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>22600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>27300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>36700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>4400</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-24800</v>
+        <v>27300</v>
       </c>
       <c r="E102" s="3">
-        <v>-9600</v>
+        <v>-27500</v>
       </c>
       <c r="F102" s="3">
-        <v>1200</v>
+        <v>-7700</v>
       </c>
       <c r="G102" s="3">
-        <v>-9300</v>
+        <v>900</v>
       </c>
       <c r="H102" s="3">
-        <v>-146100</v>
+        <v>-7500</v>
       </c>
       <c r="I102" s="3">
-        <v>103700</v>
+        <v>-34000</v>
       </c>
       <c r="J102" s="3">
+        <v>82900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-38100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-294000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>277500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>107900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-178000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>258200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>152900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>107900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-69700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>41900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>43400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>80400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-77200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>62100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>43700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-61800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>93600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>TEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,367 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>739700</v>
+        <v>1112900</v>
       </c>
       <c r="E8" s="3">
-        <v>1610400</v>
+        <v>638900</v>
       </c>
       <c r="F8" s="3">
-        <v>687000</v>
+        <v>1390900</v>
       </c>
       <c r="G8" s="3">
-        <v>661200</v>
+        <v>593400</v>
       </c>
       <c r="H8" s="3">
-        <v>879100</v>
+        <v>1261000</v>
       </c>
       <c r="I8" s="3">
-        <v>1796800</v>
+        <v>759300</v>
       </c>
       <c r="J8" s="3">
+        <v>1551900</v>
+      </c>
+      <c r="K8" s="3">
         <v>749400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>859600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>743900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1978500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>985400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1036700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>769800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1590200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>854800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1094000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>779500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1991100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>881600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>412800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>384000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>363400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>385900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>378900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>351500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>201700</v>
+        <v>303700</v>
       </c>
       <c r="E9" s="3">
-        <v>423100</v>
+        <v>174200</v>
       </c>
       <c r="F9" s="3">
-        <v>173000</v>
+        <v>365400</v>
       </c>
       <c r="G9" s="3">
-        <v>177100</v>
+        <v>149400</v>
       </c>
       <c r="H9" s="3">
-        <v>237000</v>
+        <v>345900</v>
       </c>
       <c r="I9" s="3">
-        <v>496300</v>
+        <v>204700</v>
       </c>
       <c r="J9" s="3">
+        <v>428700</v>
+      </c>
+      <c r="K9" s="3">
         <v>203000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>232200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>179700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>477600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>248700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>281000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>206200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>411800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>222500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>288000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>206800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>441500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>156600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>70700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>65400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>58000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>58300</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>65600</v>
       </c>
       <c r="AB9" s="3">
         <v>65600</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>65600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>538000</v>
+        <v>809300</v>
       </c>
       <c r="E10" s="3">
-        <v>1187300</v>
+        <v>464700</v>
       </c>
       <c r="F10" s="3">
-        <v>514100</v>
+        <v>1025500</v>
       </c>
       <c r="G10" s="3">
-        <v>484100</v>
+        <v>444000</v>
       </c>
       <c r="H10" s="3">
-        <v>642200</v>
+        <v>915200</v>
       </c>
       <c r="I10" s="3">
-        <v>1300500</v>
+        <v>554600</v>
       </c>
       <c r="J10" s="3">
+        <v>1123300</v>
+      </c>
+      <c r="K10" s="3">
         <v>546500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>627400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>564200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1500900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>736700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>755700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>563600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1178500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>632300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>806000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>572700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1549600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>725000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>342100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>318700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>305400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>327600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>313200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>285900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1054,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1135,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,168 +1218,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1036800</v>
+        <v>179700</v>
       </c>
       <c r="E14" s="3">
-        <v>42700</v>
+        <v>895500</v>
       </c>
       <c r="F14" s="3">
-        <v>15600</v>
+        <v>36900</v>
       </c>
       <c r="G14" s="3">
-        <v>18600</v>
+        <v>13500</v>
       </c>
       <c r="H14" s="3">
-        <v>25400</v>
+        <v>34100</v>
       </c>
       <c r="I14" s="3">
-        <v>24300</v>
+        <v>22000</v>
       </c>
       <c r="J14" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>25200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>40100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>7300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>23100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>73400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>59000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>10400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>269300</v>
+        <v>384800</v>
       </c>
       <c r="E15" s="3">
-        <v>528600</v>
+        <v>232600</v>
       </c>
       <c r="F15" s="3">
-        <v>217800</v>
+        <v>456600</v>
       </c>
       <c r="G15" s="3">
-        <v>205400</v>
+        <v>188100</v>
       </c>
       <c r="H15" s="3">
-        <v>297100</v>
+        <v>392800</v>
       </c>
       <c r="I15" s="3">
-        <v>553300</v>
+        <v>256600</v>
       </c>
       <c r="J15" s="3">
+        <v>477900</v>
+      </c>
+      <c r="K15" s="3">
         <v>223200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>253200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>211200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>501000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>254200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>267300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>197300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>375800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>191300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>236800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>163000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>352800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>151900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>41200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>39900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>39400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>43800</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>44800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1414,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1858800</v>
+        <v>1372700</v>
       </c>
       <c r="E17" s="3">
-        <v>1662300</v>
+        <v>1605500</v>
       </c>
       <c r="F17" s="3">
-        <v>679700</v>
+        <v>1435800</v>
       </c>
       <c r="G17" s="3">
-        <v>681000</v>
+        <v>587000</v>
       </c>
       <c r="H17" s="3">
-        <v>921200</v>
+        <v>1293800</v>
       </c>
       <c r="I17" s="3">
-        <v>1743800</v>
+        <v>795700</v>
       </c>
       <c r="J17" s="3">
+        <v>1506200</v>
+      </c>
+      <c r="K17" s="3">
         <v>700500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>853000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>701800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1759900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>894900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1018500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>713700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1433200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>768100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1034800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>687200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1635100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>701800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>341800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>311400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>295500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>310200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>318100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>304300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1119000</v>
+        <v>-259800</v>
       </c>
       <c r="E18" s="3">
-        <v>-52000</v>
+        <v>-966500</v>
       </c>
       <c r="F18" s="3">
-        <v>7400</v>
+        <v>-44900</v>
       </c>
       <c r="G18" s="3">
-        <v>-19800</v>
+        <v>6400</v>
       </c>
       <c r="H18" s="3">
-        <v>-42100</v>
+        <v>-32700</v>
       </c>
       <c r="I18" s="3">
-        <v>52900</v>
+        <v>-36400</v>
       </c>
       <c r="J18" s="3">
+        <v>45700</v>
+      </c>
+      <c r="K18" s="3">
         <v>48900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>218600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>90500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>56100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>157100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>86700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>59200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>92300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>356000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>179800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>71000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>72700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>67900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>75700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>60700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1611,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>146400</v>
+        <v>-14900</v>
       </c>
       <c r="E20" s="3">
-        <v>250200</v>
+        <v>126400</v>
       </c>
       <c r="F20" s="3">
-        <v>133000</v>
+        <v>216100</v>
       </c>
       <c r="G20" s="3">
-        <v>101300</v>
+        <v>114900</v>
       </c>
       <c r="H20" s="3">
-        <v>127600</v>
+        <v>191500</v>
       </c>
       <c r="I20" s="3">
-        <v>253100</v>
+        <v>110200</v>
       </c>
       <c r="J20" s="3">
+        <v>218600</v>
+      </c>
+      <c r="K20" s="3">
         <v>85700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-34300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>27900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>178000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-253300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>142500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>32900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>344500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-376400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-322500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>83500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>10000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-608200</v>
+        <v>110200</v>
       </c>
       <c r="E21" s="3">
-        <v>631600</v>
+        <v>-525300</v>
       </c>
       <c r="F21" s="3">
-        <v>326100</v>
+        <v>545500</v>
       </c>
       <c r="G21" s="3">
-        <v>-98900</v>
+        <v>281600</v>
       </c>
       <c r="H21" s="3">
-        <v>482300</v>
+        <v>551600</v>
       </c>
       <c r="I21" s="3">
-        <v>759700</v>
+        <v>416600</v>
       </c>
       <c r="J21" s="3">
+        <v>656200</v>
+      </c>
+      <c r="K21" s="3">
         <v>324900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>256500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>287600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>642700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>347500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>463500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>648600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>301200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>639500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-89300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>346300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>401800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>113500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>117000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>102900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>129500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>101700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>39700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>11900</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>47900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>28500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>23500</v>
+      </c>
+      <c r="L22" s="3">
+        <v>35800</v>
+      </c>
+      <c r="M22" s="3">
+        <v>32900</v>
+      </c>
+      <c r="N22" s="3">
+        <v>105000</v>
+      </c>
+      <c r="O22" s="3">
+        <v>50400</v>
+      </c>
+      <c r="P22" s="3">
+        <v>55100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>39200</v>
+      </c>
+      <c r="R22" s="3">
+        <v>58800</v>
+      </c>
+      <c r="S22" s="3">
+        <v>28900</v>
+      </c>
+      <c r="T22" s="3">
+        <v>35600</v>
+      </c>
+      <c r="U22" s="3">
+        <v>23200</v>
+      </c>
+      <c r="V22" s="3">
+        <v>39100</v>
+      </c>
+      <c r="W22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="X22" s="3">
         <v>6200</v>
       </c>
-      <c r="E22" s="3">
-        <v>13800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G22" s="3">
-        <v>25200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>33000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>66400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>23500</v>
-      </c>
-      <c r="K22" s="3">
-        <v>35800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>32900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>105000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>50400</v>
-      </c>
-      <c r="O22" s="3">
-        <v>55100</v>
-      </c>
-      <c r="P22" s="3">
-        <v>39200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>58800</v>
-      </c>
-      <c r="R22" s="3">
-        <v>28900</v>
-      </c>
-      <c r="S22" s="3">
-        <v>35600</v>
-      </c>
-      <c r="T22" s="3">
-        <v>23200</v>
-      </c>
-      <c r="U22" s="3">
-        <v>39100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>13000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>6200</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>6700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>10800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-978800</v>
+        <v>-314400</v>
       </c>
       <c r="E23" s="3">
-        <v>184400</v>
+        <v>-845400</v>
       </c>
       <c r="F23" s="3">
-        <v>138800</v>
+        <v>159300</v>
       </c>
       <c r="G23" s="3">
-        <v>56200</v>
+        <v>119900</v>
       </c>
       <c r="H23" s="3">
-        <v>52500</v>
+        <v>110900</v>
       </c>
       <c r="I23" s="3">
-        <v>239600</v>
+        <v>45300</v>
       </c>
       <c r="J23" s="3">
+        <v>207000</v>
+      </c>
+      <c r="K23" s="3">
         <v>111100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-32500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>79200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>68000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>141100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-236400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>240800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>90700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>368100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-307200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>250300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>66200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>72300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>59000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>79000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>46000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>31100</v>
+        <v>-132800</v>
       </c>
       <c r="E24" s="3">
-        <v>-9600</v>
+        <v>26800</v>
       </c>
       <c r="F24" s="3">
-        <v>-200</v>
+        <v>-8300</v>
       </c>
       <c r="G24" s="3">
-        <v>11800</v>
+        <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>26400</v>
+        <v>35500</v>
       </c>
       <c r="I24" s="3">
-        <v>256300</v>
+        <v>22800</v>
       </c>
       <c r="J24" s="3">
+        <v>221400</v>
+      </c>
+      <c r="K24" s="3">
         <v>29300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>47000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>49600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>26600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>57400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>127900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>66000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>94000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-97200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-68300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>44000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>19600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>25100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>20700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>27500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2107,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1009900</v>
+        <v>-181600</v>
       </c>
       <c r="E26" s="3">
-        <v>194000</v>
+        <v>-872300</v>
       </c>
       <c r="F26" s="3">
-        <v>139000</v>
+        <v>167600</v>
       </c>
       <c r="G26" s="3">
-        <v>44500</v>
+        <v>120000</v>
       </c>
       <c r="H26" s="3">
-        <v>26100</v>
+        <v>75400</v>
       </c>
       <c r="I26" s="3">
-        <v>-16700</v>
+        <v>22500</v>
       </c>
       <c r="J26" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="K26" s="3">
         <v>81800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-36200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-37300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>29600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>41500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>119600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-293800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>112900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>24700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>274100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-210100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>62700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>206300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>46500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>47200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>38400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>51500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>39500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1013000</v>
+        <v>-185200</v>
       </c>
       <c r="E27" s="3">
-        <v>190300</v>
+        <v>-874900</v>
       </c>
       <c r="F27" s="3">
-        <v>137700</v>
+        <v>164300</v>
       </c>
       <c r="G27" s="3">
-        <v>41500</v>
+        <v>118900</v>
       </c>
       <c r="H27" s="3">
-        <v>23300</v>
+        <v>69900</v>
       </c>
       <c r="I27" s="3">
-        <v>-20000</v>
+        <v>20100</v>
       </c>
       <c r="J27" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K27" s="3">
         <v>79400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-38200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-39100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>40000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>116000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-295200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>110800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>270100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-210000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>61500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>205800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>45600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>46500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>38100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>51200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>39400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2356,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2439,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2522,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2605,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-146400</v>
+        <v>14900</v>
       </c>
       <c r="E32" s="3">
-        <v>-250200</v>
+        <v>-126400</v>
       </c>
       <c r="F32" s="3">
-        <v>-133000</v>
+        <v>-216100</v>
       </c>
       <c r="G32" s="3">
-        <v>-101300</v>
+        <v>-114900</v>
       </c>
       <c r="H32" s="3">
-        <v>-127600</v>
+        <v>-191500</v>
       </c>
       <c r="I32" s="3">
-        <v>-253100</v>
+        <v>-110200</v>
       </c>
       <c r="J32" s="3">
+        <v>-218600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-85700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>34300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-27900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-178000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>253300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-142500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-32900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-344500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>376400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>322500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-83500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-10000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1013000</v>
+        <v>-185200</v>
       </c>
       <c r="E33" s="3">
-        <v>190300</v>
+        <v>-874900</v>
       </c>
       <c r="F33" s="3">
-        <v>137700</v>
+        <v>164300</v>
       </c>
       <c r="G33" s="3">
-        <v>41500</v>
+        <v>118900</v>
       </c>
       <c r="H33" s="3">
-        <v>23300</v>
+        <v>69900</v>
       </c>
       <c r="I33" s="3">
-        <v>-20000</v>
+        <v>20100</v>
       </c>
       <c r="J33" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K33" s="3">
         <v>79400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-38200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-39100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>40000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>116000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-295200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>110800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>270100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-210000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>61500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>205800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>45600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>46500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>38100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>51200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>39400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2854,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1013000</v>
+        <v>-185200</v>
       </c>
       <c r="E35" s="3">
-        <v>190300</v>
+        <v>-874900</v>
       </c>
       <c r="F35" s="3">
-        <v>137700</v>
+        <v>164300</v>
       </c>
       <c r="G35" s="3">
-        <v>41500</v>
+        <v>118900</v>
       </c>
       <c r="H35" s="3">
-        <v>23300</v>
+        <v>69900</v>
       </c>
       <c r="I35" s="3">
-        <v>-20000</v>
+        <v>20100</v>
       </c>
       <c r="J35" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K35" s="3">
         <v>79400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-38200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-39100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>40000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>116000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-295200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>110800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>270100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-210000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>61500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>205800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>45600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>46500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>38100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>51200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>39400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3058,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3089,756 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>164300</v>
+        <v>172600</v>
       </c>
       <c r="E41" s="3">
-        <v>107400</v>
+        <v>141900</v>
       </c>
       <c r="F41" s="3">
-        <v>107300</v>
+        <v>92700</v>
       </c>
       <c r="G41" s="3">
-        <v>164500</v>
+        <v>92700</v>
       </c>
       <c r="H41" s="3">
-        <v>85200</v>
+        <v>166600</v>
       </c>
       <c r="I41" s="3">
-        <v>81900</v>
+        <v>73600</v>
       </c>
       <c r="J41" s="3">
+        <v>70700</v>
+      </c>
+      <c r="K41" s="3">
         <v>157900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>174500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>153500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>451800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>349200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>345500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>398400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>199200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>167000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>211900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>132100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>115000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>129700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>64900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>142200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>80100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>41500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>103300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31200</v>
+        <v>36100</v>
       </c>
       <c r="E42" s="3">
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="F42" s="3">
-        <v>125200</v>
+        <v>20700</v>
       </c>
       <c r="G42" s="3">
-        <v>89400</v>
+        <v>108100</v>
       </c>
       <c r="H42" s="3">
-        <v>41000</v>
+        <v>90600</v>
       </c>
       <c r="I42" s="3">
-        <v>172300</v>
+        <v>35400</v>
       </c>
       <c r="J42" s="3">
+        <v>148800</v>
+      </c>
+      <c r="K42" s="3">
         <v>27100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>48700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>131700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>8000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>20300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>22700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>28600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>89800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>71200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>50600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>78600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>44500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>37200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>112600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>45800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>183200</v>
+        <v>222700</v>
       </c>
       <c r="E43" s="3">
-        <v>162700</v>
+        <v>158200</v>
       </c>
       <c r="F43" s="3">
-        <v>151200</v>
+        <v>140500</v>
       </c>
       <c r="G43" s="3">
-        <v>217900</v>
+        <v>130600</v>
       </c>
       <c r="H43" s="3">
-        <v>110000</v>
+        <v>220900</v>
       </c>
       <c r="I43" s="3">
-        <v>117300</v>
+        <v>95000</v>
       </c>
       <c r="J43" s="3">
+        <v>101400</v>
+      </c>
+      <c r="K43" s="3">
         <v>136000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>228900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>147400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>187400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>225700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>275200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>219500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>198900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>239000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>439500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>233200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>241900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>201100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>219600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>192400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>188200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>221100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>208600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>222000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25200</v>
+        <v>27800</v>
       </c>
       <c r="E44" s="3">
-        <v>24100</v>
+        <v>21800</v>
       </c>
       <c r="F44" s="3">
-        <v>11200</v>
+        <v>20800</v>
       </c>
       <c r="G44" s="3">
-        <v>25800</v>
+        <v>9700</v>
       </c>
       <c r="H44" s="3">
-        <v>16700</v>
+        <v>26200</v>
       </c>
       <c r="I44" s="3">
-        <v>16600</v>
+        <v>14400</v>
       </c>
       <c r="J44" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K44" s="3">
         <v>19300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>35100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>22400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>21400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>44200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>36700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>35000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>38400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>57100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>38400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>39300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>33300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>42500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>44800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>28700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>32200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>33500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>35100</v>
+        <v>27700</v>
       </c>
       <c r="E45" s="3">
-        <v>39800</v>
+        <v>30400</v>
       </c>
       <c r="F45" s="3">
-        <v>37000</v>
+        <v>34300</v>
       </c>
       <c r="G45" s="3">
-        <v>42300</v>
+        <v>32000</v>
       </c>
       <c r="H45" s="3">
-        <v>20700</v>
+        <v>42900</v>
       </c>
       <c r="I45" s="3">
-        <v>19500</v>
+        <v>17900</v>
       </c>
       <c r="J45" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K45" s="3">
         <v>14500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>17900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>31000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>22100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>14900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>16500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>19600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>16200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>439100</v>
+        <v>486900</v>
       </c>
       <c r="E46" s="3">
-        <v>357800</v>
+        <v>379300</v>
       </c>
       <c r="F46" s="3">
-        <v>432000</v>
+        <v>309100</v>
       </c>
       <c r="G46" s="3">
-        <v>539900</v>
+        <v>373100</v>
       </c>
       <c r="H46" s="3">
-        <v>273600</v>
+        <v>547000</v>
       </c>
       <c r="I46" s="3">
-        <v>407700</v>
+        <v>236300</v>
       </c>
       <c r="J46" s="3">
+        <v>352100</v>
+      </c>
+      <c r="K46" s="3">
         <v>354800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>501700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>469100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>704400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>638800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>685800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>683700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>468700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>485000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>699100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>516100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>489600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>436800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>418400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>438700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>350600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>426900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>407400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>324600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>37000</v>
+        <v>42200</v>
       </c>
       <c r="E47" s="3">
-        <v>29500</v>
+        <v>32000</v>
       </c>
       <c r="F47" s="3">
-        <v>24700</v>
+        <v>25500</v>
       </c>
       <c r="G47" s="3">
-        <v>36200</v>
+        <v>21300</v>
       </c>
       <c r="H47" s="3">
-        <v>20200</v>
+        <v>36800</v>
       </c>
       <c r="I47" s="3">
-        <v>18200</v>
+        <v>17500</v>
       </c>
       <c r="J47" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K47" s="3">
         <v>21100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>38200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>27200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>36500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>40700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>53500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>40000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>63300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>77400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>250700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>89200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>72800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>54000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>77900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>116300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>102000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>35400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>34100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3674600</v>
+        <v>3688200</v>
       </c>
       <c r="E48" s="3">
-        <v>3096700</v>
+        <v>3173800</v>
       </c>
       <c r="F48" s="3">
-        <v>2715800</v>
+        <v>2674700</v>
       </c>
       <c r="G48" s="3">
-        <v>4015800</v>
+        <v>2345700</v>
       </c>
       <c r="H48" s="3">
-        <v>2190300</v>
+        <v>4068400</v>
       </c>
       <c r="I48" s="3">
-        <v>2057500</v>
+        <v>1891900</v>
       </c>
       <c r="J48" s="3">
+        <v>1777100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1896100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3189500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2206700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2594600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2681200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3450500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2371500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2102300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2139500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5958500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1323300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1513900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1432000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>654700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>604100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>567200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>615900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>606500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>575800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3216600</v>
+        <v>3230600</v>
       </c>
       <c r="E49" s="3">
-        <v>3506400</v>
+        <v>2778200</v>
       </c>
       <c r="F49" s="3">
-        <v>3004500</v>
+        <v>3028600</v>
       </c>
       <c r="G49" s="3">
-        <v>4335900</v>
+        <v>2595100</v>
       </c>
       <c r="H49" s="3">
-        <v>2387200</v>
+        <v>4392700</v>
       </c>
       <c r="I49" s="3">
-        <v>2197300</v>
+        <v>2061900</v>
       </c>
       <c r="J49" s="3">
+        <v>1897900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1993600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3352500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2339400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2760600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2843800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3615200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2580300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2374400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2467700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4866900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1441900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1751000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1755000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>162800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>165000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>169300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>193400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>198800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3917,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4000,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8600</v>
+        <v>3900</v>
       </c>
       <c r="E52" s="3">
-        <v>8500</v>
+        <v>7400</v>
       </c>
       <c r="F52" s="3">
-        <v>9000</v>
+        <v>7400</v>
       </c>
       <c r="G52" s="3">
-        <v>13800</v>
+        <v>7700</v>
       </c>
       <c r="H52" s="3">
-        <v>11400</v>
+        <v>14000</v>
       </c>
       <c r="I52" s="3">
-        <v>7000</v>
+        <v>9800</v>
       </c>
       <c r="J52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2400</v>
-      </c>
-      <c r="K52" s="3">
-        <v>1600</v>
       </c>
       <c r="L52" s="3">
         <v>1600</v>
       </c>
       <c r="M52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N52" s="3">
         <v>2300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>12900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>7200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4166,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7375900</v>
+        <v>7451900</v>
       </c>
       <c r="E54" s="3">
-        <v>6998900</v>
+        <v>6370800</v>
       </c>
       <c r="F54" s="3">
-        <v>6186000</v>
+        <v>6045200</v>
       </c>
       <c r="G54" s="3">
-        <v>8941700</v>
+        <v>5343000</v>
       </c>
       <c r="H54" s="3">
-        <v>4882800</v>
+        <v>9058800</v>
       </c>
       <c r="I54" s="3">
-        <v>4687700</v>
+        <v>4217400</v>
       </c>
       <c r="J54" s="3">
+        <v>4048900</v>
+      </c>
+      <c r="K54" s="3">
         <v>4268100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7083400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5044000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6098400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6207900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7808000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5677500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5010800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5173700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7760300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3377400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3840200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3688400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1321100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1331300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1196700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1279400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1254400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1125600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4282,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4313,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>309200</v>
+        <v>384700</v>
       </c>
       <c r="E57" s="3">
-        <v>286600</v>
+        <v>267100</v>
       </c>
       <c r="F57" s="3">
-        <v>225000</v>
+        <v>247500</v>
       </c>
       <c r="G57" s="3">
-        <v>408000</v>
+        <v>194400</v>
       </c>
       <c r="H57" s="3">
-        <v>219300</v>
+        <v>413300</v>
       </c>
       <c r="I57" s="3">
-        <v>214100</v>
+        <v>189400</v>
       </c>
       <c r="J57" s="3">
+        <v>185000</v>
+      </c>
+      <c r="K57" s="3">
         <v>220600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>370700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>245400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>263300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>306000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>431700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>315900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>249200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>262700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>477100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>327800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>313100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>267300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>263400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>244500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>228600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>236000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>235100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>254700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400500</v>
+        <v>472300</v>
       </c>
       <c r="E58" s="3">
-        <v>346400</v>
+        <v>345900</v>
       </c>
       <c r="F58" s="3">
-        <v>332100</v>
+        <v>299200</v>
       </c>
       <c r="G58" s="3">
-        <v>453100</v>
+        <v>286900</v>
       </c>
       <c r="H58" s="3">
-        <v>285000</v>
+        <v>459000</v>
       </c>
       <c r="I58" s="3">
-        <v>221600</v>
+        <v>246100</v>
       </c>
       <c r="J58" s="3">
+        <v>191400</v>
+      </c>
+      <c r="K58" s="3">
         <v>200300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>298300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>205800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>638000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>365300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>378400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>260400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>235700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>167600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>341700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>679200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>554200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>401400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>57000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>33500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>23200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>19000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>81500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>532800</v>
+        <v>385700</v>
       </c>
       <c r="E59" s="3">
-        <v>447700</v>
+        <v>460200</v>
       </c>
       <c r="F59" s="3">
-        <v>377800</v>
+        <v>386700</v>
       </c>
       <c r="G59" s="3">
-        <v>511200</v>
+        <v>326300</v>
       </c>
       <c r="H59" s="3">
-        <v>249100</v>
+        <v>517900</v>
       </c>
       <c r="I59" s="3">
-        <v>191700</v>
+        <v>215100</v>
       </c>
       <c r="J59" s="3">
+        <v>165500</v>
+      </c>
+      <c r="K59" s="3">
         <v>173000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>335700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>232000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>278000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>240300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>351100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>228800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>187000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>237100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>296900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>151600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>166300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>215400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>184000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>192600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>159200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>163200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>115700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1242500</v>
+        <v>1242600</v>
       </c>
       <c r="E60" s="3">
-        <v>1080700</v>
+        <v>1073200</v>
       </c>
       <c r="F60" s="3">
-        <v>935000</v>
+        <v>933400</v>
       </c>
       <c r="G60" s="3">
-        <v>1372200</v>
+        <v>807600</v>
       </c>
       <c r="H60" s="3">
-        <v>753300</v>
+        <v>1390200</v>
       </c>
       <c r="I60" s="3">
-        <v>627400</v>
+        <v>650700</v>
       </c>
       <c r="J60" s="3">
+        <v>541900</v>
+      </c>
+      <c r="K60" s="3">
         <v>593900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>998900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>683200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1179300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>911500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1161200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>805000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>671900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>667400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1115700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1158600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1033600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>884200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>504400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>470600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>410900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>418200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>432300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>564500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1572900</v>
+        <v>1528000</v>
       </c>
       <c r="E61" s="3">
-        <v>1298800</v>
+        <v>1358600</v>
       </c>
       <c r="F61" s="3">
-        <v>1156700</v>
+        <v>1121800</v>
       </c>
       <c r="G61" s="3">
-        <v>1780400</v>
+        <v>999100</v>
       </c>
       <c r="H61" s="3">
-        <v>968900</v>
+        <v>1803700</v>
       </c>
       <c r="I61" s="3">
-        <v>988900</v>
+        <v>836900</v>
       </c>
       <c r="J61" s="3">
+        <v>854100</v>
+      </c>
+      <c r="K61" s="3">
         <v>914500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1559400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1026000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1007600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1287700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1625800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1264000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>829100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>918600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1237300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>517600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>470600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>329000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>207400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>206300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>179900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>220400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>226400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1047900</v>
+        <v>1179200</v>
       </c>
       <c r="E62" s="3">
-        <v>900400</v>
+        <v>905100</v>
       </c>
       <c r="F62" s="3">
-        <v>798400</v>
+        <v>777700</v>
       </c>
       <c r="G62" s="3">
-        <v>1232300</v>
+        <v>689600</v>
       </c>
       <c r="H62" s="3">
-        <v>702600</v>
+        <v>1248400</v>
       </c>
       <c r="I62" s="3">
-        <v>662000</v>
+        <v>606800</v>
       </c>
       <c r="J62" s="3">
+        <v>571800</v>
+      </c>
+      <c r="K62" s="3">
         <v>522600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>862600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>594800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>671400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>681400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>835000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>572500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>477300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>419700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>681300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>195800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>316300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>338700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>61500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>63700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>63600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>70500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>75400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4892,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4975,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5058,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3928300</v>
+        <v>4019600</v>
       </c>
       <c r="E66" s="3">
-        <v>3333900</v>
+        <v>3393000</v>
       </c>
       <c r="F66" s="3">
-        <v>2939100</v>
+        <v>2879600</v>
       </c>
       <c r="G66" s="3">
-        <v>4455900</v>
+        <v>2538600</v>
       </c>
       <c r="H66" s="3">
-        <v>2463400</v>
+        <v>4514200</v>
       </c>
       <c r="I66" s="3">
-        <v>2314100</v>
+        <v>2127700</v>
       </c>
       <c r="J66" s="3">
+        <v>1998800</v>
+      </c>
+      <c r="K66" s="3">
         <v>2068600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3481200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2345000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2905500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2930000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3687900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2687600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2015800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2049600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3049000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1911800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1858700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1585600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>791500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>756400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>669100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>722600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>748200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5174,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5255,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5338,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5421,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5504,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-476400</v>
+        <v>-544900</v>
       </c>
       <c r="E72" s="3">
-        <v>439900</v>
+        <v>-411400</v>
       </c>
       <c r="F72" s="3">
-        <v>405100</v>
+        <v>380000</v>
       </c>
       <c r="G72" s="3">
-        <v>411600</v>
+        <v>349900</v>
       </c>
       <c r="H72" s="3">
-        <v>181800</v>
+        <v>417000</v>
       </c>
       <c r="I72" s="3">
-        <v>320400</v>
+        <v>157000</v>
       </c>
       <c r="J72" s="3">
+        <v>276800</v>
+      </c>
+      <c r="K72" s="3">
         <v>275400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>388000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>462300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>572100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>486800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>582800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>498300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>734800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>780000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1156900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-147800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>46000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>187300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>224700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>53500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>127500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>275800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>225100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5670,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5753,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5836,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3447600</v>
+        <v>3432200</v>
       </c>
       <c r="E76" s="3">
-        <v>3665000</v>
+        <v>2977800</v>
       </c>
       <c r="F76" s="3">
-        <v>3246900</v>
+        <v>3165600</v>
       </c>
       <c r="G76" s="3">
-        <v>4485800</v>
+        <v>2804400</v>
       </c>
       <c r="H76" s="3">
-        <v>2419400</v>
+        <v>4544500</v>
       </c>
       <c r="I76" s="3">
-        <v>2373600</v>
+        <v>2089700</v>
       </c>
       <c r="J76" s="3">
+        <v>2050100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2199400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3602300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2698900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3192900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3277900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4120100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2990000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2995100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3124100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4711300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1465600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1981400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2102800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>529600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>574900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>527600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>556800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>506200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6002,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1013000</v>
+        <v>-185200</v>
       </c>
       <c r="E81" s="3">
-        <v>190300</v>
+        <v>-874900</v>
       </c>
       <c r="F81" s="3">
-        <v>137700</v>
+        <v>164300</v>
       </c>
       <c r="G81" s="3">
-        <v>41500</v>
+        <v>118900</v>
       </c>
       <c r="H81" s="3">
-        <v>23300</v>
+        <v>69900</v>
       </c>
       <c r="I81" s="3">
-        <v>-20000</v>
+        <v>20100</v>
       </c>
       <c r="J81" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="K81" s="3">
         <v>79400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-38200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-39100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>40000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>116000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-295200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>110800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>270100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-210000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>61500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>205800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>45600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>46500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>38100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>51200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>39400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6206,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>364500</v>
+        <v>384800</v>
       </c>
       <c r="E83" s="3">
-        <v>433400</v>
+        <v>314800</v>
       </c>
       <c r="F83" s="3">
-        <v>185700</v>
+        <v>374300</v>
       </c>
       <c r="G83" s="3">
-        <v>-180400</v>
+        <v>160400</v>
       </c>
       <c r="H83" s="3">
-        <v>396700</v>
+        <v>392800</v>
       </c>
       <c r="I83" s="3">
-        <v>453600</v>
+        <v>342700</v>
       </c>
       <c r="J83" s="3">
+        <v>391800</v>
+      </c>
+      <c r="K83" s="3">
         <v>190300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>253200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>244900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>458400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>229100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>267300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>223200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>349100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>181600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>235800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>194700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>312700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>138500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>41200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>39900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>39400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>43800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>44800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6370,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6453,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6536,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6619,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6702,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>274000</v>
+        <v>359300</v>
       </c>
       <c r="E89" s="3">
+        <v>236600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>326500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>158400</v>
+      </c>
+      <c r="H89" s="3">
         <v>378000</v>
       </c>
-      <c r="F89" s="3">
-        <v>183400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-177500</v>
-      </c>
-      <c r="H89" s="3">
-        <v>365300</v>
-      </c>
       <c r="I89" s="3">
-        <v>461000</v>
+        <v>315500</v>
       </c>
       <c r="J89" s="3">
+        <v>398200</v>
+      </c>
+      <c r="K89" s="3">
         <v>213300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>258500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>279900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>652600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>228200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>350400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>314600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>508500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>284000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>172000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>171200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>436500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>223700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>86300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>109200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>120200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>145800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>131100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>82400</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6818,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-152500</v>
+        <v>-46181000</v>
       </c>
       <c r="E91" s="3">
-        <v>-210400</v>
+        <v>-32660000</v>
       </c>
       <c r="F91" s="3">
-        <v>-110800</v>
+        <v>-20859000</v>
       </c>
       <c r="G91" s="3">
-        <v>-123200</v>
+        <v>-22775000</v>
       </c>
       <c r="H91" s="3">
-        <v>-89000</v>
+        <v>-55524000</v>
       </c>
       <c r="I91" s="3">
-        <v>-155000</v>
+        <v>-40211000</v>
       </c>
       <c r="J91" s="3">
+        <v>-29534000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-71900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-121900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-79600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-108600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-178700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-107700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-229400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-95600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-241000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-125700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-207500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-93200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-66600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-70300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-55000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-68700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-84100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-80400</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6982,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7065,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-203200</v>
+        <v>-223700</v>
       </c>
       <c r="E94" s="3">
-        <v>-365500</v>
+        <v>-175500</v>
       </c>
       <c r="F94" s="3">
-        <v>-188800</v>
+        <v>-315700</v>
       </c>
       <c r="G94" s="3">
-        <v>-152200</v>
+        <v>-163100</v>
       </c>
       <c r="H94" s="3">
-        <v>-128000</v>
+        <v>-131500</v>
       </c>
       <c r="I94" s="3">
-        <v>-294300</v>
+        <v>-110500</v>
       </c>
       <c r="J94" s="3">
+        <v>-254200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-69000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-224300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-172000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-216600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-114800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-168300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-82000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-219500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-84800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-176800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-127800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-146100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-40600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-57300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-89000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-63500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-134800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-114300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-80300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7181,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3000</v>
+        <v>-800</v>
       </c>
       <c r="E96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-203500</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-73100</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-135900</v>
+      </c>
+      <c r="U96" s="3">
         <v>-2200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-203500</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-88300</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-73100</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-135900</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-395900</v>
       </c>
       <c r="V96" s="3">
         <v>-395900</v>
       </c>
       <c r="W96" s="3">
+        <v>-395900</v>
+      </c>
+      <c r="X96" s="3">
         <v>-95800</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-400</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7345,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7428,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7511,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-38500</v>
+        <v>-138100</v>
       </c>
       <c r="E100" s="3">
-        <v>-30200</v>
+        <v>-33300</v>
       </c>
       <c r="F100" s="3">
-        <v>4600</v>
+        <v>-26100</v>
       </c>
       <c r="G100" s="3">
-        <v>-41700</v>
+        <v>4000</v>
       </c>
       <c r="H100" s="3">
-        <v>-44000</v>
+        <v>-36100</v>
       </c>
       <c r="I100" s="3">
-        <v>-15500</v>
+        <v>-38000</v>
       </c>
       <c r="J100" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-13100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-230000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-43000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>44400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-238900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>28300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-39600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-108900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-105200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-61500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-109400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>42500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-71400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>72500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-5300</v>
-      </c>
       <c r="J101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>14800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>24500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>30700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-15700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>22600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>27300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>36700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>6800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>4400</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27300</v>
+        <v>6100</v>
       </c>
       <c r="E102" s="3">
-        <v>-27500</v>
+        <v>23600</v>
       </c>
       <c r="F102" s="3">
-        <v>-7700</v>
+        <v>-23700</v>
       </c>
       <c r="G102" s="3">
-        <v>900</v>
+        <v>-6600</v>
       </c>
       <c r="H102" s="3">
-        <v>-7500</v>
+        <v>800</v>
       </c>
       <c r="I102" s="3">
-        <v>-34000</v>
+        <v>-6500</v>
       </c>
       <c r="J102" s="3">
+        <v>-29300</v>
+      </c>
+      <c r="K102" s="3">
         <v>82900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-38100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-294000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>277500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>107900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-178000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>258200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>152900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>107900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-69700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>41900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>43400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>80400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-77200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>62100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>43700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-61800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>93600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>TEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,367 +665,391 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1112900</v>
+        <v>718900</v>
       </c>
       <c r="E8" s="3">
-        <v>638900</v>
+        <v>760500</v>
       </c>
       <c r="F8" s="3">
-        <v>1390900</v>
+        <v>738500</v>
       </c>
       <c r="G8" s="3">
-        <v>593400</v>
+        <v>424000</v>
       </c>
       <c r="H8" s="3">
-        <v>1261000</v>
+        <v>923000</v>
       </c>
       <c r="I8" s="3">
+        <v>393800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>836800</v>
+      </c>
+      <c r="K8" s="3">
         <v>759300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1551900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>749400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>859600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>743900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1978500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>985400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1036700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>769800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1590200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>854800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1094000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>779500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1991100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>881600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>412800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>384000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>363400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>385900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>378900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>351500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>303700</v>
+        <v>205800</v>
       </c>
       <c r="E9" s="3">
-        <v>174200</v>
+        <v>195000</v>
       </c>
       <c r="F9" s="3">
-        <v>365400</v>
+        <v>201500</v>
       </c>
       <c r="G9" s="3">
-        <v>149400</v>
+        <v>115600</v>
       </c>
       <c r="H9" s="3">
-        <v>345900</v>
+        <v>242500</v>
       </c>
       <c r="I9" s="3">
+        <v>99100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>229500</v>
+      </c>
+      <c r="K9" s="3">
         <v>204700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>428700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>203000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>232200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>179700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>477600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>248700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>281000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>206200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>411800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>222500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>288000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>206800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>441500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>156600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>70700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>65400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>58000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>58300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>65600</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>809300</v>
+        <v>513100</v>
       </c>
       <c r="E10" s="3">
-        <v>464700</v>
+        <v>565500</v>
       </c>
       <c r="F10" s="3">
-        <v>1025500</v>
+        <v>537000</v>
       </c>
       <c r="G10" s="3">
-        <v>444000</v>
+        <v>308400</v>
       </c>
       <c r="H10" s="3">
-        <v>915200</v>
+        <v>680500</v>
       </c>
       <c r="I10" s="3">
+        <v>294600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>607300</v>
+      </c>
+      <c r="K10" s="3">
         <v>554600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1123300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>546500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>627400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>564200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1500900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>736700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>755700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>563600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1178500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>632300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>806000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>572700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1549600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>725000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>342100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>318700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>305400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>327600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>313200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>285900</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,8 +1079,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1138,8 +1164,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1221,174 +1253,192 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>179700</v>
+        <v>15200</v>
       </c>
       <c r="E14" s="3">
-        <v>895500</v>
+        <v>5800</v>
       </c>
       <c r="F14" s="3">
-        <v>36900</v>
+        <v>119200</v>
       </c>
       <c r="G14" s="3">
-        <v>13500</v>
+        <v>594300</v>
       </c>
       <c r="H14" s="3">
-        <v>34100</v>
+        <v>24500</v>
       </c>
       <c r="I14" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K14" s="3">
         <v>22000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>21000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>6700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>25200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>5200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>40100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>5300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>7300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>5400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>23100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>6100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>73400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>59000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>10400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>2100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>3100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>5900</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AD14" s="3">
         <v>2000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AE14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>384800</v>
+        <v>248400</v>
       </c>
       <c r="E15" s="3">
-        <v>232600</v>
+        <v>240200</v>
       </c>
       <c r="F15" s="3">
-        <v>456600</v>
+        <v>255400</v>
       </c>
       <c r="G15" s="3">
-        <v>188100</v>
+        <v>154300</v>
       </c>
       <c r="H15" s="3">
-        <v>392800</v>
+        <v>303000</v>
       </c>
       <c r="I15" s="3">
+        <v>124800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>260600</v>
+      </c>
+      <c r="K15" s="3">
         <v>256600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>477900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>223200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>253200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>211200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>501000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>254200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>267300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>197300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>375800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>191300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>236800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>163000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>352800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>151900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>41200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>39900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>39400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>43800</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AD15" s="3">
         <v>44800</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AE15" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1415,174 +1465,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1372700</v>
+        <v>776900</v>
       </c>
       <c r="E17" s="3">
-        <v>1605500</v>
+        <v>771400</v>
       </c>
       <c r="F17" s="3">
-        <v>1435800</v>
+        <v>910900</v>
       </c>
       <c r="G17" s="3">
-        <v>587000</v>
+        <v>1065300</v>
       </c>
       <c r="H17" s="3">
-        <v>1293800</v>
+        <v>952800</v>
       </c>
       <c r="I17" s="3">
+        <v>389500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>858500</v>
+      </c>
+      <c r="K17" s="3">
         <v>795700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1506200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>700500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>853000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>701800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1759900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>894900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1018500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>713700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1433200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>768100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1034800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>687200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1635100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>701800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>341800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>311400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>295500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>310200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>318100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>304300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-259800</v>
+        <v>-58100</v>
       </c>
       <c r="E18" s="3">
-        <v>-966500</v>
+        <v>-10900</v>
       </c>
       <c r="F18" s="3">
-        <v>-44900</v>
+        <v>-172400</v>
       </c>
       <c r="G18" s="3">
-        <v>6400</v>
+        <v>-641400</v>
       </c>
       <c r="H18" s="3">
-        <v>-32700</v>
+        <v>-29800</v>
       </c>
       <c r="I18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-36400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>45700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>48900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>6600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>42100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>218600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>90500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>18200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>56100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>157100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>86700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>59200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>92300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>356000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>179800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>71000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>72700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>67900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>75700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>60700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1612,423 +1676,455 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14900</v>
+        <v>31600</v>
       </c>
       <c r="E20" s="3">
-        <v>126400</v>
+        <v>80900</v>
       </c>
       <c r="F20" s="3">
-        <v>216100</v>
+        <v>-9900</v>
       </c>
       <c r="G20" s="3">
-        <v>114900</v>
+        <v>83900</v>
       </c>
       <c r="H20" s="3">
-        <v>191500</v>
+        <v>143400</v>
       </c>
       <c r="I20" s="3">
+        <v>76200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>127100</v>
+      </c>
+      <c r="K20" s="3">
         <v>110200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>218600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>85700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-3400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-34300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>27900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>178000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-253300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>142500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>32900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>344500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-376400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-322500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>83500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>4400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>10000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-3900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>110200</v>
+        <v>268100</v>
       </c>
       <c r="E21" s="3">
-        <v>-525300</v>
+        <v>264100</v>
       </c>
       <c r="F21" s="3">
-        <v>545500</v>
+        <v>73100</v>
       </c>
       <c r="G21" s="3">
-        <v>281600</v>
+        <v>-348600</v>
       </c>
       <c r="H21" s="3">
-        <v>551600</v>
+        <v>362000</v>
       </c>
       <c r="I21" s="3">
+        <v>186900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>366000</v>
+      </c>
+      <c r="K21" s="3">
         <v>416600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>656200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>324900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>256500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>287600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>642700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>347500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>463500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>26000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>648600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>301200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>639500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-89300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>346300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>401800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>113500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>117000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>102900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>129500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>101700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>39700</v>
+        <v>27500</v>
       </c>
       <c r="E22" s="3">
-        <v>5300</v>
+        <v>10800</v>
       </c>
       <c r="F22" s="3">
-        <v>11900</v>
+        <v>26400</v>
       </c>
       <c r="G22" s="3">
-        <v>1300</v>
+        <v>3500</v>
       </c>
       <c r="H22" s="3">
-        <v>47900</v>
+        <v>7900</v>
       </c>
       <c r="I22" s="3">
+        <v>900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>31800</v>
+      </c>
+      <c r="K22" s="3">
         <v>28500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>57400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>23500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>35800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>32900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>105000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>50400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>55100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>39200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>58800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>28900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>35600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>23200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>39100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>13000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>6200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>4800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>4400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>6700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>10800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-314400</v>
+        <v>-54000</v>
       </c>
       <c r="E23" s="3">
-        <v>-845400</v>
+        <v>59200</v>
       </c>
       <c r="F23" s="3">
-        <v>159300</v>
+        <v>-208600</v>
       </c>
       <c r="G23" s="3">
-        <v>119900</v>
+        <v>-561000</v>
       </c>
       <c r="H23" s="3">
-        <v>110900</v>
+        <v>105700</v>
       </c>
       <c r="I23" s="3">
+        <v>79600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K23" s="3">
         <v>45300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>207000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>111100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-32500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>79200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>68000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>141100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-236400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>240800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>90700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>368100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-307200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-5600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>250300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>66200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>72300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>59000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>79000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>46000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-132800</v>
+        <v>-65800</v>
       </c>
       <c r="E24" s="3">
-        <v>26800</v>
+        <v>-41700</v>
       </c>
       <c r="F24" s="3">
-        <v>-8300</v>
+        <v>-88100</v>
       </c>
       <c r="G24" s="3">
+        <v>17800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>35500</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K24" s="3">
         <v>22800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>221400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>29300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>47000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>49600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>26600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>21500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>57400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>127900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>66000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>94000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-97200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-68300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>44000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>19600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>25100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>20700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>27500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>6500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2110,174 +2206,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-181600</v>
+        <v>11900</v>
       </c>
       <c r="E26" s="3">
-        <v>-872300</v>
+        <v>100800</v>
       </c>
       <c r="F26" s="3">
-        <v>167600</v>
+        <v>-120500</v>
       </c>
       <c r="G26" s="3">
-        <v>120000</v>
+        <v>-578800</v>
       </c>
       <c r="H26" s="3">
-        <v>75400</v>
+        <v>111200</v>
       </c>
       <c r="I26" s="3">
+        <v>79700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K26" s="3">
         <v>22500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-14400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>81800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-36200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-37300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>29600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>41500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>119600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-293800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>112900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>24700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>274100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-210100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>62700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>206300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>46500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>47200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>38400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>51500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>39500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-185200</v>
+        <v>9900</v>
       </c>
       <c r="E27" s="3">
-        <v>-874900</v>
+        <v>98300</v>
       </c>
       <c r="F27" s="3">
-        <v>164300</v>
+        <v>-122900</v>
       </c>
       <c r="G27" s="3">
-        <v>118900</v>
+        <v>-580600</v>
       </c>
       <c r="H27" s="3">
-        <v>69900</v>
+        <v>109100</v>
       </c>
       <c r="I27" s="3">
+        <v>78900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K27" s="3">
         <v>20100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-17300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>79400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-38200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-39100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>26300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>40000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>116000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-295200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>110800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>23800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>270100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-210000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>61500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>205800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>45600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>46500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>38100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>51200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>39400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2359,8 +2473,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2442,8 +2562,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2525,8 +2651,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2608,174 +2740,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14900</v>
+        <v>-31600</v>
       </c>
       <c r="E32" s="3">
-        <v>-126400</v>
+        <v>-80900</v>
       </c>
       <c r="F32" s="3">
-        <v>-216100</v>
+        <v>9900</v>
       </c>
       <c r="G32" s="3">
-        <v>-114900</v>
+        <v>-83900</v>
       </c>
       <c r="H32" s="3">
-        <v>-191500</v>
+        <v>-143400</v>
       </c>
       <c r="I32" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-127100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-110200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-218600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-85700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>3400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>34300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-27900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-178000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>253300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-142500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-32900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-344500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>376400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>322500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-83500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>4400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-10000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>3900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-185200</v>
+        <v>9900</v>
       </c>
       <c r="E33" s="3">
-        <v>-874900</v>
+        <v>98300</v>
       </c>
       <c r="F33" s="3">
-        <v>164300</v>
+        <v>-122900</v>
       </c>
       <c r="G33" s="3">
-        <v>118900</v>
+        <v>-580600</v>
       </c>
       <c r="H33" s="3">
-        <v>69900</v>
+        <v>109100</v>
       </c>
       <c r="I33" s="3">
+        <v>78900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K33" s="3">
         <v>20100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-17300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>79400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-38200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-39100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>26300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>40000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>116000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-295200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>110800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>23800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>270100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-210000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>61500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>205800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>45600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>46500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>38100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>51200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>39400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2857,179 +3007,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-185200</v>
+        <v>9900</v>
       </c>
       <c r="E35" s="3">
-        <v>-874900</v>
+        <v>98300</v>
       </c>
       <c r="F35" s="3">
-        <v>164300</v>
+        <v>-122900</v>
       </c>
       <c r="G35" s="3">
-        <v>118900</v>
+        <v>-580600</v>
       </c>
       <c r="H35" s="3">
-        <v>69900</v>
+        <v>109100</v>
       </c>
       <c r="I35" s="3">
+        <v>78900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K35" s="3">
         <v>20100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-17300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>79400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-38200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-39100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>26300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>40000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>116000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-295200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>110800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>23800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>270100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-210000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>61500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>205800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>45600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>46500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>38100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>51200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>39400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3059,8 +3227,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3090,755 +3260,811 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>172600</v>
+        <v>174200</v>
       </c>
       <c r="E41" s="3">
-        <v>141900</v>
+        <v>119000</v>
       </c>
       <c r="F41" s="3">
-        <v>92700</v>
+        <v>114500</v>
       </c>
       <c r="G41" s="3">
-        <v>92700</v>
+        <v>94200</v>
       </c>
       <c r="H41" s="3">
-        <v>166600</v>
+        <v>61500</v>
       </c>
       <c r="I41" s="3">
+        <v>61500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>110600</v>
+      </c>
+      <c r="K41" s="3">
         <v>73600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>70700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>157900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>174500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>153500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>451800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>349200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>345500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>398400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>199200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>167000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>211900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>132100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>115000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>129700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>64900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>142200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>80100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>41500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>103300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36100</v>
+        <v>55000</v>
       </c>
       <c r="E42" s="3">
-        <v>27000</v>
+        <v>143400</v>
       </c>
       <c r="F42" s="3">
+        <v>23900</v>
+      </c>
+      <c r="G42" s="3">
+        <v>17900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>13700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>71700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K42" s="3">
+        <v>35400</v>
+      </c>
+      <c r="L42" s="3">
+        <v>148800</v>
+      </c>
+      <c r="M42" s="3">
+        <v>27100</v>
+      </c>
+      <c r="N42" s="3">
+        <v>48700</v>
+      </c>
+      <c r="O42" s="3">
+        <v>131700</v>
+      </c>
+      <c r="P42" s="3">
         <v>20700</v>
       </c>
-      <c r="G42" s="3">
-        <v>108100</v>
-      </c>
-      <c r="H42" s="3">
-        <v>90600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>35400</v>
-      </c>
-      <c r="J42" s="3">
-        <v>148800</v>
-      </c>
-      <c r="K42" s="3">
-        <v>27100</v>
-      </c>
-      <c r="L42" s="3">
-        <v>48700</v>
-      </c>
-      <c r="M42" s="3">
-        <v>131700</v>
-      </c>
-      <c r="N42" s="3">
-        <v>20700</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>8000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>5800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>13300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>20300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>22700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>28600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>89800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>71200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>50600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>78600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>44500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>37200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>112600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>45800</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>222700</v>
+        <v>239300</v>
       </c>
       <c r="E43" s="3">
-        <v>158200</v>
+        <v>185800</v>
       </c>
       <c r="F43" s="3">
-        <v>140500</v>
+        <v>147800</v>
       </c>
       <c r="G43" s="3">
-        <v>130600</v>
+        <v>105000</v>
       </c>
       <c r="H43" s="3">
-        <v>220900</v>
+        <v>93200</v>
       </c>
       <c r="I43" s="3">
+        <v>86700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>146600</v>
+      </c>
+      <c r="K43" s="3">
         <v>95000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>101400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>136000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>228900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>147400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>187400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>225700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>275200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>219500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>198900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>239000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>439500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>233200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>241900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>201100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>219600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>192400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>188200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>221100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>208600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>222000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>27800</v>
+        <v>29700</v>
       </c>
       <c r="E44" s="3">
-        <v>21800</v>
+        <v>24800</v>
       </c>
       <c r="F44" s="3">
-        <v>20800</v>
+        <v>18400</v>
       </c>
       <c r="G44" s="3">
-        <v>9700</v>
+        <v>14500</v>
       </c>
       <c r="H44" s="3">
-        <v>26200</v>
+        <v>13800</v>
       </c>
       <c r="I44" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K44" s="3">
         <v>14400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>14300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>19300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>35100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>22400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>21400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>29700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>44200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>36700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>35000</v>
-      </c>
-      <c r="S44" s="3">
-        <v>38400</v>
-      </c>
-      <c r="T44" s="3">
-        <v>57100</v>
       </c>
       <c r="U44" s="3">
         <v>38400</v>
       </c>
       <c r="V44" s="3">
+        <v>57100</v>
+      </c>
+      <c r="W44" s="3">
+        <v>38400</v>
+      </c>
+      <c r="X44" s="3">
         <v>39300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>33300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>42500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>44800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>28700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>32200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>33500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27700</v>
+        <v>27300</v>
       </c>
       <c r="E45" s="3">
-        <v>30400</v>
+        <v>27800</v>
       </c>
       <c r="F45" s="3">
-        <v>34300</v>
+        <v>18400</v>
       </c>
       <c r="G45" s="3">
-        <v>32000</v>
+        <v>20100</v>
       </c>
       <c r="H45" s="3">
-        <v>42900</v>
+        <v>22800</v>
       </c>
       <c r="I45" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K45" s="3">
         <v>17900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>16800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>14500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>14600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>14000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>23200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>26200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>15900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>15800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>15300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>17900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>31000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>22600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>22200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>22100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>12700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>14900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>16500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>19600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>16200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>486900</v>
+        <v>525500</v>
       </c>
       <c r="E46" s="3">
-        <v>379300</v>
+        <v>500800</v>
       </c>
       <c r="F46" s="3">
-        <v>309100</v>
+        <v>323100</v>
       </c>
       <c r="G46" s="3">
-        <v>373100</v>
+        <v>251700</v>
       </c>
       <c r="H46" s="3">
-        <v>547000</v>
+        <v>205100</v>
       </c>
       <c r="I46" s="3">
+        <v>247600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>363000</v>
+      </c>
+      <c r="K46" s="3">
         <v>236300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>352100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>354800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>501700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>469100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>704400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>638800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>685800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>683700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>468700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>485000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>699100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>516100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>489600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>436800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>418400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>438700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>350600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>426900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>407400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>324600</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>42200</v>
+        <v>49500</v>
       </c>
       <c r="E47" s="3">
-        <v>32000</v>
+        <v>35100</v>
       </c>
       <c r="F47" s="3">
-        <v>25500</v>
+        <v>28000</v>
       </c>
       <c r="G47" s="3">
-        <v>21300</v>
+        <v>21200</v>
       </c>
       <c r="H47" s="3">
-        <v>36800</v>
+        <v>16900</v>
       </c>
       <c r="I47" s="3">
+        <v>14200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K47" s="3">
         <v>17500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>15700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>21100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>38200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>27200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>36500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>40700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>53500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>40000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>63300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>77400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>250700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>89200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>72800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>54000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>77900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>116300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>102000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>35400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>34100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AE47" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3688200</v>
+        <v>3485000</v>
       </c>
       <c r="E48" s="3">
-        <v>3173800</v>
+        <v>2905500</v>
       </c>
       <c r="F48" s="3">
-        <v>2674700</v>
+        <v>2447400</v>
       </c>
       <c r="G48" s="3">
-        <v>2345700</v>
+        <v>2106100</v>
       </c>
       <c r="H48" s="3">
-        <v>4068400</v>
+        <v>1774800</v>
       </c>
       <c r="I48" s="3">
+        <v>1556600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2699700</v>
+      </c>
+      <c r="K48" s="3">
         <v>1891900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1777100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1896100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3189500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2206700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2594600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2681200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3450500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2371500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2102300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2139500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>5958500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1323300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1513900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1432000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>654700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>604100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>567200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>615900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>606500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>575800</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3230600</v>
+        <v>3178300</v>
       </c>
       <c r="E49" s="3">
-        <v>2778200</v>
+        <v>2587900</v>
       </c>
       <c r="F49" s="3">
-        <v>3028600</v>
+        <v>2143800</v>
       </c>
       <c r="G49" s="3">
-        <v>2595100</v>
+        <v>1843600</v>
       </c>
       <c r="H49" s="3">
-        <v>4392700</v>
+        <v>2009700</v>
       </c>
       <c r="I49" s="3">
+        <v>1722000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2914900</v>
+      </c>
+      <c r="K49" s="3">
         <v>2061900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1897900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1993600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3352500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2339400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2760600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2843800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3615200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2580300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2374400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2467700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>4866900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1441900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1751000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1755000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>162800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>165000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>169300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>193400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>198800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3920,8 +4146,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4003,91 +4235,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3900</v>
+        <v>2700</v>
       </c>
       <c r="E52" s="3">
-        <v>7400</v>
+        <v>2900</v>
       </c>
       <c r="F52" s="3">
-        <v>7400</v>
+        <v>2600</v>
       </c>
       <c r="G52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="L52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="R52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U52" s="3">
+        <v>4100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>10800</v>
+      </c>
+      <c r="W52" s="3">
+        <v>7000</v>
+      </c>
+      <c r="X52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>10600</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>7300</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>7200</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>7500</v>
+      </c>
+      <c r="AC52" s="3">
         <v>7700</v>
       </c>
-      <c r="H52" s="3">
-        <v>14000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>9800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N52" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>3400</v>
-      </c>
-      <c r="P52" s="3">
-        <v>2900</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>2000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>2100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>4100</v>
-      </c>
-      <c r="T52" s="3">
-        <v>10800</v>
-      </c>
-      <c r="U52" s="3">
-        <v>7000</v>
-      </c>
-      <c r="V52" s="3">
-        <v>12900</v>
-      </c>
-      <c r="W52" s="3">
-        <v>10600</v>
-      </c>
-      <c r="X52" s="3">
-        <v>7300</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>7200</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>7500</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>7700</v>
-      </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>7600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4169,91 +4413,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7451900</v>
+        <v>7240900</v>
       </c>
       <c r="E54" s="3">
-        <v>6370800</v>
+        <v>6032200</v>
       </c>
       <c r="F54" s="3">
-        <v>6045200</v>
+        <v>4944900</v>
       </c>
       <c r="G54" s="3">
-        <v>5343000</v>
+        <v>4227500</v>
       </c>
       <c r="H54" s="3">
-        <v>9058800</v>
+        <v>4011400</v>
       </c>
       <c r="I54" s="3">
+        <v>3545500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>6011200</v>
+      </c>
+      <c r="K54" s="3">
         <v>4217400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4048900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4268100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7083400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5044000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6098400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6207900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7808000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5677500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5010800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5173700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>7760300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3377400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3840200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3688400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1321100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1331300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1196700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1279400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1254400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>1125600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4283,8 +4539,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4314,506 +4572,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>384700</v>
+        <v>386300</v>
       </c>
       <c r="E57" s="3">
-        <v>267100</v>
+        <v>306400</v>
       </c>
       <c r="F57" s="3">
-        <v>247500</v>
+        <v>255300</v>
       </c>
       <c r="G57" s="3">
-        <v>194400</v>
+        <v>177200</v>
       </c>
       <c r="H57" s="3">
-        <v>413300</v>
+        <v>164300</v>
       </c>
       <c r="I57" s="3">
+        <v>129000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>274300</v>
+      </c>
+      <c r="K57" s="3">
         <v>189400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>185000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>220600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>370700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>245400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>263300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>306000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>431700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>315900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>249200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>262700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>477100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>327800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>313100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>267300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>263400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>244500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>228600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>236000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>235100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>254700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>472300</v>
+        <v>585500</v>
       </c>
       <c r="E58" s="3">
-        <v>345900</v>
+        <v>439800</v>
       </c>
       <c r="F58" s="3">
-        <v>299200</v>
+        <v>313400</v>
       </c>
       <c r="G58" s="3">
-        <v>286900</v>
+        <v>229500</v>
       </c>
       <c r="H58" s="3">
-        <v>459000</v>
+        <v>198500</v>
       </c>
       <c r="I58" s="3">
+        <v>190400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>304600</v>
+      </c>
+      <c r="K58" s="3">
         <v>246100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>191400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>298300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>205800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>638000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>365300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>378400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>260400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>235700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>167600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>341700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>679200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>554200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>401400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>57000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>33500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>23200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>19000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>81500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>385700</v>
+        <v>318400</v>
       </c>
       <c r="E59" s="3">
-        <v>460200</v>
+        <v>283100</v>
       </c>
       <c r="F59" s="3">
-        <v>386700</v>
+        <v>255900</v>
       </c>
       <c r="G59" s="3">
-        <v>326300</v>
+        <v>305400</v>
       </c>
       <c r="H59" s="3">
-        <v>517900</v>
+        <v>256600</v>
       </c>
       <c r="I59" s="3">
+        <v>216600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>343600</v>
+      </c>
+      <c r="K59" s="3">
         <v>215100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>165500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>173000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>335700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>232000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>278000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>240300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>351100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>228800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>187000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>237100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>296900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>151600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>166300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>215400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>184000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>192600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>159200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>163200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>115700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1242600</v>
+        <v>1290100</v>
       </c>
       <c r="E60" s="3">
-        <v>1073200</v>
+        <v>1029400</v>
       </c>
       <c r="F60" s="3">
-        <v>933400</v>
+        <v>824600</v>
       </c>
       <c r="G60" s="3">
-        <v>807600</v>
+        <v>712200</v>
       </c>
       <c r="H60" s="3">
-        <v>1390200</v>
+        <v>619400</v>
       </c>
       <c r="I60" s="3">
+        <v>535900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>922500</v>
+      </c>
+      <c r="K60" s="3">
         <v>650700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>541900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>593900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>998900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>683200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1179300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>911500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1161200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>805000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>671900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>667400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1115700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1158600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1033600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>884200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>504400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>470600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>410900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>418200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>432300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>564500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1528000</v>
+        <v>1416300</v>
       </c>
       <c r="E61" s="3">
-        <v>1358600</v>
+        <v>1182500</v>
       </c>
       <c r="F61" s="3">
-        <v>1121800</v>
+        <v>1013900</v>
       </c>
       <c r="G61" s="3">
-        <v>999100</v>
+        <v>901500</v>
       </c>
       <c r="H61" s="3">
-        <v>1803700</v>
+        <v>744400</v>
       </c>
       <c r="I61" s="3">
+        <v>663000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1196900</v>
+      </c>
+      <c r="K61" s="3">
         <v>836900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>854100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>914500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1559400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1026000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1007600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1287700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1625800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1264000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>829100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>918600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1237300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>517600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>470600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>329000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>207400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>206300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>179900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>220400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>226400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1179200</v>
+        <v>1067400</v>
       </c>
       <c r="E62" s="3">
-        <v>905100</v>
+        <v>912500</v>
       </c>
       <c r="F62" s="3">
-        <v>777700</v>
+        <v>782500</v>
       </c>
       <c r="G62" s="3">
-        <v>689600</v>
+        <v>600600</v>
       </c>
       <c r="H62" s="3">
-        <v>1248400</v>
+        <v>516000</v>
       </c>
       <c r="I62" s="3">
+        <v>457600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>828400</v>
+      </c>
+      <c r="K62" s="3">
         <v>606800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>571800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>522600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>862600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>594800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>671400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>681400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>835000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>572500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>477300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>419700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>681300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>195800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>316300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>338700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>61500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>63700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>63600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>70500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>75400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4895,8 +5191,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4978,8 +5280,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5061,91 +5369,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4019600</v>
+        <v>3848100</v>
       </c>
       <c r="E66" s="3">
-        <v>3393000</v>
+        <v>3182600</v>
       </c>
       <c r="F66" s="3">
-        <v>2879600</v>
+        <v>2667300</v>
       </c>
       <c r="G66" s="3">
-        <v>2538600</v>
+        <v>2251500</v>
       </c>
       <c r="H66" s="3">
-        <v>4514200</v>
+        <v>1910800</v>
       </c>
       <c r="I66" s="3">
+        <v>1684500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2995500</v>
+      </c>
+      <c r="K66" s="3">
         <v>2127700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1998800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2068600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3481200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2345000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2905500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2930000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3687900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2687600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2015800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2049600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3049000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1911800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1858700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1585600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>791500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>756400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>669100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>722600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>748200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5175,8 +5495,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5258,8 +5580,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5341,8 +5669,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5424,8 +5758,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5507,91 +5847,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-544900</v>
+        <v>599300</v>
       </c>
       <c r="E72" s="3">
-        <v>-411400</v>
+        <v>-360700</v>
       </c>
       <c r="F72" s="3">
-        <v>380000</v>
+        <v>-361600</v>
       </c>
       <c r="G72" s="3">
-        <v>349900</v>
+        <v>-273000</v>
       </c>
       <c r="H72" s="3">
-        <v>417000</v>
+        <v>252100</v>
       </c>
       <c r="I72" s="3">
+        <v>232200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>276700</v>
+      </c>
+      <c r="K72" s="3">
         <v>157000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>276800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>275400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>388000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>462300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>572100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>486800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>582800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>498300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>734800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>780000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1156900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-147800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>46000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>187300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>224700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>53500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>127500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>275800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>225100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5673,8 +6025,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5756,8 +6114,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5839,91 +6203,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3432200</v>
+        <v>3392800</v>
       </c>
       <c r="E76" s="3">
-        <v>2977800</v>
+        <v>2849700</v>
       </c>
       <c r="F76" s="3">
-        <v>3165600</v>
+        <v>2277500</v>
       </c>
       <c r="G76" s="3">
-        <v>2804400</v>
+        <v>1976000</v>
       </c>
       <c r="H76" s="3">
-        <v>4544500</v>
+        <v>2100600</v>
       </c>
       <c r="I76" s="3">
+        <v>1860900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3015600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2089700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2050100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2199400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3602300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2698900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3192900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3277900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4120100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2990000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2995100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3124100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4711300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1465600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1981400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2102800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>529600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>574900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>527600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>556800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>506200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6005,179 +6381,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-185200</v>
+        <v>9900</v>
       </c>
       <c r="E81" s="3">
-        <v>-874900</v>
+        <v>98300</v>
       </c>
       <c r="F81" s="3">
-        <v>164300</v>
+        <v>-122900</v>
       </c>
       <c r="G81" s="3">
-        <v>118900</v>
+        <v>-580600</v>
       </c>
       <c r="H81" s="3">
-        <v>69900</v>
+        <v>109100</v>
       </c>
       <c r="I81" s="3">
+        <v>78900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K81" s="3">
         <v>20100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-17300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>79400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-38200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-39100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>26300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>40000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>116000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-295200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>110800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>23800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>270100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-210000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>61500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>205800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>45600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>46500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>38100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>51200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>39400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6207,91 +6601,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>384800</v>
+        <v>294600</v>
       </c>
       <c r="E83" s="3">
-        <v>314800</v>
+        <v>194100</v>
       </c>
       <c r="F83" s="3">
-        <v>374300</v>
+        <v>255400</v>
       </c>
       <c r="G83" s="3">
-        <v>160400</v>
+        <v>208900</v>
       </c>
       <c r="H83" s="3">
-        <v>392800</v>
+        <v>248400</v>
       </c>
       <c r="I83" s="3">
+        <v>106400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>260600</v>
+      </c>
+      <c r="K83" s="3">
         <v>342700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>391800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>190300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>253200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>244900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>458400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>229100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>267300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>223200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>349100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>181600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>235800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>194700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>312700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>138500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>41200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>39900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>39400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>43800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>44800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6373,8 +6775,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6456,8 +6864,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6539,8 +6953,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6622,8 +7042,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6705,91 +7131,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>359300</v>
+        <v>231600</v>
       </c>
       <c r="E89" s="3">
-        <v>236600</v>
+        <v>152000</v>
       </c>
       <c r="F89" s="3">
-        <v>326500</v>
+        <v>238400</v>
       </c>
       <c r="G89" s="3">
-        <v>158400</v>
+        <v>157000</v>
       </c>
       <c r="H89" s="3">
-        <v>378000</v>
+        <v>216700</v>
       </c>
       <c r="I89" s="3">
+        <v>105100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>250800</v>
+      </c>
+      <c r="K89" s="3">
         <v>315500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>398200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>213300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>258500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>279900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>652600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>228200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>350400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>314600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>508500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>284000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>172000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>171200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>436500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>223700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>86300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>109200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>120200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>145800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>131100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>82400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6819,91 +7257,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35599000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18540000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-46181000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-32660000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-20859000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-22775000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-55524000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-40211000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-29534000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-71900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-121900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-79600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-200400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-108600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-178700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-107700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-229400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-95600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-241000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-125700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-207500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-93200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-66600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-70300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-55000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-68700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-84100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-80400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6985,8 +7431,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7068,91 +7520,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-223700</v>
+        <v>-164400</v>
       </c>
       <c r="E94" s="3">
-        <v>-175500</v>
+        <v>-175300</v>
       </c>
       <c r="F94" s="3">
-        <v>-315700</v>
+        <v>-148400</v>
       </c>
       <c r="G94" s="3">
-        <v>-163100</v>
+        <v>-116400</v>
       </c>
       <c r="H94" s="3">
-        <v>-131500</v>
+        <v>-209500</v>
       </c>
       <c r="I94" s="3">
+        <v>-108200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-110500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-254200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-69000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-224300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-172000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-216600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-114800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-168300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-82000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-219500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-84800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-176800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-127800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-146100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-40600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-57300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-89000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-63500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-134800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-114300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>-80300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7182,91 +7646,99 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-2600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-1900</v>
+        <v>-500</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1700</v>
+        <v>-1300</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1400</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-203500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-88300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-73100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-135900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-2200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-395900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-395900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-95800</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-400</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7348,8 +7820,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7431,8 +7909,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7514,253 +7998,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-138100</v>
+        <v>-44300</v>
       </c>
       <c r="E100" s="3">
-        <v>-33300</v>
+        <v>7200</v>
       </c>
       <c r="F100" s="3">
-        <v>-26100</v>
+        <v>-91600</v>
       </c>
       <c r="G100" s="3">
-        <v>4000</v>
+        <v>-22100</v>
       </c>
       <c r="H100" s="3">
-        <v>-36100</v>
+        <v>-17300</v>
       </c>
       <c r="I100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-38000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-13400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-13100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-230000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-43000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>44400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-238900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>28300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-39600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-22300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-108900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-2800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-105200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-61500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-109400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>42500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-15000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-71400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>72500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8600</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="F101" s="3">
-        <v>-8500</v>
+        <v>5700</v>
       </c>
       <c r="G101" s="3">
-        <v>-6000</v>
+        <v>-2800</v>
       </c>
       <c r="H101" s="3">
-        <v>-2200</v>
+        <v>-5600</v>
       </c>
       <c r="I101" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-4600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>4700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>14800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>24500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>30700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-15700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>11400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>22600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>27300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>36700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>6800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>3100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>2100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>4400</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6100</v>
+        <v>22100</v>
       </c>
       <c r="E102" s="3">
-        <v>23600</v>
+        <v>-20500</v>
       </c>
       <c r="F102" s="3">
-        <v>-23700</v>
+        <v>4100</v>
       </c>
       <c r="G102" s="3">
-        <v>-6600</v>
+        <v>15700</v>
       </c>
       <c r="H102" s="3">
-        <v>800</v>
+        <v>-15800</v>
       </c>
       <c r="I102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-6500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-29300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>82900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-38100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-294000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>277500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>107900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-178000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>258200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>152900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>107900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-69700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>41900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>43400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>80400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-77200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>62100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>43700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-61800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>93600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-3100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>TEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,391 +665,403 @@
     <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>718900</v>
+        <v>943500</v>
       </c>
       <c r="E8" s="3">
-        <v>760500</v>
+        <v>1973600</v>
       </c>
       <c r="F8" s="3">
-        <v>738500</v>
+        <v>752500</v>
       </c>
       <c r="G8" s="3">
-        <v>424000</v>
+        <v>730800</v>
       </c>
       <c r="H8" s="3">
-        <v>923000</v>
+        <v>419500</v>
       </c>
       <c r="I8" s="3">
-        <v>393800</v>
+        <v>913300</v>
       </c>
       <c r="J8" s="3">
+        <v>389600</v>
+      </c>
+      <c r="K8" s="3">
         <v>836800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>759300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1551900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>749400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>859600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>743900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1978500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>985400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1036700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>769800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1590200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>854800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1094000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>779500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1991100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>881600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>412800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>384000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>363400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>385900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>378900</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>351500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>205800</v>
+        <v>254500</v>
       </c>
       <c r="E9" s="3">
-        <v>195000</v>
+        <v>534600</v>
       </c>
       <c r="F9" s="3">
-        <v>201500</v>
+        <v>192900</v>
       </c>
       <c r="G9" s="3">
-        <v>115600</v>
+        <v>199400</v>
       </c>
       <c r="H9" s="3">
-        <v>242500</v>
+        <v>114400</v>
       </c>
       <c r="I9" s="3">
-        <v>99100</v>
+        <v>239900</v>
       </c>
       <c r="J9" s="3">
+        <v>98100</v>
+      </c>
+      <c r="K9" s="3">
         <v>229500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>204700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>428700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>203000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>232200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>179700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>477600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>248700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>281000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>206200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>411800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>222500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>288000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>206800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>441500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>156600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>70700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>65400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>58000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>58300</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>65600</v>
       </c>
       <c r="AE9" s="3">
         <v>65600</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>65600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>513100</v>
+        <v>689100</v>
       </c>
       <c r="E10" s="3">
-        <v>565500</v>
+        <v>1438900</v>
       </c>
       <c r="F10" s="3">
-        <v>537000</v>
+        <v>559600</v>
       </c>
       <c r="G10" s="3">
-        <v>308400</v>
+        <v>531400</v>
       </c>
       <c r="H10" s="3">
-        <v>680500</v>
+        <v>305100</v>
       </c>
       <c r="I10" s="3">
-        <v>294600</v>
+        <v>673400</v>
       </c>
       <c r="J10" s="3">
+        <v>291500</v>
+      </c>
+      <c r="K10" s="3">
         <v>607300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>554600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1123300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>546500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>627400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>564200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1500900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>736700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>755700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>563600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1178500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>632300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>806000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>572700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1549600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>725000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>342100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>318700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>305400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>327600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>313200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>285900</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1081,8 +1093,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1170,8 +1183,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1259,186 +1275,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>15200</v>
+        <v>6300</v>
       </c>
       <c r="E14" s="3">
-        <v>5800</v>
+        <v>27100</v>
       </c>
       <c r="F14" s="3">
-        <v>119200</v>
+        <v>5700</v>
       </c>
       <c r="G14" s="3">
-        <v>594300</v>
+        <v>118000</v>
       </c>
       <c r="H14" s="3">
-        <v>24500</v>
+        <v>588000</v>
       </c>
       <c r="I14" s="3">
+        <v>24200</v>
+      </c>
+      <c r="J14" s="3">
         <v>8900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>22600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>22000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>25200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>40100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>7300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>23100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>6100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>73400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>59000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>10400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>3100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>5900</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>2000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>248400</v>
+        <v>334200</v>
       </c>
       <c r="E15" s="3">
-        <v>240200</v>
+        <v>651900</v>
       </c>
       <c r="F15" s="3">
-        <v>255400</v>
+        <v>237700</v>
       </c>
       <c r="G15" s="3">
-        <v>154300</v>
+        <v>252700</v>
       </c>
       <c r="H15" s="3">
-        <v>303000</v>
+        <v>152700</v>
       </c>
       <c r="I15" s="3">
-        <v>124800</v>
+        <v>299800</v>
       </c>
       <c r="J15" s="3">
+        <v>123500</v>
+      </c>
+      <c r="K15" s="3">
         <v>260600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>256600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>477900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>223200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>253200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>211200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>501000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>254200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>267300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>197300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>375800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>191300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>236800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>163000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>352800</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>151900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>41200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>39900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>39400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>43800</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>44800</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1467,186 +1492,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>776900</v>
+        <v>995900</v>
       </c>
       <c r="E17" s="3">
-        <v>771400</v>
+        <v>2065600</v>
       </c>
       <c r="F17" s="3">
-        <v>910900</v>
+        <v>763300</v>
       </c>
       <c r="G17" s="3">
-        <v>1065300</v>
+        <v>901300</v>
       </c>
       <c r="H17" s="3">
-        <v>952800</v>
+        <v>1054200</v>
       </c>
       <c r="I17" s="3">
-        <v>389500</v>
+        <v>942800</v>
       </c>
       <c r="J17" s="3">
+        <v>385500</v>
+      </c>
+      <c r="K17" s="3">
         <v>858500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>795700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1506200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>853000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>701800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1759900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>894900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1018500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>713700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1433200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>768100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1034800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>687200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1635100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>701800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>341800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>311400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>295500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>310200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>318100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>304300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-58100</v>
+        <v>-52300</v>
       </c>
       <c r="E18" s="3">
-        <v>-10900</v>
+        <v>-92100</v>
       </c>
       <c r="F18" s="3">
-        <v>-172400</v>
+        <v>-10800</v>
       </c>
       <c r="G18" s="3">
-        <v>-641400</v>
+        <v>-170600</v>
       </c>
       <c r="H18" s="3">
-        <v>-29800</v>
+        <v>-634600</v>
       </c>
       <c r="I18" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="J18" s="3">
         <v>4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-21700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-36400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>45700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>48900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>42100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>218600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>90500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>18200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>56100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>157100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>86700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>59200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>92300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>356000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>179800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>71000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>72700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>67900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>75700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>60700</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1678,453 +1710,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>31600</v>
+        <v>93800</v>
       </c>
       <c r="E20" s="3">
-        <v>80900</v>
+        <v>159800</v>
       </c>
       <c r="F20" s="3">
-        <v>-9900</v>
+        <v>80100</v>
       </c>
       <c r="G20" s="3">
-        <v>83900</v>
+        <v>-9800</v>
       </c>
       <c r="H20" s="3">
-        <v>143400</v>
+        <v>83000</v>
       </c>
       <c r="I20" s="3">
-        <v>76200</v>
+        <v>141900</v>
       </c>
       <c r="J20" s="3">
+        <v>75400</v>
+      </c>
+      <c r="K20" s="3">
         <v>127100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>110200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>218600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>85700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-34300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>27900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>178000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-253300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>142500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>32900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>344500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-376400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-322500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>83500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>4400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-4400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>10000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-3900</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-3600</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>268100</v>
+        <v>544100</v>
       </c>
       <c r="E21" s="3">
-        <v>264100</v>
+        <v>551200</v>
       </c>
       <c r="F21" s="3">
-        <v>73100</v>
+        <v>261300</v>
       </c>
       <c r="G21" s="3">
-        <v>-348600</v>
+        <v>72300</v>
       </c>
       <c r="H21" s="3">
-        <v>362000</v>
+        <v>-344900</v>
       </c>
       <c r="I21" s="3">
-        <v>186900</v>
+        <v>358200</v>
       </c>
       <c r="J21" s="3">
+        <v>184900</v>
+      </c>
+      <c r="K21" s="3">
         <v>366000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>416600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>656200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>324900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>256500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>287600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>642700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>347500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>463500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>26000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>648600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>301200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>639500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-89300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>346300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>401800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>113500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>117000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>102900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>129500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>101700</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>85200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>27500</v>
+        <v>22100</v>
       </c>
       <c r="E22" s="3">
+        <v>60800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>26100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>31800</v>
+      </c>
+      <c r="L22" s="3">
+        <v>28500</v>
+      </c>
+      <c r="M22" s="3">
+        <v>57400</v>
+      </c>
+      <c r="N22" s="3">
+        <v>23500</v>
+      </c>
+      <c r="O22" s="3">
+        <v>35800</v>
+      </c>
+      <c r="P22" s="3">
+        <v>32900</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>105000</v>
+      </c>
+      <c r="R22" s="3">
+        <v>50400</v>
+      </c>
+      <c r="S22" s="3">
+        <v>55100</v>
+      </c>
+      <c r="T22" s="3">
+        <v>39200</v>
+      </c>
+      <c r="U22" s="3">
+        <v>58800</v>
+      </c>
+      <c r="V22" s="3">
+        <v>28900</v>
+      </c>
+      <c r="W22" s="3">
+        <v>35600</v>
+      </c>
+      <c r="X22" s="3">
+        <v>23200</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>39100</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>4800</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="AE22" s="3">
         <v>10800</v>
       </c>
-      <c r="F22" s="3">
-        <v>26400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>7900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>31800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>28500</v>
-      </c>
-      <c r="L22" s="3">
-        <v>57400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>23500</v>
-      </c>
-      <c r="N22" s="3">
-        <v>35800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>32900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>105000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>50400</v>
-      </c>
-      <c r="R22" s="3">
-        <v>55100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>39200</v>
-      </c>
-      <c r="T22" s="3">
-        <v>58800</v>
-      </c>
-      <c r="U22" s="3">
-        <v>28900</v>
-      </c>
-      <c r="V22" s="3">
-        <v>35600</v>
-      </c>
-      <c r="W22" s="3">
-        <v>23200</v>
-      </c>
-      <c r="X22" s="3">
-        <v>39100</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>13000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>6200</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>4800</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>4400</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>6700</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>10800</v>
-      </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>13100</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-54000</v>
+        <v>19400</v>
       </c>
       <c r="E23" s="3">
-        <v>59200</v>
+        <v>6900</v>
       </c>
       <c r="F23" s="3">
-        <v>-208600</v>
+        <v>58500</v>
       </c>
       <c r="G23" s="3">
-        <v>-561000</v>
+        <v>-206400</v>
       </c>
       <c r="H23" s="3">
-        <v>105700</v>
+        <v>-555100</v>
       </c>
       <c r="I23" s="3">
-        <v>79600</v>
+        <v>104600</v>
       </c>
       <c r="J23" s="3">
+        <v>78700</v>
+      </c>
+      <c r="K23" s="3">
         <v>73600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>45300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>207000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>111100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-32500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>79200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>68000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>141100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-236400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>240800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>90700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>368100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-307200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>250300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>66200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>72300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>59000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>79000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>46000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>30500</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-65800</v>
+        <v>-71300</v>
       </c>
       <c r="E24" s="3">
-        <v>-41700</v>
+        <v>-143400</v>
       </c>
       <c r="F24" s="3">
-        <v>-88100</v>
+        <v>-41200</v>
       </c>
       <c r="G24" s="3">
-        <v>17800</v>
+        <v>-87200</v>
       </c>
       <c r="H24" s="3">
+        <v>17600</v>
+      </c>
+      <c r="I24" s="3">
         <v>-5500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>221400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>47000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>49600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>26600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>21500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>57400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>127900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>66000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>94000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-97200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-68300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>44000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>19600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>25100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>20700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>27500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>6500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2212,186 +2260,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11900</v>
+        <v>90700</v>
       </c>
       <c r="E26" s="3">
-        <v>100800</v>
+        <v>150400</v>
       </c>
       <c r="F26" s="3">
-        <v>-120500</v>
+        <v>99800</v>
       </c>
       <c r="G26" s="3">
-        <v>-578800</v>
+        <v>-119300</v>
       </c>
       <c r="H26" s="3">
-        <v>111200</v>
+        <v>-572700</v>
       </c>
       <c r="I26" s="3">
-        <v>79700</v>
+        <v>110000</v>
       </c>
       <c r="J26" s="3">
+        <v>78800</v>
+      </c>
+      <c r="K26" s="3">
         <v>50000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>81800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-36200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-37300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>29600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>119600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-293800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>112900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>24700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>274100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-210100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>62700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>206300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>46500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>47200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>38400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>51500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>39500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>19800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9900</v>
+        <v>85700</v>
       </c>
       <c r="E27" s="3">
-        <v>98300</v>
+        <v>144300</v>
       </c>
       <c r="F27" s="3">
-        <v>-122900</v>
+        <v>97200</v>
       </c>
       <c r="G27" s="3">
-        <v>-580600</v>
+        <v>-121600</v>
       </c>
       <c r="H27" s="3">
-        <v>109100</v>
+        <v>-574500</v>
       </c>
       <c r="I27" s="3">
-        <v>78900</v>
+        <v>107900</v>
       </c>
       <c r="J27" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K27" s="3">
         <v>46400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>79400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-38200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-39100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>116000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-295200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>110800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>23800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>270100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-210000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>61500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>205800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>45600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>46500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>38100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>51200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>39400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2479,8 +2536,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2568,8 +2628,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2657,8 +2720,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2746,186 +2812,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-31600</v>
+        <v>-93800</v>
       </c>
       <c r="E32" s="3">
-        <v>-80900</v>
+        <v>-159800</v>
       </c>
       <c r="F32" s="3">
-        <v>9900</v>
+        <v>-80100</v>
       </c>
       <c r="G32" s="3">
-        <v>-83900</v>
+        <v>9800</v>
       </c>
       <c r="H32" s="3">
-        <v>-143400</v>
+        <v>-83000</v>
       </c>
       <c r="I32" s="3">
-        <v>-76200</v>
+        <v>-141900</v>
       </c>
       <c r="J32" s="3">
+        <v>-75400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-127100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-110200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-218600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-85700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>34300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-27900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-178000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>253300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-142500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-32900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-344500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>376400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>322500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-83500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-4400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>4400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-10000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>3900</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9900</v>
+        <v>85700</v>
       </c>
       <c r="E33" s="3">
-        <v>98300</v>
+        <v>144300</v>
       </c>
       <c r="F33" s="3">
-        <v>-122900</v>
+        <v>97200</v>
       </c>
       <c r="G33" s="3">
-        <v>-580600</v>
+        <v>-121600</v>
       </c>
       <c r="H33" s="3">
-        <v>109100</v>
+        <v>-574500</v>
       </c>
       <c r="I33" s="3">
-        <v>78900</v>
+        <v>107900</v>
       </c>
       <c r="J33" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K33" s="3">
         <v>46400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>79400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-38200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-39100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>40000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>116000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-295200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>110800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>270100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-210000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>61500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>205800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>45600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>46500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>38100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>51200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>39400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3013,191 +3088,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9900</v>
+        <v>85700</v>
       </c>
       <c r="E35" s="3">
-        <v>98300</v>
+        <v>144300</v>
       </c>
       <c r="F35" s="3">
-        <v>-122900</v>
+        <v>97200</v>
       </c>
       <c r="G35" s="3">
-        <v>-580600</v>
+        <v>-121600</v>
       </c>
       <c r="H35" s="3">
-        <v>109100</v>
+        <v>-574500</v>
       </c>
       <c r="I35" s="3">
-        <v>78900</v>
+        <v>107900</v>
       </c>
       <c r="J35" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K35" s="3">
         <v>46400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>79400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-38200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-39100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>40000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>116000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-295200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>110800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>270100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-210000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>61500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>205800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>45600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>46500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>38100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>51200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>39400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3229,8 +3313,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3262,809 +3347,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>174200</v>
+        <v>277800</v>
       </c>
       <c r="E41" s="3">
-        <v>119000</v>
+        <v>172300</v>
       </c>
       <c r="F41" s="3">
-        <v>114500</v>
+        <v>117700</v>
       </c>
       <c r="G41" s="3">
-        <v>94200</v>
+        <v>113300</v>
       </c>
       <c r="H41" s="3">
-        <v>61500</v>
+        <v>93200</v>
       </c>
       <c r="I41" s="3">
-        <v>61500</v>
+        <v>60900</v>
       </c>
       <c r="J41" s="3">
+        <v>60900</v>
+      </c>
+      <c r="K41" s="3">
         <v>110600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>73600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>157900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>174500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>153500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>451800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>349200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>345500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>398400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>199200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>167000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>211900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>132100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>115000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>129700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>64900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>142200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>80100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>41500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>103300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>55000</v>
+        <v>110300</v>
       </c>
       <c r="E42" s="3">
-        <v>143400</v>
+        <v>54400</v>
       </c>
       <c r="F42" s="3">
-        <v>23900</v>
+        <v>141900</v>
       </c>
       <c r="G42" s="3">
-        <v>17900</v>
+        <v>23700</v>
       </c>
       <c r="H42" s="3">
-        <v>13700</v>
+        <v>17700</v>
       </c>
       <c r="I42" s="3">
-        <v>71700</v>
+        <v>13600</v>
       </c>
       <c r="J42" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K42" s="3">
         <v>60100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>35400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>148800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>27100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>48700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>131700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>20700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>5800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>13300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>20300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>22700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>28600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>89800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>71200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>50600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>78600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>44500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>37200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>112600</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>45800</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>20400</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>239300</v>
+        <v>255300</v>
       </c>
       <c r="E43" s="3">
-        <v>185800</v>
+        <v>236800</v>
       </c>
       <c r="F43" s="3">
-        <v>147800</v>
+        <v>183900</v>
       </c>
       <c r="G43" s="3">
-        <v>105000</v>
+        <v>146200</v>
       </c>
       <c r="H43" s="3">
-        <v>93200</v>
+        <v>103900</v>
       </c>
       <c r="I43" s="3">
-        <v>86700</v>
+        <v>92300</v>
       </c>
       <c r="J43" s="3">
+        <v>85800</v>
+      </c>
+      <c r="K43" s="3">
         <v>146600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>95000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>101400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>136000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>228900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>147400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>187400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>225700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>275200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>219500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>198900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>239000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>439500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>233200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>241900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>201100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>219600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>192400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>188200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>221100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>208600</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>222000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>29300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>24500</v>
+      </c>
+      <c r="G44" s="3">
+        <v>18200</v>
+      </c>
+      <c r="H44" s="3">
+        <v>14300</v>
+      </c>
+      <c r="I44" s="3">
+        <v>13600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K44" s="3">
+        <v>17400</v>
+      </c>
+      <c r="L44" s="3">
+        <v>14400</v>
+      </c>
+      <c r="M44" s="3">
+        <v>14300</v>
+      </c>
+      <c r="N44" s="3">
+        <v>19300</v>
+      </c>
+      <c r="O44" s="3">
+        <v>35100</v>
+      </c>
+      <c r="P44" s="3">
+        <v>22400</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>21400</v>
+      </c>
+      <c r="R44" s="3">
         <v>29700</v>
       </c>
-      <c r="E44" s="3">
-        <v>24800</v>
-      </c>
-      <c r="F44" s="3">
-        <v>18400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>14500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>13800</v>
-      </c>
-      <c r="I44" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>17400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>14400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>14300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>19300</v>
-      </c>
-      <c r="N44" s="3">
-        <v>35100</v>
-      </c>
-      <c r="O44" s="3">
-        <v>22400</v>
-      </c>
-      <c r="P44" s="3">
-        <v>21400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>29700</v>
-      </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>44200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>36700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>35000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>38400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>57100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>38400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>39300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>33300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>42500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>44800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>28700</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>32200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>33500</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>58700</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27300</v>
+        <v>26800</v>
       </c>
       <c r="E45" s="3">
-        <v>27800</v>
+        <v>27000</v>
       </c>
       <c r="F45" s="3">
-        <v>18400</v>
+        <v>27600</v>
       </c>
       <c r="G45" s="3">
-        <v>20100</v>
+        <v>18200</v>
       </c>
       <c r="H45" s="3">
-        <v>22800</v>
+        <v>19900</v>
       </c>
       <c r="I45" s="3">
-        <v>21200</v>
+        <v>22500</v>
       </c>
       <c r="J45" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K45" s="3">
         <v>28400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>15800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>15300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>17900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>31000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>22600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>22200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>22100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>12700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>14900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>16500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>19600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>16200</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>525500</v>
+        <v>732500</v>
       </c>
       <c r="E46" s="3">
-        <v>500800</v>
+        <v>519900</v>
       </c>
       <c r="F46" s="3">
-        <v>323100</v>
+        <v>495500</v>
       </c>
       <c r="G46" s="3">
-        <v>251700</v>
+        <v>319700</v>
       </c>
       <c r="H46" s="3">
-        <v>205100</v>
+        <v>249000</v>
       </c>
       <c r="I46" s="3">
-        <v>247600</v>
+        <v>202900</v>
       </c>
       <c r="J46" s="3">
+        <v>245000</v>
+      </c>
+      <c r="K46" s="3">
         <v>363000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>236300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>352100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>354800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>501700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>469100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>704400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>638800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>685800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>683700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>468700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>485000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>699100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>516100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>489600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>436800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>418400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>438700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>350600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>426900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>407400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>324600</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>49500</v>
+        <v>72400</v>
       </c>
       <c r="E47" s="3">
-        <v>35100</v>
+        <v>49000</v>
       </c>
       <c r="F47" s="3">
-        <v>28000</v>
+        <v>34700</v>
       </c>
       <c r="G47" s="3">
-        <v>21200</v>
+        <v>27700</v>
       </c>
       <c r="H47" s="3">
-        <v>16900</v>
+        <v>21000</v>
       </c>
       <c r="I47" s="3">
-        <v>14200</v>
+        <v>16700</v>
       </c>
       <c r="J47" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K47" s="3">
         <v>24400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>17500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>15700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>38200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>27200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>36500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>40700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>53500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>40000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>63300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>77400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>250700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>89200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>72800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>54000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>77900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>116300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>102000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>35400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>34100</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3485000</v>
+        <v>4547200</v>
       </c>
       <c r="E48" s="3">
-        <v>2905500</v>
+        <v>3448500</v>
       </c>
       <c r="F48" s="3">
-        <v>2447400</v>
+        <v>2875000</v>
       </c>
       <c r="G48" s="3">
-        <v>2106100</v>
+        <v>2421700</v>
       </c>
       <c r="H48" s="3">
-        <v>1774800</v>
+        <v>2084000</v>
       </c>
       <c r="I48" s="3">
-        <v>1556600</v>
+        <v>1756200</v>
       </c>
       <c r="J48" s="3">
+        <v>1540200</v>
+      </c>
+      <c r="K48" s="3">
         <v>2699700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1891900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1777100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1896100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3189500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2206700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2594600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2681200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3450500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2371500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2102300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2139500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5958500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1323300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1513900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1432000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>654700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>604100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>567200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>615900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>606500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>575800</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3178300</v>
+        <v>4225200</v>
       </c>
       <c r="E49" s="3">
-        <v>2587900</v>
+        <v>3144900</v>
       </c>
       <c r="F49" s="3">
-        <v>2143800</v>
+        <v>2560800</v>
       </c>
       <c r="G49" s="3">
-        <v>1843600</v>
+        <v>2121300</v>
       </c>
       <c r="H49" s="3">
-        <v>2009700</v>
+        <v>1824200</v>
       </c>
       <c r="I49" s="3">
-        <v>1722000</v>
+        <v>1988600</v>
       </c>
       <c r="J49" s="3">
+        <v>1704000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2914900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2061900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1897900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1993600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3352500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2339400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2760600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2843800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3615200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2580300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2374400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2467700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4866900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1441900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1751000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1755000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>162800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>165000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>169300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>193400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>198800</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>198300</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4152,8 +4265,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4241,97 +4357,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>4900</v>
       </c>
       <c r="H52" s="3">
         <v>4900</v>
       </c>
       <c r="I52" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J52" s="3">
         <v>5100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2400</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1600</v>
       </c>
       <c r="O52" s="3">
         <v>1600</v>
       </c>
       <c r="P52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q52" s="3">
         <v>2300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>12900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>7200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>7500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>7700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>7600</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4419,97 +4541,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7240900</v>
+        <v>9580500</v>
       </c>
       <c r="E54" s="3">
-        <v>6032200</v>
+        <v>7165000</v>
       </c>
       <c r="F54" s="3">
-        <v>4944900</v>
+        <v>5969000</v>
       </c>
       <c r="G54" s="3">
-        <v>4227500</v>
+        <v>4893000</v>
       </c>
       <c r="H54" s="3">
-        <v>4011400</v>
+        <v>4183100</v>
       </c>
       <c r="I54" s="3">
-        <v>3545500</v>
+        <v>3969300</v>
       </c>
       <c r="J54" s="3">
+        <v>3508300</v>
+      </c>
+      <c r="K54" s="3">
         <v>6011200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4217400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4048900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4268100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7083400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5044000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6098400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6207900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7808000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5677500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5010800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5173700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7760300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3377400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3840200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3688400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1321100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1331300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1196700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1279400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1254400</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1125600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4541,8 +4669,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4574,542 +4703,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>386300</v>
+        <v>487100</v>
       </c>
       <c r="E57" s="3">
-        <v>306400</v>
+        <v>382200</v>
       </c>
       <c r="F57" s="3">
-        <v>255300</v>
+        <v>303200</v>
       </c>
       <c r="G57" s="3">
-        <v>177200</v>
+        <v>252600</v>
       </c>
       <c r="H57" s="3">
-        <v>164300</v>
+        <v>175400</v>
       </c>
       <c r="I57" s="3">
-        <v>129000</v>
+        <v>162500</v>
       </c>
       <c r="J57" s="3">
+        <v>127600</v>
+      </c>
+      <c r="K57" s="3">
         <v>274300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>189400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>185000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>220600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>370700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>245400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>263300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>306000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>431700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>315900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>249200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>262700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>477100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>327800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>313100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>267300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>263400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>244500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>228600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>236000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>235100</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>254700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>585500</v>
+        <v>709100</v>
       </c>
       <c r="E58" s="3">
-        <v>439800</v>
+        <v>579400</v>
       </c>
       <c r="F58" s="3">
-        <v>313400</v>
+        <v>435200</v>
       </c>
       <c r="G58" s="3">
-        <v>229500</v>
+        <v>310100</v>
       </c>
       <c r="H58" s="3">
-        <v>198500</v>
+        <v>227100</v>
       </c>
       <c r="I58" s="3">
-        <v>190400</v>
+        <v>196400</v>
       </c>
       <c r="J58" s="3">
+        <v>188400</v>
+      </c>
+      <c r="K58" s="3">
         <v>304600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>246100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>191400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>200300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>298300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>205800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>638000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>365300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>378400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>260400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>235700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>167600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>341700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>679200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>554200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>401400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>57000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>33500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>23200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>19000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>81500</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>205500</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>318400</v>
+        <v>423300</v>
       </c>
       <c r="E59" s="3">
-        <v>283100</v>
+        <v>315000</v>
       </c>
       <c r="F59" s="3">
-        <v>255900</v>
+        <v>280200</v>
       </c>
       <c r="G59" s="3">
-        <v>305400</v>
+        <v>253200</v>
       </c>
       <c r="H59" s="3">
-        <v>256600</v>
+        <v>302200</v>
       </c>
       <c r="I59" s="3">
-        <v>216600</v>
+        <v>253900</v>
       </c>
       <c r="J59" s="3">
+        <v>214300</v>
+      </c>
+      <c r="K59" s="3">
         <v>343600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>215100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>165500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>173000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>335700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>232000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>278000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>240300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>351100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>228800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>187000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>237100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>296900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>151600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>166300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>215400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>184000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>192600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>159200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>163200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>115700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>104300</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1290100</v>
+        <v>1619500</v>
       </c>
       <c r="E60" s="3">
-        <v>1029400</v>
+        <v>1276600</v>
       </c>
       <c r="F60" s="3">
-        <v>824600</v>
+        <v>1018600</v>
       </c>
       <c r="G60" s="3">
-        <v>712200</v>
+        <v>815900</v>
       </c>
       <c r="H60" s="3">
-        <v>619400</v>
+        <v>704700</v>
       </c>
       <c r="I60" s="3">
-        <v>535900</v>
+        <v>612900</v>
       </c>
       <c r="J60" s="3">
+        <v>530300</v>
+      </c>
+      <c r="K60" s="3">
         <v>922500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>650700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>541900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>593900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>998900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>683200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1179300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>911500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1161200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>805000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>671900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>667400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1115700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1158600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1033600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>884200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>504400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>470600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>410900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>418200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>432300</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>564500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1416300</v>
+        <v>1903400</v>
       </c>
       <c r="E61" s="3">
-        <v>1182500</v>
+        <v>1401500</v>
       </c>
       <c r="F61" s="3">
-        <v>1013900</v>
+        <v>1170100</v>
       </c>
       <c r="G61" s="3">
-        <v>901500</v>
+        <v>1003300</v>
       </c>
       <c r="H61" s="3">
-        <v>744400</v>
+        <v>892000</v>
       </c>
       <c r="I61" s="3">
-        <v>663000</v>
+        <v>736600</v>
       </c>
       <c r="J61" s="3">
+        <v>656000</v>
+      </c>
+      <c r="K61" s="3">
         <v>1196900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>836900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>854100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>914500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1559400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1026000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1007600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1287700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1625800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1264000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>829100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>918600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1237300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>517600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>470600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>329000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>207400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>206300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>179900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>220400</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>226400</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1067400</v>
+        <v>1348200</v>
       </c>
       <c r="E62" s="3">
-        <v>912500</v>
+        <v>1056200</v>
       </c>
       <c r="F62" s="3">
-        <v>782500</v>
+        <v>903000</v>
       </c>
       <c r="G62" s="3">
-        <v>600600</v>
+        <v>774300</v>
       </c>
       <c r="H62" s="3">
-        <v>516000</v>
+        <v>594300</v>
       </c>
       <c r="I62" s="3">
-        <v>457600</v>
+        <v>510600</v>
       </c>
       <c r="J62" s="3">
+        <v>452800</v>
+      </c>
+      <c r="K62" s="3">
         <v>828400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>606800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>571800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>522600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>862600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>594800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>671400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>681400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>835000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>572500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>477300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>419700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>681300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>195800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>316300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>338700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>61500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>63700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>63600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>70500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>75400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5197,8 +5345,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5286,8 +5437,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5375,97 +5529,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3848100</v>
+        <v>4968000</v>
       </c>
       <c r="E66" s="3">
-        <v>3182600</v>
+        <v>3807700</v>
       </c>
       <c r="F66" s="3">
-        <v>2667300</v>
+        <v>3149200</v>
       </c>
       <c r="G66" s="3">
-        <v>2251500</v>
+        <v>2639300</v>
       </c>
       <c r="H66" s="3">
-        <v>1910800</v>
+        <v>2227900</v>
       </c>
       <c r="I66" s="3">
-        <v>1684500</v>
+        <v>1890800</v>
       </c>
       <c r="J66" s="3">
+        <v>1666900</v>
+      </c>
+      <c r="K66" s="3">
         <v>2995500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2127700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1998800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2068600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3481200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2345000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2905500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2930000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3687900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2687600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2015800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2049600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3049000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1911800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1858700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1585600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>791500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>756400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>669100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>722600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>748200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>658500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5497,8 +5657,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5586,8 +5747,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5675,8 +5839,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5764,8 +5931,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5853,97 +6023,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>599300</v>
+        <v>885300</v>
       </c>
       <c r="E72" s="3">
-        <v>-360700</v>
+        <v>593100</v>
       </c>
       <c r="F72" s="3">
-        <v>-361600</v>
+        <v>-357000</v>
       </c>
       <c r="G72" s="3">
-        <v>-273000</v>
+        <v>-357800</v>
       </c>
       <c r="H72" s="3">
-        <v>252100</v>
+        <v>-270200</v>
       </c>
       <c r="I72" s="3">
-        <v>232200</v>
+        <v>249500</v>
       </c>
       <c r="J72" s="3">
+        <v>229700</v>
+      </c>
+      <c r="K72" s="3">
         <v>276700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>157000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>276800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>275400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>388000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>462300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>572100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>486800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>582800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>498300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>734800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>780000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1156900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-147800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>46000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>187300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>224700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>53500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>127500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>275800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>225100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>186000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6031,8 +6207,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6120,8 +6299,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6209,97 +6391,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3392800</v>
+        <v>4612600</v>
       </c>
       <c r="E76" s="3">
-        <v>2849700</v>
+        <v>3357200</v>
       </c>
       <c r="F76" s="3">
-        <v>2277500</v>
+        <v>2819800</v>
       </c>
       <c r="G76" s="3">
-        <v>1976000</v>
+        <v>2253600</v>
       </c>
       <c r="H76" s="3">
-        <v>2100600</v>
+        <v>1955200</v>
       </c>
       <c r="I76" s="3">
-        <v>1860900</v>
+        <v>2078600</v>
       </c>
       <c r="J76" s="3">
+        <v>1841400</v>
+      </c>
+      <c r="K76" s="3">
         <v>3015600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2089700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2050100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2199400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3602300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2698900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3192900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3277900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4120100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2990000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2995100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3124100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4711300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1465600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1981400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2102800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>529600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>574900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>527600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>556800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>506200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6387,191 +6575,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9900</v>
+        <v>85700</v>
       </c>
       <c r="E81" s="3">
-        <v>98300</v>
+        <v>144300</v>
       </c>
       <c r="F81" s="3">
-        <v>-122900</v>
+        <v>97200</v>
       </c>
       <c r="G81" s="3">
-        <v>-580600</v>
+        <v>-121600</v>
       </c>
       <c r="H81" s="3">
-        <v>109100</v>
+        <v>-574500</v>
       </c>
       <c r="I81" s="3">
-        <v>78900</v>
+        <v>107900</v>
       </c>
       <c r="J81" s="3">
+        <v>78100</v>
+      </c>
+      <c r="K81" s="3">
         <v>46400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>79400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-38200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-39100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>40000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>116000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-295200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>110800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>270100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-210000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>61500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>205800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>45600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>46500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>38100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>51200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>39400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>19500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6603,97 +6800,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>294600</v>
+        <v>502600</v>
       </c>
       <c r="E83" s="3">
-        <v>194100</v>
+        <v>483500</v>
       </c>
       <c r="F83" s="3">
-        <v>255400</v>
+        <v>192000</v>
       </c>
       <c r="G83" s="3">
-        <v>208900</v>
+        <v>252700</v>
       </c>
       <c r="H83" s="3">
-        <v>248400</v>
+        <v>206700</v>
       </c>
       <c r="I83" s="3">
-        <v>106400</v>
+        <v>245800</v>
       </c>
       <c r="J83" s="3">
+        <v>105300</v>
+      </c>
+      <c r="K83" s="3">
         <v>260600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>342700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>391800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>190300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>253200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>244900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>458400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>229100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>267300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>223200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>349100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>181600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>235800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>194700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>312700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>138500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>41200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>39900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>39400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>43800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>44800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>41700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6781,8 +6982,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6870,8 +7074,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6959,8 +7166,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7048,8 +7258,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7137,97 +7350,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>231600</v>
+        <v>484900</v>
       </c>
       <c r="E89" s="3">
-        <v>152000</v>
+        <v>379600</v>
       </c>
       <c r="F89" s="3">
-        <v>238400</v>
+        <v>150400</v>
       </c>
       <c r="G89" s="3">
-        <v>157000</v>
+        <v>235900</v>
       </c>
       <c r="H89" s="3">
-        <v>216700</v>
+        <v>155400</v>
       </c>
       <c r="I89" s="3">
-        <v>105100</v>
+        <v>214400</v>
       </c>
       <c r="J89" s="3">
+        <v>104000</v>
+      </c>
+      <c r="K89" s="3">
         <v>250800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>315500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>398200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>213300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>258500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>279900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>652600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>228200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>350400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>314600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>508500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>284000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>172000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>171200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>436500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>223700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>86300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>109200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>120200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>145800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>131100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>82400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7259,97 +7478,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-77348000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35599000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18540000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-46181000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-32660000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20859000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22775000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-55524000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40211000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29534000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-71900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-121900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-79600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-108600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-178700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-107700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-229400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-95600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-241000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-125700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-207500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-93200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-66600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-70300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-55000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-68700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-84100</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-80400</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7437,8 +7660,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7526,97 +7752,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-164400</v>
+        <v>-317200</v>
       </c>
       <c r="E94" s="3">
-        <v>-175300</v>
+        <v>-336100</v>
       </c>
       <c r="F94" s="3">
-        <v>-148400</v>
+        <v>-173400</v>
       </c>
       <c r="G94" s="3">
-        <v>-116400</v>
+        <v>-146900</v>
       </c>
       <c r="H94" s="3">
-        <v>-209500</v>
+        <v>-115200</v>
       </c>
       <c r="I94" s="3">
-        <v>-108200</v>
+        <v>-207300</v>
       </c>
       <c r="J94" s="3">
+        <v>-107100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-87200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-110500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-254200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-69000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-224300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-172000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-216600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-114800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-168300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-82000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-219500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-84800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-176800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-127800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-146100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-40600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-57300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-89000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-63500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-134800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-114300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-80300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7648,97 +7880,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-7400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-1700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-1300</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-203500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-88300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-73100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-135900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-2200</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-395900</v>
       </c>
       <c r="Y96" s="3">
         <v>-395900</v>
       </c>
       <c r="Z96" s="3">
+        <v>-395900</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-95800</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-400</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
       <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7826,8 +8062,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7915,8 +8154,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8004,271 +8246,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-44300</v>
+        <v>-129600</v>
       </c>
       <c r="E100" s="3">
-        <v>7200</v>
+        <v>-36800</v>
       </c>
       <c r="F100" s="3">
-        <v>-91600</v>
+        <v>7100</v>
       </c>
       <c r="G100" s="3">
-        <v>-22100</v>
+        <v>-90700</v>
       </c>
       <c r="H100" s="3">
-        <v>-17300</v>
+        <v>-21800</v>
       </c>
       <c r="I100" s="3">
-        <v>2700</v>
+        <v>-17100</v>
       </c>
       <c r="J100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-23900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-38000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-230000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>44400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-238900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>28300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-39600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-108900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-105200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-61500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-109400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>42500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-15000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-71400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>72500</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-900</v>
+        <v>7900</v>
       </c>
       <c r="E101" s="3">
-        <v>-4400</v>
+        <v>-5200</v>
       </c>
       <c r="F101" s="3">
-        <v>5700</v>
+        <v>-4300</v>
       </c>
       <c r="G101" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H101" s="3">
         <v>-2800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>14800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>24500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>30700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-15700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>22600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>27300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>36700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>6800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2100</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>4400</v>
       </c>
-      <c r="AE101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22100</v>
+        <v>46000</v>
       </c>
       <c r="E102" s="3">
-        <v>-20500</v>
+        <v>1600</v>
       </c>
       <c r="F102" s="3">
-        <v>4100</v>
+        <v>-20300</v>
       </c>
       <c r="G102" s="3">
-        <v>15700</v>
+        <v>4000</v>
       </c>
       <c r="H102" s="3">
-        <v>-15800</v>
+        <v>15500</v>
       </c>
       <c r="I102" s="3">
-        <v>-4400</v>
+        <v>-15600</v>
       </c>
       <c r="J102" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-29300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>82900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-38100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-294000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>277500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>107900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-178000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>258200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>152900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>107900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-69700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>41900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>43400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>80400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-77200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>62100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>43700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-61800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>93600</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-3100</v>
       </c>
     </row>
